--- a/dataset/dataset_infec.xlsx
+++ b/dataset/dataset_infec.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octavio\Desktop\Projetos Python\Function Approximator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octavio\Desktop\Projetos Python\Function Approximator\Covid19_data\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="19">
   <si>
     <t>day</t>
   </si>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:A103"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123:XFD123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D48" si="0">LOG(B2,10)</f>
+        <f t="shared" ref="D2:D49" si="0">LOG(B2,10)</f>
         <v>2.1958996524092336</v>
       </c>
       <c r="E2" t="s">
@@ -1120,7 +1120,7 @@
         <v>53578</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29" si="2">(B29-B28)/B28</f>
+        <f t="shared" ref="C29:C30" si="2">(B29-B28)/B28</f>
         <v>0.1394483315965207</v>
       </c>
       <c r="D29">
@@ -1139,1613 +1139,1637 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>59138</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.10377393706372018</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>LOG(B30,10)</f>
+        <v>4.7718666329454056</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F30" s="2">
-        <v>43892</v>
+        <v>43912</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>5476</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
         <v>2</v>
-      </c>
-      <c r="B31">
-        <v>124</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ref="C31:C48" si="3">(B31-B30)/B30</f>
-        <v>0.24</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>2.0934216851622351</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
       </c>
       <c r="F31" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="G31">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>124</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:C49" si="3">(B32-B31)/B31</f>
+        <v>0.24</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>2.0934216851622351</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="2">
+        <v>43893</v>
+      </c>
+      <c r="G32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>3</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>158</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <f t="shared" si="3"/>
         <v>0.27419354838709675</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <f t="shared" si="0"/>
         <v>2.1986570869544226</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33" s="2">
         <v>43894</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>4</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>221</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <f t="shared" si="3"/>
         <v>0.39873417721518989</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <f t="shared" si="0"/>
         <v>2.3443922736851102</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F34" s="2">
         <v>43895</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>5</v>
-      </c>
-      <c r="B34">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
         <v>319</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <f t="shared" si="3"/>
         <v>0.4434389140271493</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <f t="shared" si="0"/>
         <v>2.503790683057181</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F35" s="2">
         <v>43896</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>6</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>435</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <f t="shared" si="3"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <f t="shared" si="0"/>
         <v>2.638489256954637</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F36" s="2">
         <v>43897</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>7</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>541</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <f t="shared" si="3"/>
         <v>0.24367816091954023</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <f t="shared" si="0"/>
         <v>2.7331972651065688</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F37" s="2">
         <v>43898</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>8</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>704</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <f t="shared" si="3"/>
         <v>0.30129390018484287</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <f t="shared" si="0"/>
         <v>2.847572659142112</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F38" s="2">
         <v>43899</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>9</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>994</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <f t="shared" si="3"/>
         <v>0.41193181818181818</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <f t="shared" si="0"/>
         <v>2.9973863843973132</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F39" s="2">
         <v>43900</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>10</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>1301</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <f t="shared" si="3"/>
         <v>0.30885311871227367</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <f t="shared" si="0"/>
         <v>3.1142772965615859</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F40" s="2">
         <v>43901</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>11</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>1697</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <f t="shared" si="3"/>
         <v>0.30438124519600307</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <f t="shared" si="0"/>
         <v>3.2296818423176754</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F41" s="2">
         <v>43902</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>12</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>2247</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <f t="shared" si="3"/>
         <v>0.32410135533294049</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <f t="shared" si="0"/>
         <v>3.3516030724191288</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F42" s="2">
         <v>43903</v>
       </c>
-      <c r="G41">
+      <c r="G42">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>13</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>2943</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <f t="shared" si="3"/>
         <v>0.30974632843791722</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <f t="shared" si="0"/>
         <v>3.4687902620996107</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F43" s="2">
         <v>43904</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>14</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>3680</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <f t="shared" si="3"/>
         <v>0.25042473666326875</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <f t="shared" si="0"/>
         <v>3.5658478186735172</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F44" s="2">
         <v>43905</v>
       </c>
-      <c r="G43">
+      <c r="G44">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>15</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>4663</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <f t="shared" si="3"/>
         <v>0.26711956521739133</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <f t="shared" si="0"/>
         <v>3.6686654154544915</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F45" s="2">
         <v>43906</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>16</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>6411</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <f t="shared" si="3"/>
         <v>0.37486596611623418</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <f t="shared" si="0"/>
         <v>3.8069257768837312</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F46" s="2">
         <v>43907</v>
       </c>
-      <c r="G45">
+      <c r="G46">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>17</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>9259</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <f t="shared" si="3"/>
         <v>0.44423646856964594</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <f t="shared" si="0"/>
         <v>3.96656408409731</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F47" s="2">
         <v>43908</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>18</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>13789</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <f t="shared" si="3"/>
         <v>0.48925369910357491</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <f t="shared" si="0"/>
         <v>4.1395327715979393</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F48" s="2">
         <v>43909</v>
       </c>
-      <c r="G47">
+      <c r="G48">
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>19</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>19383</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <f t="shared" si="3"/>
         <v>0.40568569149321926</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <f t="shared" si="0"/>
         <v>4.287420995759831</v>
-      </c>
-      <c r="E48" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="2">
-        <v>43910</v>
-      </c>
-      <c r="G48">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>20</v>
-      </c>
-      <c r="B49">
-        <v>24207</v>
-      </c>
-      <c r="C49">
-        <f t="shared" ref="C49" si="4">(B49-B48)/B48</f>
-        <v>0.24887788268069957</v>
-      </c>
-      <c r="D49">
-        <f t="shared" ref="D49" si="5">LOG(B49,10)</f>
-        <v>4.3839409701862078</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
       </c>
       <c r="F49" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="G49">
-        <v>302</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B50">
-        <v>120</v>
+        <v>24207</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <f t="shared" ref="C50:C51" si="4">(B50-B49)/B49</f>
+        <v>0.24887788268069957</v>
       </c>
       <c r="D50">
-        <f t="shared" ref="D50:D94" si="6">LOG(B50,10)</f>
-        <v>2.0791812460476247</v>
+        <f t="shared" ref="D50:D51" si="5">LOG(B50,10)</f>
+        <v>4.3839409701862078</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" s="2">
-        <v>43892</v>
+        <v>43911</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>33546</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="4"/>
+        <v>0.38579749659189488</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="5"/>
+        <v>4.5256407426423158</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="2">
+        <v>43912</v>
+      </c>
+      <c r="G51">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>120</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52:D98" si="6">LOG(B52,10)</f>
+        <v>2.0791812460476247</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="2">
+        <v>43892</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>2</v>
       </c>
-      <c r="B51">
+      <c r="B53">
         <v>165</v>
       </c>
-      <c r="C51">
-        <f t="shared" ref="C51:C69" si="7">(B51-B50)/B50</f>
+      <c r="C53">
+        <f t="shared" ref="C53:C71" si="7">(B53-B52)/B52</f>
         <v>0.375</v>
       </c>
-      <c r="D51">
+      <c r="D53">
         <f t="shared" si="6"/>
         <v>2.2174839442139058</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E53" t="s">
         <v>7</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F53" s="2">
         <v>43893</v>
       </c>
-      <c r="G51">
+      <c r="G53">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>3</v>
       </c>
-      <c r="B52">
+      <c r="B54">
         <v>228</v>
       </c>
-      <c r="C52">
+      <c r="C54">
         <f t="shared" si="7"/>
         <v>0.38181818181818183</v>
       </c>
-      <c r="D52">
+      <c r="D54">
         <f t="shared" si="6"/>
         <v>2.3579348470004535</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E54" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F54" s="2">
         <v>43894</v>
       </c>
-      <c r="G52">
+      <c r="G54">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>4</v>
       </c>
-      <c r="B53">
+      <c r="B55">
         <v>282</v>
       </c>
-      <c r="C53">
+      <c r="C55">
         <f t="shared" si="7"/>
         <v>0.23684210526315788</v>
       </c>
-      <c r="D53">
+      <c r="D55">
         <f t="shared" si="6"/>
         <v>2.4502491083193609</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E55" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F55" s="2">
         <v>43895</v>
       </c>
-      <c r="G53">
+      <c r="G55">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>5</v>
-      </c>
-      <c r="B54">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56">
         <v>401</v>
       </c>
-      <c r="C54">
+      <c r="C56">
         <f t="shared" si="7"/>
         <v>0.42198581560283688</v>
       </c>
-      <c r="D54">
+      <c r="D56">
         <f t="shared" si="6"/>
         <v>2.6031443726201822</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E56" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F56" s="2">
         <v>43896</v>
       </c>
-      <c r="G54">
+      <c r="G56">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>6</v>
       </c>
-      <c r="B55">
+      <c r="B57">
         <v>525</v>
       </c>
-      <c r="C55">
+      <c r="C57">
         <f t="shared" si="7"/>
         <v>0.30922693266832918</v>
       </c>
-      <c r="D55">
+      <c r="D57">
         <f t="shared" si="6"/>
         <v>2.7201593034059566</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E57" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F57" s="2">
         <v>43897</v>
       </c>
-      <c r="G55">
+      <c r="G57">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>7</v>
       </c>
-      <c r="B56">
+      <c r="B58">
         <v>674</v>
       </c>
-      <c r="C56">
+      <c r="C58">
         <f t="shared" si="7"/>
         <v>0.28380952380952379</v>
       </c>
-      <c r="D56">
+      <c r="D58">
         <f t="shared" si="6"/>
         <v>2.8286598965353194</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E58" t="s">
         <v>7</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F58" s="2">
         <v>43898</v>
       </c>
-      <c r="G56">
+      <c r="G58">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>8</v>
       </c>
-      <c r="B57">
+      <c r="B59">
         <v>1231</v>
       </c>
-      <c r="C57">
+      <c r="C59">
         <f t="shared" si="7"/>
         <v>0.82640949554896137</v>
       </c>
-      <c r="D57">
+      <c r="D59">
         <f t="shared" si="6"/>
         <v>3.0902580529313162</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E59" t="s">
         <v>7</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F59" s="2">
         <v>43899</v>
       </c>
-      <c r="G57">
+      <c r="G59">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>9</v>
       </c>
-      <c r="B58">
+      <c r="B60">
         <v>1695</v>
       </c>
-      <c r="C58">
+      <c r="C60">
         <f t="shared" si="7"/>
         <v>0.37692932575142163</v>
       </c>
-      <c r="D58">
+      <c r="D60">
         <f t="shared" si="6"/>
         <v>3.2291697025391004</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E60" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F60" s="2">
         <v>43900</v>
       </c>
-      <c r="G58">
+      <c r="G60">
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>10</v>
       </c>
-      <c r="B59">
+      <c r="B61">
         <v>2277</v>
       </c>
-      <c r="C59">
+      <c r="C61">
         <f t="shared" si="7"/>
         <v>0.3433628318584071</v>
       </c>
-      <c r="D59">
+      <c r="D61">
         <f t="shared" si="6"/>
         <v>3.3573630306151423</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E61" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F61" s="2">
         <v>43901</v>
       </c>
-      <c r="G59">
+      <c r="G61">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>11</v>
       </c>
-      <c r="B60">
+      <c r="B62">
         <v>3146</v>
       </c>
-      <c r="C60">
+      <c r="C62">
         <f t="shared" si="7"/>
         <v>0.38164251207729466</v>
       </c>
-      <c r="D60">
+      <c r="D62">
         <f t="shared" si="6"/>
         <v>3.4977587182872676</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E62" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F62" s="2">
         <v>43902</v>
       </c>
-      <c r="G60">
+      <c r="G62">
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>12</v>
       </c>
-      <c r="B61">
+      <c r="B63">
         <v>5232</v>
       </c>
-      <c r="C61">
+      <c r="C63">
         <f t="shared" si="7"/>
         <v>0.66306420851875403</v>
       </c>
-      <c r="D61">
+      <c r="D63">
         <f t="shared" si="6"/>
         <v>3.7186677353162101</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E63" t="s">
         <v>7</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F63" s="2">
         <v>43903</v>
       </c>
-      <c r="G61">
+      <c r="G63">
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>13</v>
       </c>
-      <c r="B62">
+      <c r="B64">
         <v>6391</v>
       </c>
-      <c r="C62">
+      <c r="C64">
         <f t="shared" si="7"/>
         <v>0.22152140672782875</v>
       </c>
-      <c r="D62">
+      <c r="D64">
         <f t="shared" si="6"/>
         <v>3.8055688175485556</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E64" t="s">
         <v>7</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F64" s="2">
         <v>43904</v>
       </c>
-      <c r="G62">
+      <c r="G64">
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>14</v>
       </c>
-      <c r="B63">
+      <c r="B65">
         <v>7988</v>
       </c>
-      <c r="C63">
+      <c r="C65">
         <f t="shared" si="7"/>
         <v>0.24988264747300892</v>
       </c>
-      <c r="D63">
+      <c r="D65">
         <f t="shared" si="6"/>
         <v>3.9024380561986645</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E65" t="s">
         <v>7</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F65" s="2">
         <v>43905</v>
       </c>
-      <c r="G63">
+      <c r="G65">
         <v>294</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>15</v>
       </c>
-      <c r="B64">
+      <c r="B66">
         <v>9942</v>
       </c>
-      <c r="C64">
+      <c r="C66">
         <f t="shared" si="7"/>
         <v>0.24461692538808213</v>
       </c>
-      <c r="D64">
+      <c r="D66">
         <f t="shared" si="6"/>
         <v>3.9974737588029798</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E66" t="s">
         <v>7</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F66" s="2">
         <v>43906</v>
       </c>
-      <c r="G64">
+      <c r="G66">
         <v>342</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>16</v>
       </c>
-      <c r="B65">
+      <c r="B67">
         <v>11826</v>
       </c>
-      <c r="C65">
+      <c r="C67">
         <f t="shared" si="7"/>
         <v>0.18949909474954738</v>
       </c>
-      <c r="D65">
+      <c r="D67">
         <f t="shared" si="6"/>
         <v>4.0728378746630858</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E67" t="s">
         <v>7</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F67" s="2">
         <v>43907</v>
       </c>
-      <c r="G65">
+      <c r="G67">
         <v>533</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>17</v>
       </c>
-      <c r="B66">
+      <c r="B68">
         <v>14769</v>
       </c>
-      <c r="C66">
+      <c r="C68">
         <f t="shared" si="7"/>
         <v>0.24885844748858446</v>
       </c>
-      <c r="D66">
+      <c r="D68">
         <f t="shared" si="6"/>
         <v>4.1693510904924178</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E68" t="s">
         <v>7</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F68" s="2">
         <v>43908</v>
       </c>
-      <c r="G66">
+      <c r="G68">
         <v>638</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>18</v>
       </c>
-      <c r="B67">
+      <c r="B69">
         <v>18077</v>
       </c>
-      <c r="C67">
+      <c r="C69">
         <f t="shared" si="7"/>
         <v>0.22398266639582909</v>
       </c>
-      <c r="D67">
+      <c r="D69">
         <f t="shared" si="6"/>
         <v>4.2571263580225924</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E69" t="s">
         <v>7</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F69" s="2">
         <v>43909</v>
       </c>
-      <c r="G67">
+      <c r="G69">
         <v>831</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>19</v>
       </c>
-      <c r="B68">
+      <c r="B70">
         <v>21571</v>
       </c>
-      <c r="C68">
+      <c r="C70">
         <f t="shared" si="7"/>
         <v>0.19328428389666427</v>
       </c>
-      <c r="D68">
+      <c r="D70">
         <f t="shared" si="6"/>
         <v>4.3338702788260086</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E70" t="s">
         <v>7</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F70" s="2">
         <v>43910</v>
       </c>
-      <c r="G68">
+      <c r="G70">
         <v>1093</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>20</v>
       </c>
-      <c r="B69">
+      <c r="B71">
         <v>25496</v>
       </c>
-      <c r="C69">
+      <c r="C71">
         <f t="shared" si="7"/>
         <v>0.18195725742895555</v>
       </c>
-      <c r="D69">
+      <c r="D71">
         <f t="shared" si="6"/>
         <v>4.406472050465676</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E71" t="s">
         <v>7</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F71" s="2">
         <v>43911</v>
       </c>
-      <c r="G69">
+      <c r="G71">
         <v>1381</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>20</v>
+      </c>
+      <c r="B72">
+        <v>28603</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ref="C72" si="8">(B72-B71)/B71</f>
+        <v>0.12186225290241606</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ref="D72" si="9">LOG(B72,10)</f>
+        <v>4.456411586105177</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="2">
+        <v>43912</v>
+      </c>
+      <c r="G72">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>1</v>
       </c>
-      <c r="B70">
+      <c r="B73">
         <v>151</v>
       </c>
-      <c r="C70">
+      <c r="C73">
         <v>0</v>
       </c>
-      <c r="D70">
+      <c r="D73">
         <f t="shared" si="6"/>
         <v>2.1789769472931693</v>
       </c>
-      <c r="E70" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" s="2">
+      <c r="E73" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="2">
         <v>43904</v>
       </c>
-      <c r="G70">
+      <c r="G73">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>2</v>
       </c>
-      <c r="B71">
+      <c r="B74">
         <v>200</v>
       </c>
-      <c r="C71">
-        <f t="shared" ref="C71:C109" si="8">(B71-B70)/B70</f>
+      <c r="C74">
+        <f t="shared" ref="C74:C114" si="10">(B74-B73)/B73</f>
         <v>0.32450331125827814</v>
       </c>
-      <c r="D71">
+      <c r="D74">
         <f t="shared" si="6"/>
         <v>2.3010299956639808</v>
       </c>
-      <c r="E71" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" s="2">
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="2">
         <v>43905</v>
       </c>
-      <c r="G71">
+      <c r="G74">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>3</v>
       </c>
-      <c r="B72">
+      <c r="B75">
         <v>234</v>
       </c>
-      <c r="C72">
-        <f t="shared" si="8"/>
+      <c r="C75">
+        <f t="shared" si="10"/>
         <v>0.17</v>
       </c>
-      <c r="D72">
+      <c r="D75">
         <f t="shared" si="6"/>
         <v>2.3692158574101425</v>
       </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="2">
+      <c r="E75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="2">
         <v>43906</v>
       </c>
-      <c r="G72">
+      <c r="G75">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>4</v>
       </c>
-      <c r="B73">
+      <c r="B76">
         <v>346</v>
       </c>
-      <c r="C73">
-        <f t="shared" si="8"/>
+      <c r="C76">
+        <f t="shared" si="10"/>
         <v>0.47863247863247865</v>
       </c>
-      <c r="D73">
+      <c r="D76">
         <f t="shared" si="6"/>
         <v>2.5390760987927767</v>
       </c>
-      <c r="E73" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="2">
+      <c r="E76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="2">
         <v>43907</v>
       </c>
-      <c r="G73">
+      <c r="G76">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>5</v>
-      </c>
-      <c r="B74">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="B77">
         <v>529</v>
       </c>
-      <c r="C74">
-        <f t="shared" si="8"/>
+      <c r="C77">
+        <f t="shared" si="10"/>
         <v>0.52890173410404628</v>
       </c>
-      <c r="D74">
+      <c r="D77">
         <f t="shared" si="6"/>
         <v>2.7234556720351857</v>
       </c>
-      <c r="E74" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="2">
+      <c r="E77" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="2">
         <v>43908</v>
       </c>
-      <c r="G74">
+      <c r="G77">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>6</v>
       </c>
-      <c r="B75">
+      <c r="B78">
         <v>640</v>
       </c>
-      <c r="C75">
-        <f t="shared" si="8"/>
+      <c r="C78">
+        <f t="shared" si="10"/>
         <v>0.20982986767485823</v>
       </c>
-      <c r="D75">
+      <c r="D78">
         <f t="shared" si="6"/>
         <v>2.8061799739838866</v>
       </c>
-      <c r="E75" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="2">
+      <c r="E78" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="2">
         <v>43909</v>
       </c>
-      <c r="G75">
+      <c r="G78">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>7</v>
       </c>
-      <c r="B76">
+      <c r="B79">
         <v>970</v>
       </c>
-      <c r="C76">
-        <f t="shared" si="8"/>
+      <c r="C79">
+        <f t="shared" si="10"/>
         <v>0.515625</v>
       </c>
-      <c r="D76">
+      <c r="D79">
         <f t="shared" si="6"/>
         <v>2.9867717342662448</v>
       </c>
-      <c r="E76" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="2">
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="2">
         <v>43910</v>
       </c>
-      <c r="G76">
+      <c r="G79">
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>8</v>
       </c>
-      <c r="B77">
+      <c r="B80">
         <v>1178</v>
       </c>
-      <c r="C77">
-        <f t="shared" si="8"/>
+      <c r="C80">
+        <f t="shared" si="10"/>
         <v>0.21443298969072164</v>
       </c>
-      <c r="D77">
+      <c r="D80">
         <f t="shared" si="6"/>
         <v>3.0711452904510823</v>
       </c>
-      <c r="E77" t="s">
-        <v>5</v>
-      </c>
-      <c r="F77" s="2">
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="2">
         <v>43911</v>
       </c>
-      <c r="G77">
+      <c r="G80">
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>9</v>
+      </c>
+      <c r="B81">
+        <v>1546</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="10"/>
+        <v>0.31239388794567063</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="6"/>
+        <v>3.1892094895823058</v>
+      </c>
+      <c r="E81" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="2">
+        <v>43912</v>
+      </c>
+      <c r="G81">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>1</v>
       </c>
-      <c r="B78">
+      <c r="B82">
         <v>139</v>
       </c>
-      <c r="C78">
+      <c r="C82">
         <v>0</v>
       </c>
-      <c r="D78">
+      <c r="D82">
         <f t="shared" si="6"/>
         <v>2.143014800254095</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E82" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>2</v>
       </c>
-      <c r="B79">
+      <c r="B83">
         <v>245</v>
       </c>
-      <c r="C79">
-        <f t="shared" si="8"/>
+      <c r="C83">
+        <f t="shared" si="10"/>
         <v>0.76258992805755399</v>
       </c>
-      <c r="D79">
+      <c r="D83">
         <f t="shared" si="6"/>
         <v>2.3891660843645326</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E83" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>3</v>
       </c>
-      <c r="B80">
+      <c r="B84">
         <v>388</v>
       </c>
-      <c r="C80">
-        <f t="shared" si="8"/>
+      <c r="C84">
+        <f t="shared" si="10"/>
         <v>0.58367346938775511</v>
       </c>
-      <c r="D80">
+      <c r="D84">
         <f t="shared" si="6"/>
         <v>2.5888317255942073</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E84" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>4</v>
       </c>
-      <c r="B81">
+      <c r="B85">
         <v>593</v>
       </c>
-      <c r="C81">
-        <f t="shared" si="8"/>
+      <c r="C85">
+        <f t="shared" si="10"/>
         <v>0.52835051546391754</v>
       </c>
-      <c r="D81">
+      <c r="D85">
         <f t="shared" si="6"/>
         <v>2.7730546933642626</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E85" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>5</v>
-      </c>
-      <c r="B82">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86">
         <v>978</v>
       </c>
-      <c r="C82">
-        <f t="shared" si="8"/>
+      <c r="C86">
+        <f t="shared" si="10"/>
         <v>0.6492411467116358</v>
       </c>
-      <c r="D82">
+      <c r="D86">
         <f t="shared" si="6"/>
         <v>2.9903388547876015</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E86" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>6</v>
       </c>
-      <c r="B83">
+      <c r="B87">
         <v>1501</v>
       </c>
-      <c r="C83">
-        <f t="shared" si="8"/>
+      <c r="C87">
+        <f t="shared" si="10"/>
         <v>0.53476482617586907</v>
       </c>
-      <c r="D83">
+      <c r="D87">
         <f t="shared" si="6"/>
         <v>3.1763806922432698</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>7</v>
       </c>
-      <c r="B84">
+      <c r="B88">
         <v>2336</v>
       </c>
-      <c r="C84">
-        <f t="shared" si="8"/>
+      <c r="C88">
+        <f t="shared" si="10"/>
         <v>0.55629580279813462</v>
       </c>
-      <c r="D84">
+      <c r="D88">
         <f t="shared" si="6"/>
         <v>3.3684728384403617</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E88" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>8</v>
       </c>
-      <c r="B85">
+      <c r="B89">
         <v>2922</v>
       </c>
-      <c r="C85">
-        <f t="shared" si="8"/>
+      <c r="C89">
+        <f t="shared" si="10"/>
         <v>0.25085616438356162</v>
       </c>
-      <c r="D85">
+      <c r="D89">
         <f t="shared" si="6"/>
         <v>3.4656802115982779</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E89" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>9</v>
       </c>
-      <c r="B86">
+      <c r="B90">
         <v>3513</v>
       </c>
-      <c r="C86">
-        <f t="shared" si="8"/>
+      <c r="C90">
+        <f t="shared" si="10"/>
         <v>0.20225872689938398</v>
       </c>
-      <c r="D86">
+      <c r="D90">
         <f t="shared" si="6"/>
         <v>3.5456781497920251</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E90" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>10</v>
       </c>
-      <c r="B87">
+      <c r="B91">
         <v>4747</v>
       </c>
-      <c r="C87">
-        <f t="shared" si="8"/>
+      <c r="C91">
+        <f t="shared" si="10"/>
         <v>0.35126672359806432</v>
       </c>
-      <c r="D87">
+      <c r="D91">
         <f t="shared" si="6"/>
         <v>3.6764192317183597</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E91" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>11</v>
       </c>
-      <c r="B88">
+      <c r="B92">
         <v>5823</v>
       </c>
-      <c r="C88">
-        <f t="shared" si="8"/>
+      <c r="C92">
+        <f t="shared" si="10"/>
         <v>0.22666947545818411</v>
       </c>
-      <c r="D88">
+      <c r="D92">
         <f t="shared" si="6"/>
         <v>3.7651467901080249</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E92" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>12</v>
       </c>
-      <c r="B89">
+      <c r="B93">
         <v>6566</v>
       </c>
-      <c r="C89">
-        <f t="shared" si="8"/>
+      <c r="C93">
+        <f t="shared" si="10"/>
         <v>0.12759745835479994</v>
       </c>
-      <c r="D89">
+      <c r="D93">
         <f t="shared" si="6"/>
         <v>3.8173008783933207</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E93" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>13</v>
       </c>
-      <c r="B90">
+      <c r="B94">
         <v>7161</v>
       </c>
-      <c r="C90">
-        <f t="shared" si="8"/>
+      <c r="C94">
+        <f t="shared" si="10"/>
         <v>9.0618336886993597E-2</v>
       </c>
-      <c r="D90">
+      <c r="D94">
         <f t="shared" si="6"/>
         <v>3.8549736737264171</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E94" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>14</v>
       </c>
-      <c r="B91">
+      <c r="B95">
         <v>8042</v>
       </c>
-      <c r="C91">
-        <f t="shared" si="8"/>
+      <c r="C95">
+        <f t="shared" si="10"/>
         <v>0.12302751012428431</v>
       </c>
-      <c r="D91">
+      <c r="D95">
         <f t="shared" si="6"/>
         <v>3.9053640687668914</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E95" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>15</v>
       </c>
-      <c r="B92">
+      <c r="B96">
         <v>9000</v>
       </c>
-      <c r="C92">
-        <f t="shared" si="8"/>
+      <c r="C96">
+        <f t="shared" si="10"/>
         <v>0.11912459587167372</v>
       </c>
-      <c r="D92">
+      <c r="D96">
         <f t="shared" si="6"/>
         <v>3.9542425094393248</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E96" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>16</v>
       </c>
-      <c r="B93">
+      <c r="B97">
         <v>10075</v>
       </c>
-      <c r="C93">
-        <f t="shared" si="8"/>
+      <c r="C97">
+        <f t="shared" si="10"/>
         <v>0.11944444444444445</v>
       </c>
-      <c r="D93">
+      <c r="D97">
         <f t="shared" si="6"/>
         <v>4.0032450548131466</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E97" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>17</v>
       </c>
-      <c r="B94">
+      <c r="B98">
         <v>11364</v>
       </c>
-      <c r="C94">
-        <f t="shared" si="8"/>
+      <c r="C98">
+        <f t="shared" si="10"/>
         <v>0.12794044665012408</v>
       </c>
-      <c r="D94">
+      <c r="D98">
         <f t="shared" si="6"/>
         <v>4.0555312250508981</v>
       </c>
-      <c r="E94" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>18</v>
-      </c>
-      <c r="B95">
-        <v>12729</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="8"/>
-        <v>0.12011615628299895</v>
-      </c>
-      <c r="D95">
-        <f t="shared" ref="D95:D139" si="9">LOG(B95,10)</f>
-        <v>4.1047942864862774</v>
-      </c>
-      <c r="E95" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>19</v>
-      </c>
-      <c r="B96">
-        <v>13938</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="8"/>
-        <v>9.4979967004477958E-2</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="9"/>
-        <v>4.1442004601838791</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>20</v>
-      </c>
-      <c r="B97">
-        <v>14991</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="8"/>
-        <v>7.554885923374946E-2</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="9"/>
-        <v>4.1758306041622486</v>
-      </c>
-      <c r="E97" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>21</v>
-      </c>
-      <c r="B98">
-        <v>16169</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="8"/>
-        <v>7.8580481622306714E-2</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="9"/>
-        <v>4.208683161037416</v>
-      </c>
       <c r="E98" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B99">
-        <v>17361</v>
+        <v>12729</v>
       </c>
       <c r="C99">
-        <f t="shared" si="8"/>
-        <v>7.372131857257716E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.12011615628299895</v>
       </c>
       <c r="D99">
-        <f t="shared" si="9"/>
-        <v>4.2395747370832089</v>
+        <f t="shared" ref="D99:D144" si="11">LOG(B99,10)</f>
+        <v>4.1047942864862774</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -2753,18 +2777,18 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B100">
-        <v>18407</v>
+        <v>13938</v>
       </c>
       <c r="C100">
-        <f t="shared" si="8"/>
-        <v>6.0249985599907838E-2</v>
+        <f t="shared" si="10"/>
+        <v>9.4979967004477958E-2</v>
       </c>
       <c r="D100">
-        <f t="shared" si="9"/>
-        <v>4.2649830123164598</v>
+        <f t="shared" si="11"/>
+        <v>4.1442004601838791</v>
       </c>
       <c r="E100" t="s">
         <v>8</v>
@@ -2772,18 +2796,18 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B101">
-        <v>19644</v>
+        <v>14991</v>
       </c>
       <c r="C101">
-        <f t="shared" si="8"/>
-        <v>6.7202694627044063E-2</v>
+        <f t="shared" si="10"/>
+        <v>7.554885923374946E-2</v>
       </c>
       <c r="D101">
-        <f t="shared" si="9"/>
-        <v>4.2932299254595661</v>
+        <f t="shared" si="11"/>
+        <v>4.1758306041622486</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
@@ -2791,112 +2815,112 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B102">
-        <v>116</v>
+        <v>16169</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>7.8580481622306714E-2</v>
       </c>
       <c r="D102">
-        <f t="shared" si="9"/>
-        <v>2.0644579892269181</v>
+        <f t="shared" si="11"/>
+        <v>4.208683161037416</v>
       </c>
       <c r="E102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B103">
-        <v>164</v>
+        <v>17361</v>
       </c>
       <c r="C103">
-        <f t="shared" si="8"/>
-        <v>0.41379310344827586</v>
+        <f t="shared" si="10"/>
+        <v>7.372131857257716E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" si="9"/>
-        <v>2.214843848047698</v>
+        <f t="shared" si="11"/>
+        <v>4.2395747370832089</v>
       </c>
       <c r="E103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B104">
-        <v>209</v>
+        <v>18407</v>
       </c>
       <c r="C104">
-        <f t="shared" si="8"/>
-        <v>0.27439024390243905</v>
+        <f t="shared" si="10"/>
+        <v>6.0249985599907838E-2</v>
       </c>
       <c r="D104">
-        <f t="shared" si="9"/>
-        <v>2.3201462861110538</v>
+        <f t="shared" si="11"/>
+        <v>4.2649830123164598</v>
       </c>
       <c r="E104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B105">
-        <v>278</v>
+        <v>19644</v>
       </c>
       <c r="C105">
-        <f t="shared" si="8"/>
-        <v>0.33014354066985646</v>
+        <f t="shared" si="10"/>
+        <v>6.7202694627044063E-2</v>
       </c>
       <c r="D105">
-        <f t="shared" si="9"/>
-        <v>2.4440447959180758</v>
+        <f t="shared" si="11"/>
+        <v>4.2932299254595661</v>
       </c>
       <c r="E105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B106">
-        <v>321</v>
+        <v>21638</v>
       </c>
       <c r="C106">
-        <f t="shared" si="8"/>
-        <v>0.15467625899280577</v>
+        <f t="shared" ref="C106" si="12">(B106-B105)/B105</f>
+        <v>0.10150682142129912</v>
       </c>
       <c r="D106">
-        <f t="shared" si="9"/>
-        <v>2.5065050324048719</v>
+        <f t="shared" ref="D106" si="13">LOG(B106,10)</f>
+        <v>4.335217116457434</v>
       </c>
       <c r="E106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B107">
-        <v>383</v>
+        <v>116</v>
       </c>
       <c r="C107">
-        <f t="shared" si="8"/>
-        <v>0.19314641744548286</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <f t="shared" si="9"/>
-        <v>2.5831987739686224</v>
+        <f t="shared" si="11"/>
+        <v>2.0644579892269181</v>
       </c>
       <c r="E107" t="s">
         <v>9</v>
@@ -2904,18 +2928,18 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B108">
-        <v>460</v>
+        <v>164</v>
       </c>
       <c r="C108">
-        <f t="shared" si="8"/>
-        <v>0.20104438642297651</v>
+        <f t="shared" si="10"/>
+        <v>0.41379310344827586</v>
       </c>
       <c r="D108">
-        <f t="shared" si="9"/>
-        <v>2.6627578316815739</v>
+        <f t="shared" si="11"/>
+        <v>2.214843848047698</v>
       </c>
       <c r="E108" t="s">
         <v>9</v>
@@ -2923,18 +2947,18 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B109">
-        <v>590</v>
+        <v>209</v>
       </c>
       <c r="C109">
-        <f t="shared" si="8"/>
-        <v>0.28260869565217389</v>
+        <f t="shared" si="10"/>
+        <v>0.27439024390243905</v>
       </c>
       <c r="D109">
-        <f t="shared" si="9"/>
-        <v>2.7708520116421438</v>
+        <f t="shared" si="11"/>
+        <v>2.3201462861110538</v>
       </c>
       <c r="E109" t="s">
         <v>9</v>
@@ -2942,18 +2966,18 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B110">
-        <v>798</v>
+        <v>278</v>
       </c>
       <c r="C110">
-        <f t="shared" ref="C110:C139" si="10">(B110-B109)/B109</f>
-        <v>0.35254237288135593</v>
+        <f t="shared" si="10"/>
+        <v>0.33014354066985646</v>
       </c>
       <c r="D110">
-        <f t="shared" si="9"/>
-        <v>2.9020028913507292</v>
+        <f t="shared" si="11"/>
+        <v>2.4440447959180758</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
@@ -2961,18 +2985,18 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B111">
-        <v>1140</v>
+        <v>321</v>
       </c>
       <c r="C111">
         <f t="shared" si="10"/>
-        <v>0.42857142857142855</v>
+        <v>0.15467625899280577</v>
       </c>
       <c r="D111">
-        <f t="shared" si="9"/>
-        <v>3.0569048513364723</v>
+        <f t="shared" si="11"/>
+        <v>2.5065050324048719</v>
       </c>
       <c r="E111" t="s">
         <v>9</v>
@@ -2980,18 +3004,18 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B112">
-        <v>1391</v>
+        <v>383</v>
       </c>
       <c r="C112">
         <f t="shared" si="10"/>
-        <v>0.22017543859649122</v>
+        <v>0.19314641744548286</v>
       </c>
       <c r="D112">
-        <f t="shared" si="9"/>
-        <v>3.1433271299920462</v>
+        <f t="shared" si="11"/>
+        <v>2.5831987739686224</v>
       </c>
       <c r="E112" t="s">
         <v>9</v>
@@ -2999,18 +3023,18 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B113">
-        <v>1543</v>
+        <v>460</v>
       </c>
       <c r="C113">
         <f t="shared" si="10"/>
-        <v>0.10927390366642703</v>
+        <v>0.20104438642297651</v>
       </c>
       <c r="D113">
-        <f t="shared" si="9"/>
-        <v>3.1883659260631481</v>
+        <f t="shared" si="11"/>
+        <v>2.6627578316815739</v>
       </c>
       <c r="E113" t="s">
         <v>9</v>
@@ -3018,18 +3042,18 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B114">
-        <v>1950</v>
+        <v>590</v>
       </c>
       <c r="C114">
         <f t="shared" si="10"/>
-        <v>0.26377187297472454</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="D114">
-        <f t="shared" si="9"/>
-        <v>3.2900346113625178</v>
+        <f t="shared" si="11"/>
+        <v>2.7708520116421438</v>
       </c>
       <c r="E114" t="s">
         <v>9</v>
@@ -3037,18 +3061,18 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B115">
-        <v>2626</v>
+        <v>798</v>
       </c>
       <c r="C115">
-        <f t="shared" si="10"/>
-        <v>0.34666666666666668</v>
+        <f t="shared" ref="C115:C144" si="14">(B115-B114)/B114</f>
+        <v>0.35254237288135593</v>
       </c>
       <c r="D115">
-        <f t="shared" si="9"/>
-        <v>3.4192947217534599</v>
+        <f t="shared" si="11"/>
+        <v>2.9020028913507292</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
@@ -3056,18 +3080,18 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B116">
-        <v>3269</v>
+        <v>1140</v>
       </c>
       <c r="C116">
-        <f t="shared" si="10"/>
-        <v>0.24485910129474486</v>
+        <f t="shared" si="14"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="D116">
-        <f t="shared" si="9"/>
-        <v>3.5144149205803688</v>
+        <f t="shared" si="11"/>
+        <v>3.0569048513364723</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
@@ -3075,18 +3099,18 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B117">
-        <v>3983</v>
+        <v>1391</v>
       </c>
       <c r="C117">
-        <f t="shared" si="10"/>
-        <v>0.21841541755888652</v>
+        <f t="shared" si="14"/>
+        <v>0.22017543859649122</v>
       </c>
       <c r="D117">
-        <f t="shared" si="9"/>
-        <v>3.6002103064093274</v>
+        <f t="shared" si="11"/>
+        <v>3.1433271299920462</v>
       </c>
       <c r="E117" t="s">
         <v>9</v>
@@ -3094,112 +3118,112 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B118">
-        <v>100</v>
+        <v>1543</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0.10927390366642703</v>
       </c>
       <c r="D118">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>3.1883659260631481</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B119">
-        <v>130</v>
+        <v>1950</v>
       </c>
       <c r="C119">
-        <f t="shared" si="10"/>
-        <v>0.3</v>
+        <f t="shared" si="14"/>
+        <v>0.26377187297472454</v>
       </c>
       <c r="D119">
-        <f t="shared" si="9"/>
-        <v>2.1139433523068365</v>
+        <f t="shared" si="11"/>
+        <v>3.2900346113625178</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B120">
-        <v>191</v>
+        <v>2626</v>
       </c>
       <c r="C120">
-        <f t="shared" si="10"/>
-        <v>0.46923076923076923</v>
+        <f t="shared" si="14"/>
+        <v>0.34666666666666668</v>
       </c>
       <c r="D120">
-        <f t="shared" si="9"/>
-        <v>2.2810333672477272</v>
+        <f t="shared" si="11"/>
+        <v>3.4192947217534599</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B121">
-        <v>212</v>
+        <v>3269</v>
       </c>
       <c r="C121">
-        <f t="shared" si="10"/>
-        <v>0.1099476439790576</v>
+        <f t="shared" si="14"/>
+        <v>0.24485910129474486</v>
       </c>
       <c r="D121">
-        <f t="shared" si="9"/>
-        <v>2.3263358609287512</v>
+        <f t="shared" si="11"/>
+        <v>3.5144149205803688</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B122">
-        <v>285</v>
+        <v>3983</v>
       </c>
       <c r="C122">
-        <f t="shared" si="10"/>
-        <v>0.34433962264150941</v>
+        <f t="shared" si="14"/>
+        <v>0.21841541755888652</v>
       </c>
       <c r="D122">
-        <f t="shared" si="9"/>
-        <v>2.4548448600085102</v>
+        <f t="shared" si="11"/>
+        <v>3.6002103064093274</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B123">
-        <v>423</v>
+        <v>100</v>
       </c>
       <c r="C123">
-        <f t="shared" si="10"/>
-        <v>0.48421052631578948</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <f t="shared" si="9"/>
-        <v>2.6263403673750418</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="E123" t="s">
         <v>10</v>
@@ -3207,18 +3231,18 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B124">
-        <v>653</v>
+        <v>130</v>
       </c>
       <c r="C124">
-        <f t="shared" si="10"/>
-        <v>0.54373522458628842</v>
+        <f t="shared" si="14"/>
+        <v>0.3</v>
       </c>
       <c r="D124">
-        <f t="shared" si="9"/>
-        <v>2.8149131812750738</v>
+        <f t="shared" si="11"/>
+        <v>2.1139433523068365</v>
       </c>
       <c r="E124" t="s">
         <v>10</v>
@@ -3226,18 +3250,18 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B125">
-        <v>949</v>
+        <v>191</v>
       </c>
       <c r="C125">
-        <f t="shared" si="10"/>
-        <v>0.45329249617151607</v>
+        <f t="shared" si="14"/>
+        <v>0.46923076923076923</v>
       </c>
       <c r="D125">
-        <f t="shared" si="9"/>
-        <v>2.9772662124272924</v>
+        <f t="shared" si="11"/>
+        <v>2.2810333672477272</v>
       </c>
       <c r="E125" t="s">
         <v>10</v>
@@ -3245,18 +3269,18 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B126">
-        <v>1209</v>
+        <v>212</v>
       </c>
       <c r="C126">
-        <f t="shared" si="10"/>
-        <v>0.27397260273972601</v>
+        <f t="shared" si="14"/>
+        <v>0.1099476439790576</v>
       </c>
       <c r="D126">
-        <f t="shared" si="9"/>
-        <v>3.0824263008607717</v>
+        <f t="shared" si="11"/>
+        <v>2.3263358609287512</v>
       </c>
       <c r="E126" t="s">
         <v>10</v>
@@ -3264,18 +3288,18 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B127">
-        <v>1412</v>
+        <v>285</v>
       </c>
       <c r="C127">
-        <f t="shared" si="10"/>
-        <v>0.16790736145574855</v>
+        <f t="shared" si="14"/>
+        <v>0.34433962264150941</v>
       </c>
       <c r="D127">
-        <f t="shared" si="9"/>
-        <v>3.1498346967157844</v>
+        <f t="shared" si="11"/>
+        <v>2.4548448600085102</v>
       </c>
       <c r="E127" t="s">
         <v>10</v>
@@ -3283,18 +3307,18 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B128">
-        <v>1784</v>
+        <v>423</v>
       </c>
       <c r="C128">
-        <f t="shared" si="10"/>
-        <v>0.26345609065155806</v>
+        <f t="shared" si="14"/>
+        <v>0.48421052631578948</v>
       </c>
       <c r="D128">
-        <f t="shared" si="9"/>
-        <v>3.251394850040104</v>
+        <f t="shared" si="11"/>
+        <v>2.6263403673750418</v>
       </c>
       <c r="E128" t="s">
         <v>10</v>
@@ -3302,18 +3326,18 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B129">
-        <v>2281</v>
+        <v>653</v>
       </c>
       <c r="C129">
-        <f t="shared" si="10"/>
-        <v>0.27858744394618834</v>
+        <f t="shared" si="14"/>
+        <v>0.54373522458628842</v>
       </c>
       <c r="D129">
-        <f t="shared" si="9"/>
-        <v>3.3581252852766479</v>
+        <f t="shared" si="11"/>
+        <v>2.8149131812750738</v>
       </c>
       <c r="E129" t="s">
         <v>10</v>
@@ -3321,18 +3345,18 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B130">
-        <v>2876</v>
+        <v>949</v>
       </c>
       <c r="C130">
-        <f t="shared" si="10"/>
-        <v>0.26085050416483996</v>
+        <f t="shared" si="14"/>
+        <v>0.45329249617151607</v>
       </c>
       <c r="D130">
-        <f t="shared" si="9"/>
-        <v>3.4587888817108445</v>
+        <f t="shared" si="11"/>
+        <v>2.9772662124272924</v>
       </c>
       <c r="E130" t="s">
         <v>10</v>
@@ -3340,18 +3364,18 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B131">
-        <v>3661</v>
+        <v>1209</v>
       </c>
       <c r="C131">
-        <f t="shared" si="10"/>
-        <v>0.27294853963838667</v>
+        <f t="shared" si="14"/>
+        <v>0.27397260273972601</v>
       </c>
       <c r="D131">
-        <f t="shared" si="9"/>
-        <v>3.5635997288815306</v>
+        <f t="shared" si="11"/>
+        <v>3.0824263008607717</v>
       </c>
       <c r="E131" t="s">
         <v>10</v>
@@ -3359,18 +3383,18 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B132">
-        <v>4499</v>
+        <v>1412</v>
       </c>
       <c r="C132">
-        <f t="shared" si="10"/>
-        <v>0.22889920786670309</v>
+        <f t="shared" si="14"/>
+        <v>0.16790736145574855</v>
       </c>
       <c r="D132">
-        <f t="shared" si="9"/>
-        <v>3.6531159931655663</v>
+        <f t="shared" si="11"/>
+        <v>3.1498346967157844</v>
       </c>
       <c r="E132" t="s">
         <v>10</v>
@@ -3378,18 +3402,18 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B133">
-        <v>5423</v>
+        <v>1784</v>
       </c>
       <c r="C133">
-        <f t="shared" si="10"/>
-        <v>0.20537897310513448</v>
+        <f t="shared" si="14"/>
+        <v>0.26345609065155806</v>
       </c>
       <c r="D133">
-        <f t="shared" si="9"/>
-        <v>3.7342396044354547</v>
+        <f t="shared" si="11"/>
+        <v>3.251394850040104</v>
       </c>
       <c r="E133" t="s">
         <v>10</v>
@@ -3397,18 +3421,18 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B134">
-        <v>6633</v>
+        <v>2281</v>
       </c>
       <c r="C134">
-        <f t="shared" si="10"/>
-        <v>0.2231237322515213</v>
+        <f t="shared" si="14"/>
+        <v>0.27858744394618834</v>
       </c>
       <c r="D134">
-        <f t="shared" si="9"/>
-        <v>3.8217099972983757</v>
+        <f t="shared" si="11"/>
+        <v>3.3581252852766479</v>
       </c>
       <c r="E134" t="s">
         <v>10</v>
@@ -3416,18 +3440,18 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B135">
-        <v>7730</v>
+        <v>2876</v>
       </c>
       <c r="C135">
-        <f t="shared" si="10"/>
-        <v>0.1653851952359415</v>
+        <f t="shared" si="14"/>
+        <v>0.26085050416483996</v>
       </c>
       <c r="D135">
-        <f t="shared" si="9"/>
-        <v>3.888179493918325</v>
+        <f t="shared" si="11"/>
+        <v>3.4587888817108445</v>
       </c>
       <c r="E135" t="s">
         <v>10</v>
@@ -3435,18 +3459,18 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B136">
-        <v>9134</v>
+        <v>3661</v>
       </c>
       <c r="C136">
-        <f t="shared" si="10"/>
-        <v>0.1816300129366106</v>
+        <f t="shared" si="14"/>
+        <v>0.27294853963838667</v>
       </c>
       <c r="D136">
-        <f t="shared" si="9"/>
-        <v>3.9606610072709816</v>
+        <f t="shared" si="11"/>
+        <v>3.5635997288815306</v>
       </c>
       <c r="E136" t="s">
         <v>10</v>
@@ -3454,18 +3478,18 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B137">
-        <v>10995</v>
+        <v>4499</v>
       </c>
       <c r="C137">
-        <f t="shared" si="10"/>
-        <v>0.20374425224436171</v>
+        <f t="shared" si="14"/>
+        <v>0.22889920786670309</v>
       </c>
       <c r="D137">
-        <f t="shared" si="9"/>
-        <v>4.0411952336968087</v>
+        <f t="shared" si="11"/>
+        <v>3.6531159931655663</v>
       </c>
       <c r="E137" t="s">
         <v>10</v>
@@ -3473,18 +3497,18 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B138">
-        <v>12612</v>
+        <v>5423</v>
       </c>
       <c r="C138">
-        <f t="shared" si="10"/>
-        <v>0.14706684856753069</v>
+        <f t="shared" si="14"/>
+        <v>0.20537897310513448</v>
       </c>
       <c r="D138">
-        <f t="shared" si="9"/>
-        <v>4.1007839620758668</v>
+        <f t="shared" si="11"/>
+        <v>3.7342396044354547</v>
       </c>
       <c r="E138" t="s">
         <v>10</v>
@@ -3492,20 +3516,115 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
+        <v>17</v>
+      </c>
+      <c r="B139">
+        <v>6633</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="14"/>
+        <v>0.2231237322515213</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="11"/>
+        <v>3.8217099972983757</v>
+      </c>
+      <c r="E139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>18</v>
+      </c>
+      <c r="B140">
+        <v>7730</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="14"/>
+        <v>0.1653851952359415</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="11"/>
+        <v>3.888179493918325</v>
+      </c>
+      <c r="E140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>19</v>
+      </c>
+      <c r="B141">
+        <v>9134</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="14"/>
+        <v>0.1816300129366106</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="11"/>
+        <v>3.9606610072709816</v>
+      </c>
+      <c r="E141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>20</v>
+      </c>
+      <c r="B142">
+        <v>10995</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="14"/>
+        <v>0.20374425224436171</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="11"/>
+        <v>4.0411952336968087</v>
+      </c>
+      <c r="E142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>21</v>
+      </c>
+      <c r="B143">
+        <v>12612</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="14"/>
+        <v>0.14706684856753069</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="11"/>
+        <v>4.1007839620758668</v>
+      </c>
+      <c r="E143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>22</v>
       </c>
-      <c r="B139">
+      <c r="B144">
         <v>14459</v>
       </c>
-      <c r="C139">
-        <f t="shared" si="10"/>
+      <c r="C144">
+        <f t="shared" si="14"/>
         <v>0.14644782746590548</v>
       </c>
-      <c r="D139">
-        <f t="shared" si="9"/>
+      <c r="D144">
+        <f t="shared" si="11"/>
         <v>4.1601382577234016</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E144" t="s">
         <v>10</v>
       </c>
     </row>

--- a/dataset/dataset_infec.xlsx
+++ b/dataset/dataset_infec.xlsx
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123:XFD123"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B72">
         <v>28603</v>

--- a/dataset/dataset_infec.xlsx
+++ b/dataset/dataset_infec.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="19">
   <si>
     <t>day</t>
   </si>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D49" si="0">LOG(B2,10)</f>
+        <f t="shared" ref="D2:D50" si="0">LOG(B2,10)</f>
         <v>2.1958996524092336</v>
       </c>
       <c r="E2" t="s">
@@ -1120,7 +1120,7 @@
         <v>53578</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:C30" si="2">(B29-B28)/B28</f>
+        <f t="shared" ref="C29:C31" si="2">(B29-B28)/B28</f>
         <v>0.1394483315965207</v>
       </c>
       <c r="D29">
@@ -1164,1365 +1164,1389 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>63927</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>8.0980080489702053E-2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="D31" si="3">LOG(B31,10)</f>
+        <v>4.8056843241113789</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F31" s="2">
-        <v>43892</v>
+        <v>43913</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>6077</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
         <v>2</v>
-      </c>
-      <c r="B32">
-        <v>124</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ref="C32:C49" si="3">(B32-B31)/B31</f>
-        <v>0.24</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>2.0934216851622351</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
       </c>
       <c r="F32" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="G32">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C33">
-        <f t="shared" si="3"/>
-        <v>0.27419354838709675</v>
+        <f t="shared" ref="C33:C50" si="4">(B33-B32)/B32</f>
+        <v>0.24</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>2.1986570869544226</v>
+        <v>2.0934216851622351</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
       </c>
       <c r="F33" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="G33">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
-        <v>0.39873417721518989</v>
+        <f t="shared" si="4"/>
+        <v>0.27419354838709675</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>2.3443922736851102</v>
+        <v>2.1986570869544226</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
       </c>
       <c r="F34" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="G34">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
-        <v>0.4434389140271493</v>
+        <f t="shared" si="4"/>
+        <v>0.39873417721518989</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>2.503790683057181</v>
+        <v>2.3443922736851102</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
       </c>
       <c r="F35" s="2">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="G35">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36">
-        <v>435</v>
+        <v>319</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
-        <v>0.36363636363636365</v>
+        <f t="shared" si="4"/>
+        <v>0.4434389140271493</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>2.638489256954637</v>
+        <v>2.503790683057181</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G36">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37">
-        <v>541</v>
+        <v>435</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
-        <v>0.24367816091954023</v>
+        <f t="shared" si="4"/>
+        <v>0.36363636363636365</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>2.7331972651065688</v>
+        <v>2.638489256954637</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
       </c>
       <c r="F37" s="2">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="G37">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="C38">
-        <f t="shared" si="3"/>
-        <v>0.30129390018484287</v>
+        <f t="shared" si="4"/>
+        <v>0.24367816091954023</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>2.847572659142112</v>
+        <v>2.7331972651065688</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="2">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="G38">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39">
-        <v>994</v>
+        <v>704</v>
       </c>
       <c r="C39">
-        <f t="shared" si="3"/>
-        <v>0.41193181818181818</v>
+        <f t="shared" si="4"/>
+        <v>0.30129390018484287</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>2.9973863843973132</v>
+        <v>2.847572659142112</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
       </c>
       <c r="F39" s="2">
-        <v>43900</v>
+        <v>43899</v>
       </c>
       <c r="G39">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40">
-        <v>1301</v>
+        <v>994</v>
       </c>
       <c r="C40">
-        <f t="shared" si="3"/>
-        <v>0.30885311871227367</v>
+        <f t="shared" si="4"/>
+        <v>0.41193181818181818</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>3.1142772965615859</v>
+        <v>2.9973863843973132</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
       </c>
       <c r="F40" s="2">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="G40">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41">
-        <v>1697</v>
+        <v>1301</v>
       </c>
       <c r="C41">
-        <f t="shared" si="3"/>
-        <v>0.30438124519600307</v>
+        <f t="shared" si="4"/>
+        <v>0.30885311871227367</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>3.2296818423176754</v>
+        <v>3.1142772965615859</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
       </c>
       <c r="F41" s="2">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="G41">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42">
-        <v>2247</v>
+        <v>1697</v>
       </c>
       <c r="C42">
-        <f t="shared" si="3"/>
-        <v>0.32410135533294049</v>
+        <f t="shared" si="4"/>
+        <v>0.30438124519600307</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>3.3516030724191288</v>
+        <v>3.2296818423176754</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
       </c>
       <c r="F42" s="2">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="G42">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43">
-        <v>2943</v>
+        <v>2247</v>
       </c>
       <c r="C43">
-        <f t="shared" si="3"/>
-        <v>0.30974632843791722</v>
+        <f t="shared" si="4"/>
+        <v>0.32410135533294049</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>3.4687902620996107</v>
+        <v>3.3516030724191288</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
       </c>
       <c r="F43" s="2">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="G43">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44">
-        <v>3680</v>
+        <v>2943</v>
       </c>
       <c r="C44">
-        <f t="shared" si="3"/>
-        <v>0.25042473666326875</v>
+        <f t="shared" si="4"/>
+        <v>0.30974632843791722</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>3.5658478186735172</v>
+        <v>3.4687902620996107</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
       </c>
       <c r="F44" s="2">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="G44">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45">
-        <v>4663</v>
+        <v>3680</v>
       </c>
       <c r="C45">
-        <f t="shared" si="3"/>
-        <v>0.26711956521739133</v>
+        <f t="shared" si="4"/>
+        <v>0.25042473666326875</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>3.6686654154544915</v>
+        <v>3.5658478186735172</v>
       </c>
       <c r="E45" t="s">
         <v>6</v>
       </c>
       <c r="F45" s="2">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="G45">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46">
-        <v>6411</v>
+        <v>4663</v>
       </c>
       <c r="C46">
-        <f t="shared" si="3"/>
-        <v>0.37486596611623418</v>
+        <f t="shared" si="4"/>
+        <v>0.26711956521739133</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>3.8069257768837312</v>
+        <v>3.6686654154544915</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="2">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="G46">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47">
-        <v>9259</v>
+        <v>6411</v>
       </c>
       <c r="C47">
-        <f t="shared" si="3"/>
-        <v>0.44423646856964594</v>
+        <f t="shared" si="4"/>
+        <v>0.37486596611623418</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>3.96656408409731</v>
+        <v>3.8069257768837312</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
       </c>
       <c r="F47" s="2">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="G47">
-        <v>150</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48">
-        <v>13789</v>
+        <v>9259</v>
       </c>
       <c r="C48">
-        <f t="shared" si="3"/>
-        <v>0.48925369910357491</v>
+        <f t="shared" si="4"/>
+        <v>0.44423646856964594</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>4.1395327715979393</v>
+        <v>3.96656408409731</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="2">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="G48">
-        <v>207</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49">
-        <v>19383</v>
+        <v>13789</v>
       </c>
       <c r="C49">
-        <f t="shared" si="3"/>
-        <v>0.40568569149321926</v>
+        <f t="shared" si="4"/>
+        <v>0.48925369910357491</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>4.287420995759831</v>
+        <v>4.1395327715979393</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
       </c>
       <c r="F49" s="2">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="G49">
-        <v>256</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50">
-        <v>24207</v>
+        <v>19383</v>
       </c>
       <c r="C50">
-        <f t="shared" ref="C50:C51" si="4">(B50-B49)/B49</f>
-        <v>0.24887788268069957</v>
+        <f t="shared" si="4"/>
+        <v>0.40568569149321926</v>
       </c>
       <c r="D50">
-        <f t="shared" ref="D50:D51" si="5">LOG(B50,10)</f>
-        <v>4.3839409701862078</v>
+        <f t="shared" si="0"/>
+        <v>4.287420995759831</v>
       </c>
       <c r="E50" t="s">
         <v>6</v>
       </c>
       <c r="F50" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="G50">
-        <v>302</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51">
-        <v>33546</v>
+        <v>24207</v>
       </c>
       <c r="C51">
-        <f t="shared" si="4"/>
-        <v>0.38579749659189488</v>
+        <f t="shared" ref="C51:C53" si="5">(B51-B50)/B50</f>
+        <v>0.24887788268069957</v>
       </c>
       <c r="D51">
-        <f t="shared" si="5"/>
-        <v>4.5256407426423158</v>
+        <f t="shared" ref="D51:D53" si="6">LOG(B51,10)</f>
+        <v>4.3839409701862078</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
       </c>
       <c r="F51" s="2">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="G51">
-        <v>419</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B52">
-        <v>120</v>
+        <v>33546</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.38579749659189488</v>
       </c>
       <c r="D52">
-        <f t="shared" ref="D52:D98" si="6">LOG(B52,10)</f>
-        <v>2.0791812460476247</v>
+        <f t="shared" si="6"/>
+        <v>4.5256407426423158</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" s="2">
-        <v>43892</v>
+        <v>43912</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B53">
-        <v>165</v>
+        <v>42751</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:C71" si="7">(B53-B52)/B52</f>
-        <v>0.375</v>
+        <f t="shared" si="5"/>
+        <v>0.27439933226018004</v>
       </c>
       <c r="D53">
         <f t="shared" si="6"/>
-        <v>2.2174839442139058</v>
+        <v>4.6309462778806241</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53" s="2">
-        <v>43893</v>
+        <v>43913</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>520</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B54">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="C54">
-        <f t="shared" si="7"/>
-        <v>0.38181818181818183</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <f t="shared" si="6"/>
-        <v>2.3579348470004535</v>
+        <f t="shared" ref="D54:D102" si="7">LOG(B54,10)</f>
+        <v>2.0791812460476247</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="2">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B55">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="C55">
+        <f t="shared" ref="C55:C73" si="8">(B55-B54)/B54</f>
+        <v>0.375</v>
+      </c>
+      <c r="D55">
         <f t="shared" si="7"/>
-        <v>0.23684210526315788</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="6"/>
-        <v>2.4502491083193609</v>
+        <v>2.2174839442139058</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B56">
-        <v>401</v>
+        <v>228</v>
       </c>
       <c r="C56">
+        <f t="shared" si="8"/>
+        <v>0.38181818181818183</v>
+      </c>
+      <c r="D56">
         <f t="shared" si="7"/>
-        <v>0.42198581560283688</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="6"/>
-        <v>2.6031443726201822</v>
+        <v>2.3579348470004535</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="2">
-        <v>43896</v>
+        <v>43894</v>
       </c>
       <c r="G56">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B57">
-        <v>525</v>
+        <v>282</v>
       </c>
       <c r="C57">
+        <f t="shared" si="8"/>
+        <v>0.23684210526315788</v>
+      </c>
+      <c r="D57">
         <f t="shared" si="7"/>
-        <v>0.30922693266832918</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="6"/>
-        <v>2.7201593034059566</v>
+        <v>2.4502491083193609</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="2">
-        <v>43897</v>
+        <v>43895</v>
       </c>
       <c r="G57">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B58">
-        <v>674</v>
+        <v>401</v>
       </c>
       <c r="C58">
+        <f t="shared" si="8"/>
+        <v>0.42198581560283688</v>
+      </c>
+      <c r="D58">
         <f t="shared" si="7"/>
-        <v>0.28380952380952379</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="6"/>
-        <v>2.8286598965353194</v>
+        <v>2.6031443726201822</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
       </c>
       <c r="F58" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G58">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B59">
-        <v>1231</v>
+        <v>525</v>
       </c>
       <c r="C59">
+        <f t="shared" si="8"/>
+        <v>0.30922693266832918</v>
+      </c>
+      <c r="D59">
         <f t="shared" si="7"/>
-        <v>0.82640949554896137</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="6"/>
-        <v>3.0902580529313162</v>
+        <v>2.7201593034059566</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
       </c>
       <c r="F59" s="2">
-        <v>43899</v>
+        <v>43897</v>
       </c>
       <c r="G59">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B60">
-        <v>1695</v>
+        <v>674</v>
       </c>
       <c r="C60">
+        <f t="shared" si="8"/>
+        <v>0.28380952380952379</v>
+      </c>
+      <c r="D60">
         <f t="shared" si="7"/>
-        <v>0.37692932575142163</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="6"/>
-        <v>3.2291697025391004</v>
+        <v>2.8286598965353194</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
       </c>
       <c r="F60" s="2">
-        <v>43900</v>
+        <v>43898</v>
       </c>
       <c r="G60">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B61">
-        <v>2277</v>
+        <v>1231</v>
       </c>
       <c r="C61">
+        <f t="shared" si="8"/>
+        <v>0.82640949554896137</v>
+      </c>
+      <c r="D61">
         <f t="shared" si="7"/>
-        <v>0.3433628318584071</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="6"/>
-        <v>3.3573630306151423</v>
+        <v>3.0902580529313162</v>
       </c>
       <c r="E61" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="2">
-        <v>43901</v>
+        <v>43899</v>
       </c>
       <c r="G61">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B62">
-        <v>3146</v>
+        <v>1695</v>
       </c>
       <c r="C62">
+        <f t="shared" si="8"/>
+        <v>0.37692932575142163</v>
+      </c>
+      <c r="D62">
         <f t="shared" si="7"/>
-        <v>0.38164251207729466</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="6"/>
-        <v>3.4977587182872676</v>
+        <v>3.2291697025391004</v>
       </c>
       <c r="E62" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="2">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="G62">
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B63">
-        <v>5232</v>
+        <v>2277</v>
       </c>
       <c r="C63">
+        <f t="shared" si="8"/>
+        <v>0.3433628318584071</v>
+      </c>
+      <c r="D63">
         <f t="shared" si="7"/>
-        <v>0.66306420851875403</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="6"/>
-        <v>3.7186677353162101</v>
+        <v>3.3573630306151423</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="2">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="G63">
-        <v>133</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B64">
-        <v>6391</v>
+        <v>3146</v>
       </c>
       <c r="C64">
+        <f t="shared" si="8"/>
+        <v>0.38164251207729466</v>
+      </c>
+      <c r="D64">
         <f t="shared" si="7"/>
-        <v>0.22152140672782875</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="6"/>
-        <v>3.8055688175485556</v>
+        <v>3.4977587182872676</v>
       </c>
       <c r="E64" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="2">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="G64">
-        <v>196</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B65">
-        <v>7988</v>
+        <v>5232</v>
       </c>
       <c r="C65">
+        <f t="shared" si="8"/>
+        <v>0.66306420851875403</v>
+      </c>
+      <c r="D65">
         <f t="shared" si="7"/>
-        <v>0.24988264747300892</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="6"/>
-        <v>3.9024380561986645</v>
+        <v>3.7186677353162101</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
       </c>
       <c r="F65" s="2">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="G65">
-        <v>294</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B66">
-        <v>9942</v>
+        <v>6391</v>
       </c>
       <c r="C66">
+        <f t="shared" si="8"/>
+        <v>0.22152140672782875</v>
+      </c>
+      <c r="D66">
         <f t="shared" si="7"/>
-        <v>0.24461692538808213</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="6"/>
-        <v>3.9974737588029798</v>
+        <v>3.8055688175485556</v>
       </c>
       <c r="E66" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="2">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="G66">
-        <v>342</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B67">
-        <v>11826</v>
+        <v>7988</v>
       </c>
       <c r="C67">
+        <f t="shared" si="8"/>
+        <v>0.24988264747300892</v>
+      </c>
+      <c r="D67">
         <f t="shared" si="7"/>
-        <v>0.18949909474954738</v>
-      </c>
-      <c r="D67">
-        <f t="shared" si="6"/>
-        <v>4.0728378746630858</v>
+        <v>3.9024380561986645</v>
       </c>
       <c r="E67" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="2">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="G67">
-        <v>533</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B68">
-        <v>14769</v>
+        <v>9942</v>
       </c>
       <c r="C68">
+        <f t="shared" si="8"/>
+        <v>0.24461692538808213</v>
+      </c>
+      <c r="D68">
         <f t="shared" si="7"/>
-        <v>0.24885844748858446</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="6"/>
-        <v>4.1693510904924178</v>
+        <v>3.9974737588029798</v>
       </c>
       <c r="E68" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="2">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="G68">
-        <v>638</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B69">
-        <v>18077</v>
+        <v>11826</v>
       </c>
       <c r="C69">
+        <f t="shared" si="8"/>
+        <v>0.18949909474954738</v>
+      </c>
+      <c r="D69">
         <f t="shared" si="7"/>
-        <v>0.22398266639582909</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="6"/>
-        <v>4.2571263580225924</v>
+        <v>4.0728378746630858</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
       </c>
       <c r="F69" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="G69">
-        <v>831</v>
+        <v>533</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B70">
-        <v>21571</v>
+        <v>14769</v>
       </c>
       <c r="C70">
+        <f t="shared" si="8"/>
+        <v>0.24885844748858446</v>
+      </c>
+      <c r="D70">
         <f t="shared" si="7"/>
-        <v>0.19328428389666427</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="6"/>
-        <v>4.3338702788260086</v>
+        <v>4.1693510904924178</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
       </c>
       <c r="F70" s="2">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="G70">
-        <v>1093</v>
+        <v>638</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B71">
-        <v>25496</v>
+        <v>18077</v>
       </c>
       <c r="C71">
+        <f t="shared" si="8"/>
+        <v>0.22398266639582909</v>
+      </c>
+      <c r="D71">
         <f t="shared" si="7"/>
-        <v>0.18195725742895555</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="6"/>
-        <v>4.406472050465676</v>
+        <v>4.2571263580225924</v>
       </c>
       <c r="E71" t="s">
         <v>7</v>
       </c>
       <c r="F71" s="2">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="G71">
-        <v>1381</v>
+        <v>831</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B72">
-        <v>28603</v>
+        <v>21571</v>
       </c>
       <c r="C72">
-        <f t="shared" ref="C72" si="8">(B72-B71)/B71</f>
-        <v>0.12186225290241606</v>
+        <f t="shared" si="8"/>
+        <v>0.19328428389666427</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72" si="9">LOG(B72,10)</f>
-        <v>4.456411586105177</v>
+        <f t="shared" si="7"/>
+        <v>4.3338702788260086</v>
       </c>
       <c r="E72" t="s">
         <v>7</v>
       </c>
       <c r="F72" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="G72">
-        <v>1756</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B73">
-        <v>151</v>
+        <v>25496</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.18195725742895555</v>
       </c>
       <c r="D73">
-        <f t="shared" si="6"/>
-        <v>2.1789769472931693</v>
+        <f t="shared" si="7"/>
+        <v>4.406472050465676</v>
       </c>
       <c r="E73" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F73" s="2">
-        <v>43904</v>
+        <v>43911</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B74">
-        <v>200</v>
+        <v>28603</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:C114" si="10">(B74-B73)/B73</f>
-        <v>0.32450331125827814</v>
+        <f t="shared" ref="C74:C75" si="9">(B74-B73)/B73</f>
+        <v>0.12186225290241606</v>
       </c>
       <c r="D74">
-        <f t="shared" si="6"/>
-        <v>2.3010299956639808</v>
+        <f t="shared" ref="D74:D75" si="10">LOG(B74,10)</f>
+        <v>4.456411586105177</v>
       </c>
       <c r="E74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F74" s="2">
-        <v>43905</v>
+        <v>43912</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B75">
-        <v>234</v>
+        <v>33089</v>
       </c>
       <c r="C75">
+        <f t="shared" si="9"/>
+        <v>0.15683669545152606</v>
+      </c>
+      <c r="D75">
         <f t="shared" si="10"/>
-        <v>0.17</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="6"/>
-        <v>2.3692158574101425</v>
+        <v>4.5196836423171698</v>
       </c>
       <c r="E75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F75" s="2">
-        <v>43906</v>
+        <v>43913</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B76">
-        <v>346</v>
+        <v>151</v>
       </c>
       <c r="C76">
-        <f t="shared" si="10"/>
-        <v>0.47863247863247865</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <f t="shared" si="6"/>
-        <v>2.5390760987927767</v>
+        <f t="shared" si="7"/>
+        <v>2.1789769472931693</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
       </c>
       <c r="F76" s="2">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B77">
-        <v>529</v>
+        <v>200</v>
       </c>
       <c r="C77">
-        <f t="shared" si="10"/>
-        <v>0.52890173410404628</v>
+        <f t="shared" ref="C77:C118" si="11">(B77-B76)/B76</f>
+        <v>0.32450331125827814</v>
       </c>
       <c r="D77">
-        <f t="shared" si="6"/>
-        <v>2.7234556720351857</v>
+        <f t="shared" si="7"/>
+        <v>2.3010299956639808</v>
       </c>
       <c r="E77" t="s">
         <v>5</v>
       </c>
       <c r="F77" s="2">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="G77">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B78">
-        <v>640</v>
+        <v>234</v>
       </c>
       <c r="C78">
-        <f t="shared" si="10"/>
-        <v>0.20982986767485823</v>
+        <f t="shared" si="11"/>
+        <v>0.17</v>
       </c>
       <c r="D78">
-        <f t="shared" si="6"/>
-        <v>2.8061799739838866</v>
+        <f t="shared" si="7"/>
+        <v>2.3692158574101425</v>
       </c>
       <c r="E78" t="s">
         <v>5</v>
       </c>
       <c r="F78" s="2">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="G78">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B79">
-        <v>970</v>
+        <v>346</v>
       </c>
       <c r="C79">
-        <f t="shared" si="10"/>
-        <v>0.515625</v>
+        <f t="shared" si="11"/>
+        <v>0.47863247863247865</v>
       </c>
       <c r="D79">
-        <f t="shared" si="6"/>
-        <v>2.9867717342662448</v>
+        <f t="shared" si="7"/>
+        <v>2.5390760987927767</v>
       </c>
       <c r="E79" t="s">
         <v>5</v>
       </c>
       <c r="F79" s="2">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="G79">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B80">
-        <v>1178</v>
+        <v>529</v>
       </c>
       <c r="C80">
-        <f t="shared" si="10"/>
-        <v>0.21443298969072164</v>
+        <f t="shared" si="11"/>
+        <v>0.52890173410404628</v>
       </c>
       <c r="D80">
-        <f t="shared" si="6"/>
-        <v>3.0711452904510823</v>
+        <f t="shared" si="7"/>
+        <v>2.7234556720351857</v>
       </c>
       <c r="E80" t="s">
         <v>5</v>
       </c>
       <c r="F80" s="2">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="G80">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B81">
-        <v>1546</v>
+        <v>640</v>
       </c>
       <c r="C81">
-        <f t="shared" si="10"/>
-        <v>0.31239388794567063</v>
+        <f t="shared" si="11"/>
+        <v>0.20982986767485823</v>
       </c>
       <c r="D81">
-        <f t="shared" si="6"/>
-        <v>3.1892094895823058</v>
+        <f t="shared" si="7"/>
+        <v>2.8061799739838866</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
       </c>
       <c r="F81" s="2">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="G81">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B82">
-        <v>139</v>
+        <v>970</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.515625</v>
       </c>
       <c r="D82">
-        <f t="shared" si="6"/>
-        <v>2.143014800254095</v>
+        <f t="shared" si="7"/>
+        <v>2.9867717342662448</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F82" s="2">
+        <v>43910</v>
+      </c>
+      <c r="G82">
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B83">
-        <v>245</v>
+        <v>1178</v>
       </c>
       <c r="C83">
-        <f t="shared" si="10"/>
-        <v>0.76258992805755399</v>
+        <f t="shared" si="11"/>
+        <v>0.21443298969072164</v>
       </c>
       <c r="D83">
-        <f t="shared" si="6"/>
-        <v>2.3891660843645326</v>
+        <f t="shared" si="7"/>
+        <v>3.0711452904510823</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F83" s="2">
+        <v>43911</v>
+      </c>
+      <c r="G83">
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B84">
-        <v>388</v>
+        <v>1546</v>
       </c>
       <c r="C84">
-        <f t="shared" si="10"/>
-        <v>0.58367346938775511</v>
+        <f t="shared" si="11"/>
+        <v>0.31239388794567063</v>
       </c>
       <c r="D84">
-        <f t="shared" si="6"/>
-        <v>2.5888317255942073</v>
+        <f t="shared" si="7"/>
+        <v>3.1892094895823058</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F84" s="2">
+        <v>43912</v>
+      </c>
+      <c r="G84">
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B85">
-        <v>593</v>
+        <v>1891</v>
       </c>
       <c r="C85">
-        <f t="shared" si="10"/>
-        <v>0.52835051546391754</v>
+        <f t="shared" ref="C85" si="12">(B85-B84)/B84</f>
+        <v>0.22315653298835705</v>
       </c>
       <c r="D85">
-        <f t="shared" si="6"/>
-        <v>2.7730546933642626</v>
+        <f t="shared" ref="D85" si="13">LOG(B85,10)</f>
+        <v>3.2766915288450393</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F85" s="2">
+        <v>43913</v>
+      </c>
+      <c r="G85">
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B86">
-        <v>978</v>
+        <v>139</v>
       </c>
       <c r="C86">
-        <f t="shared" si="10"/>
-        <v>0.6492411467116358</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <f t="shared" si="6"/>
-        <v>2.9903388547876015</v>
+        <f t="shared" si="7"/>
+        <v>2.143014800254095</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
@@ -2530,18 +2554,18 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B87">
-        <v>1501</v>
+        <v>245</v>
       </c>
       <c r="C87">
-        <f t="shared" si="10"/>
-        <v>0.53476482617586907</v>
+        <f t="shared" si="11"/>
+        <v>0.76258992805755399</v>
       </c>
       <c r="D87">
-        <f t="shared" si="6"/>
-        <v>3.1763806922432698</v>
+        <f t="shared" si="7"/>
+        <v>2.3891660843645326</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
@@ -2549,18 +2573,18 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B88">
-        <v>2336</v>
+        <v>388</v>
       </c>
       <c r="C88">
-        <f t="shared" si="10"/>
-        <v>0.55629580279813462</v>
+        <f t="shared" si="11"/>
+        <v>0.58367346938775511</v>
       </c>
       <c r="D88">
-        <f t="shared" si="6"/>
-        <v>3.3684728384403617</v>
+        <f t="shared" si="7"/>
+        <v>2.5888317255942073</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
@@ -2568,18 +2592,18 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B89">
-        <v>2922</v>
+        <v>593</v>
       </c>
       <c r="C89">
-        <f t="shared" si="10"/>
-        <v>0.25085616438356162</v>
+        <f t="shared" si="11"/>
+        <v>0.52835051546391754</v>
       </c>
       <c r="D89">
-        <f t="shared" si="6"/>
-        <v>3.4656802115982779</v>
+        <f t="shared" si="7"/>
+        <v>2.7730546933642626</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
@@ -2587,18 +2611,18 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B90">
-        <v>3513</v>
+        <v>978</v>
       </c>
       <c r="C90">
-        <f t="shared" si="10"/>
-        <v>0.20225872689938398</v>
+        <f t="shared" si="11"/>
+        <v>0.6492411467116358</v>
       </c>
       <c r="D90">
-        <f t="shared" si="6"/>
-        <v>3.5456781497920251</v>
+        <f t="shared" si="7"/>
+        <v>2.9903388547876015</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
@@ -2606,18 +2630,18 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B91">
-        <v>4747</v>
+        <v>1501</v>
       </c>
       <c r="C91">
-        <f t="shared" si="10"/>
-        <v>0.35126672359806432</v>
+        <f t="shared" si="11"/>
+        <v>0.53476482617586907</v>
       </c>
       <c r="D91">
-        <f t="shared" si="6"/>
-        <v>3.6764192317183597</v>
+        <f t="shared" si="7"/>
+        <v>3.1763806922432698</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
@@ -2625,18 +2649,18 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B92">
-        <v>5823</v>
+        <v>2336</v>
       </c>
       <c r="C92">
-        <f t="shared" si="10"/>
-        <v>0.22666947545818411</v>
+        <f t="shared" si="11"/>
+        <v>0.55629580279813462</v>
       </c>
       <c r="D92">
-        <f t="shared" si="6"/>
-        <v>3.7651467901080249</v>
+        <f t="shared" si="7"/>
+        <v>3.3684728384403617</v>
       </c>
       <c r="E92" t="s">
         <v>8</v>
@@ -2644,18 +2668,18 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B93">
-        <v>6566</v>
+        <v>2922</v>
       </c>
       <c r="C93">
-        <f t="shared" si="10"/>
-        <v>0.12759745835479994</v>
+        <f t="shared" si="11"/>
+        <v>0.25085616438356162</v>
       </c>
       <c r="D93">
-        <f t="shared" si="6"/>
-        <v>3.8173008783933207</v>
+        <f t="shared" si="7"/>
+        <v>3.4656802115982779</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
@@ -2663,18 +2687,18 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B94">
-        <v>7161</v>
+        <v>3513</v>
       </c>
       <c r="C94">
-        <f t="shared" si="10"/>
-        <v>9.0618336886993597E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.20225872689938398</v>
       </c>
       <c r="D94">
-        <f t="shared" si="6"/>
-        <v>3.8549736737264171</v>
+        <f t="shared" si="7"/>
+        <v>3.5456781497920251</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
@@ -2682,18 +2706,18 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B95">
-        <v>8042</v>
+        <v>4747</v>
       </c>
       <c r="C95">
-        <f t="shared" si="10"/>
-        <v>0.12302751012428431</v>
+        <f t="shared" si="11"/>
+        <v>0.35126672359806432</v>
       </c>
       <c r="D95">
-        <f t="shared" si="6"/>
-        <v>3.9053640687668914</v>
+        <f t="shared" si="7"/>
+        <v>3.6764192317183597</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
@@ -2701,18 +2725,18 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B96">
-        <v>9000</v>
+        <v>5823</v>
       </c>
       <c r="C96">
-        <f t="shared" si="10"/>
-        <v>0.11912459587167372</v>
+        <f t="shared" si="11"/>
+        <v>0.22666947545818411</v>
       </c>
       <c r="D96">
-        <f t="shared" si="6"/>
-        <v>3.9542425094393248</v>
+        <f t="shared" si="7"/>
+        <v>3.7651467901080249</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
@@ -2720,18 +2744,18 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B97">
-        <v>10075</v>
+        <v>6566</v>
       </c>
       <c r="C97">
-        <f t="shared" si="10"/>
-        <v>0.11944444444444445</v>
+        <f t="shared" si="11"/>
+        <v>0.12759745835479994</v>
       </c>
       <c r="D97">
-        <f t="shared" si="6"/>
-        <v>4.0032450548131466</v>
+        <f t="shared" si="7"/>
+        <v>3.8173008783933207</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
@@ -2739,18 +2763,18 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B98">
-        <v>11364</v>
+        <v>7161</v>
       </c>
       <c r="C98">
-        <f t="shared" si="10"/>
-        <v>0.12794044665012408</v>
+        <f t="shared" si="11"/>
+        <v>9.0618336886993597E-2</v>
       </c>
       <c r="D98">
-        <f t="shared" si="6"/>
-        <v>4.0555312250508981</v>
+        <f t="shared" si="7"/>
+        <v>3.8549736737264171</v>
       </c>
       <c r="E98" t="s">
         <v>8</v>
@@ -2758,18 +2782,18 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B99">
-        <v>12729</v>
+        <v>8042</v>
       </c>
       <c r="C99">
-        <f t="shared" si="10"/>
-        <v>0.12011615628299895</v>
+        <f t="shared" si="11"/>
+        <v>0.12302751012428431</v>
       </c>
       <c r="D99">
-        <f t="shared" ref="D99:D144" si="11">LOG(B99,10)</f>
-        <v>4.1047942864862774</v>
+        <f t="shared" si="7"/>
+        <v>3.9053640687668914</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -2777,18 +2801,18 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B100">
-        <v>13938</v>
+        <v>9000</v>
       </c>
       <c r="C100">
-        <f t="shared" si="10"/>
-        <v>9.4979967004477958E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.11912459587167372</v>
       </c>
       <c r="D100">
-        <f t="shared" si="11"/>
-        <v>4.1442004601838791</v>
+        <f t="shared" si="7"/>
+        <v>3.9542425094393248</v>
       </c>
       <c r="E100" t="s">
         <v>8</v>
@@ -2796,18 +2820,18 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B101">
-        <v>14991</v>
+        <v>10075</v>
       </c>
       <c r="C101">
-        <f t="shared" si="10"/>
-        <v>7.554885923374946E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.11944444444444445</v>
       </c>
       <c r="D101">
-        <f t="shared" si="11"/>
-        <v>4.1758306041622486</v>
+        <f t="shared" si="7"/>
+        <v>4.0032450548131466</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
@@ -2815,18 +2839,18 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B102">
-        <v>16169</v>
+        <v>11364</v>
       </c>
       <c r="C102">
-        <f t="shared" si="10"/>
-        <v>7.8580481622306714E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.12794044665012408</v>
       </c>
       <c r="D102">
-        <f t="shared" si="11"/>
-        <v>4.208683161037416</v>
+        <f t="shared" si="7"/>
+        <v>4.0555312250508981</v>
       </c>
       <c r="E102" t="s">
         <v>8</v>
@@ -2834,18 +2858,18 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B103">
-        <v>17361</v>
+        <v>12729</v>
       </c>
       <c r="C103">
-        <f t="shared" si="10"/>
-        <v>7.372131857257716E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.12011615628299895</v>
       </c>
       <c r="D103">
-        <f t="shared" si="11"/>
-        <v>4.2395747370832089</v>
+        <f t="shared" ref="D103:D148" si="14">LOG(B103,10)</f>
+        <v>4.1047942864862774</v>
       </c>
       <c r="E103" t="s">
         <v>8</v>
@@ -2853,18 +2877,18 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B104">
-        <v>18407</v>
+        <v>13938</v>
       </c>
       <c r="C104">
-        <f t="shared" si="10"/>
-        <v>6.0249985599907838E-2</v>
+        <f t="shared" si="11"/>
+        <v>9.4979967004477958E-2</v>
       </c>
       <c r="D104">
-        <f t="shared" si="11"/>
-        <v>4.2649830123164598</v>
+        <f t="shared" si="14"/>
+        <v>4.1442004601838791</v>
       </c>
       <c r="E104" t="s">
         <v>8</v>
@@ -2872,18 +2896,18 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B105">
-        <v>19644</v>
+        <v>14991</v>
       </c>
       <c r="C105">
-        <f t="shared" si="10"/>
-        <v>6.7202694627044063E-2</v>
+        <f t="shared" si="11"/>
+        <v>7.554885923374946E-2</v>
       </c>
       <c r="D105">
-        <f t="shared" si="11"/>
-        <v>4.2932299254595661</v>
+        <f t="shared" si="14"/>
+        <v>4.1758306041622486</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
@@ -2891,18 +2915,18 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B106">
-        <v>21638</v>
+        <v>16169</v>
       </c>
       <c r="C106">
-        <f t="shared" ref="C106" si="12">(B106-B105)/B105</f>
-        <v>0.10150682142129912</v>
+        <f t="shared" si="11"/>
+        <v>7.8580481622306714E-2</v>
       </c>
       <c r="D106">
-        <f t="shared" ref="D106" si="13">LOG(B106,10)</f>
-        <v>4.335217116457434</v>
+        <f t="shared" si="14"/>
+        <v>4.208683161037416</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
@@ -2910,93 +2934,93 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B107">
-        <v>116</v>
+        <v>17361</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>7.372131857257716E-2</v>
       </c>
       <c r="D107">
-        <f t="shared" si="11"/>
-        <v>2.0644579892269181</v>
+        <f t="shared" si="14"/>
+        <v>4.2395747370832089</v>
       </c>
       <c r="E107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B108">
-        <v>164</v>
+        <v>18407</v>
       </c>
       <c r="C108">
-        <f t="shared" si="10"/>
-        <v>0.41379310344827586</v>
+        <f t="shared" si="11"/>
+        <v>6.0249985599907838E-2</v>
       </c>
       <c r="D108">
-        <f t="shared" si="11"/>
-        <v>2.214843848047698</v>
+        <f t="shared" si="14"/>
+        <v>4.2649830123164598</v>
       </c>
       <c r="E108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B109">
-        <v>209</v>
+        <v>19644</v>
       </c>
       <c r="C109">
-        <f t="shared" si="10"/>
-        <v>0.27439024390243905</v>
+        <f t="shared" si="11"/>
+        <v>6.7202694627044063E-2</v>
       </c>
       <c r="D109">
-        <f t="shared" si="11"/>
-        <v>2.3201462861110538</v>
+        <f t="shared" si="14"/>
+        <v>4.2932299254595661</v>
       </c>
       <c r="E109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B110">
-        <v>278</v>
+        <v>21638</v>
       </c>
       <c r="C110">
-        <f t="shared" si="10"/>
-        <v>0.33014354066985646</v>
+        <f t="shared" ref="C110" si="15">(B110-B109)/B109</f>
+        <v>0.10150682142129912</v>
       </c>
       <c r="D110">
-        <f t="shared" si="11"/>
-        <v>2.4440447959180758</v>
+        <f t="shared" ref="D110" si="16">LOG(B110,10)</f>
+        <v>4.335217116457434</v>
       </c>
       <c r="E110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B111">
-        <v>321</v>
+        <v>116</v>
       </c>
       <c r="C111">
-        <f t="shared" si="10"/>
-        <v>0.15467625899280577</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <f t="shared" si="11"/>
-        <v>2.5065050324048719</v>
+        <f t="shared" si="14"/>
+        <v>2.0644579892269181</v>
       </c>
       <c r="E111" t="s">
         <v>9</v>
@@ -3004,18 +3028,18 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B112">
-        <v>383</v>
+        <v>164</v>
       </c>
       <c r="C112">
-        <f t="shared" si="10"/>
-        <v>0.19314641744548286</v>
+        <f t="shared" si="11"/>
+        <v>0.41379310344827586</v>
       </c>
       <c r="D112">
-        <f t="shared" si="11"/>
-        <v>2.5831987739686224</v>
+        <f t="shared" si="14"/>
+        <v>2.214843848047698</v>
       </c>
       <c r="E112" t="s">
         <v>9</v>
@@ -3023,18 +3047,18 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B113">
-        <v>460</v>
+        <v>209</v>
       </c>
       <c r="C113">
-        <f t="shared" si="10"/>
-        <v>0.20104438642297651</v>
+        <f t="shared" si="11"/>
+        <v>0.27439024390243905</v>
       </c>
       <c r="D113">
-        <f t="shared" si="11"/>
-        <v>2.6627578316815739</v>
+        <f t="shared" si="14"/>
+        <v>2.3201462861110538</v>
       </c>
       <c r="E113" t="s">
         <v>9</v>
@@ -3042,18 +3066,18 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B114">
-        <v>590</v>
+        <v>278</v>
       </c>
       <c r="C114">
-        <f t="shared" si="10"/>
-        <v>0.28260869565217389</v>
+        <f t="shared" si="11"/>
+        <v>0.33014354066985646</v>
       </c>
       <c r="D114">
-        <f t="shared" si="11"/>
-        <v>2.7708520116421438</v>
+        <f t="shared" si="14"/>
+        <v>2.4440447959180758</v>
       </c>
       <c r="E114" t="s">
         <v>9</v>
@@ -3061,18 +3085,18 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B115">
-        <v>798</v>
+        <v>321</v>
       </c>
       <c r="C115">
-        <f t="shared" ref="C115:C144" si="14">(B115-B114)/B114</f>
-        <v>0.35254237288135593</v>
+        <f t="shared" si="11"/>
+        <v>0.15467625899280577</v>
       </c>
       <c r="D115">
-        <f t="shared" si="11"/>
-        <v>2.9020028913507292</v>
+        <f t="shared" si="14"/>
+        <v>2.5065050324048719</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
@@ -3080,18 +3104,18 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B116">
-        <v>1140</v>
+        <v>383</v>
       </c>
       <c r="C116">
+        <f t="shared" si="11"/>
+        <v>0.19314641744548286</v>
+      </c>
+      <c r="D116">
         <f t="shared" si="14"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="D116">
-        <f t="shared" si="11"/>
-        <v>3.0569048513364723</v>
+        <v>2.5831987739686224</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
@@ -3099,18 +3123,18 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B117">
-        <v>1391</v>
+        <v>460</v>
       </c>
       <c r="C117">
+        <f t="shared" si="11"/>
+        <v>0.20104438642297651</v>
+      </c>
+      <c r="D117">
         <f t="shared" si="14"/>
-        <v>0.22017543859649122</v>
-      </c>
-      <c r="D117">
-        <f t="shared" si="11"/>
-        <v>3.1433271299920462</v>
+        <v>2.6627578316815739</v>
       </c>
       <c r="E117" t="s">
         <v>9</v>
@@ -3118,18 +3142,18 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B118">
-        <v>1543</v>
+        <v>590</v>
       </c>
       <c r="C118">
+        <f t="shared" si="11"/>
+        <v>0.28260869565217389</v>
+      </c>
+      <c r="D118">
         <f t="shared" si="14"/>
-        <v>0.10927390366642703</v>
-      </c>
-      <c r="D118">
-        <f t="shared" si="11"/>
-        <v>3.1883659260631481</v>
+        <v>2.7708520116421438</v>
       </c>
       <c r="E118" t="s">
         <v>9</v>
@@ -3137,18 +3161,18 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B119">
-        <v>1950</v>
+        <v>798</v>
       </c>
       <c r="C119">
+        <f t="shared" ref="C119:C148" si="17">(B119-B118)/B118</f>
+        <v>0.35254237288135593</v>
+      </c>
+      <c r="D119">
         <f t="shared" si="14"/>
-        <v>0.26377187297472454</v>
-      </c>
-      <c r="D119">
-        <f t="shared" si="11"/>
-        <v>3.2900346113625178</v>
+        <v>2.9020028913507292</v>
       </c>
       <c r="E119" t="s">
         <v>9</v>
@@ -3156,18 +3180,18 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B120">
-        <v>2626</v>
+        <v>1140</v>
       </c>
       <c r="C120">
+        <f t="shared" si="17"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="D120">
         <f t="shared" si="14"/>
-        <v>0.34666666666666668</v>
-      </c>
-      <c r="D120">
-        <f t="shared" si="11"/>
-        <v>3.4192947217534599</v>
+        <v>3.0569048513364723</v>
       </c>
       <c r="E120" t="s">
         <v>9</v>
@@ -3175,18 +3199,18 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B121">
-        <v>3269</v>
+        <v>1391</v>
       </c>
       <c r="C121">
+        <f t="shared" si="17"/>
+        <v>0.22017543859649122</v>
+      </c>
+      <c r="D121">
         <f t="shared" si="14"/>
-        <v>0.24485910129474486</v>
-      </c>
-      <c r="D121">
-        <f t="shared" si="11"/>
-        <v>3.5144149205803688</v>
+        <v>3.1433271299920462</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
@@ -3194,18 +3218,18 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B122">
-        <v>3983</v>
+        <v>1543</v>
       </c>
       <c r="C122">
+        <f t="shared" si="17"/>
+        <v>0.10927390366642703</v>
+      </c>
+      <c r="D122">
         <f t="shared" si="14"/>
-        <v>0.21841541755888652</v>
-      </c>
-      <c r="D122">
-        <f t="shared" si="11"/>
-        <v>3.6002103064093274</v>
+        <v>3.1883659260631481</v>
       </c>
       <c r="E122" t="s">
         <v>9</v>
@@ -3213,93 +3237,93 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B123">
-        <v>100</v>
+        <v>1950</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>0.26377187297472454</v>
       </c>
       <c r="D123">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>3.2900346113625178</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B124">
-        <v>130</v>
+        <v>2626</v>
       </c>
       <c r="C124">
+        <f t="shared" si="17"/>
+        <v>0.34666666666666668</v>
+      </c>
+      <c r="D124">
         <f t="shared" si="14"/>
-        <v>0.3</v>
-      </c>
-      <c r="D124">
-        <f t="shared" si="11"/>
-        <v>2.1139433523068365</v>
+        <v>3.4192947217534599</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B125">
-        <v>191</v>
+        <v>3269</v>
       </c>
       <c r="C125">
+        <f t="shared" si="17"/>
+        <v>0.24485910129474486</v>
+      </c>
+      <c r="D125">
         <f t="shared" si="14"/>
-        <v>0.46923076923076923</v>
-      </c>
-      <c r="D125">
-        <f t="shared" si="11"/>
-        <v>2.2810333672477272</v>
+        <v>3.5144149205803688</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B126">
-        <v>212</v>
+        <v>3983</v>
       </c>
       <c r="C126">
+        <f t="shared" si="17"/>
+        <v>0.21841541755888652</v>
+      </c>
+      <c r="D126">
         <f t="shared" si="14"/>
-        <v>0.1099476439790576</v>
-      </c>
-      <c r="D126">
-        <f t="shared" si="11"/>
-        <v>2.3263358609287512</v>
+        <v>3.6002103064093274</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B127">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
         <f t="shared" si="14"/>
-        <v>0.34433962264150941</v>
-      </c>
-      <c r="D127">
-        <f t="shared" si="11"/>
-        <v>2.4548448600085102</v>
+        <v>2</v>
       </c>
       <c r="E127" t="s">
         <v>10</v>
@@ -3307,18 +3331,18 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B128">
-        <v>423</v>
+        <v>130</v>
       </c>
       <c r="C128">
+        <f t="shared" si="17"/>
+        <v>0.3</v>
+      </c>
+      <c r="D128">
         <f t="shared" si="14"/>
-        <v>0.48421052631578948</v>
-      </c>
-      <c r="D128">
-        <f t="shared" si="11"/>
-        <v>2.6263403673750418</v>
+        <v>2.1139433523068365</v>
       </c>
       <c r="E128" t="s">
         <v>10</v>
@@ -3326,18 +3350,18 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B129">
-        <v>653</v>
+        <v>191</v>
       </c>
       <c r="C129">
+        <f t="shared" si="17"/>
+        <v>0.46923076923076923</v>
+      </c>
+      <c r="D129">
         <f t="shared" si="14"/>
-        <v>0.54373522458628842</v>
-      </c>
-      <c r="D129">
-        <f t="shared" si="11"/>
-        <v>2.8149131812750738</v>
+        <v>2.2810333672477272</v>
       </c>
       <c r="E129" t="s">
         <v>10</v>
@@ -3345,18 +3369,18 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B130">
-        <v>949</v>
+        <v>212</v>
       </c>
       <c r="C130">
+        <f t="shared" si="17"/>
+        <v>0.1099476439790576</v>
+      </c>
+      <c r="D130">
         <f t="shared" si="14"/>
-        <v>0.45329249617151607</v>
-      </c>
-      <c r="D130">
-        <f t="shared" si="11"/>
-        <v>2.9772662124272924</v>
+        <v>2.3263358609287512</v>
       </c>
       <c r="E130" t="s">
         <v>10</v>
@@ -3364,18 +3388,18 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B131">
-        <v>1209</v>
+        <v>285</v>
       </c>
       <c r="C131">
+        <f t="shared" si="17"/>
+        <v>0.34433962264150941</v>
+      </c>
+      <c r="D131">
         <f t="shared" si="14"/>
-        <v>0.27397260273972601</v>
-      </c>
-      <c r="D131">
-        <f t="shared" si="11"/>
-        <v>3.0824263008607717</v>
+        <v>2.4548448600085102</v>
       </c>
       <c r="E131" t="s">
         <v>10</v>
@@ -3383,18 +3407,18 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B132">
-        <v>1412</v>
+        <v>423</v>
       </c>
       <c r="C132">
+        <f t="shared" si="17"/>
+        <v>0.48421052631578948</v>
+      </c>
+      <c r="D132">
         <f t="shared" si="14"/>
-        <v>0.16790736145574855</v>
-      </c>
-      <c r="D132">
-        <f t="shared" si="11"/>
-        <v>3.1498346967157844</v>
+        <v>2.6263403673750418</v>
       </c>
       <c r="E132" t="s">
         <v>10</v>
@@ -3402,18 +3426,18 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B133">
-        <v>1784</v>
+        <v>653</v>
       </c>
       <c r="C133">
+        <f t="shared" si="17"/>
+        <v>0.54373522458628842</v>
+      </c>
+      <c r="D133">
         <f t="shared" si="14"/>
-        <v>0.26345609065155806</v>
-      </c>
-      <c r="D133">
-        <f t="shared" si="11"/>
-        <v>3.251394850040104</v>
+        <v>2.8149131812750738</v>
       </c>
       <c r="E133" t="s">
         <v>10</v>
@@ -3421,18 +3445,18 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B134">
-        <v>2281</v>
+        <v>949</v>
       </c>
       <c r="C134">
+        <f t="shared" si="17"/>
+        <v>0.45329249617151607</v>
+      </c>
+      <c r="D134">
         <f t="shared" si="14"/>
-        <v>0.27858744394618834</v>
-      </c>
-      <c r="D134">
-        <f t="shared" si="11"/>
-        <v>3.3581252852766479</v>
+        <v>2.9772662124272924</v>
       </c>
       <c r="E134" t="s">
         <v>10</v>
@@ -3440,18 +3464,18 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B135">
-        <v>2876</v>
+        <v>1209</v>
       </c>
       <c r="C135">
+        <f t="shared" si="17"/>
+        <v>0.27397260273972601</v>
+      </c>
+      <c r="D135">
         <f t="shared" si="14"/>
-        <v>0.26085050416483996</v>
-      </c>
-      <c r="D135">
-        <f t="shared" si="11"/>
-        <v>3.4587888817108445</v>
+        <v>3.0824263008607717</v>
       </c>
       <c r="E135" t="s">
         <v>10</v>
@@ -3459,18 +3483,18 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B136">
-        <v>3661</v>
+        <v>1412</v>
       </c>
       <c r="C136">
+        <f t="shared" si="17"/>
+        <v>0.16790736145574855</v>
+      </c>
+      <c r="D136">
         <f t="shared" si="14"/>
-        <v>0.27294853963838667</v>
-      </c>
-      <c r="D136">
-        <f t="shared" si="11"/>
-        <v>3.5635997288815306</v>
+        <v>3.1498346967157844</v>
       </c>
       <c r="E136" t="s">
         <v>10</v>
@@ -3478,18 +3502,18 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B137">
-        <v>4499</v>
+        <v>1784</v>
       </c>
       <c r="C137">
+        <f t="shared" si="17"/>
+        <v>0.26345609065155806</v>
+      </c>
+      <c r="D137">
         <f t="shared" si="14"/>
-        <v>0.22889920786670309</v>
-      </c>
-      <c r="D137">
-        <f t="shared" si="11"/>
-        <v>3.6531159931655663</v>
+        <v>3.251394850040104</v>
       </c>
       <c r="E137" t="s">
         <v>10</v>
@@ -3497,18 +3521,18 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B138">
-        <v>5423</v>
+        <v>2281</v>
       </c>
       <c r="C138">
+        <f t="shared" si="17"/>
+        <v>0.27858744394618834</v>
+      </c>
+      <c r="D138">
         <f t="shared" si="14"/>
-        <v>0.20537897310513448</v>
-      </c>
-      <c r="D138">
-        <f t="shared" si="11"/>
-        <v>3.7342396044354547</v>
+        <v>3.3581252852766479</v>
       </c>
       <c r="E138" t="s">
         <v>10</v>
@@ -3516,18 +3540,18 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B139">
-        <v>6633</v>
+        <v>2876</v>
       </c>
       <c r="C139">
+        <f t="shared" si="17"/>
+        <v>0.26085050416483996</v>
+      </c>
+      <c r="D139">
         <f t="shared" si="14"/>
-        <v>0.2231237322515213</v>
-      </c>
-      <c r="D139">
-        <f t="shared" si="11"/>
-        <v>3.8217099972983757</v>
+        <v>3.4587888817108445</v>
       </c>
       <c r="E139" t="s">
         <v>10</v>
@@ -3535,18 +3559,18 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B140">
-        <v>7730</v>
+        <v>3661</v>
       </c>
       <c r="C140">
+        <f t="shared" si="17"/>
+        <v>0.27294853963838667</v>
+      </c>
+      <c r="D140">
         <f t="shared" si="14"/>
-        <v>0.1653851952359415</v>
-      </c>
-      <c r="D140">
-        <f t="shared" si="11"/>
-        <v>3.888179493918325</v>
+        <v>3.5635997288815306</v>
       </c>
       <c r="E140" t="s">
         <v>10</v>
@@ -3554,18 +3578,18 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B141">
-        <v>9134</v>
+        <v>4499</v>
       </c>
       <c r="C141">
+        <f t="shared" si="17"/>
+        <v>0.22889920786670309</v>
+      </c>
+      <c r="D141">
         <f t="shared" si="14"/>
-        <v>0.1816300129366106</v>
-      </c>
-      <c r="D141">
-        <f t="shared" si="11"/>
-        <v>3.9606610072709816</v>
+        <v>3.6531159931655663</v>
       </c>
       <c r="E141" t="s">
         <v>10</v>
@@ -3573,18 +3597,18 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B142">
-        <v>10995</v>
+        <v>5423</v>
       </c>
       <c r="C142">
+        <f t="shared" si="17"/>
+        <v>0.20537897310513448</v>
+      </c>
+      <c r="D142">
         <f t="shared" si="14"/>
-        <v>0.20374425224436171</v>
-      </c>
-      <c r="D142">
-        <f t="shared" si="11"/>
-        <v>4.0411952336968087</v>
+        <v>3.7342396044354547</v>
       </c>
       <c r="E142" t="s">
         <v>10</v>
@@ -3592,18 +3616,18 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B143">
-        <v>12612</v>
+        <v>6633</v>
       </c>
       <c r="C143">
+        <f t="shared" si="17"/>
+        <v>0.2231237322515213</v>
+      </c>
+      <c r="D143">
         <f t="shared" si="14"/>
-        <v>0.14706684856753069</v>
-      </c>
-      <c r="D143">
-        <f t="shared" si="11"/>
-        <v>4.1007839620758668</v>
+        <v>3.8217099972983757</v>
       </c>
       <c r="E143" t="s">
         <v>10</v>
@@ -3611,20 +3635,96 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
+        <v>18</v>
+      </c>
+      <c r="B144">
+        <v>7730</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="17"/>
+        <v>0.1653851952359415</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="14"/>
+        <v>3.888179493918325</v>
+      </c>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>19</v>
+      </c>
+      <c r="B145">
+        <v>9134</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="17"/>
+        <v>0.1816300129366106</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="14"/>
+        <v>3.9606610072709816</v>
+      </c>
+      <c r="E145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>20</v>
+      </c>
+      <c r="B146">
+        <v>10995</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="17"/>
+        <v>0.20374425224436171</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="14"/>
+        <v>4.0411952336968087</v>
+      </c>
+      <c r="E146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>21</v>
+      </c>
+      <c r="B147">
+        <v>12612</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="17"/>
+        <v>0.14706684856753069</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="14"/>
+        <v>4.1007839620758668</v>
+      </c>
+      <c r="E147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>22</v>
       </c>
-      <c r="B144">
+      <c r="B148">
         <v>14459</v>
       </c>
-      <c r="C144">
+      <c r="C148">
+        <f t="shared" si="17"/>
+        <v>0.14644782746590548</v>
+      </c>
+      <c r="D148">
         <f t="shared" si="14"/>
-        <v>0.14644782746590548</v>
-      </c>
-      <c r="D144">
-        <f t="shared" si="11"/>
         <v>4.1601382577234016</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E148" t="s">
         <v>10</v>
       </c>
     </row>

--- a/dataset/dataset_infec.xlsx
+++ b/dataset/dataset_infec.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="19">
   <si>
     <t>day</t>
   </si>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D50" si="0">LOG(B2,10)</f>
+        <f t="shared" ref="D2:D51" si="0">LOG(B2,10)</f>
         <v>2.1958996524092336</v>
       </c>
       <c r="E2" t="s">
@@ -1189,1440 +1189,1464 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>100</v>
+        <v>69176</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <f t="shared" ref="C32" si="4">(B32-B31)/B31</f>
+        <v>8.2109280898524886E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>LOG(B32,10)</f>
+        <v>4.8399554459675658</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F32" s="2">
-        <v>43892</v>
+        <v>43914</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
         <v>2</v>
-      </c>
-      <c r="B33">
-        <v>124</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ref="C33:C50" si="4">(B33-B32)/B32</f>
-        <v>0.24</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>2.0934216851622351</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
       </c>
       <c r="F33" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="G33">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C34">
-        <f t="shared" si="4"/>
-        <v>0.27419354838709675</v>
+        <f t="shared" ref="C34:C51" si="5">(B34-B33)/B33</f>
+        <v>0.24</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>2.1986570869544226</v>
+        <v>2.0934216851622351</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
       </c>
       <c r="F34" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="G34">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="C35">
-        <f t="shared" si="4"/>
-        <v>0.39873417721518989</v>
+        <f t="shared" si="5"/>
+        <v>0.27419354838709675</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>2.3443922736851102</v>
+        <v>2.1986570869544226</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
       </c>
       <c r="F35" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="G35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="C36">
-        <f t="shared" si="4"/>
-        <v>0.4434389140271493</v>
+        <f t="shared" si="5"/>
+        <v>0.39873417721518989</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>2.503790683057181</v>
+        <v>2.3443922736851102</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="2">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="G36">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37">
-        <v>435</v>
+        <v>319</v>
       </c>
       <c r="C37">
-        <f t="shared" si="4"/>
-        <v>0.36363636363636365</v>
+        <f t="shared" si="5"/>
+        <v>0.4434389140271493</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>2.638489256954637</v>
+        <v>2.503790683057181</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
       </c>
       <c r="F37" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G37">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38">
-        <v>541</v>
+        <v>435</v>
       </c>
       <c r="C38">
-        <f t="shared" si="4"/>
-        <v>0.24367816091954023</v>
+        <f t="shared" si="5"/>
+        <v>0.36363636363636365</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>2.7331972651065688</v>
+        <v>2.638489256954637</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="2">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="G38">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="C39">
-        <f t="shared" si="4"/>
-        <v>0.30129390018484287</v>
+        <f t="shared" si="5"/>
+        <v>0.24367816091954023</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>2.847572659142112</v>
+        <v>2.7331972651065688</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
       </c>
       <c r="F39" s="2">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="G39">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40">
-        <v>994</v>
+        <v>704</v>
       </c>
       <c r="C40">
-        <f t="shared" si="4"/>
-        <v>0.41193181818181818</v>
+        <f t="shared" si="5"/>
+        <v>0.30129390018484287</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>2.9973863843973132</v>
+        <v>2.847572659142112</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
       </c>
       <c r="F40" s="2">
-        <v>43900</v>
+        <v>43899</v>
       </c>
       <c r="G40">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41">
-        <v>1301</v>
+        <v>994</v>
       </c>
       <c r="C41">
-        <f t="shared" si="4"/>
-        <v>0.30885311871227367</v>
+        <f t="shared" si="5"/>
+        <v>0.41193181818181818</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>3.1142772965615859</v>
+        <v>2.9973863843973132</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
       </c>
       <c r="F41" s="2">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="G41">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42">
-        <v>1697</v>
+        <v>1301</v>
       </c>
       <c r="C42">
-        <f t="shared" si="4"/>
-        <v>0.30438124519600307</v>
+        <f t="shared" si="5"/>
+        <v>0.30885311871227367</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>3.2296818423176754</v>
+        <v>3.1142772965615859</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
       </c>
       <c r="F42" s="2">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="G42">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43">
-        <v>2247</v>
+        <v>1697</v>
       </c>
       <c r="C43">
-        <f t="shared" si="4"/>
-        <v>0.32410135533294049</v>
+        <f t="shared" si="5"/>
+        <v>0.30438124519600307</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>3.3516030724191288</v>
+        <v>3.2296818423176754</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
       </c>
       <c r="F43" s="2">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="G43">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44">
-        <v>2943</v>
+        <v>2247</v>
       </c>
       <c r="C44">
-        <f t="shared" si="4"/>
-        <v>0.30974632843791722</v>
+        <f t="shared" si="5"/>
+        <v>0.32410135533294049</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>3.4687902620996107</v>
+        <v>3.3516030724191288</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
       </c>
       <c r="F44" s="2">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="G44">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45">
-        <v>3680</v>
+        <v>2943</v>
       </c>
       <c r="C45">
-        <f t="shared" si="4"/>
-        <v>0.25042473666326875</v>
+        <f t="shared" si="5"/>
+        <v>0.30974632843791722</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>3.5658478186735172</v>
+        <v>3.4687902620996107</v>
       </c>
       <c r="E45" t="s">
         <v>6</v>
       </c>
       <c r="F45" s="2">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="G45">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B46">
-        <v>4663</v>
+        <v>3680</v>
       </c>
       <c r="C46">
-        <f t="shared" si="4"/>
-        <v>0.26711956521739133</v>
+        <f t="shared" si="5"/>
+        <v>0.25042473666326875</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>3.6686654154544915</v>
+        <v>3.5658478186735172</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="2">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="G46">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47">
-        <v>6411</v>
+        <v>4663</v>
       </c>
       <c r="C47">
-        <f t="shared" si="4"/>
-        <v>0.37486596611623418</v>
+        <f t="shared" si="5"/>
+        <v>0.26711956521739133</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>3.8069257768837312</v>
+        <v>3.6686654154544915</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
       </c>
       <c r="F47" s="2">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="G47">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48">
-        <v>9259</v>
+        <v>6411</v>
       </c>
       <c r="C48">
-        <f t="shared" si="4"/>
-        <v>0.44423646856964594</v>
+        <f t="shared" si="5"/>
+        <v>0.37486596611623418</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>3.96656408409731</v>
+        <v>3.8069257768837312</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="2">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="G48">
-        <v>150</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49">
-        <v>13789</v>
+        <v>9259</v>
       </c>
       <c r="C49">
-        <f t="shared" si="4"/>
-        <v>0.48925369910357491</v>
+        <f t="shared" si="5"/>
+        <v>0.44423646856964594</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>4.1395327715979393</v>
+        <v>3.96656408409731</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
       </c>
       <c r="F49" s="2">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="G49">
-        <v>207</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B50">
-        <v>19383</v>
+        <v>13789</v>
       </c>
       <c r="C50">
-        <f t="shared" si="4"/>
-        <v>0.40568569149321926</v>
+        <f t="shared" si="5"/>
+        <v>0.48925369910357491</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>4.287420995759831</v>
+        <v>4.1395327715979393</v>
       </c>
       <c r="E50" t="s">
         <v>6</v>
       </c>
       <c r="F50" s="2">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="G50">
-        <v>256</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51">
-        <v>24207</v>
+        <v>19383</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:C53" si="5">(B51-B50)/B50</f>
-        <v>0.24887788268069957</v>
+        <f t="shared" si="5"/>
+        <v>0.40568569149321926</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51:D53" si="6">LOG(B51,10)</f>
-        <v>4.3839409701862078</v>
+        <f t="shared" si="0"/>
+        <v>4.287420995759831</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
       </c>
       <c r="F51" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="G51">
-        <v>302</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52">
-        <v>33546</v>
+        <v>24207</v>
       </c>
       <c r="C52">
-        <f t="shared" si="5"/>
-        <v>0.38579749659189488</v>
+        <f t="shared" ref="C52:C55" si="6">(B52-B51)/B51</f>
+        <v>0.24887788268069957</v>
       </c>
       <c r="D52">
-        <f t="shared" si="6"/>
-        <v>4.5256407426423158</v>
+        <f t="shared" ref="D52:D55" si="7">LOG(B52,10)</f>
+        <v>4.3839409701862078</v>
       </c>
       <c r="E52" t="s">
         <v>6</v>
       </c>
       <c r="F52" s="2">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="G52">
-        <v>419</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53">
-        <v>42751</v>
+        <v>33546</v>
       </c>
       <c r="C53">
-        <f t="shared" si="5"/>
-        <v>0.27439933226018004</v>
+        <f t="shared" si="6"/>
+        <v>0.38579749659189488</v>
       </c>
       <c r="D53">
-        <f t="shared" si="6"/>
-        <v>4.6309462778806241</v>
+        <f t="shared" si="7"/>
+        <v>4.5256407426423158</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
       </c>
       <c r="F53" s="2">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="G53">
-        <v>520</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B54">
-        <v>120</v>
+        <v>42751</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.27439933226018004</v>
       </c>
       <c r="D54">
-        <f t="shared" ref="D54:D102" si="7">LOG(B54,10)</f>
-        <v>2.0791812460476247</v>
+        <f t="shared" si="7"/>
+        <v>4.6309462778806241</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54" s="2">
-        <v>43892</v>
+        <v>43913</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>520</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B55">
-        <v>165</v>
+        <v>54881</v>
       </c>
       <c r="C55">
-        <f t="shared" ref="C55:C73" si="8">(B55-B54)/B54</f>
-        <v>0.375</v>
+        <f t="shared" si="6"/>
+        <v>0.28373605295782556</v>
       </c>
       <c r="D55">
         <f t="shared" si="7"/>
-        <v>2.2174839442139058</v>
+        <v>4.7394220161557863</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F55" s="2">
-        <v>43893</v>
+        <v>43914</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>780</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B56">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="C56">
-        <f t="shared" si="8"/>
-        <v>0.38181818181818183</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <f t="shared" si="7"/>
-        <v>2.3579348470004535</v>
+        <f t="shared" ref="D56:D106" si="8">LOG(B56,10)</f>
+        <v>2.0791812460476247</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="2">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B57">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="C57">
+        <f t="shared" ref="C57:C75" si="9">(B57-B56)/B56</f>
+        <v>0.375</v>
+      </c>
+      <c r="D57">
         <f t="shared" si="8"/>
-        <v>0.23684210526315788</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="7"/>
-        <v>2.4502491083193609</v>
+        <v>2.2174839442139058</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B58">
-        <v>401</v>
+        <v>228</v>
       </c>
       <c r="C58">
+        <f t="shared" si="9"/>
+        <v>0.38181818181818183</v>
+      </c>
+      <c r="D58">
         <f t="shared" si="8"/>
-        <v>0.42198581560283688</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="7"/>
-        <v>2.6031443726201822</v>
+        <v>2.3579348470004535</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
       </c>
       <c r="F58" s="2">
-        <v>43896</v>
+        <v>43894</v>
       </c>
       <c r="G58">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B59">
-        <v>525</v>
+        <v>282</v>
       </c>
       <c r="C59">
+        <f t="shared" si="9"/>
+        <v>0.23684210526315788</v>
+      </c>
+      <c r="D59">
         <f t="shared" si="8"/>
-        <v>0.30922693266832918</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="7"/>
-        <v>2.7201593034059566</v>
+        <v>2.4502491083193609</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
       </c>
       <c r="F59" s="2">
-        <v>43897</v>
+        <v>43895</v>
       </c>
       <c r="G59">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B60">
-        <v>674</v>
+        <v>401</v>
       </c>
       <c r="C60">
+        <f t="shared" si="9"/>
+        <v>0.42198581560283688</v>
+      </c>
+      <c r="D60">
         <f t="shared" si="8"/>
-        <v>0.28380952380952379</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="7"/>
-        <v>2.8286598965353194</v>
+        <v>2.6031443726201822</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
       </c>
       <c r="F60" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G60">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B61">
-        <v>1231</v>
+        <v>525</v>
       </c>
       <c r="C61">
+        <f t="shared" si="9"/>
+        <v>0.30922693266832918</v>
+      </c>
+      <c r="D61">
         <f t="shared" si="8"/>
-        <v>0.82640949554896137</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="7"/>
-        <v>3.0902580529313162</v>
+        <v>2.7201593034059566</v>
       </c>
       <c r="E61" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="2">
-        <v>43899</v>
+        <v>43897</v>
       </c>
       <c r="G61">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B62">
-        <v>1695</v>
+        <v>674</v>
       </c>
       <c r="C62">
+        <f t="shared" si="9"/>
+        <v>0.28380952380952379</v>
+      </c>
+      <c r="D62">
         <f t="shared" si="8"/>
-        <v>0.37692932575142163</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="7"/>
-        <v>3.2291697025391004</v>
+        <v>2.8286598965353194</v>
       </c>
       <c r="E62" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="2">
-        <v>43900</v>
+        <v>43898</v>
       </c>
       <c r="G62">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B63">
-        <v>2277</v>
+        <v>1231</v>
       </c>
       <c r="C63">
+        <f t="shared" si="9"/>
+        <v>0.82640949554896137</v>
+      </c>
+      <c r="D63">
         <f t="shared" si="8"/>
-        <v>0.3433628318584071</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="7"/>
-        <v>3.3573630306151423</v>
+        <v>3.0902580529313162</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="2">
-        <v>43901</v>
+        <v>43899</v>
       </c>
       <c r="G63">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B64">
-        <v>3146</v>
+        <v>1695</v>
       </c>
       <c r="C64">
+        <f t="shared" si="9"/>
+        <v>0.37692932575142163</v>
+      </c>
+      <c r="D64">
         <f t="shared" si="8"/>
-        <v>0.38164251207729466</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="7"/>
-        <v>3.4977587182872676</v>
+        <v>3.2291697025391004</v>
       </c>
       <c r="E64" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="2">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="G64">
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B65">
-        <v>5232</v>
+        <v>2277</v>
       </c>
       <c r="C65">
+        <f t="shared" si="9"/>
+        <v>0.3433628318584071</v>
+      </c>
+      <c r="D65">
         <f t="shared" si="8"/>
-        <v>0.66306420851875403</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="7"/>
-        <v>3.7186677353162101</v>
+        <v>3.3573630306151423</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
       </c>
       <c r="F65" s="2">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="G65">
-        <v>133</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B66">
-        <v>6391</v>
+        <v>3146</v>
       </c>
       <c r="C66">
+        <f t="shared" si="9"/>
+        <v>0.38164251207729466</v>
+      </c>
+      <c r="D66">
         <f t="shared" si="8"/>
-        <v>0.22152140672782875</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="7"/>
-        <v>3.8055688175485556</v>
+        <v>3.4977587182872676</v>
       </c>
       <c r="E66" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="2">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="G66">
-        <v>196</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B67">
-        <v>7988</v>
+        <v>5232</v>
       </c>
       <c r="C67">
+        <f t="shared" si="9"/>
+        <v>0.66306420851875403</v>
+      </c>
+      <c r="D67">
         <f t="shared" si="8"/>
-        <v>0.24988264747300892</v>
-      </c>
-      <c r="D67">
-        <f t="shared" si="7"/>
-        <v>3.9024380561986645</v>
+        <v>3.7186677353162101</v>
       </c>
       <c r="E67" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="2">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="G67">
-        <v>294</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B68">
-        <v>9942</v>
+        <v>6391</v>
       </c>
       <c r="C68">
+        <f t="shared" si="9"/>
+        <v>0.22152140672782875</v>
+      </c>
+      <c r="D68">
         <f t="shared" si="8"/>
-        <v>0.24461692538808213</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="7"/>
-        <v>3.9974737588029798</v>
+        <v>3.8055688175485556</v>
       </c>
       <c r="E68" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="2">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="G68">
-        <v>342</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B69">
-        <v>11826</v>
+        <v>7988</v>
       </c>
       <c r="C69">
+        <f t="shared" si="9"/>
+        <v>0.24988264747300892</v>
+      </c>
+      <c r="D69">
         <f t="shared" si="8"/>
-        <v>0.18949909474954738</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="7"/>
-        <v>4.0728378746630858</v>
+        <v>3.9024380561986645</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
       </c>
       <c r="F69" s="2">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="G69">
-        <v>533</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B70">
-        <v>14769</v>
+        <v>9942</v>
       </c>
       <c r="C70">
+        <f t="shared" si="9"/>
+        <v>0.24461692538808213</v>
+      </c>
+      <c r="D70">
         <f t="shared" si="8"/>
-        <v>0.24885844748858446</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="7"/>
-        <v>4.1693510904924178</v>
+        <v>3.9974737588029798</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
       </c>
       <c r="F70" s="2">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="G70">
-        <v>638</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B71">
-        <v>18077</v>
+        <v>11826</v>
       </c>
       <c r="C71">
+        <f t="shared" si="9"/>
+        <v>0.18949909474954738</v>
+      </c>
+      <c r="D71">
         <f t="shared" si="8"/>
-        <v>0.22398266639582909</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="7"/>
-        <v>4.2571263580225924</v>
+        <v>4.0728378746630858</v>
       </c>
       <c r="E71" t="s">
         <v>7</v>
       </c>
       <c r="F71" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="G71">
-        <v>831</v>
+        <v>533</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B72">
-        <v>21571</v>
+        <v>14769</v>
       </c>
       <c r="C72">
+        <f t="shared" si="9"/>
+        <v>0.24885844748858446</v>
+      </c>
+      <c r="D72">
         <f t="shared" si="8"/>
-        <v>0.19328428389666427</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="7"/>
-        <v>4.3338702788260086</v>
+        <v>4.1693510904924178</v>
       </c>
       <c r="E72" t="s">
         <v>7</v>
       </c>
       <c r="F72" s="2">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="G72">
-        <v>1093</v>
+        <v>638</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B73">
-        <v>25496</v>
+        <v>18077</v>
       </c>
       <c r="C73">
+        <f t="shared" si="9"/>
+        <v>0.22398266639582909</v>
+      </c>
+      <c r="D73">
         <f t="shared" si="8"/>
-        <v>0.18195725742895555</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="7"/>
-        <v>4.406472050465676</v>
+        <v>4.2571263580225924</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>
       </c>
       <c r="F73" s="2">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="G73">
-        <v>1381</v>
+        <v>831</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B74">
-        <v>28603</v>
+        <v>21571</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:C75" si="9">(B74-B73)/B73</f>
-        <v>0.12186225290241606</v>
+        <f t="shared" si="9"/>
+        <v>0.19328428389666427</v>
       </c>
       <c r="D74">
-        <f t="shared" ref="D74:D75" si="10">LOG(B74,10)</f>
-        <v>4.456411586105177</v>
+        <f t="shared" si="8"/>
+        <v>4.3338702788260086</v>
       </c>
       <c r="E74" t="s">
         <v>7</v>
       </c>
       <c r="F74" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="G74">
-        <v>1756</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B75">
-        <v>33089</v>
+        <v>25496</v>
       </c>
       <c r="C75">
         <f t="shared" si="9"/>
-        <v>0.15683669545152606</v>
+        <v>0.18195725742895555</v>
       </c>
       <c r="D75">
-        <f t="shared" si="10"/>
-        <v>4.5196836423171698</v>
+        <f t="shared" si="8"/>
+        <v>4.406472050465676</v>
       </c>
       <c r="E75" t="s">
         <v>7</v>
       </c>
       <c r="F75" s="2">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="G75">
-        <v>2207</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B76">
-        <v>151</v>
+        <v>28603</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <f t="shared" ref="C76:C78" si="10">(B76-B75)/B75</f>
+        <v>0.12186225290241606</v>
       </c>
       <c r="D76">
-        <f t="shared" si="7"/>
-        <v>2.1789769472931693</v>
+        <f t="shared" ref="D76:D78" si="11">LOG(B76,10)</f>
+        <v>4.456411586105177</v>
       </c>
       <c r="E76" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F76" s="2">
-        <v>43904</v>
+        <v>43912</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B77">
-        <v>200</v>
+        <v>33089</v>
       </c>
       <c r="C77">
-        <f t="shared" ref="C77:C118" si="11">(B77-B76)/B76</f>
-        <v>0.32450331125827814</v>
+        <f t="shared" si="10"/>
+        <v>0.15683669545152606</v>
       </c>
       <c r="D77">
-        <f t="shared" si="7"/>
-        <v>2.3010299956639808</v>
+        <f t="shared" si="11"/>
+        <v>4.5196836423171698</v>
       </c>
       <c r="E77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F77" s="2">
-        <v>43905</v>
+        <v>43913</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B78">
-        <v>234</v>
+        <v>42058</v>
       </c>
       <c r="C78">
+        <f t="shared" si="10"/>
+        <v>0.27105684668620994</v>
+      </c>
+      <c r="D78">
         <f t="shared" si="11"/>
-        <v>0.17</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="7"/>
-        <v>2.3692158574101425</v>
+        <v>4.6238486166713759</v>
       </c>
       <c r="E78" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F78" s="2">
-        <v>43906</v>
+        <v>43914</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B79">
-        <v>346</v>
+        <v>151</v>
       </c>
       <c r="C79">
-        <f t="shared" si="11"/>
-        <v>0.47863247863247865</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <f t="shared" si="7"/>
-        <v>2.5390760987927767</v>
+        <f t="shared" si="8"/>
+        <v>2.1789769472931693</v>
       </c>
       <c r="E79" t="s">
         <v>5</v>
       </c>
       <c r="F79" s="2">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B80">
-        <v>529</v>
+        <v>200</v>
       </c>
       <c r="C80">
-        <f t="shared" si="11"/>
-        <v>0.52890173410404628</v>
+        <f t="shared" ref="C80:C122" si="12">(B80-B79)/B79</f>
+        <v>0.32450331125827814</v>
       </c>
       <c r="D80">
-        <f t="shared" si="7"/>
-        <v>2.7234556720351857</v>
+        <f t="shared" si="8"/>
+        <v>2.3010299956639808</v>
       </c>
       <c r="E80" t="s">
         <v>5</v>
       </c>
       <c r="F80" s="2">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B81">
-        <v>640</v>
+        <v>234</v>
       </c>
       <c r="C81">
-        <f t="shared" si="11"/>
-        <v>0.20982986767485823</v>
+        <f t="shared" si="12"/>
+        <v>0.17</v>
       </c>
       <c r="D81">
-        <f t="shared" si="7"/>
-        <v>2.8061799739838866</v>
+        <f t="shared" si="8"/>
+        <v>2.3692158574101425</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
       </c>
       <c r="F81" s="2">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="G81">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B82">
-        <v>970</v>
+        <v>346</v>
       </c>
       <c r="C82">
-        <f t="shared" si="11"/>
-        <v>0.515625</v>
+        <f t="shared" si="12"/>
+        <v>0.47863247863247865</v>
       </c>
       <c r="D82">
-        <f t="shared" si="7"/>
-        <v>2.9867717342662448</v>
+        <f t="shared" si="8"/>
+        <v>2.5390760987927767</v>
       </c>
       <c r="E82" t="s">
         <v>5</v>
       </c>
       <c r="F82" s="2">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="G82">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B83">
-        <v>1178</v>
+        <v>529</v>
       </c>
       <c r="C83">
-        <f t="shared" si="11"/>
-        <v>0.21443298969072164</v>
+        <f t="shared" si="12"/>
+        <v>0.52890173410404628</v>
       </c>
       <c r="D83">
-        <f t="shared" si="7"/>
-        <v>3.0711452904510823</v>
+        <f t="shared" si="8"/>
+        <v>2.7234556720351857</v>
       </c>
       <c r="E83" t="s">
         <v>5</v>
       </c>
       <c r="F83" s="2">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="G83">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B84">
-        <v>1546</v>
+        <v>640</v>
       </c>
       <c r="C84">
-        <f t="shared" si="11"/>
-        <v>0.31239388794567063</v>
+        <f t="shared" si="12"/>
+        <v>0.20982986767485823</v>
       </c>
       <c r="D84">
-        <f t="shared" si="7"/>
-        <v>3.1892094895823058</v>
+        <f t="shared" si="8"/>
+        <v>2.8061799739838866</v>
       </c>
       <c r="E84" t="s">
         <v>5</v>
       </c>
       <c r="F84" s="2">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="G84">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B85">
-        <v>1891</v>
+        <v>970</v>
       </c>
       <c r="C85">
-        <f t="shared" ref="C85" si="12">(B85-B84)/B84</f>
-        <v>0.22315653298835705</v>
+        <f t="shared" si="12"/>
+        <v>0.515625</v>
       </c>
       <c r="D85">
-        <f t="shared" ref="D85" si="13">LOG(B85,10)</f>
-        <v>3.2766915288450393</v>
+        <f t="shared" si="8"/>
+        <v>2.9867717342662448</v>
       </c>
       <c r="E85" t="s">
         <v>5</v>
       </c>
       <c r="F85" s="2">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="G85">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B86">
-        <v>139</v>
+        <v>1178</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0.21443298969072164</v>
       </c>
       <c r="D86">
-        <f t="shared" si="7"/>
-        <v>2.143014800254095</v>
+        <f t="shared" si="8"/>
+        <v>3.0711452904510823</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F86" s="2">
+        <v>43911</v>
+      </c>
+      <c r="G86">
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B87">
-        <v>245</v>
+        <v>1546</v>
       </c>
       <c r="C87">
-        <f t="shared" si="11"/>
-        <v>0.76258992805755399</v>
+        <f t="shared" si="12"/>
+        <v>0.31239388794567063</v>
       </c>
       <c r="D87">
-        <f t="shared" si="7"/>
-        <v>2.3891660843645326</v>
+        <f t="shared" si="8"/>
+        <v>3.1892094895823058</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F87" s="2">
+        <v>43912</v>
+      </c>
+      <c r="G87">
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B88">
-        <v>388</v>
+        <v>1891</v>
       </c>
       <c r="C88">
-        <f t="shared" si="11"/>
-        <v>0.58367346938775511</v>
+        <f t="shared" ref="C88:C89" si="13">(B88-B87)/B87</f>
+        <v>0.22315653298835705</v>
       </c>
       <c r="D88">
-        <f t="shared" si="7"/>
-        <v>2.5888317255942073</v>
+        <f t="shared" ref="D88:D89" si="14">LOG(B88,10)</f>
+        <v>3.2766915288450393</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F88" s="2">
+        <v>43913</v>
+      </c>
+      <c r="G88">
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B89">
-        <v>593</v>
+        <v>2247</v>
       </c>
       <c r="C89">
-        <f t="shared" si="11"/>
-        <v>0.52835051546391754</v>
+        <f t="shared" si="13"/>
+        <v>0.18826017979904813</v>
       </c>
       <c r="D89">
-        <f t="shared" si="7"/>
-        <v>2.7730546933642626</v>
+        <f t="shared" si="14"/>
+        <v>3.3516030724191288</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F89" s="2">
+        <v>43914</v>
+      </c>
+      <c r="G89">
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B90">
-        <v>978</v>
+        <v>139</v>
       </c>
       <c r="C90">
-        <f t="shared" si="11"/>
-        <v>0.6492411467116358</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <f t="shared" si="7"/>
-        <v>2.9903388547876015</v>
+        <f t="shared" si="8"/>
+        <v>2.143014800254095</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
@@ -2630,18 +2654,18 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B91">
-        <v>1501</v>
+        <v>245</v>
       </c>
       <c r="C91">
-        <f t="shared" si="11"/>
-        <v>0.53476482617586907</v>
+        <f t="shared" si="12"/>
+        <v>0.76258992805755399</v>
       </c>
       <c r="D91">
-        <f t="shared" si="7"/>
-        <v>3.1763806922432698</v>
+        <f t="shared" si="8"/>
+        <v>2.3891660843645326</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
@@ -2649,18 +2673,18 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B92">
-        <v>2336</v>
+        <v>388</v>
       </c>
       <c r="C92">
-        <f t="shared" si="11"/>
-        <v>0.55629580279813462</v>
+        <f t="shared" si="12"/>
+        <v>0.58367346938775511</v>
       </c>
       <c r="D92">
-        <f t="shared" si="7"/>
-        <v>3.3684728384403617</v>
+        <f t="shared" si="8"/>
+        <v>2.5888317255942073</v>
       </c>
       <c r="E92" t="s">
         <v>8</v>
@@ -2668,18 +2692,18 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B93">
-        <v>2922</v>
+        <v>593</v>
       </c>
       <c r="C93">
-        <f t="shared" si="11"/>
-        <v>0.25085616438356162</v>
+        <f t="shared" si="12"/>
+        <v>0.52835051546391754</v>
       </c>
       <c r="D93">
-        <f t="shared" si="7"/>
-        <v>3.4656802115982779</v>
+        <f t="shared" si="8"/>
+        <v>2.7730546933642626</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
@@ -2687,18 +2711,18 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B94">
-        <v>3513</v>
+        <v>978</v>
       </c>
       <c r="C94">
-        <f t="shared" si="11"/>
-        <v>0.20225872689938398</v>
+        <f t="shared" si="12"/>
+        <v>0.6492411467116358</v>
       </c>
       <c r="D94">
-        <f t="shared" si="7"/>
-        <v>3.5456781497920251</v>
+        <f t="shared" si="8"/>
+        <v>2.9903388547876015</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
@@ -2706,18 +2730,18 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B95">
-        <v>4747</v>
+        <v>1501</v>
       </c>
       <c r="C95">
-        <f t="shared" si="11"/>
-        <v>0.35126672359806432</v>
+        <f t="shared" si="12"/>
+        <v>0.53476482617586907</v>
       </c>
       <c r="D95">
-        <f t="shared" si="7"/>
-        <v>3.6764192317183597</v>
+        <f t="shared" si="8"/>
+        <v>3.1763806922432698</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
@@ -2725,18 +2749,18 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B96">
-        <v>5823</v>
+        <v>2336</v>
       </c>
       <c r="C96">
-        <f t="shared" si="11"/>
-        <v>0.22666947545818411</v>
+        <f t="shared" si="12"/>
+        <v>0.55629580279813462</v>
       </c>
       <c r="D96">
-        <f t="shared" si="7"/>
-        <v>3.7651467901080249</v>
+        <f t="shared" si="8"/>
+        <v>3.3684728384403617</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
@@ -2744,18 +2768,18 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B97">
-        <v>6566</v>
+        <v>2922</v>
       </c>
       <c r="C97">
-        <f t="shared" si="11"/>
-        <v>0.12759745835479994</v>
+        <f t="shared" si="12"/>
+        <v>0.25085616438356162</v>
       </c>
       <c r="D97">
-        <f t="shared" si="7"/>
-        <v>3.8173008783933207</v>
+        <f t="shared" si="8"/>
+        <v>3.4656802115982779</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
@@ -2763,18 +2787,18 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B98">
-        <v>7161</v>
+        <v>3513</v>
       </c>
       <c r="C98">
-        <f t="shared" si="11"/>
-        <v>9.0618336886993597E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.20225872689938398</v>
       </c>
       <c r="D98">
-        <f t="shared" si="7"/>
-        <v>3.8549736737264171</v>
+        <f t="shared" si="8"/>
+        <v>3.5456781497920251</v>
       </c>
       <c r="E98" t="s">
         <v>8</v>
@@ -2782,18 +2806,18 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B99">
-        <v>8042</v>
+        <v>4747</v>
       </c>
       <c r="C99">
-        <f t="shared" si="11"/>
-        <v>0.12302751012428431</v>
+        <f t="shared" si="12"/>
+        <v>0.35126672359806432</v>
       </c>
       <c r="D99">
-        <f t="shared" si="7"/>
-        <v>3.9053640687668914</v>
+        <f t="shared" si="8"/>
+        <v>3.6764192317183597</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -2801,18 +2825,18 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B100">
-        <v>9000</v>
+        <v>5823</v>
       </c>
       <c r="C100">
-        <f t="shared" si="11"/>
-        <v>0.11912459587167372</v>
+        <f t="shared" si="12"/>
+        <v>0.22666947545818411</v>
       </c>
       <c r="D100">
-        <f t="shared" si="7"/>
-        <v>3.9542425094393248</v>
+        <f t="shared" si="8"/>
+        <v>3.7651467901080249</v>
       </c>
       <c r="E100" t="s">
         <v>8</v>
@@ -2820,18 +2844,18 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B101">
-        <v>10075</v>
+        <v>6566</v>
       </c>
       <c r="C101">
-        <f t="shared" si="11"/>
-        <v>0.11944444444444445</v>
+        <f t="shared" si="12"/>
+        <v>0.12759745835479994</v>
       </c>
       <c r="D101">
-        <f t="shared" si="7"/>
-        <v>4.0032450548131466</v>
+        <f t="shared" si="8"/>
+        <v>3.8173008783933207</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
@@ -2839,18 +2863,18 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B102">
-        <v>11364</v>
+        <v>7161</v>
       </c>
       <c r="C102">
-        <f t="shared" si="11"/>
-        <v>0.12794044665012408</v>
+        <f t="shared" si="12"/>
+        <v>9.0618336886993597E-2</v>
       </c>
       <c r="D102">
-        <f t="shared" si="7"/>
-        <v>4.0555312250508981</v>
+        <f t="shared" si="8"/>
+        <v>3.8549736737264171</v>
       </c>
       <c r="E102" t="s">
         <v>8</v>
@@ -2858,18 +2882,18 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B103">
-        <v>12729</v>
+        <v>8042</v>
       </c>
       <c r="C103">
-        <f t="shared" si="11"/>
-        <v>0.12011615628299895</v>
+        <f t="shared" si="12"/>
+        <v>0.12302751012428431</v>
       </c>
       <c r="D103">
-        <f t="shared" ref="D103:D148" si="14">LOG(B103,10)</f>
-        <v>4.1047942864862774</v>
+        <f t="shared" si="8"/>
+        <v>3.9053640687668914</v>
       </c>
       <c r="E103" t="s">
         <v>8</v>
@@ -2877,18 +2901,18 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B104">
-        <v>13938</v>
+        <v>9000</v>
       </c>
       <c r="C104">
-        <f t="shared" si="11"/>
-        <v>9.4979967004477958E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.11912459587167372</v>
       </c>
       <c r="D104">
-        <f t="shared" si="14"/>
-        <v>4.1442004601838791</v>
+        <f t="shared" si="8"/>
+        <v>3.9542425094393248</v>
       </c>
       <c r="E104" t="s">
         <v>8</v>
@@ -2896,18 +2920,18 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B105">
-        <v>14991</v>
+        <v>10075</v>
       </c>
       <c r="C105">
-        <f t="shared" si="11"/>
-        <v>7.554885923374946E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.11944444444444445</v>
       </c>
       <c r="D105">
-        <f t="shared" si="14"/>
-        <v>4.1758306041622486</v>
+        <f t="shared" si="8"/>
+        <v>4.0032450548131466</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
@@ -2915,18 +2939,18 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B106">
-        <v>16169</v>
+        <v>11364</v>
       </c>
       <c r="C106">
-        <f t="shared" si="11"/>
-        <v>7.8580481622306714E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.12794044665012408</v>
       </c>
       <c r="D106">
-        <f t="shared" si="14"/>
-        <v>4.208683161037416</v>
+        <f t="shared" si="8"/>
+        <v>4.0555312250508981</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
@@ -2934,18 +2958,18 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B107">
-        <v>17361</v>
+        <v>12729</v>
       </c>
       <c r="C107">
-        <f t="shared" si="11"/>
-        <v>7.372131857257716E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.12011615628299895</v>
       </c>
       <c r="D107">
-        <f t="shared" si="14"/>
-        <v>4.2395747370832089</v>
+        <f t="shared" ref="D107:D152" si="15">LOG(B107,10)</f>
+        <v>4.1047942864862774</v>
       </c>
       <c r="E107" t="s">
         <v>8</v>
@@ -2953,18 +2977,18 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B108">
-        <v>18407</v>
+        <v>13938</v>
       </c>
       <c r="C108">
-        <f t="shared" si="11"/>
-        <v>6.0249985599907838E-2</v>
+        <f t="shared" si="12"/>
+        <v>9.4979967004477958E-2</v>
       </c>
       <c r="D108">
-        <f t="shared" si="14"/>
-        <v>4.2649830123164598</v>
+        <f t="shared" si="15"/>
+        <v>4.1442004601838791</v>
       </c>
       <c r="E108" t="s">
         <v>8</v>
@@ -2972,18 +2996,18 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B109">
-        <v>19644</v>
+        <v>14991</v>
       </c>
       <c r="C109">
-        <f t="shared" si="11"/>
-        <v>6.7202694627044063E-2</v>
+        <f t="shared" si="12"/>
+        <v>7.554885923374946E-2</v>
       </c>
       <c r="D109">
-        <f t="shared" si="14"/>
-        <v>4.2932299254595661</v>
+        <f t="shared" si="15"/>
+        <v>4.1758306041622486</v>
       </c>
       <c r="E109" t="s">
         <v>8</v>
@@ -2991,18 +3015,18 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B110">
-        <v>21638</v>
+        <v>16169</v>
       </c>
       <c r="C110">
-        <f t="shared" ref="C110" si="15">(B110-B109)/B109</f>
-        <v>0.10150682142129912</v>
+        <f t="shared" si="12"/>
+        <v>7.8580481622306714E-2</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110" si="16">LOG(B110,10)</f>
-        <v>4.335217116457434</v>
+        <f t="shared" si="15"/>
+        <v>4.208683161037416</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
@@ -3010,93 +3034,93 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B111">
-        <v>116</v>
+        <v>17361</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>7.372131857257716E-2</v>
       </c>
       <c r="D111">
-        <f t="shared" si="14"/>
-        <v>2.0644579892269181</v>
+        <f t="shared" si="15"/>
+        <v>4.2395747370832089</v>
       </c>
       <c r="E111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B112">
-        <v>164</v>
+        <v>18407</v>
       </c>
       <c r="C112">
-        <f t="shared" si="11"/>
-        <v>0.41379310344827586</v>
+        <f t="shared" si="12"/>
+        <v>6.0249985599907838E-2</v>
       </c>
       <c r="D112">
-        <f t="shared" si="14"/>
-        <v>2.214843848047698</v>
+        <f t="shared" si="15"/>
+        <v>4.2649830123164598</v>
       </c>
       <c r="E112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B113">
-        <v>209</v>
+        <v>19644</v>
       </c>
       <c r="C113">
-        <f t="shared" si="11"/>
-        <v>0.27439024390243905</v>
+        <f t="shared" si="12"/>
+        <v>6.7202694627044063E-2</v>
       </c>
       <c r="D113">
-        <f t="shared" si="14"/>
-        <v>2.3201462861110538</v>
+        <f t="shared" si="15"/>
+        <v>4.2932299254595661</v>
       </c>
       <c r="E113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B114">
-        <v>278</v>
+        <v>21638</v>
       </c>
       <c r="C114">
-        <f t="shared" si="11"/>
-        <v>0.33014354066985646</v>
+        <f t="shared" ref="C114" si="16">(B114-B113)/B113</f>
+        <v>0.10150682142129912</v>
       </c>
       <c r="D114">
-        <f t="shared" si="14"/>
-        <v>2.4440447959180758</v>
+        <f t="shared" ref="D114" si="17">LOG(B114,10)</f>
+        <v>4.335217116457434</v>
       </c>
       <c r="E114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B115">
-        <v>321</v>
+        <v>116</v>
       </c>
       <c r="C115">
-        <f t="shared" si="11"/>
-        <v>0.15467625899280577</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <f t="shared" si="14"/>
-        <v>2.5065050324048719</v>
+        <f t="shared" si="15"/>
+        <v>2.0644579892269181</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
@@ -3104,18 +3128,18 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B116">
-        <v>383</v>
+        <v>164</v>
       </c>
       <c r="C116">
-        <f t="shared" si="11"/>
-        <v>0.19314641744548286</v>
+        <f t="shared" si="12"/>
+        <v>0.41379310344827586</v>
       </c>
       <c r="D116">
-        <f t="shared" si="14"/>
-        <v>2.5831987739686224</v>
+        <f t="shared" si="15"/>
+        <v>2.214843848047698</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
@@ -3123,18 +3147,18 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B117">
-        <v>460</v>
+        <v>209</v>
       </c>
       <c r="C117">
-        <f t="shared" si="11"/>
-        <v>0.20104438642297651</v>
+        <f t="shared" si="12"/>
+        <v>0.27439024390243905</v>
       </c>
       <c r="D117">
-        <f t="shared" si="14"/>
-        <v>2.6627578316815739</v>
+        <f t="shared" si="15"/>
+        <v>2.3201462861110538</v>
       </c>
       <c r="E117" t="s">
         <v>9</v>
@@ -3142,18 +3166,18 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B118">
-        <v>590</v>
+        <v>278</v>
       </c>
       <c r="C118">
-        <f t="shared" si="11"/>
-        <v>0.28260869565217389</v>
+        <f t="shared" si="12"/>
+        <v>0.33014354066985646</v>
       </c>
       <c r="D118">
-        <f t="shared" si="14"/>
-        <v>2.7708520116421438</v>
+        <f t="shared" si="15"/>
+        <v>2.4440447959180758</v>
       </c>
       <c r="E118" t="s">
         <v>9</v>
@@ -3161,18 +3185,18 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B119">
-        <v>798</v>
+        <v>321</v>
       </c>
       <c r="C119">
-        <f t="shared" ref="C119:C148" si="17">(B119-B118)/B118</f>
-        <v>0.35254237288135593</v>
+        <f t="shared" si="12"/>
+        <v>0.15467625899280577</v>
       </c>
       <c r="D119">
-        <f t="shared" si="14"/>
-        <v>2.9020028913507292</v>
+        <f t="shared" si="15"/>
+        <v>2.5065050324048719</v>
       </c>
       <c r="E119" t="s">
         <v>9</v>
@@ -3180,18 +3204,18 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B120">
-        <v>1140</v>
+        <v>383</v>
       </c>
       <c r="C120">
-        <f t="shared" si="17"/>
-        <v>0.42857142857142855</v>
+        <f t="shared" si="12"/>
+        <v>0.19314641744548286</v>
       </c>
       <c r="D120">
-        <f t="shared" si="14"/>
-        <v>3.0569048513364723</v>
+        <f t="shared" si="15"/>
+        <v>2.5831987739686224</v>
       </c>
       <c r="E120" t="s">
         <v>9</v>
@@ -3199,18 +3223,18 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B121">
-        <v>1391</v>
+        <v>460</v>
       </c>
       <c r="C121">
-        <f t="shared" si="17"/>
-        <v>0.22017543859649122</v>
+        <f t="shared" si="12"/>
+        <v>0.20104438642297651</v>
       </c>
       <c r="D121">
-        <f t="shared" si="14"/>
-        <v>3.1433271299920462</v>
+        <f t="shared" si="15"/>
+        <v>2.6627578316815739</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
@@ -3218,18 +3242,18 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B122">
-        <v>1543</v>
+        <v>590</v>
       </c>
       <c r="C122">
-        <f t="shared" si="17"/>
-        <v>0.10927390366642703</v>
+        <f t="shared" si="12"/>
+        <v>0.28260869565217389</v>
       </c>
       <c r="D122">
-        <f t="shared" si="14"/>
-        <v>3.1883659260631481</v>
+        <f t="shared" si="15"/>
+        <v>2.7708520116421438</v>
       </c>
       <c r="E122" t="s">
         <v>9</v>
@@ -3237,18 +3261,18 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B123">
-        <v>1950</v>
+        <v>798</v>
       </c>
       <c r="C123">
-        <f t="shared" si="17"/>
-        <v>0.26377187297472454</v>
+        <f t="shared" ref="C123:C152" si="18">(B123-B122)/B122</f>
+        <v>0.35254237288135593</v>
       </c>
       <c r="D123">
-        <f t="shared" si="14"/>
-        <v>3.2900346113625178</v>
+        <f t="shared" si="15"/>
+        <v>2.9020028913507292</v>
       </c>
       <c r="E123" t="s">
         <v>9</v>
@@ -3256,18 +3280,18 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B124">
-        <v>2626</v>
+        <v>1140</v>
       </c>
       <c r="C124">
-        <f t="shared" si="17"/>
-        <v>0.34666666666666668</v>
+        <f t="shared" si="18"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="D124">
-        <f t="shared" si="14"/>
-        <v>3.4192947217534599</v>
+        <f t="shared" si="15"/>
+        <v>3.0569048513364723</v>
       </c>
       <c r="E124" t="s">
         <v>9</v>
@@ -3275,18 +3299,18 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B125">
-        <v>3269</v>
+        <v>1391</v>
       </c>
       <c r="C125">
-        <f t="shared" si="17"/>
-        <v>0.24485910129474486</v>
+        <f t="shared" si="18"/>
+        <v>0.22017543859649122</v>
       </c>
       <c r="D125">
-        <f t="shared" si="14"/>
-        <v>3.5144149205803688</v>
+        <f t="shared" si="15"/>
+        <v>3.1433271299920462</v>
       </c>
       <c r="E125" t="s">
         <v>9</v>
@@ -3294,18 +3318,18 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B126">
-        <v>3983</v>
+        <v>1543</v>
       </c>
       <c r="C126">
-        <f t="shared" si="17"/>
-        <v>0.21841541755888652</v>
+        <f t="shared" si="18"/>
+        <v>0.10927390366642703</v>
       </c>
       <c r="D126">
-        <f t="shared" si="14"/>
-        <v>3.6002103064093274</v>
+        <f t="shared" si="15"/>
+        <v>3.1883659260631481</v>
       </c>
       <c r="E126" t="s">
         <v>9</v>
@@ -3313,93 +3337,93 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B127">
-        <v>100</v>
+        <v>1950</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>0.26377187297472454</v>
       </c>
       <c r="D127">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>3.2900346113625178</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B128">
-        <v>130</v>
+        <v>2626</v>
       </c>
       <c r="C128">
-        <f t="shared" si="17"/>
-        <v>0.3</v>
+        <f t="shared" si="18"/>
+        <v>0.34666666666666668</v>
       </c>
       <c r="D128">
-        <f t="shared" si="14"/>
-        <v>2.1139433523068365</v>
+        <f t="shared" si="15"/>
+        <v>3.4192947217534599</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B129">
-        <v>191</v>
+        <v>3269</v>
       </c>
       <c r="C129">
-        <f t="shared" si="17"/>
-        <v>0.46923076923076923</v>
+        <f t="shared" si="18"/>
+        <v>0.24485910129474486</v>
       </c>
       <c r="D129">
-        <f t="shared" si="14"/>
-        <v>2.2810333672477272</v>
+        <f t="shared" si="15"/>
+        <v>3.5144149205803688</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B130">
-        <v>212</v>
+        <v>3983</v>
       </c>
       <c r="C130">
-        <f t="shared" si="17"/>
-        <v>0.1099476439790576</v>
+        <f t="shared" si="18"/>
+        <v>0.21841541755888652</v>
       </c>
       <c r="D130">
-        <f t="shared" si="14"/>
-        <v>2.3263358609287512</v>
+        <f t="shared" si="15"/>
+        <v>3.6002103064093274</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B131">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="C131">
-        <f t="shared" si="17"/>
-        <v>0.34433962264150941</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <f t="shared" si="14"/>
-        <v>2.4548448600085102</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="E131" t="s">
         <v>10</v>
@@ -3407,18 +3431,18 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B132">
-        <v>423</v>
+        <v>130</v>
       </c>
       <c r="C132">
-        <f t="shared" si="17"/>
-        <v>0.48421052631578948</v>
+        <f t="shared" si="18"/>
+        <v>0.3</v>
       </c>
       <c r="D132">
-        <f t="shared" si="14"/>
-        <v>2.6263403673750418</v>
+        <f t="shared" si="15"/>
+        <v>2.1139433523068365</v>
       </c>
       <c r="E132" t="s">
         <v>10</v>
@@ -3426,18 +3450,18 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B133">
-        <v>653</v>
+        <v>191</v>
       </c>
       <c r="C133">
-        <f t="shared" si="17"/>
-        <v>0.54373522458628842</v>
+        <f t="shared" si="18"/>
+        <v>0.46923076923076923</v>
       </c>
       <c r="D133">
-        <f t="shared" si="14"/>
-        <v>2.8149131812750738</v>
+        <f t="shared" si="15"/>
+        <v>2.2810333672477272</v>
       </c>
       <c r="E133" t="s">
         <v>10</v>
@@ -3445,18 +3469,18 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B134">
-        <v>949</v>
+        <v>212</v>
       </c>
       <c r="C134">
-        <f t="shared" si="17"/>
-        <v>0.45329249617151607</v>
+        <f t="shared" si="18"/>
+        <v>0.1099476439790576</v>
       </c>
       <c r="D134">
-        <f t="shared" si="14"/>
-        <v>2.9772662124272924</v>
+        <f t="shared" si="15"/>
+        <v>2.3263358609287512</v>
       </c>
       <c r="E134" t="s">
         <v>10</v>
@@ -3464,18 +3488,18 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B135">
-        <v>1209</v>
+        <v>285</v>
       </c>
       <c r="C135">
-        <f t="shared" si="17"/>
-        <v>0.27397260273972601</v>
+        <f t="shared" si="18"/>
+        <v>0.34433962264150941</v>
       </c>
       <c r="D135">
-        <f t="shared" si="14"/>
-        <v>3.0824263008607717</v>
+        <f t="shared" si="15"/>
+        <v>2.4548448600085102</v>
       </c>
       <c r="E135" t="s">
         <v>10</v>
@@ -3483,18 +3507,18 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B136">
-        <v>1412</v>
+        <v>423</v>
       </c>
       <c r="C136">
-        <f t="shared" si="17"/>
-        <v>0.16790736145574855</v>
+        <f t="shared" si="18"/>
+        <v>0.48421052631578948</v>
       </c>
       <c r="D136">
-        <f t="shared" si="14"/>
-        <v>3.1498346967157844</v>
+        <f t="shared" si="15"/>
+        <v>2.6263403673750418</v>
       </c>
       <c r="E136" t="s">
         <v>10</v>
@@ -3502,18 +3526,18 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B137">
-        <v>1784</v>
+        <v>653</v>
       </c>
       <c r="C137">
-        <f t="shared" si="17"/>
-        <v>0.26345609065155806</v>
+        <f t="shared" si="18"/>
+        <v>0.54373522458628842</v>
       </c>
       <c r="D137">
-        <f t="shared" si="14"/>
-        <v>3.251394850040104</v>
+        <f t="shared" si="15"/>
+        <v>2.8149131812750738</v>
       </c>
       <c r="E137" t="s">
         <v>10</v>
@@ -3521,18 +3545,18 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B138">
-        <v>2281</v>
+        <v>949</v>
       </c>
       <c r="C138">
-        <f t="shared" si="17"/>
-        <v>0.27858744394618834</v>
+        <f t="shared" si="18"/>
+        <v>0.45329249617151607</v>
       </c>
       <c r="D138">
-        <f t="shared" si="14"/>
-        <v>3.3581252852766479</v>
+        <f t="shared" si="15"/>
+        <v>2.9772662124272924</v>
       </c>
       <c r="E138" t="s">
         <v>10</v>
@@ -3540,18 +3564,18 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B139">
-        <v>2876</v>
+        <v>1209</v>
       </c>
       <c r="C139">
-        <f t="shared" si="17"/>
-        <v>0.26085050416483996</v>
+        <f t="shared" si="18"/>
+        <v>0.27397260273972601</v>
       </c>
       <c r="D139">
-        <f t="shared" si="14"/>
-        <v>3.4587888817108445</v>
+        <f t="shared" si="15"/>
+        <v>3.0824263008607717</v>
       </c>
       <c r="E139" t="s">
         <v>10</v>
@@ -3559,18 +3583,18 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B140">
-        <v>3661</v>
+        <v>1412</v>
       </c>
       <c r="C140">
-        <f t="shared" si="17"/>
-        <v>0.27294853963838667</v>
+        <f t="shared" si="18"/>
+        <v>0.16790736145574855</v>
       </c>
       <c r="D140">
-        <f t="shared" si="14"/>
-        <v>3.5635997288815306</v>
+        <f t="shared" si="15"/>
+        <v>3.1498346967157844</v>
       </c>
       <c r="E140" t="s">
         <v>10</v>
@@ -3578,18 +3602,18 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B141">
-        <v>4499</v>
+        <v>1784</v>
       </c>
       <c r="C141">
-        <f t="shared" si="17"/>
-        <v>0.22889920786670309</v>
+        <f t="shared" si="18"/>
+        <v>0.26345609065155806</v>
       </c>
       <c r="D141">
-        <f t="shared" si="14"/>
-        <v>3.6531159931655663</v>
+        <f t="shared" si="15"/>
+        <v>3.251394850040104</v>
       </c>
       <c r="E141" t="s">
         <v>10</v>
@@ -3597,18 +3621,18 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B142">
-        <v>5423</v>
+        <v>2281</v>
       </c>
       <c r="C142">
-        <f t="shared" si="17"/>
-        <v>0.20537897310513448</v>
+        <f t="shared" si="18"/>
+        <v>0.27858744394618834</v>
       </c>
       <c r="D142">
-        <f t="shared" si="14"/>
-        <v>3.7342396044354547</v>
+        <f t="shared" si="15"/>
+        <v>3.3581252852766479</v>
       </c>
       <c r="E142" t="s">
         <v>10</v>
@@ -3616,18 +3640,18 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B143">
-        <v>6633</v>
+        <v>2876</v>
       </c>
       <c r="C143">
-        <f t="shared" si="17"/>
-        <v>0.2231237322515213</v>
+        <f t="shared" si="18"/>
+        <v>0.26085050416483996</v>
       </c>
       <c r="D143">
-        <f t="shared" si="14"/>
-        <v>3.8217099972983757</v>
+        <f t="shared" si="15"/>
+        <v>3.4587888817108445</v>
       </c>
       <c r="E143" t="s">
         <v>10</v>
@@ -3635,18 +3659,18 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B144">
-        <v>7730</v>
+        <v>3661</v>
       </c>
       <c r="C144">
-        <f t="shared" si="17"/>
-        <v>0.1653851952359415</v>
+        <f t="shared" si="18"/>
+        <v>0.27294853963838667</v>
       </c>
       <c r="D144">
-        <f t="shared" si="14"/>
-        <v>3.888179493918325</v>
+        <f t="shared" si="15"/>
+        <v>3.5635997288815306</v>
       </c>
       <c r="E144" t="s">
         <v>10</v>
@@ -3654,18 +3678,18 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B145">
-        <v>9134</v>
+        <v>4499</v>
       </c>
       <c r="C145">
-        <f t="shared" si="17"/>
-        <v>0.1816300129366106</v>
+        <f t="shared" si="18"/>
+        <v>0.22889920786670309</v>
       </c>
       <c r="D145">
-        <f t="shared" si="14"/>
-        <v>3.9606610072709816</v>
+        <f t="shared" si="15"/>
+        <v>3.6531159931655663</v>
       </c>
       <c r="E145" t="s">
         <v>10</v>
@@ -3673,18 +3697,18 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B146">
-        <v>10995</v>
+        <v>5423</v>
       </c>
       <c r="C146">
-        <f t="shared" si="17"/>
-        <v>0.20374425224436171</v>
+        <f t="shared" si="18"/>
+        <v>0.20537897310513448</v>
       </c>
       <c r="D146">
-        <f t="shared" si="14"/>
-        <v>4.0411952336968087</v>
+        <f t="shared" si="15"/>
+        <v>3.7342396044354547</v>
       </c>
       <c r="E146" t="s">
         <v>10</v>
@@ -3692,18 +3716,18 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B147">
-        <v>12612</v>
+        <v>6633</v>
       </c>
       <c r="C147">
-        <f t="shared" si="17"/>
-        <v>0.14706684856753069</v>
+        <f t="shared" si="18"/>
+        <v>0.2231237322515213</v>
       </c>
       <c r="D147">
-        <f t="shared" si="14"/>
-        <v>4.1007839620758668</v>
+        <f t="shared" si="15"/>
+        <v>3.8217099972983757</v>
       </c>
       <c r="E147" t="s">
         <v>10</v>
@@ -3711,20 +3735,96 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
+        <v>18</v>
+      </c>
+      <c r="B148">
+        <v>7730</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="18"/>
+        <v>0.1653851952359415</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="15"/>
+        <v>3.888179493918325</v>
+      </c>
+      <c r="E148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>19</v>
+      </c>
+      <c r="B149">
+        <v>9134</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="18"/>
+        <v>0.1816300129366106</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="15"/>
+        <v>3.9606610072709816</v>
+      </c>
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>20</v>
+      </c>
+      <c r="B150">
+        <v>10995</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="18"/>
+        <v>0.20374425224436171</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="15"/>
+        <v>4.0411952336968087</v>
+      </c>
+      <c r="E150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>21</v>
+      </c>
+      <c r="B151">
+        <v>12612</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="18"/>
+        <v>0.14706684856753069</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="15"/>
+        <v>4.1007839620758668</v>
+      </c>
+      <c r="E151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>22</v>
       </c>
-      <c r="B148">
+      <c r="B152">
         <v>14459</v>
       </c>
-      <c r="C148">
-        <f t="shared" si="17"/>
+      <c r="C152">
+        <f t="shared" si="18"/>
         <v>0.14644782746590548</v>
       </c>
-      <c r="D148">
-        <f t="shared" si="14"/>
+      <c r="D152">
+        <f t="shared" si="15"/>
         <v>4.1601382577234016</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E152" t="s">
         <v>10</v>
       </c>
     </row>

--- a/dataset/dataset_infec.xlsx
+++ b/dataset/dataset_infec.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="19">
   <si>
     <t>day</t>
   </si>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D51" si="0">LOG(B2,10)</f>
+        <f t="shared" ref="D2:D52" si="0">LOG(B2,10)</f>
         <v>2.1958996524092336</v>
       </c>
       <c r="E2" t="s">
@@ -1195,7 +1195,7 @@
         <v>69176</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32" si="4">(B32-B31)/B31</f>
+        <f t="shared" ref="C32:C33" si="4">(B32-B31)/B31</f>
         <v>8.2109280898524886E-2</v>
       </c>
       <c r="D32">
@@ -1214,1515 +1214,1539 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>100</v>
+        <v>74386</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>7.5315138198219042E-2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="D33" si="5">LOG(B33,10)</f>
+        <v>4.8714912057760804</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F33" s="2">
-        <v>43892</v>
+        <v>43915</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>7503</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
         <v>2</v>
-      </c>
-      <c r="B34">
-        <v>124</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ref="C34:C51" si="5">(B34-B33)/B33</f>
-        <v>0.24</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>2.0934216851622351</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
       </c>
       <c r="F34" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="G34">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C35">
-        <f t="shared" si="5"/>
-        <v>0.27419354838709675</v>
+        <f t="shared" ref="C35:C52" si="6">(B35-B34)/B34</f>
+        <v>0.24</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>2.1986570869544226</v>
+        <v>2.0934216851622351</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
       </c>
       <c r="F35" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="G35">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="C36">
-        <f t="shared" si="5"/>
-        <v>0.39873417721518989</v>
+        <f t="shared" si="6"/>
+        <v>0.27419354838709675</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>2.3443922736851102</v>
+        <v>2.1986570869544226</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="G36">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="C37">
-        <f t="shared" si="5"/>
-        <v>0.4434389140271493</v>
+        <f t="shared" si="6"/>
+        <v>0.39873417721518989</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>2.503790683057181</v>
+        <v>2.3443922736851102</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
       </c>
       <c r="F37" s="2">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="G37">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38">
-        <v>435</v>
+        <v>319</v>
       </c>
       <c r="C38">
-        <f t="shared" si="5"/>
-        <v>0.36363636363636365</v>
+        <f t="shared" si="6"/>
+        <v>0.4434389140271493</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>2.638489256954637</v>
+        <v>2.503790683057181</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G38">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39">
-        <v>541</v>
+        <v>435</v>
       </c>
       <c r="C39">
-        <f t="shared" si="5"/>
-        <v>0.24367816091954023</v>
+        <f t="shared" si="6"/>
+        <v>0.36363636363636365</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>2.7331972651065688</v>
+        <v>2.638489256954637</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
       </c>
       <c r="F39" s="2">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="G39">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="C40">
-        <f t="shared" si="5"/>
-        <v>0.30129390018484287</v>
+        <f t="shared" si="6"/>
+        <v>0.24367816091954023</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>2.847572659142112</v>
+        <v>2.7331972651065688</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
       </c>
       <c r="F40" s="2">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="G40">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41">
-        <v>994</v>
+        <v>704</v>
       </c>
       <c r="C41">
-        <f t="shared" si="5"/>
-        <v>0.41193181818181818</v>
+        <f t="shared" si="6"/>
+        <v>0.30129390018484287</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>2.9973863843973132</v>
+        <v>2.847572659142112</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
       </c>
       <c r="F41" s="2">
-        <v>43900</v>
+        <v>43899</v>
       </c>
       <c r="G41">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42">
-        <v>1301</v>
+        <v>994</v>
       </c>
       <c r="C42">
-        <f t="shared" si="5"/>
-        <v>0.30885311871227367</v>
+        <f t="shared" si="6"/>
+        <v>0.41193181818181818</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>3.1142772965615859</v>
+        <v>2.9973863843973132</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
       </c>
       <c r="F42" s="2">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="G42">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43">
-        <v>1697</v>
+        <v>1301</v>
       </c>
       <c r="C43">
-        <f t="shared" si="5"/>
-        <v>0.30438124519600307</v>
+        <f t="shared" si="6"/>
+        <v>0.30885311871227367</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>3.2296818423176754</v>
+        <v>3.1142772965615859</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
       </c>
       <c r="F43" s="2">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="G43">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44">
-        <v>2247</v>
+        <v>1697</v>
       </c>
       <c r="C44">
-        <f t="shared" si="5"/>
-        <v>0.32410135533294049</v>
+        <f t="shared" si="6"/>
+        <v>0.30438124519600307</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>3.3516030724191288</v>
+        <v>3.2296818423176754</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
       </c>
       <c r="F44" s="2">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="G44">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45">
-        <v>2943</v>
+        <v>2247</v>
       </c>
       <c r="C45">
-        <f t="shared" si="5"/>
-        <v>0.30974632843791722</v>
+        <f t="shared" si="6"/>
+        <v>0.32410135533294049</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>3.4687902620996107</v>
+        <v>3.3516030724191288</v>
       </c>
       <c r="E45" t="s">
         <v>6</v>
       </c>
       <c r="F45" s="2">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="G45">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46">
-        <v>3680</v>
+        <v>2943</v>
       </c>
       <c r="C46">
-        <f t="shared" si="5"/>
-        <v>0.25042473666326875</v>
+        <f t="shared" si="6"/>
+        <v>0.30974632843791722</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>3.5658478186735172</v>
+        <v>3.4687902620996107</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="2">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="G46">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47">
-        <v>4663</v>
+        <v>3680</v>
       </c>
       <c r="C47">
-        <f t="shared" si="5"/>
-        <v>0.26711956521739133</v>
+        <f t="shared" si="6"/>
+        <v>0.25042473666326875</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>3.6686654154544915</v>
+        <v>3.5658478186735172</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
       </c>
       <c r="F47" s="2">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="G47">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48">
-        <v>6411</v>
+        <v>4663</v>
       </c>
       <c r="C48">
-        <f t="shared" si="5"/>
-        <v>0.37486596611623418</v>
+        <f t="shared" si="6"/>
+        <v>0.26711956521739133</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>3.8069257768837312</v>
+        <v>3.6686654154544915</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="2">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="G48">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49">
-        <v>9259</v>
+        <v>6411</v>
       </c>
       <c r="C49">
-        <f t="shared" si="5"/>
-        <v>0.44423646856964594</v>
+        <f t="shared" si="6"/>
+        <v>0.37486596611623418</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>3.96656408409731</v>
+        <v>3.8069257768837312</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
       </c>
       <c r="F49" s="2">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="G49">
-        <v>150</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50">
-        <v>13789</v>
+        <v>9259</v>
       </c>
       <c r="C50">
-        <f t="shared" si="5"/>
-        <v>0.48925369910357491</v>
+        <f t="shared" si="6"/>
+        <v>0.44423646856964594</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>4.1395327715979393</v>
+        <v>3.96656408409731</v>
       </c>
       <c r="E50" t="s">
         <v>6</v>
       </c>
       <c r="F50" s="2">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="G50">
-        <v>207</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51">
-        <v>19383</v>
+        <v>13789</v>
       </c>
       <c r="C51">
-        <f t="shared" si="5"/>
-        <v>0.40568569149321926</v>
+        <f t="shared" si="6"/>
+        <v>0.48925369910357491</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>4.287420995759831</v>
+        <v>4.1395327715979393</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
       </c>
       <c r="F51" s="2">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="G51">
-        <v>256</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52">
-        <v>24207</v>
+        <v>19383</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:C55" si="6">(B52-B51)/B51</f>
-        <v>0.24887788268069957</v>
+        <f t="shared" si="6"/>
+        <v>0.40568569149321926</v>
       </c>
       <c r="D52">
-        <f t="shared" ref="D52:D55" si="7">LOG(B52,10)</f>
-        <v>4.3839409701862078</v>
+        <f t="shared" si="0"/>
+        <v>4.287420995759831</v>
       </c>
       <c r="E52" t="s">
         <v>6</v>
       </c>
       <c r="F52" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="G52">
-        <v>302</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B53">
-        <v>33546</v>
+        <v>24207</v>
       </c>
       <c r="C53">
-        <f t="shared" si="6"/>
-        <v>0.38579749659189488</v>
+        <f t="shared" ref="C53:C56" si="7">(B53-B52)/B52</f>
+        <v>0.24887788268069957</v>
       </c>
       <c r="D53">
-        <f t="shared" si="7"/>
-        <v>4.5256407426423158</v>
+        <f t="shared" ref="D53:D56" si="8">LOG(B53,10)</f>
+        <v>4.3839409701862078</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
       </c>
       <c r="F53" s="2">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="G53">
-        <v>419</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B54">
-        <v>42751</v>
+        <v>33546</v>
       </c>
       <c r="C54">
-        <f t="shared" si="6"/>
-        <v>0.27439933226018004</v>
+        <f t="shared" si="7"/>
+        <v>0.38579749659189488</v>
       </c>
       <c r="D54">
-        <f t="shared" si="7"/>
-        <v>4.6309462778806241</v>
+        <f t="shared" si="8"/>
+        <v>4.5256407426423158</v>
       </c>
       <c r="E54" t="s">
         <v>6</v>
       </c>
       <c r="F54" s="2">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="G54">
-        <v>520</v>
+        <v>419</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B55">
-        <v>54881</v>
+        <v>42751</v>
       </c>
       <c r="C55">
-        <f t="shared" si="6"/>
-        <v>0.28373605295782556</v>
+        <f t="shared" si="7"/>
+        <v>0.27439933226018004</v>
       </c>
       <c r="D55">
-        <f t="shared" si="7"/>
-        <v>4.7394220161557863</v>
+        <f t="shared" si="8"/>
+        <v>4.6309462778806241</v>
       </c>
       <c r="E55" t="s">
         <v>6</v>
       </c>
       <c r="F55" s="2">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="G55">
-        <v>780</v>
+        <v>520</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B56">
-        <v>120</v>
+        <v>54881</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.28373605295782556</v>
       </c>
       <c r="D56">
-        <f t="shared" ref="D56:D106" si="8">LOG(B56,10)</f>
-        <v>2.0791812460476247</v>
+        <f t="shared" si="8"/>
+        <v>4.7394220161557863</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" s="2">
-        <v>43892</v>
+        <v>43914</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>780</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B57">
-        <v>165</v>
+        <v>64775</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:C75" si="9">(B57-B56)/B56</f>
-        <v>0.375</v>
+        <f t="shared" ref="C57" si="9">(B57-B56)/B56</f>
+        <v>0.18028097155664075</v>
       </c>
       <c r="D57">
-        <f t="shared" si="8"/>
-        <v>2.2174839442139058</v>
+        <f t="shared" ref="D57" si="10">LOG(B57,10)</f>
+        <v>4.8114074216578624</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" s="2">
-        <v>43893</v>
+        <v>43915</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B58">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="C58">
-        <f t="shared" si="9"/>
-        <v>0.38181818181818183</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <f t="shared" si="8"/>
-        <v>2.3579348470004535</v>
+        <f t="shared" ref="D58:D110" si="11">LOG(B58,10)</f>
+        <v>2.0791812460476247</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
       </c>
       <c r="F58" s="2">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B59">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="C59">
-        <f t="shared" si="9"/>
-        <v>0.23684210526315788</v>
+        <f t="shared" ref="C59:C77" si="12">(B59-B58)/B58</f>
+        <v>0.375</v>
       </c>
       <c r="D59">
-        <f t="shared" si="8"/>
-        <v>2.4502491083193609</v>
+        <f t="shared" si="11"/>
+        <v>2.2174839442139058</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
       </c>
       <c r="F59" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="G59">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B60">
-        <v>401</v>
+        <v>228</v>
       </c>
       <c r="C60">
-        <f t="shared" si="9"/>
-        <v>0.42198581560283688</v>
+        <f t="shared" si="12"/>
+        <v>0.38181818181818183</v>
       </c>
       <c r="D60">
-        <f t="shared" si="8"/>
-        <v>2.6031443726201822</v>
+        <f t="shared" si="11"/>
+        <v>2.3579348470004535</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
       </c>
       <c r="F60" s="2">
-        <v>43896</v>
+        <v>43894</v>
       </c>
       <c r="G60">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B61">
-        <v>525</v>
+        <v>282</v>
       </c>
       <c r="C61">
-        <f t="shared" si="9"/>
-        <v>0.30922693266832918</v>
+        <f t="shared" si="12"/>
+        <v>0.23684210526315788</v>
       </c>
       <c r="D61">
-        <f t="shared" si="8"/>
-        <v>2.7201593034059566</v>
+        <f t="shared" si="11"/>
+        <v>2.4502491083193609</v>
       </c>
       <c r="E61" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="2">
-        <v>43897</v>
+        <v>43895</v>
       </c>
       <c r="G61">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B62">
-        <v>674</v>
+        <v>401</v>
       </c>
       <c r="C62">
-        <f t="shared" si="9"/>
-        <v>0.28380952380952379</v>
+        <f t="shared" si="12"/>
+        <v>0.42198581560283688</v>
       </c>
       <c r="D62">
-        <f t="shared" si="8"/>
-        <v>2.8286598965353194</v>
+        <f t="shared" si="11"/>
+        <v>2.6031443726201822</v>
       </c>
       <c r="E62" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G62">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B63">
-        <v>1231</v>
+        <v>525</v>
       </c>
       <c r="C63">
-        <f t="shared" si="9"/>
-        <v>0.82640949554896137</v>
+        <f t="shared" si="12"/>
+        <v>0.30922693266832918</v>
       </c>
       <c r="D63">
-        <f t="shared" si="8"/>
-        <v>3.0902580529313162</v>
+        <f t="shared" si="11"/>
+        <v>2.7201593034059566</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="2">
-        <v>43899</v>
+        <v>43897</v>
       </c>
       <c r="G63">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B64">
-        <v>1695</v>
+        <v>674</v>
       </c>
       <c r="C64">
-        <f t="shared" si="9"/>
-        <v>0.37692932575142163</v>
+        <f t="shared" si="12"/>
+        <v>0.28380952380952379</v>
       </c>
       <c r="D64">
-        <f t="shared" si="8"/>
-        <v>3.2291697025391004</v>
+        <f t="shared" si="11"/>
+        <v>2.8286598965353194</v>
       </c>
       <c r="E64" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="2">
-        <v>43900</v>
+        <v>43898</v>
       </c>
       <c r="G64">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B65">
-        <v>2277</v>
+        <v>1231</v>
       </c>
       <c r="C65">
-        <f t="shared" si="9"/>
-        <v>0.3433628318584071</v>
+        <f t="shared" si="12"/>
+        <v>0.82640949554896137</v>
       </c>
       <c r="D65">
-        <f t="shared" si="8"/>
-        <v>3.3573630306151423</v>
+        <f t="shared" si="11"/>
+        <v>3.0902580529313162</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
       </c>
       <c r="F65" s="2">
-        <v>43901</v>
+        <v>43899</v>
       </c>
       <c r="G65">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B66">
-        <v>3146</v>
+        <v>1695</v>
       </c>
       <c r="C66">
-        <f t="shared" si="9"/>
-        <v>0.38164251207729466</v>
+        <f t="shared" si="12"/>
+        <v>0.37692932575142163</v>
       </c>
       <c r="D66">
-        <f t="shared" si="8"/>
-        <v>3.4977587182872676</v>
+        <f t="shared" si="11"/>
+        <v>3.2291697025391004</v>
       </c>
       <c r="E66" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="2">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="G66">
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B67">
-        <v>5232</v>
+        <v>2277</v>
       </c>
       <c r="C67">
-        <f t="shared" si="9"/>
-        <v>0.66306420851875403</v>
+        <f t="shared" si="12"/>
+        <v>0.3433628318584071</v>
       </c>
       <c r="D67">
-        <f t="shared" si="8"/>
-        <v>3.7186677353162101</v>
+        <f t="shared" si="11"/>
+        <v>3.3573630306151423</v>
       </c>
       <c r="E67" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="2">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="G67">
-        <v>133</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B68">
-        <v>6391</v>
+        <v>3146</v>
       </c>
       <c r="C68">
-        <f t="shared" si="9"/>
-        <v>0.22152140672782875</v>
+        <f t="shared" si="12"/>
+        <v>0.38164251207729466</v>
       </c>
       <c r="D68">
-        <f t="shared" si="8"/>
-        <v>3.8055688175485556</v>
+        <f t="shared" si="11"/>
+        <v>3.4977587182872676</v>
       </c>
       <c r="E68" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="2">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="G68">
-        <v>196</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B69">
-        <v>7988</v>
+        <v>5232</v>
       </c>
       <c r="C69">
-        <f t="shared" si="9"/>
-        <v>0.24988264747300892</v>
+        <f t="shared" si="12"/>
+        <v>0.66306420851875403</v>
       </c>
       <c r="D69">
-        <f t="shared" si="8"/>
-        <v>3.9024380561986645</v>
+        <f t="shared" si="11"/>
+        <v>3.7186677353162101</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
       </c>
       <c r="F69" s="2">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="G69">
-        <v>294</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B70">
-        <v>9942</v>
+        <v>6391</v>
       </c>
       <c r="C70">
-        <f t="shared" si="9"/>
-        <v>0.24461692538808213</v>
+        <f t="shared" si="12"/>
+        <v>0.22152140672782875</v>
       </c>
       <c r="D70">
-        <f t="shared" si="8"/>
-        <v>3.9974737588029798</v>
+        <f t="shared" si="11"/>
+        <v>3.8055688175485556</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
       </c>
       <c r="F70" s="2">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="G70">
-        <v>342</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B71">
-        <v>11826</v>
+        <v>7988</v>
       </c>
       <c r="C71">
-        <f t="shared" si="9"/>
-        <v>0.18949909474954738</v>
+        <f t="shared" si="12"/>
+        <v>0.24988264747300892</v>
       </c>
       <c r="D71">
-        <f t="shared" si="8"/>
-        <v>4.0728378746630858</v>
+        <f t="shared" si="11"/>
+        <v>3.9024380561986645</v>
       </c>
       <c r="E71" t="s">
         <v>7</v>
       </c>
       <c r="F71" s="2">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="G71">
-        <v>533</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B72">
-        <v>14769</v>
+        <v>9942</v>
       </c>
       <c r="C72">
-        <f t="shared" si="9"/>
-        <v>0.24885844748858446</v>
+        <f t="shared" si="12"/>
+        <v>0.24461692538808213</v>
       </c>
       <c r="D72">
-        <f t="shared" si="8"/>
-        <v>4.1693510904924178</v>
+        <f t="shared" si="11"/>
+        <v>3.9974737588029798</v>
       </c>
       <c r="E72" t="s">
         <v>7</v>
       </c>
       <c r="F72" s="2">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="G72">
-        <v>638</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B73">
-        <v>18077</v>
+        <v>11826</v>
       </c>
       <c r="C73">
-        <f t="shared" si="9"/>
-        <v>0.22398266639582909</v>
+        <f t="shared" si="12"/>
+        <v>0.18949909474954738</v>
       </c>
       <c r="D73">
-        <f t="shared" si="8"/>
-        <v>4.2571263580225924</v>
+        <f t="shared" si="11"/>
+        <v>4.0728378746630858</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>
       </c>
       <c r="F73" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="G73">
-        <v>831</v>
+        <v>533</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B74">
-        <v>21571</v>
+        <v>14769</v>
       </c>
       <c r="C74">
-        <f t="shared" si="9"/>
-        <v>0.19328428389666427</v>
+        <f t="shared" si="12"/>
+        <v>0.24885844748858446</v>
       </c>
       <c r="D74">
-        <f t="shared" si="8"/>
-        <v>4.3338702788260086</v>
+        <f t="shared" si="11"/>
+        <v>4.1693510904924178</v>
       </c>
       <c r="E74" t="s">
         <v>7</v>
       </c>
       <c r="F74" s="2">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="G74">
-        <v>1093</v>
+        <v>638</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B75">
-        <v>25496</v>
+        <v>18077</v>
       </c>
       <c r="C75">
-        <f t="shared" si="9"/>
-        <v>0.18195725742895555</v>
+        <f t="shared" si="12"/>
+        <v>0.22398266639582909</v>
       </c>
       <c r="D75">
-        <f t="shared" si="8"/>
-        <v>4.406472050465676</v>
+        <f t="shared" si="11"/>
+        <v>4.2571263580225924</v>
       </c>
       <c r="E75" t="s">
         <v>7</v>
       </c>
       <c r="F75" s="2">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="G75">
-        <v>1381</v>
+        <v>831</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B76">
-        <v>28603</v>
+        <v>21571</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="C76:C78" si="10">(B76-B75)/B75</f>
-        <v>0.12186225290241606</v>
+        <f t="shared" si="12"/>
+        <v>0.19328428389666427</v>
       </c>
       <c r="D76">
-        <f t="shared" ref="D76:D78" si="11">LOG(B76,10)</f>
-        <v>4.456411586105177</v>
+        <f t="shared" si="11"/>
+        <v>4.3338702788260086</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
       </c>
       <c r="F76" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="G76">
-        <v>1756</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B77">
-        <v>33089</v>
+        <v>25496</v>
       </c>
       <c r="C77">
-        <f t="shared" si="10"/>
-        <v>0.15683669545152606</v>
+        <f t="shared" si="12"/>
+        <v>0.18195725742895555</v>
       </c>
       <c r="D77">
         <f t="shared" si="11"/>
-        <v>4.5196836423171698</v>
+        <v>4.406472050465676</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
       </c>
       <c r="F77" s="2">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="G77">
-        <v>2207</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B78">
-        <v>42058</v>
+        <v>28603</v>
       </c>
       <c r="C78">
-        <f t="shared" si="10"/>
-        <v>0.27105684668620994</v>
+        <f t="shared" ref="C78:C81" si="13">(B78-B77)/B77</f>
+        <v>0.12186225290241606</v>
       </c>
       <c r="D78">
-        <f t="shared" si="11"/>
-        <v>4.6238486166713759</v>
+        <f t="shared" ref="D78:D81" si="14">LOG(B78,10)</f>
+        <v>4.456411586105177</v>
       </c>
       <c r="E78" t="s">
         <v>7</v>
       </c>
       <c r="F78" s="2">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="G78">
-        <v>2991</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B79">
-        <v>151</v>
+        <v>33089</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>0.15683669545152606</v>
       </c>
       <c r="D79">
-        <f t="shared" si="8"/>
-        <v>2.1789769472931693</v>
+        <f t="shared" si="14"/>
+        <v>4.5196836423171698</v>
       </c>
       <c r="E79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F79" s="2">
-        <v>43904</v>
+        <v>43913</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B80">
-        <v>200</v>
+        <v>42058</v>
       </c>
       <c r="C80">
-        <f t="shared" ref="C80:C122" si="12">(B80-B79)/B79</f>
-        <v>0.32450331125827814</v>
+        <f t="shared" si="13"/>
+        <v>0.27105684668620994</v>
       </c>
       <c r="D80">
-        <f t="shared" si="8"/>
-        <v>2.3010299956639808</v>
+        <f t="shared" si="14"/>
+        <v>4.6238486166713759</v>
       </c>
       <c r="E80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F80" s="2">
-        <v>43905</v>
+        <v>43914</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B81">
-        <v>234</v>
+        <v>47611</v>
       </c>
       <c r="C81">
-        <f t="shared" si="12"/>
-        <v>0.17</v>
+        <f t="shared" si="13"/>
+        <v>0.1320319558704646</v>
       </c>
       <c r="D81">
-        <f t="shared" si="8"/>
-        <v>2.3692158574101425</v>
+        <f t="shared" si="14"/>
+        <v>4.677707303295997</v>
       </c>
       <c r="E81" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F81" s="2">
-        <v>43906</v>
+        <v>43915</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B82">
-        <v>346</v>
+        <v>151</v>
       </c>
       <c r="C82">
-        <f t="shared" si="12"/>
-        <v>0.47863247863247865</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <f t="shared" si="8"/>
-        <v>2.5390760987927767</v>
+        <f t="shared" si="11"/>
+        <v>2.1789769472931693</v>
       </c>
       <c r="E82" t="s">
         <v>5</v>
       </c>
       <c r="F82" s="2">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B83">
-        <v>529</v>
+        <v>200</v>
       </c>
       <c r="C83">
-        <f t="shared" si="12"/>
-        <v>0.52890173410404628</v>
+        <f t="shared" ref="C83:C126" si="15">(B83-B82)/B82</f>
+        <v>0.32450331125827814</v>
       </c>
       <c r="D83">
-        <f t="shared" si="8"/>
-        <v>2.7234556720351857</v>
+        <f t="shared" si="11"/>
+        <v>2.3010299956639808</v>
       </c>
       <c r="E83" t="s">
         <v>5</v>
       </c>
       <c r="F83" s="2">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="G83">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B84">
-        <v>640</v>
+        <v>234</v>
       </c>
       <c r="C84">
-        <f t="shared" si="12"/>
-        <v>0.20982986767485823</v>
+        <f t="shared" si="15"/>
+        <v>0.17</v>
       </c>
       <c r="D84">
-        <f t="shared" si="8"/>
-        <v>2.8061799739838866</v>
+        <f t="shared" si="11"/>
+        <v>2.3692158574101425</v>
       </c>
       <c r="E84" t="s">
         <v>5</v>
       </c>
       <c r="F84" s="2">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="G84">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B85">
-        <v>970</v>
+        <v>346</v>
       </c>
       <c r="C85">
-        <f t="shared" si="12"/>
-        <v>0.515625</v>
+        <f t="shared" si="15"/>
+        <v>0.47863247863247865</v>
       </c>
       <c r="D85">
-        <f t="shared" si="8"/>
-        <v>2.9867717342662448</v>
+        <f t="shared" si="11"/>
+        <v>2.5390760987927767</v>
       </c>
       <c r="E85" t="s">
         <v>5</v>
       </c>
       <c r="F85" s="2">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="G85">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B86">
-        <v>1178</v>
+        <v>529</v>
       </c>
       <c r="C86">
-        <f t="shared" si="12"/>
-        <v>0.21443298969072164</v>
+        <f t="shared" si="15"/>
+        <v>0.52890173410404628</v>
       </c>
       <c r="D86">
-        <f t="shared" si="8"/>
-        <v>3.0711452904510823</v>
+        <f t="shared" si="11"/>
+        <v>2.7234556720351857</v>
       </c>
       <c r="E86" t="s">
         <v>5</v>
       </c>
       <c r="F86" s="2">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="G86">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B87">
-        <v>1546</v>
+        <v>640</v>
       </c>
       <c r="C87">
-        <f t="shared" si="12"/>
-        <v>0.31239388794567063</v>
+        <f t="shared" si="15"/>
+        <v>0.20982986767485823</v>
       </c>
       <c r="D87">
-        <f t="shared" si="8"/>
-        <v>3.1892094895823058</v>
+        <f t="shared" si="11"/>
+        <v>2.8061799739838866</v>
       </c>
       <c r="E87" t="s">
         <v>5</v>
       </c>
       <c r="F87" s="2">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="G87">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B88">
-        <v>1891</v>
+        <v>970</v>
       </c>
       <c r="C88">
-        <f t="shared" ref="C88:C89" si="13">(B88-B87)/B87</f>
-        <v>0.22315653298835705</v>
+        <f t="shared" si="15"/>
+        <v>0.515625</v>
       </c>
       <c r="D88">
-        <f t="shared" ref="D88:D89" si="14">LOG(B88,10)</f>
-        <v>3.2766915288450393</v>
+        <f t="shared" si="11"/>
+        <v>2.9867717342662448</v>
       </c>
       <c r="E88" t="s">
         <v>5</v>
       </c>
       <c r="F88" s="2">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="G88">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B89">
-        <v>2247</v>
+        <v>1178</v>
       </c>
       <c r="C89">
-        <f t="shared" si="13"/>
-        <v>0.18826017979904813</v>
+        <f t="shared" si="15"/>
+        <v>0.21443298969072164</v>
       </c>
       <c r="D89">
-        <f t="shared" si="14"/>
-        <v>3.3516030724191288</v>
+        <f t="shared" si="11"/>
+        <v>3.0711452904510823</v>
       </c>
       <c r="E89" t="s">
         <v>5</v>
       </c>
       <c r="F89" s="2">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="G89">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B90">
-        <v>139</v>
+        <v>1546</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>0.31239388794567063</v>
       </c>
       <c r="D90">
-        <f t="shared" si="8"/>
-        <v>2.143014800254095</v>
+        <f t="shared" si="11"/>
+        <v>3.1892094895823058</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F90" s="2">
+        <v>43912</v>
+      </c>
+      <c r="G90">
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B91">
-        <v>245</v>
+        <v>1891</v>
       </c>
       <c r="C91">
-        <f t="shared" si="12"/>
-        <v>0.76258992805755399</v>
+        <f t="shared" ref="C91:C93" si="16">(B91-B90)/B90</f>
+        <v>0.22315653298835705</v>
       </c>
       <c r="D91">
-        <f t="shared" si="8"/>
-        <v>2.3891660843645326</v>
+        <f t="shared" ref="D91:D93" si="17">LOG(B91,10)</f>
+        <v>3.2766915288450393</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F91" s="2">
+        <v>43913</v>
+      </c>
+      <c r="G91">
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B92">
-        <v>388</v>
+        <v>2247</v>
       </c>
       <c r="C92">
-        <f t="shared" si="12"/>
-        <v>0.58367346938775511</v>
+        <f t="shared" si="16"/>
+        <v>0.18826017979904813</v>
       </c>
       <c r="D92">
-        <f t="shared" si="8"/>
-        <v>2.5888317255942073</v>
+        <f t="shared" si="17"/>
+        <v>3.3516030724191288</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F92" s="2">
+        <v>43914</v>
+      </c>
+      <c r="G92">
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B93">
-        <v>593</v>
+        <v>2433</v>
       </c>
       <c r="C93">
-        <f t="shared" si="12"/>
-        <v>0.52835051546391754</v>
+        <f t="shared" si="16"/>
+        <v>8.2777036048064079E-2</v>
       </c>
       <c r="D93">
-        <f t="shared" si="8"/>
-        <v>2.7730546933642626</v>
+        <f t="shared" si="17"/>
+        <v>3.3861421089308181</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F93" s="2">
+        <v>43915</v>
+      </c>
+      <c r="G93">
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B94">
-        <v>978</v>
+        <v>139</v>
       </c>
       <c r="C94">
-        <f t="shared" si="12"/>
-        <v>0.6492411467116358</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <f t="shared" si="8"/>
-        <v>2.9903388547876015</v>
+        <f t="shared" si="11"/>
+        <v>2.143014800254095</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
@@ -2730,18 +2754,18 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B95">
-        <v>1501</v>
+        <v>245</v>
       </c>
       <c r="C95">
-        <f t="shared" si="12"/>
-        <v>0.53476482617586907</v>
+        <f t="shared" si="15"/>
+        <v>0.76258992805755399</v>
       </c>
       <c r="D95">
-        <f t="shared" si="8"/>
-        <v>3.1763806922432698</v>
+        <f t="shared" si="11"/>
+        <v>2.3891660843645326</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
@@ -2749,18 +2773,18 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B96">
-        <v>2336</v>
+        <v>388</v>
       </c>
       <c r="C96">
-        <f t="shared" si="12"/>
-        <v>0.55629580279813462</v>
+        <f t="shared" si="15"/>
+        <v>0.58367346938775511</v>
       </c>
       <c r="D96">
-        <f t="shared" si="8"/>
-        <v>3.3684728384403617</v>
+        <f t="shared" si="11"/>
+        <v>2.5888317255942073</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
@@ -2768,18 +2792,18 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B97">
-        <v>2922</v>
+        <v>593</v>
       </c>
       <c r="C97">
-        <f t="shared" si="12"/>
-        <v>0.25085616438356162</v>
+        <f t="shared" si="15"/>
+        <v>0.52835051546391754</v>
       </c>
       <c r="D97">
-        <f t="shared" si="8"/>
-        <v>3.4656802115982779</v>
+        <f t="shared" si="11"/>
+        <v>2.7730546933642626</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
@@ -2787,18 +2811,18 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B98">
-        <v>3513</v>
+        <v>978</v>
       </c>
       <c r="C98">
-        <f t="shared" si="12"/>
-        <v>0.20225872689938398</v>
+        <f t="shared" si="15"/>
+        <v>0.6492411467116358</v>
       </c>
       <c r="D98">
-        <f t="shared" si="8"/>
-        <v>3.5456781497920251</v>
+        <f t="shared" si="11"/>
+        <v>2.9903388547876015</v>
       </c>
       <c r="E98" t="s">
         <v>8</v>
@@ -2806,18 +2830,18 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B99">
-        <v>4747</v>
+        <v>1501</v>
       </c>
       <c r="C99">
-        <f t="shared" si="12"/>
-        <v>0.35126672359806432</v>
+        <f t="shared" si="15"/>
+        <v>0.53476482617586907</v>
       </c>
       <c r="D99">
-        <f t="shared" si="8"/>
-        <v>3.6764192317183597</v>
+        <f t="shared" si="11"/>
+        <v>3.1763806922432698</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -2825,18 +2849,18 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B100">
-        <v>5823</v>
+        <v>2336</v>
       </c>
       <c r="C100">
-        <f t="shared" si="12"/>
-        <v>0.22666947545818411</v>
+        <f t="shared" si="15"/>
+        <v>0.55629580279813462</v>
       </c>
       <c r="D100">
-        <f t="shared" si="8"/>
-        <v>3.7651467901080249</v>
+        <f t="shared" si="11"/>
+        <v>3.3684728384403617</v>
       </c>
       <c r="E100" t="s">
         <v>8</v>
@@ -2844,18 +2868,18 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B101">
-        <v>6566</v>
+        <v>2922</v>
       </c>
       <c r="C101">
-        <f t="shared" si="12"/>
-        <v>0.12759745835479994</v>
+        <f t="shared" si="15"/>
+        <v>0.25085616438356162</v>
       </c>
       <c r="D101">
-        <f t="shared" si="8"/>
-        <v>3.8173008783933207</v>
+        <f t="shared" si="11"/>
+        <v>3.4656802115982779</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
@@ -2863,18 +2887,18 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B102">
-        <v>7161</v>
+        <v>3513</v>
       </c>
       <c r="C102">
-        <f t="shared" si="12"/>
-        <v>9.0618336886993597E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.20225872689938398</v>
       </c>
       <c r="D102">
-        <f t="shared" si="8"/>
-        <v>3.8549736737264171</v>
+        <f t="shared" si="11"/>
+        <v>3.5456781497920251</v>
       </c>
       <c r="E102" t="s">
         <v>8</v>
@@ -2882,18 +2906,18 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B103">
-        <v>8042</v>
+        <v>4747</v>
       </c>
       <c r="C103">
-        <f t="shared" si="12"/>
-        <v>0.12302751012428431</v>
+        <f t="shared" si="15"/>
+        <v>0.35126672359806432</v>
       </c>
       <c r="D103">
-        <f t="shared" si="8"/>
-        <v>3.9053640687668914</v>
+        <f t="shared" si="11"/>
+        <v>3.6764192317183597</v>
       </c>
       <c r="E103" t="s">
         <v>8</v>
@@ -2901,18 +2925,18 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B104">
-        <v>9000</v>
+        <v>5823</v>
       </c>
       <c r="C104">
-        <f t="shared" si="12"/>
-        <v>0.11912459587167372</v>
+        <f t="shared" si="15"/>
+        <v>0.22666947545818411</v>
       </c>
       <c r="D104">
-        <f t="shared" si="8"/>
-        <v>3.9542425094393248</v>
+        <f t="shared" si="11"/>
+        <v>3.7651467901080249</v>
       </c>
       <c r="E104" t="s">
         <v>8</v>
@@ -2920,18 +2944,18 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B105">
-        <v>10075</v>
+        <v>6566</v>
       </c>
       <c r="C105">
-        <f t="shared" si="12"/>
-        <v>0.11944444444444445</v>
+        <f t="shared" si="15"/>
+        <v>0.12759745835479994</v>
       </c>
       <c r="D105">
-        <f t="shared" si="8"/>
-        <v>4.0032450548131466</v>
+        <f t="shared" si="11"/>
+        <v>3.8173008783933207</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
@@ -2939,18 +2963,18 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B106">
-        <v>11364</v>
+        <v>7161</v>
       </c>
       <c r="C106">
-        <f t="shared" si="12"/>
-        <v>0.12794044665012408</v>
+        <f t="shared" si="15"/>
+        <v>9.0618336886993597E-2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="8"/>
-        <v>4.0555312250508981</v>
+        <f t="shared" si="11"/>
+        <v>3.8549736737264171</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
@@ -2958,18 +2982,18 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B107">
-        <v>12729</v>
+        <v>8042</v>
       </c>
       <c r="C107">
-        <f t="shared" si="12"/>
-        <v>0.12011615628299895</v>
+        <f t="shared" si="15"/>
+        <v>0.12302751012428431</v>
       </c>
       <c r="D107">
-        <f t="shared" ref="D107:D152" si="15">LOG(B107,10)</f>
-        <v>4.1047942864862774</v>
+        <f t="shared" si="11"/>
+        <v>3.9053640687668914</v>
       </c>
       <c r="E107" t="s">
         <v>8</v>
@@ -2977,18 +3001,18 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B108">
-        <v>13938</v>
+        <v>9000</v>
       </c>
       <c r="C108">
-        <f t="shared" si="12"/>
-        <v>9.4979967004477958E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.11912459587167372</v>
       </c>
       <c r="D108">
-        <f t="shared" si="15"/>
-        <v>4.1442004601838791</v>
+        <f t="shared" si="11"/>
+        <v>3.9542425094393248</v>
       </c>
       <c r="E108" t="s">
         <v>8</v>
@@ -2996,18 +3020,18 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B109">
-        <v>14991</v>
+        <v>10075</v>
       </c>
       <c r="C109">
-        <f t="shared" si="12"/>
-        <v>7.554885923374946E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.11944444444444445</v>
       </c>
       <c r="D109">
-        <f t="shared" si="15"/>
-        <v>4.1758306041622486</v>
+        <f t="shared" si="11"/>
+        <v>4.0032450548131466</v>
       </c>
       <c r="E109" t="s">
         <v>8</v>
@@ -3015,18 +3039,18 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B110">
-        <v>16169</v>
+        <v>11364</v>
       </c>
       <c r="C110">
-        <f t="shared" si="12"/>
-        <v>7.8580481622306714E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.12794044665012408</v>
       </c>
       <c r="D110">
-        <f t="shared" si="15"/>
-        <v>4.208683161037416</v>
+        <f t="shared" si="11"/>
+        <v>4.0555312250508981</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
@@ -3034,18 +3058,18 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B111">
-        <v>17361</v>
+        <v>12729</v>
       </c>
       <c r="C111">
-        <f t="shared" si="12"/>
-        <v>7.372131857257716E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.12011615628299895</v>
       </c>
       <c r="D111">
-        <f t="shared" si="15"/>
-        <v>4.2395747370832089</v>
+        <f t="shared" ref="D111:D156" si="18">LOG(B111,10)</f>
+        <v>4.1047942864862774</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
@@ -3053,18 +3077,18 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B112">
-        <v>18407</v>
+        <v>13938</v>
       </c>
       <c r="C112">
-        <f t="shared" si="12"/>
-        <v>6.0249985599907838E-2</v>
+        <f t="shared" si="15"/>
+        <v>9.4979967004477958E-2</v>
       </c>
       <c r="D112">
-        <f t="shared" si="15"/>
-        <v>4.2649830123164598</v>
+        <f t="shared" si="18"/>
+        <v>4.1442004601838791</v>
       </c>
       <c r="E112" t="s">
         <v>8</v>
@@ -3072,18 +3096,18 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B113">
-        <v>19644</v>
+        <v>14991</v>
       </c>
       <c r="C113">
-        <f t="shared" si="12"/>
-        <v>6.7202694627044063E-2</v>
+        <f t="shared" si="15"/>
+        <v>7.554885923374946E-2</v>
       </c>
       <c r="D113">
-        <f t="shared" si="15"/>
-        <v>4.2932299254595661</v>
+        <f t="shared" si="18"/>
+        <v>4.1758306041622486</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
@@ -3091,18 +3115,18 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B114">
-        <v>21638</v>
+        <v>16169</v>
       </c>
       <c r="C114">
-        <f t="shared" ref="C114" si="16">(B114-B113)/B113</f>
-        <v>0.10150682142129912</v>
+        <f t="shared" si="15"/>
+        <v>7.8580481622306714E-2</v>
       </c>
       <c r="D114">
-        <f t="shared" ref="D114" si="17">LOG(B114,10)</f>
-        <v>4.335217116457434</v>
+        <f t="shared" si="18"/>
+        <v>4.208683161037416</v>
       </c>
       <c r="E114" t="s">
         <v>8</v>
@@ -3110,93 +3134,93 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B115">
-        <v>116</v>
+        <v>17361</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>7.372131857257716E-2</v>
       </c>
       <c r="D115">
-        <f t="shared" si="15"/>
-        <v>2.0644579892269181</v>
+        <f t="shared" si="18"/>
+        <v>4.2395747370832089</v>
       </c>
       <c r="E115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B116">
-        <v>164</v>
+        <v>18407</v>
       </c>
       <c r="C116">
-        <f t="shared" si="12"/>
-        <v>0.41379310344827586</v>
+        <f t="shared" si="15"/>
+        <v>6.0249985599907838E-2</v>
       </c>
       <c r="D116">
-        <f t="shared" si="15"/>
-        <v>2.214843848047698</v>
+        <f t="shared" si="18"/>
+        <v>4.2649830123164598</v>
       </c>
       <c r="E116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B117">
-        <v>209</v>
+        <v>19644</v>
       </c>
       <c r="C117">
-        <f t="shared" si="12"/>
-        <v>0.27439024390243905</v>
+        <f t="shared" si="15"/>
+        <v>6.7202694627044063E-2</v>
       </c>
       <c r="D117">
-        <f t="shared" si="15"/>
-        <v>2.3201462861110538</v>
+        <f t="shared" si="18"/>
+        <v>4.2932299254595661</v>
       </c>
       <c r="E117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B118">
-        <v>278</v>
+        <v>21638</v>
       </c>
       <c r="C118">
-        <f t="shared" si="12"/>
-        <v>0.33014354066985646</v>
+        <f t="shared" ref="C118" si="19">(B118-B117)/B117</f>
+        <v>0.10150682142129912</v>
       </c>
       <c r="D118">
-        <f t="shared" si="15"/>
-        <v>2.4440447959180758</v>
+        <f t="shared" ref="D118" si="20">LOG(B118,10)</f>
+        <v>4.335217116457434</v>
       </c>
       <c r="E118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B119">
-        <v>321</v>
+        <v>116</v>
       </c>
       <c r="C119">
-        <f t="shared" si="12"/>
-        <v>0.15467625899280577</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <f t="shared" si="15"/>
-        <v>2.5065050324048719</v>
+        <f t="shared" si="18"/>
+        <v>2.0644579892269181</v>
       </c>
       <c r="E119" t="s">
         <v>9</v>
@@ -3204,18 +3228,18 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B120">
-        <v>383</v>
+        <v>164</v>
       </c>
       <c r="C120">
-        <f t="shared" si="12"/>
-        <v>0.19314641744548286</v>
+        <f t="shared" si="15"/>
+        <v>0.41379310344827586</v>
       </c>
       <c r="D120">
-        <f t="shared" si="15"/>
-        <v>2.5831987739686224</v>
+        <f t="shared" si="18"/>
+        <v>2.214843848047698</v>
       </c>
       <c r="E120" t="s">
         <v>9</v>
@@ -3223,18 +3247,18 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B121">
-        <v>460</v>
+        <v>209</v>
       </c>
       <c r="C121">
-        <f t="shared" si="12"/>
-        <v>0.20104438642297651</v>
+        <f t="shared" si="15"/>
+        <v>0.27439024390243905</v>
       </c>
       <c r="D121">
-        <f t="shared" si="15"/>
-        <v>2.6627578316815739</v>
+        <f t="shared" si="18"/>
+        <v>2.3201462861110538</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
@@ -3242,18 +3266,18 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B122">
-        <v>590</v>
+        <v>278</v>
       </c>
       <c r="C122">
-        <f t="shared" si="12"/>
-        <v>0.28260869565217389</v>
+        <f t="shared" si="15"/>
+        <v>0.33014354066985646</v>
       </c>
       <c r="D122">
-        <f t="shared" si="15"/>
-        <v>2.7708520116421438</v>
+        <f t="shared" si="18"/>
+        <v>2.4440447959180758</v>
       </c>
       <c r="E122" t="s">
         <v>9</v>
@@ -3261,18 +3285,18 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B123">
-        <v>798</v>
+        <v>321</v>
       </c>
       <c r="C123">
-        <f t="shared" ref="C123:C152" si="18">(B123-B122)/B122</f>
-        <v>0.35254237288135593</v>
+        <f t="shared" si="15"/>
+        <v>0.15467625899280577</v>
       </c>
       <c r="D123">
-        <f t="shared" si="15"/>
-        <v>2.9020028913507292</v>
+        <f t="shared" si="18"/>
+        <v>2.5065050324048719</v>
       </c>
       <c r="E123" t="s">
         <v>9</v>
@@ -3280,18 +3304,18 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B124">
-        <v>1140</v>
+        <v>383</v>
       </c>
       <c r="C124">
+        <f t="shared" si="15"/>
+        <v>0.19314641744548286</v>
+      </c>
+      <c r="D124">
         <f t="shared" si="18"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="D124">
-        <f t="shared" si="15"/>
-        <v>3.0569048513364723</v>
+        <v>2.5831987739686224</v>
       </c>
       <c r="E124" t="s">
         <v>9</v>
@@ -3299,18 +3323,18 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B125">
-        <v>1391</v>
+        <v>460</v>
       </c>
       <c r="C125">
+        <f t="shared" si="15"/>
+        <v>0.20104438642297651</v>
+      </c>
+      <c r="D125">
         <f t="shared" si="18"/>
-        <v>0.22017543859649122</v>
-      </c>
-      <c r="D125">
-        <f t="shared" si="15"/>
-        <v>3.1433271299920462</v>
+        <v>2.6627578316815739</v>
       </c>
       <c r="E125" t="s">
         <v>9</v>
@@ -3318,18 +3342,18 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B126">
-        <v>1543</v>
+        <v>590</v>
       </c>
       <c r="C126">
+        <f t="shared" si="15"/>
+        <v>0.28260869565217389</v>
+      </c>
+      <c r="D126">
         <f t="shared" si="18"/>
-        <v>0.10927390366642703</v>
-      </c>
-      <c r="D126">
-        <f t="shared" si="15"/>
-        <v>3.1883659260631481</v>
+        <v>2.7708520116421438</v>
       </c>
       <c r="E126" t="s">
         <v>9</v>
@@ -3337,18 +3361,18 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B127">
-        <v>1950</v>
+        <v>798</v>
       </c>
       <c r="C127">
+        <f t="shared" ref="C127:C156" si="21">(B127-B126)/B126</f>
+        <v>0.35254237288135593</v>
+      </c>
+      <c r="D127">
         <f t="shared" si="18"/>
-        <v>0.26377187297472454</v>
-      </c>
-      <c r="D127">
-        <f t="shared" si="15"/>
-        <v>3.2900346113625178</v>
+        <v>2.9020028913507292</v>
       </c>
       <c r="E127" t="s">
         <v>9</v>
@@ -3356,18 +3380,18 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B128">
-        <v>2626</v>
+        <v>1140</v>
       </c>
       <c r="C128">
+        <f t="shared" si="21"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="D128">
         <f t="shared" si="18"/>
-        <v>0.34666666666666668</v>
-      </c>
-      <c r="D128">
-        <f t="shared" si="15"/>
-        <v>3.4192947217534599</v>
+        <v>3.0569048513364723</v>
       </c>
       <c r="E128" t="s">
         <v>9</v>
@@ -3375,18 +3399,18 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B129">
-        <v>3269</v>
+        <v>1391</v>
       </c>
       <c r="C129">
+        <f t="shared" si="21"/>
+        <v>0.22017543859649122</v>
+      </c>
+      <c r="D129">
         <f t="shared" si="18"/>
-        <v>0.24485910129474486</v>
-      </c>
-      <c r="D129">
-        <f t="shared" si="15"/>
-        <v>3.5144149205803688</v>
+        <v>3.1433271299920462</v>
       </c>
       <c r="E129" t="s">
         <v>9</v>
@@ -3394,18 +3418,18 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B130">
-        <v>3983</v>
+        <v>1543</v>
       </c>
       <c r="C130">
+        <f t="shared" si="21"/>
+        <v>0.10927390366642703</v>
+      </c>
+      <c r="D130">
         <f t="shared" si="18"/>
-        <v>0.21841541755888652</v>
-      </c>
-      <c r="D130">
-        <f t="shared" si="15"/>
-        <v>3.6002103064093274</v>
+        <v>3.1883659260631481</v>
       </c>
       <c r="E130" t="s">
         <v>9</v>
@@ -3413,93 +3437,93 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B131">
-        <v>100</v>
+        <v>1950</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0.26377187297472454</v>
       </c>
       <c r="D131">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>3.2900346113625178</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B132">
-        <v>130</v>
+        <v>2626</v>
       </c>
       <c r="C132">
+        <f t="shared" si="21"/>
+        <v>0.34666666666666668</v>
+      </c>
+      <c r="D132">
         <f t="shared" si="18"/>
-        <v>0.3</v>
-      </c>
-      <c r="D132">
-        <f t="shared" si="15"/>
-        <v>2.1139433523068365</v>
+        <v>3.4192947217534599</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B133">
-        <v>191</v>
+        <v>3269</v>
       </c>
       <c r="C133">
+        <f t="shared" si="21"/>
+        <v>0.24485910129474486</v>
+      </c>
+      <c r="D133">
         <f t="shared" si="18"/>
-        <v>0.46923076923076923</v>
-      </c>
-      <c r="D133">
-        <f t="shared" si="15"/>
-        <v>2.2810333672477272</v>
+        <v>3.5144149205803688</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B134">
-        <v>212</v>
+        <v>3983</v>
       </c>
       <c r="C134">
+        <f t="shared" si="21"/>
+        <v>0.21841541755888652</v>
+      </c>
+      <c r="D134">
         <f t="shared" si="18"/>
-        <v>0.1099476439790576</v>
-      </c>
-      <c r="D134">
-        <f t="shared" si="15"/>
-        <v>2.3263358609287512</v>
+        <v>3.6002103064093274</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B135">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
         <f t="shared" si="18"/>
-        <v>0.34433962264150941</v>
-      </c>
-      <c r="D135">
-        <f t="shared" si="15"/>
-        <v>2.4548448600085102</v>
+        <v>2</v>
       </c>
       <c r="E135" t="s">
         <v>10</v>
@@ -3507,18 +3531,18 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B136">
-        <v>423</v>
+        <v>130</v>
       </c>
       <c r="C136">
+        <f t="shared" si="21"/>
+        <v>0.3</v>
+      </c>
+      <c r="D136">
         <f t="shared" si="18"/>
-        <v>0.48421052631578948</v>
-      </c>
-      <c r="D136">
-        <f t="shared" si="15"/>
-        <v>2.6263403673750418</v>
+        <v>2.1139433523068365</v>
       </c>
       <c r="E136" t="s">
         <v>10</v>
@@ -3526,18 +3550,18 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B137">
-        <v>653</v>
+        <v>191</v>
       </c>
       <c r="C137">
+        <f t="shared" si="21"/>
+        <v>0.46923076923076923</v>
+      </c>
+      <c r="D137">
         <f t="shared" si="18"/>
-        <v>0.54373522458628842</v>
-      </c>
-      <c r="D137">
-        <f t="shared" si="15"/>
-        <v>2.8149131812750738</v>
+        <v>2.2810333672477272</v>
       </c>
       <c r="E137" t="s">
         <v>10</v>
@@ -3545,18 +3569,18 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B138">
-        <v>949</v>
+        <v>212</v>
       </c>
       <c r="C138">
+        <f t="shared" si="21"/>
+        <v>0.1099476439790576</v>
+      </c>
+      <c r="D138">
         <f t="shared" si="18"/>
-        <v>0.45329249617151607</v>
-      </c>
-      <c r="D138">
-        <f t="shared" si="15"/>
-        <v>2.9772662124272924</v>
+        <v>2.3263358609287512</v>
       </c>
       <c r="E138" t="s">
         <v>10</v>
@@ -3564,18 +3588,18 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B139">
-        <v>1209</v>
+        <v>285</v>
       </c>
       <c r="C139">
+        <f t="shared" si="21"/>
+        <v>0.34433962264150941</v>
+      </c>
+      <c r="D139">
         <f t="shared" si="18"/>
-        <v>0.27397260273972601</v>
-      </c>
-      <c r="D139">
-        <f t="shared" si="15"/>
-        <v>3.0824263008607717</v>
+        <v>2.4548448600085102</v>
       </c>
       <c r="E139" t="s">
         <v>10</v>
@@ -3583,18 +3607,18 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B140">
-        <v>1412</v>
+        <v>423</v>
       </c>
       <c r="C140">
+        <f t="shared" si="21"/>
+        <v>0.48421052631578948</v>
+      </c>
+      <c r="D140">
         <f t="shared" si="18"/>
-        <v>0.16790736145574855</v>
-      </c>
-      <c r="D140">
-        <f t="shared" si="15"/>
-        <v>3.1498346967157844</v>
+        <v>2.6263403673750418</v>
       </c>
       <c r="E140" t="s">
         <v>10</v>
@@ -3602,18 +3626,18 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B141">
-        <v>1784</v>
+        <v>653</v>
       </c>
       <c r="C141">
+        <f t="shared" si="21"/>
+        <v>0.54373522458628842</v>
+      </c>
+      <c r="D141">
         <f t="shared" si="18"/>
-        <v>0.26345609065155806</v>
-      </c>
-      <c r="D141">
-        <f t="shared" si="15"/>
-        <v>3.251394850040104</v>
+        <v>2.8149131812750738</v>
       </c>
       <c r="E141" t="s">
         <v>10</v>
@@ -3621,18 +3645,18 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B142">
-        <v>2281</v>
+        <v>949</v>
       </c>
       <c r="C142">
+        <f t="shared" si="21"/>
+        <v>0.45329249617151607</v>
+      </c>
+      <c r="D142">
         <f t="shared" si="18"/>
-        <v>0.27858744394618834</v>
-      </c>
-      <c r="D142">
-        <f t="shared" si="15"/>
-        <v>3.3581252852766479</v>
+        <v>2.9772662124272924</v>
       </c>
       <c r="E142" t="s">
         <v>10</v>
@@ -3640,18 +3664,18 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B143">
-        <v>2876</v>
+        <v>1209</v>
       </c>
       <c r="C143">
+        <f t="shared" si="21"/>
+        <v>0.27397260273972601</v>
+      </c>
+      <c r="D143">
         <f t="shared" si="18"/>
-        <v>0.26085050416483996</v>
-      </c>
-      <c r="D143">
-        <f t="shared" si="15"/>
-        <v>3.4587888817108445</v>
+        <v>3.0824263008607717</v>
       </c>
       <c r="E143" t="s">
         <v>10</v>
@@ -3659,18 +3683,18 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B144">
-        <v>3661</v>
+        <v>1412</v>
       </c>
       <c r="C144">
+        <f t="shared" si="21"/>
+        <v>0.16790736145574855</v>
+      </c>
+      <c r="D144">
         <f t="shared" si="18"/>
-        <v>0.27294853963838667</v>
-      </c>
-      <c r="D144">
-        <f t="shared" si="15"/>
-        <v>3.5635997288815306</v>
+        <v>3.1498346967157844</v>
       </c>
       <c r="E144" t="s">
         <v>10</v>
@@ -3678,18 +3702,18 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B145">
-        <v>4499</v>
+        <v>1784</v>
       </c>
       <c r="C145">
+        <f t="shared" si="21"/>
+        <v>0.26345609065155806</v>
+      </c>
+      <c r="D145">
         <f t="shared" si="18"/>
-        <v>0.22889920786670309</v>
-      </c>
-      <c r="D145">
-        <f t="shared" si="15"/>
-        <v>3.6531159931655663</v>
+        <v>3.251394850040104</v>
       </c>
       <c r="E145" t="s">
         <v>10</v>
@@ -3697,18 +3721,18 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B146">
-        <v>5423</v>
+        <v>2281</v>
       </c>
       <c r="C146">
+        <f t="shared" si="21"/>
+        <v>0.27858744394618834</v>
+      </c>
+      <c r="D146">
         <f t="shared" si="18"/>
-        <v>0.20537897310513448</v>
-      </c>
-      <c r="D146">
-        <f t="shared" si="15"/>
-        <v>3.7342396044354547</v>
+        <v>3.3581252852766479</v>
       </c>
       <c r="E146" t="s">
         <v>10</v>
@@ -3716,18 +3740,18 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B147">
-        <v>6633</v>
+        <v>2876</v>
       </c>
       <c r="C147">
+        <f t="shared" si="21"/>
+        <v>0.26085050416483996</v>
+      </c>
+      <c r="D147">
         <f t="shared" si="18"/>
-        <v>0.2231237322515213</v>
-      </c>
-      <c r="D147">
-        <f t="shared" si="15"/>
-        <v>3.8217099972983757</v>
+        <v>3.4587888817108445</v>
       </c>
       <c r="E147" t="s">
         <v>10</v>
@@ -3735,18 +3759,18 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B148">
-        <v>7730</v>
+        <v>3661</v>
       </c>
       <c r="C148">
+        <f t="shared" si="21"/>
+        <v>0.27294853963838667</v>
+      </c>
+      <c r="D148">
         <f t="shared" si="18"/>
-        <v>0.1653851952359415</v>
-      </c>
-      <c r="D148">
-        <f t="shared" si="15"/>
-        <v>3.888179493918325</v>
+        <v>3.5635997288815306</v>
       </c>
       <c r="E148" t="s">
         <v>10</v>
@@ -3754,18 +3778,18 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B149">
-        <v>9134</v>
+        <v>4499</v>
       </c>
       <c r="C149">
+        <f t="shared" si="21"/>
+        <v>0.22889920786670309</v>
+      </c>
+      <c r="D149">
         <f t="shared" si="18"/>
-        <v>0.1816300129366106</v>
-      </c>
-      <c r="D149">
-        <f t="shared" si="15"/>
-        <v>3.9606610072709816</v>
+        <v>3.6531159931655663</v>
       </c>
       <c r="E149" t="s">
         <v>10</v>
@@ -3773,18 +3797,18 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B150">
-        <v>10995</v>
+        <v>5423</v>
       </c>
       <c r="C150">
+        <f t="shared" si="21"/>
+        <v>0.20537897310513448</v>
+      </c>
+      <c r="D150">
         <f t="shared" si="18"/>
-        <v>0.20374425224436171</v>
-      </c>
-      <c r="D150">
-        <f t="shared" si="15"/>
-        <v>4.0411952336968087</v>
+        <v>3.7342396044354547</v>
       </c>
       <c r="E150" t="s">
         <v>10</v>
@@ -3792,18 +3816,18 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B151">
-        <v>12612</v>
+        <v>6633</v>
       </c>
       <c r="C151">
+        <f t="shared" si="21"/>
+        <v>0.2231237322515213</v>
+      </c>
+      <c r="D151">
         <f t="shared" si="18"/>
-        <v>0.14706684856753069</v>
-      </c>
-      <c r="D151">
-        <f t="shared" si="15"/>
-        <v>4.1007839620758668</v>
+        <v>3.8217099972983757</v>
       </c>
       <c r="E151" t="s">
         <v>10</v>
@@ -3811,20 +3835,96 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
+        <v>18</v>
+      </c>
+      <c r="B152">
+        <v>7730</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="21"/>
+        <v>0.1653851952359415</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="18"/>
+        <v>3.888179493918325</v>
+      </c>
+      <c r="E152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>19</v>
+      </c>
+      <c r="B153">
+        <v>9134</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="21"/>
+        <v>0.1816300129366106</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="18"/>
+        <v>3.9606610072709816</v>
+      </c>
+      <c r="E153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>20</v>
+      </c>
+      <c r="B154">
+        <v>10995</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="21"/>
+        <v>0.20374425224436171</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="18"/>
+        <v>4.0411952336968087</v>
+      </c>
+      <c r="E154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>21</v>
+      </c>
+      <c r="B155">
+        <v>12612</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="21"/>
+        <v>0.14706684856753069</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="18"/>
+        <v>4.1007839620758668</v>
+      </c>
+      <c r="E155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>22</v>
       </c>
-      <c r="B152">
+      <c r="B156">
         <v>14459</v>
       </c>
-      <c r="C152">
+      <c r="C156">
+        <f t="shared" si="21"/>
+        <v>0.14644782746590548</v>
+      </c>
+      <c r="D156">
         <f t="shared" si="18"/>
-        <v>0.14644782746590548</v>
-      </c>
-      <c r="D152">
-        <f t="shared" si="15"/>
         <v>4.1601382577234016</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E156" t="s">
         <v>10</v>
       </c>
     </row>

--- a/dataset/dataset_infec.xlsx
+++ b/dataset/dataset_infec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braeued1\Documents\Octavio\projetos\Covid19_data\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4C077C-9AE4-42D0-9AF6-75A6462A6C71}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DDA82D-CB72-4322-9973-DFBF16EEC3E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,23 +18,6 @@
     <sheet name="Death Var" sheetId="8" r:id="rId3"/>
     <sheet name="Cases Var" sheetId="6" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Cases Var'!$AC:$AC</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Cases Var'!$B$2:$B$37</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Cases Var'!$R:$R</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Cases Var'!$U:$U</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Cases Var'!$V:$V</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Cases Var'!$Y:$Y</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Cases Var'!$Z:$Z</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Cases Var'!$E$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Cases Var'!$E$2:$E$37</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Cases Var'!$F:$F</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Cases Var'!$I:$I</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Cases Var'!$J:$J</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Cases Var'!$M:$M</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Cases Var'!$N:$N</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Cases Var'!$Q:$Q</definedName>
-  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="59">
   <si>
     <t>day</t>
   </si>
@@ -214,14 +197,25 @@
   <si>
     <t>S Korea deaths</t>
   </si>
+  <si>
+    <t>UK cases</t>
+  </si>
+  <si>
+    <t>UK deaths</t>
+  </si>
+  <si>
+    <t>UK deaths var</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="169" formatCode="0.00000%"/>
+    <numFmt numFmtId="170" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -278,11 +272,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -291,7 +285,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2117,6 +2116,121 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>UK</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Death Var'!$W$2:$W$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A566-4BB6-9F89-CF64F37836B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2656,7 +2770,7 @@
             <c:numRef>
               <c:f>'Death Var'!$M$2:$M$48</c:f>
               <c:numCache>
-                <c:formatCode>0.000%</c:formatCode>
+                <c:formatCode>0.00000%</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2804,7 +2918,7 @@
             <c:numRef>
               <c:f>'Death Var'!$Q$2:$Q$37</c:f>
               <c:numCache>
-                <c:formatCode>0.000%</c:formatCode>
+                <c:formatCode>0.000000%</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2903,6 +3017,121 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1A2D-4B4E-AA19-4444E6BA65EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>UK</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Death Var'!$X$2:$X$28</c:f>
+              <c:numCache>
+                <c:formatCode>000,000%</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5151515151515152E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5151515151515152E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0303030303030305E-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5151515151515152E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0303030303030305E-8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0303030303030305E-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5151515151515152E-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5151515151515152E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1212121212121213E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0303030303030305E-7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4242424242424244E-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.060606060606061E-7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.4848484848484854E-7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.2727272727272732E-7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.1818181818181823E-7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3181818181818182E-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.212121212121212E-7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7424242424242425E-6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7424242424242422E-6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.939393939393939E-6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.1666666666666667E-6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7272727272727272E-6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.7727272727272731E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7872-408F-937C-8F9279062820}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4778,6 +5007,211 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>UK</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Death Var'!$V$2:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1228</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Death Var'!$W$2:$W$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB12-41EB-A599-FCEF675211EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4995,7 +5429,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -6058,9 +6491,6 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:v>UK</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="9525" cap="rnd">
               <a:solidFill>
@@ -6075,10 +6505,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Cases Var'!$V$2:$V$17</c:f>
+              <c:f>'Cases Var'!$V$2:$V$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>116</c:v>
                 </c:pt>
@@ -6126,16 +6556,49 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3983</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5683</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6650</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8077</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9529</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11658</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14543</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17089</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19522</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22141</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Cases Var'!$Y$2:$Y$17</c:f>
+              <c:f>'Cases Var'!$Y$2:$Y$30</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="1">
                   <c:v>48</c:v>
                 </c:pt>
@@ -6180,6 +6643,39 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1427</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1452</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2129</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2885</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2546</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2433</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7973,6 +8469,220 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-683E-4770-B0DE-53911AA301BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>UK</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cases Var'!$W$2:$W$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2.0644579892269181</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.214843848047698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3201462861110538</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4440447959180758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5065050324048719</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5831987739686224</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6627578316815739</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7708520116421438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9020028913507292</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0569048513364723</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1433271299920462</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1883659260631481</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2900346113625178</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4192947217534599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5144149205803688</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6002103064093274</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7005306569785912</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7545776560447299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8228216453031045</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9072500828813279</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.9790473269479643</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0666240509834264</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1626540041195756</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.2327166497781681</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.29052430843669</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.345197231929979</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.4005379893919452</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cases Var'!$X$2:$X$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="1">
+                  <c:v>1.6812412373755872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6532125137753435</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8388490907372552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6334684555795864</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7923916894982537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8864907251724818</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1139433523068365</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3180633349627615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5340261060561344</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3996737214810375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1818435879447722</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6095944092252195</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8299466959416359</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8082109729242215</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.853698211776174</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0149403497929361</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8228216453031045</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9854264740830012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1544239731146466</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1619666163640745</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3281756614383222</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4601458174917501</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4058583993176366</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3861421089308181</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4181354984252317</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4784221877400801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6EA9-414B-B57E-520666EED660}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12610,14 +13320,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
@@ -12646,16 +13356,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12689,16 +13399,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12725,16 +13435,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12761,16 +13471,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12799,16 +13509,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12837,214 +13547,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.161</cdr:x>
-      <cdr:y>0.09881</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.79785</cdr:x>
-      <cdr:y>0.639</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="3" name="Straight Connector 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D6DBD8-A64D-4A74-B1F5-2184B0519E86}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="857251" y="357188"/>
-          <a:ext cx="3390900" cy="1952625"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.21825</cdr:x>
-      <cdr:y>0.0224</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.73345</cdr:x>
-      <cdr:y>0.71278</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="4" name="Straight Connector 3">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFD2FC56-E006-4125-9DC0-E25645985378}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="1162051" y="80964"/>
-          <a:ext cx="2743200" cy="2495549"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.21467</cdr:x>
-      <cdr:y>0.02459</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.80561</cdr:x>
-      <cdr:y>0.67062</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="7" name="Straight Connector 6">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EAAD94D-3404-4C9E-8A17-9052ED2434B4}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="1143001" y="88901"/>
-          <a:ext cx="3146424" cy="2335212"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.15206</cdr:x>
-      <cdr:y>0.13307</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.84973</cdr:x>
-      <cdr:y>0.68116</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="9" name="Straight Connector 8">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC717355-996A-4564-B1E0-5756FE72EE9F}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="809626" y="481013"/>
-          <a:ext cx="3714750" cy="1981200"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="19788184" y="59529"/>
@@ -13115,7 +13617,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -13445,10 +13947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G180"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="G169" sqref="G143:G169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16583,7 +17085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>12</v>
       </c>
@@ -16602,7 +17104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>13</v>
       </c>
@@ -16621,7 +17123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>14</v>
       </c>
@@ -16640,7 +17142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>15</v>
       </c>
@@ -16659,7 +17161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>16</v>
       </c>
@@ -16678,7 +17180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>17</v>
       </c>
@@ -16697,7 +17199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>18</v>
       </c>
@@ -16709,14 +17211,14 @@
         <v>0.12011615628299895</v>
       </c>
       <c r="D135">
-        <f t="shared" ref="D135:D180" si="34">LOG(B135,10)</f>
+        <f t="shared" ref="D135:D191" si="34">LOG(B135,10)</f>
         <v>4.1047942864862774</v>
       </c>
       <c r="E135" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>19</v>
       </c>
@@ -16735,7 +17237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>20</v>
       </c>
@@ -16754,7 +17256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>21</v>
       </c>
@@ -16773,7 +17275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>22</v>
       </c>
@@ -16792,7 +17294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>23</v>
       </c>
@@ -16811,7 +17313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>24</v>
       </c>
@@ -16830,7 +17332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>25</v>
       </c>
@@ -16849,7 +17351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -16866,8 +17368,14 @@
       <c r="E143" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="1">
+        <v>43895</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2</v>
       </c>
@@ -16885,8 +17393,14 @@
       <c r="E144" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144" s="1">
+        <v>43896</v>
+      </c>
+      <c r="G144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>3</v>
       </c>
@@ -16904,8 +17418,14 @@
       <c r="E145" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145" s="1">
+        <v>43897</v>
+      </c>
+      <c r="G145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>4</v>
       </c>
@@ -16923,8 +17443,14 @@
       <c r="E146" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" s="1">
+        <v>43898</v>
+      </c>
+      <c r="G146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>5</v>
       </c>
@@ -16942,8 +17468,14 @@
       <c r="E147" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="1">
+        <v>43899</v>
+      </c>
+      <c r="G147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6</v>
       </c>
@@ -16961,8 +17493,14 @@
       <c r="E148" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148" s="1">
+        <v>43900</v>
+      </c>
+      <c r="G148">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>7</v>
       </c>
@@ -16980,8 +17518,14 @@
       <c r="E149" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149" s="1">
+        <v>43901</v>
+      </c>
+      <c r="G149">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>8</v>
       </c>
@@ -16999,8 +17543,14 @@
       <c r="E150" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150" s="1">
+        <v>43902</v>
+      </c>
+      <c r="G150">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>9</v>
       </c>
@@ -17008,7 +17558,7 @@
         <v>798</v>
       </c>
       <c r="C151">
-        <f t="shared" ref="C151:C180" si="37">(B151-B150)/B150</f>
+        <f t="shared" ref="C151:C191" si="37">(B151-B150)/B150</f>
         <v>0.35254237288135593</v>
       </c>
       <c r="D151">
@@ -17018,8 +17568,14 @@
       <c r="E151" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151" s="1">
+        <v>43903</v>
+      </c>
+      <c r="G151">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>10</v>
       </c>
@@ -17037,8 +17593,14 @@
       <c r="E152" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152" s="1">
+        <v>43904</v>
+      </c>
+      <c r="G152">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>11</v>
       </c>
@@ -17056,8 +17618,14 @@
       <c r="E153" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153" s="1">
+        <v>43905</v>
+      </c>
+      <c r="G153">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>12</v>
       </c>
@@ -17075,8 +17643,14 @@
       <c r="E154" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154" s="1">
+        <v>43906</v>
+      </c>
+      <c r="G154">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>13</v>
       </c>
@@ -17094,8 +17668,14 @@
       <c r="E155" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155" s="1">
+        <v>43907</v>
+      </c>
+      <c r="G155">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>14</v>
       </c>
@@ -17113,8 +17693,14 @@
       <c r="E156" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156" s="1">
+        <v>43908</v>
+      </c>
+      <c r="G156">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>15</v>
       </c>
@@ -17132,8 +17718,14 @@
       <c r="E157" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157" s="1">
+        <v>43909</v>
+      </c>
+      <c r="G157">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>16</v>
       </c>
@@ -17151,421 +17743,702 @@
       <c r="E158" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158" s="1">
+        <v>43910</v>
+      </c>
+      <c r="G158">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B159">
-        <v>100</v>
+        <v>5018</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>0.25985438111975895</v>
       </c>
       <c r="D159">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3.7005306569785912</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F159" s="1">
+        <v>43911</v>
+      </c>
+      <c r="G159">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B160">
-        <v>130</v>
+        <v>5683</v>
       </c>
       <c r="C160">
         <f t="shared" si="37"/>
-        <v>0.3</v>
+        <v>0.13252291749701076</v>
       </c>
       <c r="D160">
         <f t="shared" si="34"/>
-        <v>2.1139433523068365</v>
+        <v>3.7545776560447299</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F160" s="1">
+        <v>43912</v>
+      </c>
+      <c r="G160">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B161">
-        <v>191</v>
+        <v>6650</v>
       </c>
       <c r="C161">
         <f t="shared" si="37"/>
-        <v>0.46923076923076923</v>
+        <v>0.17015660742565547</v>
       </c>
       <c r="D161">
         <f t="shared" si="34"/>
-        <v>2.2810333672477272</v>
+        <v>3.8228216453031045</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F161" s="1">
+        <v>43913</v>
+      </c>
+      <c r="G161">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B162">
-        <v>212</v>
+        <v>8077</v>
       </c>
       <c r="C162">
         <f t="shared" si="37"/>
-        <v>0.1099476439790576</v>
+        <v>0.21458646616541355</v>
       </c>
       <c r="D162">
         <f t="shared" si="34"/>
-        <v>2.3263358609287512</v>
+        <v>3.9072500828813279</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F162" s="1">
+        <v>43914</v>
+      </c>
+      <c r="G162">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B163">
-        <v>285</v>
+        <v>9529</v>
       </c>
       <c r="C163">
         <f t="shared" si="37"/>
-        <v>0.34433962264150941</v>
+        <v>0.17976971647889067</v>
       </c>
       <c r="D163">
         <f t="shared" si="34"/>
-        <v>2.4548448600085102</v>
+        <v>3.9790473269479643</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F163" s="1">
+        <v>43915</v>
+      </c>
+      <c r="G163">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B164">
-        <v>423</v>
+        <v>11658</v>
       </c>
       <c r="C164">
         <f t="shared" si="37"/>
-        <v>0.48421052631578948</v>
+        <v>0.22342323433728617</v>
       </c>
       <c r="D164">
         <f t="shared" si="34"/>
-        <v>2.6263403673750418</v>
+        <v>4.0666240509834264</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F164" s="1">
+        <v>43916</v>
+      </c>
+      <c r="G164">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B165">
-        <v>653</v>
+        <v>14543</v>
       </c>
       <c r="C165">
         <f t="shared" si="37"/>
-        <v>0.54373522458628842</v>
+        <v>0.24746954880768571</v>
       </c>
       <c r="D165">
         <f t="shared" si="34"/>
-        <v>2.8149131812750738</v>
+        <v>4.1626540041195756</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F165" s="1">
+        <v>43917</v>
+      </c>
+      <c r="G165">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B166">
-        <v>949</v>
+        <v>17089</v>
       </c>
       <c r="C166">
         <f t="shared" si="37"/>
-        <v>0.45329249617151607</v>
+        <v>0.17506704256343258</v>
       </c>
       <c r="D166">
         <f t="shared" si="34"/>
-        <v>2.9772662124272924</v>
+        <v>4.2327166497781681</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F166" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G166">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B167">
-        <v>1209</v>
+        <v>19522</v>
       </c>
       <c r="C167">
         <f t="shared" si="37"/>
-        <v>0.27397260273972601</v>
+        <v>0.14237228626601908</v>
       </c>
       <c r="D167">
         <f t="shared" si="34"/>
-        <v>3.0824263008607717</v>
+        <v>4.29052430843669</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F167" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G167">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B168">
-        <v>1412</v>
+        <v>22141</v>
       </c>
       <c r="C168">
         <f t="shared" si="37"/>
-        <v>0.16790736145574855</v>
+        <v>0.13415633644093844</v>
       </c>
       <c r="D168">
         <f t="shared" si="34"/>
-        <v>3.1498346967157844</v>
+        <v>4.345197231929979</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F168" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G168">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B169">
-        <v>1784</v>
+        <v>25150</v>
       </c>
       <c r="C169">
         <f t="shared" si="37"/>
-        <v>0.26345609065155806</v>
+        <v>0.13590172078948556</v>
       </c>
       <c r="D169">
         <f t="shared" si="34"/>
+        <v>4.4005379893919452</v>
+      </c>
+      <c r="E169" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G169">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170">
+        <v>100</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="E170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2</v>
+      </c>
+      <c r="B171">
+        <v>130</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="37"/>
+        <v>0.3</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="34"/>
+        <v>2.1139433523068365</v>
+      </c>
+      <c r="E171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>3</v>
+      </c>
+      <c r="B172">
+        <v>191</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="37"/>
+        <v>0.46923076923076923</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="34"/>
+        <v>2.2810333672477272</v>
+      </c>
+      <c r="E172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>4</v>
+      </c>
+      <c r="B173">
+        <v>212</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="37"/>
+        <v>0.1099476439790576</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="34"/>
+        <v>2.3263358609287512</v>
+      </c>
+      <c r="E173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>5</v>
+      </c>
+      <c r="B174">
+        <v>285</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="37"/>
+        <v>0.34433962264150941</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="34"/>
+        <v>2.4548448600085102</v>
+      </c>
+      <c r="E174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>6</v>
+      </c>
+      <c r="B175">
+        <v>423</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="37"/>
+        <v>0.48421052631578948</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="34"/>
+        <v>2.6263403673750418</v>
+      </c>
+      <c r="E175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176">
+        <v>653</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="37"/>
+        <v>0.54373522458628842</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="34"/>
+        <v>2.8149131812750738</v>
+      </c>
+      <c r="E176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>8</v>
+      </c>
+      <c r="B177">
+        <v>949</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="37"/>
+        <v>0.45329249617151607</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="34"/>
+        <v>2.9772662124272924</v>
+      </c>
+      <c r="E177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>9</v>
+      </c>
+      <c r="B178">
+        <v>1209</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="37"/>
+        <v>0.27397260273972601</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="34"/>
+        <v>3.0824263008607717</v>
+      </c>
+      <c r="E178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>10</v>
+      </c>
+      <c r="B179">
+        <v>1412</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="37"/>
+        <v>0.16790736145574855</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="34"/>
+        <v>3.1498346967157844</v>
+      </c>
+      <c r="E179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>11</v>
+      </c>
+      <c r="B180">
+        <v>1784</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="37"/>
+        <v>0.26345609065155806</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="34"/>
         <v>3.251394850040104</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E180" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
         <v>12</v>
       </c>
-      <c r="B170">
+      <c r="B181">
         <v>2281</v>
       </c>
-      <c r="C170">
+      <c r="C181">
         <f t="shared" si="37"/>
         <v>0.27858744394618834</v>
       </c>
-      <c r="D170">
+      <c r="D181">
         <f t="shared" si="34"/>
         <v>3.3581252852766479</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E181" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
         <v>13</v>
       </c>
-      <c r="B171">
+      <c r="B182">
         <v>2876</v>
       </c>
-      <c r="C171">
+      <c r="C182">
         <f t="shared" si="37"/>
         <v>0.26085050416483996</v>
       </c>
-      <c r="D171">
+      <c r="D182">
         <f t="shared" si="34"/>
         <v>3.4587888817108445</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E182" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
         <v>14</v>
       </c>
-      <c r="B172">
+      <c r="B183">
         <v>3661</v>
       </c>
-      <c r="C172">
+      <c r="C183">
         <f t="shared" si="37"/>
         <v>0.27294853963838667</v>
       </c>
-      <c r="D172">
+      <c r="D183">
         <f t="shared" si="34"/>
         <v>3.5635997288815306</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E183" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
         <v>15</v>
       </c>
-      <c r="B173">
+      <c r="B184">
         <v>4499</v>
       </c>
-      <c r="C173">
+      <c r="C184">
         <f t="shared" si="37"/>
         <v>0.22889920786670309</v>
       </c>
-      <c r="D173">
+      <c r="D184">
         <f t="shared" si="34"/>
         <v>3.6531159931655663</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E184" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
         <v>16</v>
       </c>
-      <c r="B174">
+      <c r="B185">
         <v>5423</v>
       </c>
-      <c r="C174">
+      <c r="C185">
         <f t="shared" si="37"/>
         <v>0.20537897310513448</v>
       </c>
-      <c r="D174">
+      <c r="D185">
         <f t="shared" si="34"/>
         <v>3.7342396044354547</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E185" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
         <v>17</v>
       </c>
-      <c r="B175">
+      <c r="B186">
         <v>6633</v>
       </c>
-      <c r="C175">
+      <c r="C186">
         <f t="shared" si="37"/>
         <v>0.2231237322515213</v>
       </c>
-      <c r="D175">
+      <c r="D186">
         <f t="shared" si="34"/>
         <v>3.8217099972983757</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E186" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
         <v>18</v>
       </c>
-      <c r="B176">
+      <c r="B187">
         <v>7730</v>
       </c>
-      <c r="C176">
+      <c r="C187">
         <f t="shared" si="37"/>
         <v>0.1653851952359415</v>
       </c>
-      <c r="D176">
+      <c r="D187">
         <f t="shared" si="34"/>
         <v>3.888179493918325</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E187" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
         <v>19</v>
       </c>
-      <c r="B177">
+      <c r="B188">
         <v>9134</v>
       </c>
-      <c r="C177">
+      <c r="C188">
         <f t="shared" si="37"/>
         <v>0.1816300129366106</v>
       </c>
-      <c r="D177">
+      <c r="D188">
         <f t="shared" si="34"/>
         <v>3.9606610072709816</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E188" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
         <v>20</v>
       </c>
-      <c r="B178">
+      <c r="B189">
         <v>10995</v>
       </c>
-      <c r="C178">
+      <c r="C189">
         <f t="shared" si="37"/>
         <v>0.20374425224436171</v>
       </c>
-      <c r="D178">
+      <c r="D189">
         <f t="shared" si="34"/>
         <v>4.0411952336968087</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E189" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
         <v>21</v>
       </c>
-      <c r="B179">
+      <c r="B190">
         <v>12612</v>
       </c>
-      <c r="C179">
+      <c r="C190">
         <f t="shared" si="37"/>
         <v>0.14706684856753069</v>
       </c>
-      <c r="D179">
+      <c r="D190">
         <f t="shared" si="34"/>
         <v>4.1007839620758668</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E190" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
         <v>22</v>
       </c>
-      <c r="B180">
+      <c r="B191">
         <v>14459</v>
       </c>
-      <c r="C180">
+      <c r="C191">
         <f t="shared" si="37"/>
         <v>0.14644782746590548</v>
       </c>
-      <c r="D180">
+      <c r="D191">
         <f t="shared" si="34"/>
         <v>4.1601382577234016</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E191" t="s">
         <v>10</v>
       </c>
     </row>
@@ -18434,10 +19307,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25C859D-AA7D-4F12-87CB-B1F40BE28FD3}">
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AF30" sqref="AF30"/>
+    <sheetView tabSelected="1" topLeftCell="K10" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17:U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18451,12 +19324,15 @@
     <col min="10" max="10" width="9.140625" style="11"/>
     <col min="14" max="14" width="9.140625" style="7"/>
     <col min="17" max="17" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" style="12" customWidth="1"/>
+    <col min="18" max="18" width="12" style="13" customWidth="1"/>
     <col min="19" max="19" width="12" style="6" customWidth="1"/>
     <col min="20" max="20" width="12" style="12" customWidth="1"/>
+    <col min="21" max="21" width="12" style="13" customWidth="1"/>
+    <col min="22" max="22" width="12" style="12" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
@@ -18505,7 +19381,7 @@
       <c r="Q1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="13" t="s">
         <v>46</v>
       </c>
       <c r="S1" s="6" t="s">
@@ -18514,9 +19390,20 @@
       <c r="T1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="12"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18555,7 +19442,7 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="14">
         <f>L2/60000000</f>
         <v>0</v>
       </c>
@@ -18568,7 +19455,7 @@
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="15">
         <f>0</f>
         <v>0</v>
       </c>
@@ -18578,8 +19465,21 @@
       <c r="T2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <v>116</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="17">
+        <f>W2/66000000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18619,7 +19519,7 @@
         <f>K3-K2</f>
         <v>4</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="14">
         <f t="shared" ref="M3:M39" si="2">L3/60000000</f>
         <v>6.6666666666666668E-8</v>
       </c>
@@ -18633,7 +19533,7 @@
         <f>O3-O2</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="15">
         <f>P3/46000000</f>
         <v>2.1739130434782609E-8</v>
       </c>
@@ -18644,8 +19544,22 @@
         <f>S3-S2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>164</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <f>V3-V2</f>
+        <v>1</v>
+      </c>
+      <c r="X3" s="17">
+        <f t="shared" ref="X3:X28" si="3">W3/66000000</f>
+        <v>1.5151515151515152E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18682,10 +19596,10 @@
         <v>11</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L39" si="3">K4-K3</f>
+        <f t="shared" ref="L4:L39" si="4">K4-K3</f>
         <v>4</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="14">
         <f t="shared" si="2"/>
         <v>6.6666666666666668E-8</v>
       </c>
@@ -18696,22 +19610,36 @@
         <v>2</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P31" si="4">O4-O3</f>
+        <f t="shared" ref="P4:P31" si="5">O4-O3</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="12">
-        <f t="shared" ref="Q4:Q31" si="5">P4/46000000</f>
+      <c r="Q4" s="15">
+        <f t="shared" ref="Q4:Q31" si="6">P4/46000000</f>
         <v>2.1739130434782609E-8</v>
       </c>
       <c r="S4" s="6">
         <v>6</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T40" si="6">S4-S3</f>
+        <f t="shared" ref="T4:T40" si="7">S4-S3</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>209</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W28" si="8">V4-V3</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18748,10 +19676,10 @@
         <v>12</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="14">
         <f t="shared" si="2"/>
         <v>1.6666666666666667E-8</v>
       </c>
@@ -18762,22 +19690,36 @@
         <v>3</v>
       </c>
       <c r="P5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q5" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q5" s="15">
+        <f t="shared" si="6"/>
         <v>2.1739130434782609E-8</v>
       </c>
       <c r="S5" s="6">
         <v>8</v>
       </c>
       <c r="T5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>278</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X5" s="17">
+        <f t="shared" si="3"/>
+        <v>1.5151515151515152E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18814,10 +19756,10 @@
         <v>17</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="14">
         <f t="shared" si="2"/>
         <v>8.3333333333333338E-8</v>
       </c>
@@ -18828,22 +19770,36 @@
         <v>8</v>
       </c>
       <c r="P6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="Q6" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q6" s="15">
+        <f t="shared" si="6"/>
         <v>1.0869565217391305E-7</v>
       </c>
       <c r="S6" s="6">
         <v>11</v>
       </c>
       <c r="T6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>321</v>
+      </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="X6" s="17">
+        <f t="shared" si="3"/>
+        <v>3.0303030303030305E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -18881,10 +19837,10 @@
         <v>21</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="14">
         <f t="shared" si="2"/>
         <v>6.6666666666666668E-8</v>
       </c>
@@ -18895,22 +19851,36 @@
         <v>10</v>
       </c>
       <c r="P7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="Q7" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q7" s="15">
+        <f t="shared" si="6"/>
         <v>4.3478260869565219E-8</v>
       </c>
       <c r="S7" s="6">
         <v>12</v>
       </c>
       <c r="T7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>383</v>
+      </c>
+      <c r="V7">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X7" s="17">
+        <f t="shared" si="3"/>
+        <v>1.5151515151515152E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -18934,7 +19904,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" ref="H8:H19" si="7">(G8-G7)</f>
+        <f t="shared" ref="H8:H19" si="9">(G8-G7)</f>
         <v>4</v>
       </c>
       <c r="I8" s="12">
@@ -18948,10 +19918,10 @@
         <v>29</v>
       </c>
       <c r="L8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="14">
         <f t="shared" si="2"/>
         <v>1.3333333333333334E-7</v>
       </c>
@@ -18962,22 +19932,36 @@
         <v>17</v>
       </c>
       <c r="P8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="Q8" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q8" s="15">
+        <f t="shared" si="6"/>
         <v>1.5217391304347825E-7</v>
       </c>
       <c r="S8" s="6">
         <v>13</v>
       </c>
       <c r="T8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>460</v>
+      </c>
+      <c r="V8">
+        <v>8</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="X8" s="17">
+        <f t="shared" si="3"/>
+        <v>3.0303030303030305E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -19001,7 +19985,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="I9" s="12">
@@ -19015,10 +19999,10 @@
         <v>41</v>
       </c>
       <c r="L9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="14">
         <f t="shared" si="2"/>
         <v>1.9999999999999999E-7</v>
       </c>
@@ -19029,22 +20013,36 @@
         <v>30</v>
       </c>
       <c r="P9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="Q9" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q9" s="15">
+        <f t="shared" si="6"/>
         <v>2.8260869565217391E-7</v>
       </c>
       <c r="S9" s="6">
         <v>16</v>
       </c>
       <c r="T9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <v>590</v>
+      </c>
+      <c r="V9">
+        <v>10</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="X9" s="17">
+        <f t="shared" si="3"/>
+        <v>3.0303030303030305E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -19068,7 +20066,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="I10" s="12">
@@ -19082,10 +20080,10 @@
         <v>52</v>
       </c>
       <c r="L10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="14">
         <f t="shared" si="2"/>
         <v>1.8333333333333333E-7</v>
       </c>
@@ -19096,22 +20094,36 @@
         <v>36</v>
       </c>
       <c r="P10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="Q10" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q10" s="15">
+        <f t="shared" si="6"/>
         <v>1.3043478260869566E-7</v>
       </c>
       <c r="S10" s="6">
         <v>17</v>
       </c>
       <c r="T10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>798</v>
+      </c>
+      <c r="V10">
+        <v>11</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X10" s="17">
+        <f t="shared" si="3"/>
+        <v>1.5151515151515152E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -19135,7 +20147,7 @@
         <v>34</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="I11" s="12">
@@ -19149,10 +20161,10 @@
         <v>79</v>
       </c>
       <c r="L11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="14">
         <f t="shared" si="2"/>
         <v>4.4999999999999998E-7</v>
       </c>
@@ -19163,22 +20175,36 @@
         <v>55</v>
       </c>
       <c r="P11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="Q11" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q11" s="15">
+        <f t="shared" si="6"/>
         <v>4.1304347826086954E-7</v>
       </c>
       <c r="S11" s="6">
         <v>21</v>
       </c>
       <c r="T11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <v>1140</v>
+      </c>
+      <c r="V11">
+        <v>21</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="X11" s="17">
+        <f t="shared" si="3"/>
+        <v>1.5151515151515152E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -19202,7 +20228,7 @@
         <v>46</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="I12" s="12">
@@ -19216,10 +20242,10 @@
         <v>107</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="14">
         <f t="shared" si="2"/>
         <v>4.6666666666666666E-7</v>
       </c>
@@ -19230,22 +20256,36 @@
         <v>86</v>
       </c>
       <c r="P12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="Q12" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q12" s="15">
+        <f t="shared" si="6"/>
         <v>6.7391304347826085E-7</v>
       </c>
       <c r="S12" s="6">
         <v>28</v>
       </c>
       <c r="T12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>1391</v>
+      </c>
+      <c r="V12">
+        <v>35</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="X12" s="17">
+        <f t="shared" si="3"/>
+        <v>2.1212121212121213E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -19269,7 +20309,7 @@
         <v>57</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="I13" s="12">
@@ -19283,10 +20323,10 @@
         <v>148</v>
       </c>
       <c r="L13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="14">
         <f t="shared" si="2"/>
         <v>6.8333333333333328E-7</v>
       </c>
@@ -19297,22 +20337,36 @@
         <v>133</v>
       </c>
       <c r="P13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="Q13" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q13" s="15">
+        <f t="shared" si="6"/>
         <v>1.0217391304347826E-6</v>
       </c>
       <c r="S13" s="6">
         <v>32</v>
       </c>
       <c r="T13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>1543</v>
+      </c>
+      <c r="V13">
+        <v>55</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="X13" s="17">
+        <f t="shared" si="3"/>
+        <v>3.0303030303030305E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -19336,7 +20390,7 @@
         <v>77</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I14" s="12">
@@ -19350,10 +20404,10 @@
         <v>197</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="14">
         <f t="shared" si="2"/>
         <v>8.1666666666666665E-7</v>
       </c>
@@ -19364,22 +20418,36 @@
         <v>196</v>
       </c>
       <c r="P14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="Q14" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q14" s="15">
+        <f t="shared" si="6"/>
         <v>1.3695652173913044E-6</v>
       </c>
       <c r="S14" s="6">
         <v>35</v>
       </c>
       <c r="T14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>1950</v>
+      </c>
+      <c r="V14">
+        <v>71</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="X14" s="17">
+        <f t="shared" si="3"/>
+        <v>2.4242424242424244E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -19403,7 +20471,7 @@
         <v>92</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="I15" s="12">
@@ -19417,10 +20485,10 @@
         <v>233</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="14">
         <f t="shared" si="2"/>
         <v>5.9999999999999997E-7</v>
       </c>
@@ -19431,22 +20499,36 @@
         <v>294</v>
       </c>
       <c r="P15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="Q15" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q15" s="15">
+        <f t="shared" si="6"/>
         <v>2.1304347826086958E-6</v>
       </c>
       <c r="S15" s="6">
         <v>42</v>
       </c>
       <c r="T15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>2626</v>
+      </c>
+      <c r="V15">
+        <v>104</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="X15" s="17">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -19470,7 +20552,7 @@
         <v>114</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I16" s="12">
@@ -19484,10 +20566,10 @@
         <v>366</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="14">
         <f t="shared" si="2"/>
         <v>2.2166666666666665E-6</v>
       </c>
@@ -19498,22 +20580,36 @@
         <v>342</v>
       </c>
       <c r="P16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="Q16" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q16" s="15">
+        <f t="shared" si="6"/>
         <v>1.0434782608695653E-6</v>
       </c>
       <c r="S16" s="6">
         <v>43</v>
       </c>
       <c r="T16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>3269</v>
+      </c>
+      <c r="V16">
+        <v>144</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="X16" s="17">
+        <f t="shared" si="3"/>
+        <v>6.060606060606061E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -19537,7 +20633,7 @@
         <v>136</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I17" s="12">
@@ -19551,10 +20647,10 @@
         <v>463</v>
       </c>
       <c r="L17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="14">
         <f t="shared" si="2"/>
         <v>1.6166666666666667E-6</v>
       </c>
@@ -19565,22 +20661,36 @@
         <v>533</v>
       </c>
       <c r="P17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>191</v>
       </c>
-      <c r="Q17" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q17" s="15">
+        <f t="shared" si="6"/>
         <v>4.1521739130434786E-6</v>
       </c>
       <c r="S17" s="6">
         <v>48</v>
       </c>
       <c r="T17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>3983</v>
+      </c>
+      <c r="V17">
+        <v>177</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="X17" s="17">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -19604,7 +20714,7 @@
         <v>159</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="I18" s="12">
@@ -19618,10 +20728,10 @@
         <v>631</v>
       </c>
       <c r="L18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>168</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="14">
         <f t="shared" si="2"/>
         <v>2.7999999999999999E-6</v>
       </c>
@@ -19632,22 +20742,36 @@
         <v>638</v>
       </c>
       <c r="P18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
-      <c r="Q18" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q18" s="15">
+        <f t="shared" si="6"/>
         <v>2.2826086956521737E-6</v>
       </c>
       <c r="S18" s="6">
         <v>50</v>
       </c>
       <c r="T18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <v>5018</v>
+      </c>
+      <c r="V18">
+        <v>233</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="X18" s="17">
+        <f t="shared" si="3"/>
+        <v>8.4848484848484854E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -19671,7 +20795,7 @@
         <v>201</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="I19" s="12">
@@ -19685,10 +20809,10 @@
         <v>827</v>
       </c>
       <c r="L19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>196</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="14">
         <f t="shared" si="2"/>
         <v>3.2666666666666666E-6</v>
       </c>
@@ -19699,22 +20823,36 @@
         <v>831</v>
       </c>
       <c r="P19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>193</v>
       </c>
-      <c r="Q19" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q19" s="15">
+        <f t="shared" si="6"/>
         <v>4.1956521739130434E-6</v>
       </c>
       <c r="S19" s="6">
         <v>53</v>
       </c>
       <c r="T19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <v>5683</v>
+      </c>
+      <c r="V19">
+        <v>281</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="X19" s="17">
+        <f t="shared" si="3"/>
+        <v>7.2727272727272732E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -19738,10 +20876,10 @@
         <v>1016</v>
       </c>
       <c r="L20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>189</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="14">
         <f t="shared" si="2"/>
         <v>3.1499999999999999E-6</v>
       </c>
@@ -19752,22 +20890,36 @@
         <v>1093</v>
       </c>
       <c r="P20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>262</v>
       </c>
-      <c r="Q20" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q20" s="15">
+        <f t="shared" si="6"/>
         <v>5.6956521739130435E-6</v>
       </c>
       <c r="S20" s="6">
         <v>60</v>
       </c>
       <c r="T20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <v>6650</v>
+      </c>
+      <c r="V20">
+        <v>335</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="X20" s="17">
+        <f t="shared" si="3"/>
+        <v>8.1818181818181823E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -19791,10 +20943,10 @@
         <v>1266</v>
       </c>
       <c r="L21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="14">
         <f t="shared" si="2"/>
         <v>4.1666666666666669E-6</v>
       </c>
@@ -19805,22 +20957,36 @@
         <v>1381</v>
       </c>
       <c r="P21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>288</v>
       </c>
-      <c r="Q21" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q21" s="15">
+        <f t="shared" si="6"/>
         <v>6.2608695652173911E-6</v>
       </c>
       <c r="S21" s="6">
         <v>60</v>
       </c>
       <c r="T21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <v>8077</v>
+      </c>
+      <c r="V21">
+        <v>422</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="8"/>
+        <v>87</v>
+      </c>
+      <c r="X21" s="17">
+        <f t="shared" si="3"/>
+        <v>1.3181818181818182E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -19844,10 +21010,10 @@
         <v>1441</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>175</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="14">
         <f t="shared" si="2"/>
         <v>2.9166666666666666E-6</v>
       </c>
@@ -19858,22 +21024,36 @@
         <v>1756</v>
       </c>
       <c r="P22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>375</v>
       </c>
-      <c r="Q22" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q22" s="15">
+        <f t="shared" si="6"/>
         <v>8.1521739130434775E-6</v>
       </c>
       <c r="S22" s="6">
         <v>66</v>
       </c>
       <c r="T22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <v>9529</v>
+      </c>
+      <c r="V22">
+        <v>463</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="X22" s="17">
+        <f t="shared" si="3"/>
+        <v>6.212121212121212E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -19897,10 +21077,10 @@
         <v>1809</v>
       </c>
       <c r="L23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>368</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="14">
         <f t="shared" si="2"/>
         <v>6.1333333333333336E-6</v>
       </c>
@@ -19911,22 +21091,36 @@
         <v>2207</v>
       </c>
       <c r="P23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>451</v>
       </c>
-      <c r="Q23" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q23" s="15">
+        <f t="shared" si="6"/>
         <v>9.8043478260869563E-6</v>
       </c>
       <c r="S23" s="6">
         <v>67</v>
       </c>
       <c r="T23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <v>11658</v>
+      </c>
+      <c r="V23">
+        <v>578</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="8"/>
+        <v>115</v>
+      </c>
+      <c r="X23" s="17">
+        <f t="shared" si="3"/>
+        <v>1.7424242424242425E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -19950,10 +21144,10 @@
         <v>2158</v>
       </c>
       <c r="L24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>349</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="14">
         <f t="shared" si="2"/>
         <v>5.8166666666666663E-6</v>
       </c>
@@ -19964,22 +21158,36 @@
         <v>2991</v>
       </c>
       <c r="P24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>784</v>
       </c>
-      <c r="Q24" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q24" s="15">
+        <f t="shared" si="6"/>
         <v>1.7043478260869566E-5</v>
       </c>
       <c r="S24" s="6">
         <v>72</v>
       </c>
       <c r="T24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <v>14543</v>
+      </c>
+      <c r="V24">
+        <v>759</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="8"/>
+        <v>181</v>
+      </c>
+      <c r="X24" s="17">
+        <f t="shared" si="3"/>
+        <v>2.7424242424242422E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -20003,10 +21211,10 @@
         <v>2503</v>
       </c>
       <c r="L25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>345</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="14">
         <f t="shared" si="2"/>
         <v>5.75E-6</v>
       </c>
@@ -20017,22 +21225,36 @@
         <v>3445</v>
       </c>
       <c r="P25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>454</v>
       </c>
-      <c r="Q25" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q25" s="15">
+        <f t="shared" si="6"/>
         <v>9.8695652173913045E-6</v>
       </c>
       <c r="S25" s="6">
         <v>75</v>
       </c>
       <c r="T25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <v>17089</v>
+      </c>
+      <c r="V25">
+        <v>1019</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="8"/>
+        <v>260</v>
+      </c>
+      <c r="X25" s="17">
+        <f t="shared" si="3"/>
+        <v>3.939393939393939E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -20057,10 +21279,10 @@
         <v>2978</v>
       </c>
       <c r="L26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>475</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="14">
         <f t="shared" si="2"/>
         <v>7.9166666666666665E-6</v>
       </c>
@@ -20071,22 +21293,36 @@
         <v>4154</v>
       </c>
       <c r="P26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>709</v>
       </c>
-      <c r="Q26" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q26" s="15">
+        <f t="shared" si="6"/>
         <v>1.5413043478260871E-5</v>
       </c>
       <c r="S26" s="6">
         <v>75</v>
       </c>
       <c r="T26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <v>19522</v>
+      </c>
+      <c r="V26">
+        <v>1228</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="8"/>
+        <v>209</v>
+      </c>
+      <c r="X26" s="17">
+        <f t="shared" si="3"/>
+        <v>3.1666666666666667E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -20097,7 +21333,7 @@
         <v>1693</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" ref="D27:D31" si="8">C27-C26</f>
+        <f t="shared" ref="D27:D31" si="10">C27-C26</f>
         <v>516</v>
       </c>
       <c r="E27" s="12">
@@ -20111,10 +21347,10 @@
         <v>3405</v>
       </c>
       <c r="L27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>427</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="14">
         <f t="shared" si="2"/>
         <v>7.1166666666666666E-6</v>
       </c>
@@ -20125,22 +21361,36 @@
         <v>5138</v>
       </c>
       <c r="P27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>984</v>
       </c>
-      <c r="Q27" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q27" s="15">
+        <f t="shared" si="6"/>
         <v>2.1391304347826088E-5</v>
       </c>
       <c r="S27" s="6">
         <v>81</v>
       </c>
       <c r="T27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <v>22141</v>
+      </c>
+      <c r="V27">
+        <v>1408</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="X27" s="17">
+        <f t="shared" si="3"/>
+        <v>2.7272727272727272E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -20151,7 +21401,7 @@
         <v>2008</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="E28" s="12">
@@ -20165,10 +21415,10 @@
         <v>4032</v>
       </c>
       <c r="L28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>627</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M28" s="14">
         <f t="shared" si="2"/>
         <v>1.045E-5</v>
       </c>
@@ -20179,22 +21429,36 @@
         <v>5982</v>
       </c>
       <c r="P28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>844</v>
       </c>
-      <c r="Q28" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q28" s="15">
+        <f t="shared" si="6"/>
         <v>1.8347826086956523E-5</v>
       </c>
       <c r="S28" s="6">
         <v>84</v>
       </c>
       <c r="T28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <v>25150</v>
+      </c>
+      <c r="V28">
+        <v>1789</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="8"/>
+        <v>381</v>
+      </c>
+      <c r="X28" s="17">
+        <f t="shared" si="3"/>
+        <v>5.7727272727272731E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -20205,7 +21469,7 @@
         <v>2484</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>476</v>
       </c>
       <c r="E29" s="12">
@@ -20219,10 +21483,10 @@
         <v>4825</v>
       </c>
       <c r="L29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>793</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="14">
         <f t="shared" si="2"/>
         <v>1.3216666666666667E-5</v>
       </c>
@@ -20233,22 +21497,24 @@
         <v>6803</v>
       </c>
       <c r="P29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>821</v>
       </c>
-      <c r="Q29" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q29" s="15">
+        <f t="shared" si="6"/>
         <v>1.7847826086956521E-5</v>
       </c>
       <c r="S29" s="6">
         <v>91</v>
       </c>
       <c r="T29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29" s="11"/>
+      <c r="V29"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -20259,7 +21525,7 @@
         <v>2953</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>469</v>
       </c>
       <c r="E30" s="12">
@@ -20273,10 +21539,10 @@
         <v>5476</v>
       </c>
       <c r="L30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>651</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="14">
         <f t="shared" si="2"/>
         <v>1.0849999999999999E-5</v>
       </c>
@@ -20287,22 +21553,24 @@
         <v>7716</v>
       </c>
       <c r="P30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>913</v>
       </c>
-      <c r="Q30" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q30" s="15">
+        <f t="shared" si="6"/>
         <v>1.9847826086956522E-5</v>
       </c>
       <c r="S30" s="6">
         <v>94</v>
       </c>
       <c r="T30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30" s="11"/>
+      <c r="V30"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -20313,7 +21581,7 @@
         <v>3756</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>803</v>
       </c>
       <c r="E31" s="12">
@@ -20327,10 +21595,10 @@
         <v>6077</v>
       </c>
       <c r="L31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>601</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="14">
         <f t="shared" si="2"/>
         <v>1.0016666666666667E-5</v>
       </c>
@@ -20341,22 +21609,24 @@
         <v>8464</v>
       </c>
       <c r="P31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>748</v>
       </c>
-      <c r="Q31" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q31" s="15">
+        <f t="shared" si="6"/>
         <v>1.6260869565217392E-5</v>
       </c>
       <c r="S31" s="6">
         <v>102</v>
       </c>
       <c r="T31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31" s="11"/>
+      <c r="V31"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J32" s="11">
         <v>69176</v>
       </c>
@@ -20364,10 +21634,10 @@
         <v>6820</v>
       </c>
       <c r="L32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>743</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="14">
         <f t="shared" si="2"/>
         <v>1.2383333333333334E-5</v>
       </c>
@@ -20375,11 +21645,13 @@
         <v>104</v>
       </c>
       <c r="T32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="U32" s="11"/>
+      <c r="V32"/>
+    </row>
+    <row r="33" spans="10:22" x14ac:dyDescent="0.25">
       <c r="J33" s="11">
         <v>74386</v>
       </c>
@@ -20387,10 +21659,10 @@
         <v>7503</v>
       </c>
       <c r="L33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>683</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="14">
         <f t="shared" si="2"/>
         <v>1.1383333333333333E-5</v>
       </c>
@@ -20398,11 +21670,13 @@
         <v>111</v>
       </c>
       <c r="T33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="U33" s="11"/>
+      <c r="V33"/>
+    </row>
+    <row r="34" spans="10:22" x14ac:dyDescent="0.25">
       <c r="J34" s="11">
         <v>80589</v>
       </c>
@@ -20410,10 +21684,10 @@
         <v>8215</v>
       </c>
       <c r="L34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>712</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="14">
         <f t="shared" si="2"/>
         <v>1.1866666666666666E-5</v>
       </c>
@@ -20421,11 +21695,13 @@
         <v>120</v>
       </c>
       <c r="T34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="U34" s="11"/>
+      <c r="V34"/>
+    </row>
+    <row r="35" spans="10:22" x14ac:dyDescent="0.25">
       <c r="J35" s="11">
         <v>86498</v>
       </c>
@@ -20433,10 +21709,10 @@
         <v>9134</v>
       </c>
       <c r="L35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>919</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="14">
         <f t="shared" si="2"/>
         <v>1.5316666666666665E-5</v>
       </c>
@@ -20444,11 +21720,13 @@
         <v>126</v>
       </c>
       <c r="T35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="U35" s="11"/>
+      <c r="V35"/>
+    </row>
+    <row r="36" spans="10:22" x14ac:dyDescent="0.25">
       <c r="J36" s="11">
         <v>92472</v>
       </c>
@@ -20456,10 +21734,10 @@
         <v>10023</v>
       </c>
       <c r="L36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>889</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M36" s="14">
         <f t="shared" si="2"/>
         <v>1.4816666666666667E-5</v>
       </c>
@@ -20467,11 +21745,13 @@
         <v>131</v>
       </c>
       <c r="T36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="U36" s="11"/>
+      <c r="V36"/>
+    </row>
+    <row r="37" spans="10:22" x14ac:dyDescent="0.25">
       <c r="J37" s="11">
         <v>97689</v>
       </c>
@@ -20479,10 +21759,10 @@
         <v>10779</v>
       </c>
       <c r="L37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>756</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M37" s="14">
         <f t="shared" si="2"/>
         <v>1.26E-5</v>
       </c>
@@ -20490,11 +21770,13 @@
         <v>139</v>
       </c>
       <c r="T37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="U37" s="11"/>
+      <c r="V37"/>
+    </row>
+    <row r="38" spans="10:22" x14ac:dyDescent="0.25">
       <c r="J38" s="11">
         <v>101739</v>
       </c>
@@ -20502,10 +21784,10 @@
         <v>11591</v>
       </c>
       <c r="L38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>812</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="14">
         <f t="shared" si="2"/>
         <v>1.3533333333333333E-5</v>
       </c>
@@ -20513,11 +21795,13 @@
         <v>144</v>
       </c>
       <c r="T38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="U38" s="11"/>
+      <c r="V38"/>
+    </row>
+    <row r="39" spans="10:22" x14ac:dyDescent="0.25">
       <c r="J39">
         <v>105792</v>
       </c>
@@ -20525,10 +21809,10 @@
         <v>12428</v>
       </c>
       <c r="L39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>837</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M39" s="14">
         <f t="shared" si="2"/>
         <v>1.395E-5</v>
       </c>
@@ -20536,18 +21820,22 @@
         <v>152</v>
       </c>
       <c r="T39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="U39" s="11"/>
+      <c r="V39"/>
+    </row>
+    <row r="40" spans="10:22" x14ac:dyDescent="0.25">
       <c r="S40" s="6">
         <v>158</v>
       </c>
       <c r="T40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="U40" s="11"/>
+      <c r="V40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20559,8 +21847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A175D7D-09F8-434E-8823-11AEBD540A93}">
   <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView topLeftCell="I16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+    <sheetView topLeftCell="V2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AD46" sqref="AD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20676,7 +21964,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="4">
-        <f t="shared" ref="C2:C32" si="0">LOG(B2,10)</f>
+        <f t="shared" ref="C2:C31" si="0">LOG(B2,10)</f>
         <v>2</v>
       </c>
       <c r="D2" s="4">
@@ -20896,7 +22184,7 @@
         <v>1.7993405494535815</v>
       </c>
       <c r="M4" s="6">
-        <f t="shared" ref="M4:M29" si="11">J4-J3</f>
+        <f t="shared" ref="M4:M28" si="11">J4-J3</f>
         <v>63</v>
       </c>
       <c r="N4" s="7">
@@ -20976,7 +22264,7 @@
         <v>1.7993405494535815</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" ref="E5:E28" si="20">B5-B4</f>
+        <f t="shared" ref="E5:E26" si="20">B5-B4</f>
         <v>63</v>
       </c>
       <c r="F5" s="7">
@@ -22359,7 +23647,7 @@
         <f t="shared" si="15"/>
         <v>924</v>
       </c>
-      <c r="V17" s="11">
+      <c r="V17">
         <v>3983</v>
       </c>
       <c r="W17" s="4">
@@ -22469,6 +23757,21 @@
         <f t="shared" si="15"/>
         <v>1210</v>
       </c>
+      <c r="V18">
+        <v>5018</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" ref="W18:W28" si="21">LOG(V18,10)</f>
+        <v>3.7005306569785912</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" ref="X18:X28" si="22">LOG(V18-V17,10)</f>
+        <v>3.0149403497929361</v>
+      </c>
+      <c r="Y18" s="6">
+        <f t="shared" ref="Y18:Y28" si="23">V18-V17</f>
+        <v>1035</v>
+      </c>
       <c r="Z18" s="11">
         <v>7041</v>
       </c>
@@ -22564,6 +23867,21 @@
         <f t="shared" si="15"/>
         <v>1097</v>
       </c>
+      <c r="V19">
+        <v>5683</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="21"/>
+        <v>3.7545776560447299</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="22"/>
+        <v>2.8228216453031045</v>
+      </c>
+      <c r="Y19" s="6">
+        <f t="shared" si="23"/>
+        <v>665</v>
+      </c>
       <c r="Z19" s="11">
         <v>7313</v>
       </c>
@@ -22644,6 +23962,21 @@
         <f t="shared" si="15"/>
         <v>1404</v>
       </c>
+      <c r="V20">
+        <v>6650</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" si="21"/>
+        <v>3.8228216453031045</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="22"/>
+        <v>2.9854264740830012</v>
+      </c>
+      <c r="Y20" s="6">
+        <f t="shared" si="23"/>
+        <v>967</v>
+      </c>
       <c r="Z20" s="11">
         <v>7478</v>
       </c>
@@ -22724,6 +24057,21 @@
         <f t="shared" si="15"/>
         <v>1861</v>
       </c>
+      <c r="V21">
+        <v>8077</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="21"/>
+        <v>3.9072500828813279</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="22"/>
+        <v>3.1544239731146466</v>
+      </c>
+      <c r="Y21" s="6">
+        <f t="shared" si="23"/>
+        <v>1427</v>
+      </c>
       <c r="Z21" s="11">
         <v>7513</v>
       </c>
@@ -22804,6 +24152,21 @@
         <f t="shared" si="15"/>
         <v>1617</v>
       </c>
+      <c r="V22">
+        <v>9529</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" si="21"/>
+        <v>3.9790473269479643</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="22"/>
+        <v>3.1619666163640745</v>
+      </c>
+      <c r="Y22" s="6">
+        <f t="shared" si="23"/>
+        <v>1452</v>
+      </c>
       <c r="Z22" s="11">
         <v>7755</v>
       </c>
@@ -22884,6 +24247,21 @@
         <f t="shared" si="15"/>
         <v>1847</v>
       </c>
+      <c r="V23">
+        <v>11658</v>
+      </c>
+      <c r="W23" s="4">
+        <f t="shared" si="21"/>
+        <v>4.0666240509834264</v>
+      </c>
+      <c r="X23" s="4">
+        <f t="shared" si="22"/>
+        <v>3.3281756614383222</v>
+      </c>
+      <c r="Y23" s="6">
+        <f t="shared" si="23"/>
+        <v>2129</v>
+      </c>
       <c r="Z23" s="11">
         <v>7869</v>
       </c>
@@ -22949,6 +24327,21 @@
         <f t="shared" si="13"/>
         <v>3233</v>
       </c>
+      <c r="V24">
+        <v>14543</v>
+      </c>
+      <c r="W24" s="4">
+        <f t="shared" si="21"/>
+        <v>4.1626540041195756</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" si="22"/>
+        <v>3.4601458174917501</v>
+      </c>
+      <c r="Y24" s="6">
+        <f t="shared" si="23"/>
+        <v>2885</v>
+      </c>
       <c r="Z24" s="11">
         <v>7979</v>
       </c>
@@ -23014,6 +24407,21 @@
         <f t="shared" si="13"/>
         <v>3526</v>
       </c>
+      <c r="V25">
+        <v>17089</v>
+      </c>
+      <c r="W25" s="4">
+        <f t="shared" si="21"/>
+        <v>4.2327166497781681</v>
+      </c>
+      <c r="X25" s="4">
+        <f t="shared" si="22"/>
+        <v>3.4058583993176366</v>
+      </c>
+      <c r="Y25" s="6">
+        <f t="shared" si="23"/>
+        <v>2546</v>
+      </c>
       <c r="Z25" s="11">
         <v>8086</v>
       </c>
@@ -23079,6 +24487,21 @@
         <f t="shared" si="13"/>
         <v>4207</v>
       </c>
+      <c r="V26">
+        <v>19522</v>
+      </c>
+      <c r="W26" s="4">
+        <f t="shared" si="21"/>
+        <v>4.29052430843669</v>
+      </c>
+      <c r="X26" s="4">
+        <f t="shared" si="22"/>
+        <v>3.3861421089308181</v>
+      </c>
+      <c r="Y26" s="6">
+        <f t="shared" si="23"/>
+        <v>2433</v>
+      </c>
       <c r="Z26" s="11">
         <v>8162</v>
       </c>
@@ -23144,6 +24567,21 @@
         <f t="shared" si="13"/>
         <v>5322</v>
       </c>
+      <c r="V27">
+        <v>22141</v>
+      </c>
+      <c r="W27" s="4">
+        <f t="shared" si="21"/>
+        <v>4.345197231929979</v>
+      </c>
+      <c r="X27" s="4">
+        <f t="shared" si="22"/>
+        <v>3.4181354984252317</v>
+      </c>
+      <c r="Y27" s="6">
+        <f t="shared" si="23"/>
+        <v>2619</v>
+      </c>
       <c r="Z27" s="11">
         <v>8236</v>
       </c>
@@ -23209,6 +24647,21 @@
         <f t="shared" si="13"/>
         <v>5986</v>
       </c>
+      <c r="V28">
+        <v>25150</v>
+      </c>
+      <c r="W28" s="4">
+        <f t="shared" si="21"/>
+        <v>4.4005379893919452</v>
+      </c>
+      <c r="X28" s="4">
+        <f t="shared" si="22"/>
+        <v>3.4784221877400801</v>
+      </c>
+      <c r="Y28" s="6">
+        <f t="shared" si="23"/>
+        <v>3009</v>
+      </c>
       <c r="Z28" s="11">
         <v>8320</v>
       </c>
@@ -23237,7 +24690,7 @@
         <v>5.1536929400085496</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" ref="D29" si="21">LOG(B29-B28,10)</f>
+        <f t="shared" ref="D29" si="24">LOG(B29-B28,10)</f>
         <v>4.3410584348959613</v>
       </c>
       <c r="E29" s="6">
@@ -23302,11 +24755,11 @@
         <v>5.2050527134653057</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" ref="D30:D32" si="22">LOG(B30-B29,10)</f>
+        <f t="shared" ref="D30:D31" si="25">LOG(B30-B29,10)</f>
         <v>4.2524646611959938</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" ref="E30:E31" si="23">B30-B29</f>
+        <f t="shared" ref="E30:E31" si="26">B30-B29</f>
         <v>17884</v>
       </c>
       <c r="J30" s="7">
@@ -23318,7 +24771,7 @@
         <v>4.9442654706043037</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" ref="L30" si="24">LOG(J30-J29,10)</f>
+        <f t="shared" ref="L30" si="27">LOG(J30-J29,10)</f>
         <v>3.8946483037935162</v>
       </c>
       <c r="M30" s="6">
@@ -23368,11 +24821,11 @@
         <v>5.2659657687217525</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4.3827912343816475</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>24143</v>
       </c>
       <c r="J31">
@@ -23383,7 +24836,7 @@
         <v>4.9819227529001289</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" ref="L31" si="25">LOG(J31-J30,10)</f>
+        <f t="shared" ref="L31" si="28">LOG(J31-J30,10)</f>
         <v>3.9012948171655668</v>
       </c>
       <c r="M31" s="6">
@@ -23626,11 +25079,11 @@
         <v>5.0074874646043952</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" ref="P38" si="26">LOG(N38-N37,10)</f>
+        <f t="shared" ref="P38" si="29">LOG(N38-N37,10)</f>
         <v>3.6074550232146683</v>
       </c>
       <c r="Q38" s="6">
-        <f t="shared" ref="Q38" si="27">N38-N37</f>
+        <f t="shared" ref="Q38" si="30">N38-N37</f>
         <v>4050</v>
       </c>
       <c r="Z38" s="11">
@@ -23658,11 +25111,11 @@
         <v>5.0244528275553346</v>
       </c>
       <c r="P39" s="4">
-        <f t="shared" ref="P39" si="28">LOG(N39-N38,10)</f>
+        <f t="shared" ref="P39" si="31">LOG(N39-N38,10)</f>
         <v>3.6077766037416925</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" ref="Q39" si="29">N39-N38</f>
+        <f t="shared" ref="Q39" si="32">N39-N38</f>
         <v>4053</v>
       </c>
       <c r="Z39" s="11">

--- a/dataset/dataset_infec.xlsx
+++ b/dataset/dataset_infec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braeued1\Documents\Octavio\projetos\Covid19_data\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DDA82D-CB72-4322-9973-DFBF16EEC3E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FEC3F2-12F9-469D-A63C-266B8EAC752D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="62">
   <si>
     <t>day</t>
   </si>
@@ -72,13 +72,7 @@
     <t>deaths</t>
   </si>
   <si>
-    <t>USA death rate</t>
-  </si>
-  <si>
     <t>USA death</t>
-  </si>
-  <si>
-    <t>BRA death rate</t>
   </si>
   <si>
     <t>BRA death</t>
@@ -206,6 +200,21 @@
   <si>
     <t>UK deaths var</t>
   </si>
+  <si>
+    <t>UK death</t>
+  </si>
+  <si>
+    <t>BRA death rate var</t>
+  </si>
+  <si>
+    <t>USA death rate var</t>
+  </si>
+  <si>
+    <t>UK death rate var</t>
+  </si>
+  <si>
+    <t>UK dr</t>
+  </si>
 </sst>
 </file>
 
@@ -214,8 +223,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="169" formatCode="0.00000%"/>
-    <numFmt numFmtId="170" formatCode="0.000000%"/>
+    <numFmt numFmtId="166" formatCode="0.00000%"/>
+    <numFmt numFmtId="167" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -287,10 +296,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,11 +408,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Death Rate'!$F$1</c:f>
+              <c:f>'Death Rate'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BRA death rate</c:v>
+                  <c:v>BRA death rate var</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -422,10 +431,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Death Rate'!$A$2:$A$31</c:f>
+              <c:f>'Death Rate'!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -515,16 +524,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$F$2:$F$28</c:f>
+              <c:f>'Death Rate'!$H$2:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -578,6 +590,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.26415094339622641</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19402985074626866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -594,11 +609,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Death Rate'!$G$1</c:f>
+              <c:f>'Death Rate'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>USA death rate</c:v>
+                  <c:v>USA death rate var</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -617,10 +632,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Death Rate'!$A$2:$A$31</c:f>
+              <c:f>'Death Rate'!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -710,16 +725,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$G$2:$G$31</c:f>
+              <c:f>'Death Rate'!$I$2:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -809,6 +827,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.27192685404673211</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.25479233226837061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -817,6 +838,124 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2346-4FA0-976E-D9F7391A9445}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>UK death rate var</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Death Rate'!$J$2:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90909090909090906</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29090909090909089</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.46478873239436619</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38461538461538464</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.31638418079096048</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20600858369098712</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19217081850533807</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.25970149253731345</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.7156398104265407E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.24838012958963282</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.31314878892733566</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.34255599472990778</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20510304219823355</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1465798045602606</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27059659090909088</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.31470095025153716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E296-4689-BF3B-AB8D2EC1C9AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1107,7 +1246,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Death Rate'!$H$1</c:f>
+              <c:f>'Death Rate'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1130,9 +1269,9 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$H$2:$H$28</c:f>
+              <c:f>'Death Rate'!$K$2:$K$28</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>#,#00%</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1187,6 +1326,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3.5158299807591394E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5108250438853128E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1203,7 +1345,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Death Rate'!$I$1</c:f>
+              <c:f>'Death Rate'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1226,10 +1368,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$I$2:$I$31</c:f>
+              <c:f>'Death Rate'!$L$2:$L$32</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>#,#00%</c:formatCode>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
@@ -1319,6 +1461,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2.0359158097860555E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2321365141160256E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1327,6 +1472,124 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F3DF-44CE-8C60-D053A4AD081F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>UK dr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Death Rate'!$M$2:$M$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,#00%</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>8.6206896551724137E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2195121951219513E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5693779904306216E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0791366906474821E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5576323987538941E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5665796344647518E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7391304347826087E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6949152542372881E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3784461152882205E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8421052631578946E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5161754133716751E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5644847699287101E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6410256410256407E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9603960396039604E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4050168247170389E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4438865177002261E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6432841769629335E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9445715291219425E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.037593984962406E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2247121455986131E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8588519257004935E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9579687768056269E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.2190057072130924E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.962900111182632E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2903391045999388E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.3592430332866628E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.1133200795228627E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.9799145009160619E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77F0-43DE-9EC3-5B69D512090F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1413,7 +1676,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="#,#00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1703,6 +1966,9 @@
                 <c:pt idx="29">
                   <c:v>803</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>957</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1799,6 +2065,9 @@
                 <c:pt idx="17">
                   <c:v>42</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>39</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1954,6 +2223,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2220,6 +2492,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,6 +2909,9 @@
                 <c:pt idx="29">
                   <c:v>2.509375E-6</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9906249999999998E-6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2730,6 +3008,9 @@
                 <c:pt idx="17">
                   <c:v>1.9999999999999999E-7</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8571428571428572E-7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2885,6 +3166,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.395E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2116666666666667E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3010,6 +3294,9 @@
                 <c:pt idx="29">
                   <c:v>1.6260869565217392E-5</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.45E-5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3023,9 +3310,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:v>UK</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3040,10 +3324,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Death Var'!$X$2:$X$28</c:f>
+              <c:f>'Death Var'!$X$2:$X$38</c:f>
               <c:numCache>
-                <c:formatCode>000,000%</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3124,6 +3408,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5.7727272727272731E-6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.5303030303030308E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3538,6 +3825,9 @@
                 <c:pt idx="29">
                   <c:v>2.509375E-6</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9906249999999998E-6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3633,6 +3923,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.9999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8571428571428572E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3879,7 +4172,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Brazil</c:v>
+            <c:v>Brasil</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3895,10 +4188,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Death Var'!$G$2:$G$19</c:f>
+              <c:f>'Death Var'!$G$2:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3952,16 +4245,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>240</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Death Var'!$H$2:$H$19</c:f>
+              <c:f>'Death Var'!$H$2:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4015,6 +4311,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4046,10 +4345,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Death Var'!$K$2:$K$38</c:f>
+              <c:f>'Death Var'!$K$2:$K$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -4160,6 +4459,12 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>11591</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12428</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4286,6 +4591,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4317,10 +4625,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Death Var'!$C$2:$C$29</c:f>
+              <c:f>'Death Var'!$C$2:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -4404,16 +4712,25 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2484</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2953</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3756</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Death Var'!$D$2:$D$29</c:f>
+              <c:f>'Death Var'!$D$2:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4497,6 +4814,15 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4528,10 +4854,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Death Var'!$O$2:$O$30</c:f>
+              <c:f>'Death Var'!$O$2:$O$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4618,16 +4944,22 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>7716</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8464</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Death Var'!$P$2:$P$30</c:f>
+              <c:f>'Death Var'!$P$2:$P$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4714,6 +5046,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5112,6 +5450,9 @@
                 <c:pt idx="26">
                   <c:v>1789</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>2352</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5201,6 +5542,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5446,6 +5790,55 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Novos Casos x Casos Totais - Log Scale</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -5574,6 +5967,9 @@
                 <c:pt idx="29">
                   <c:v>184487</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>211143</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5672,6 +6068,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>24143</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5686,6 +6085,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Brazil</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="9525" cap="rnd">
               <a:solidFill>
@@ -5700,10 +6102,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Cases Var'!$F$2:$F$19</c:f>
+              <c:f>'Cases Var'!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>151</c:v>
                 </c:pt>
@@ -5757,16 +6159,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>5717</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Cases Var'!$I$2:$I$19</c:f>
+              <c:f>'Cases Var'!$I$2:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5820,6 +6225,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5834,6 +6242,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>UK</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="9525" cap="rnd">
               <a:solidFill>
@@ -5942,6 +6353,9 @@
                 <c:pt idx="29">
                   <c:v>95923</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>102179</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6040,6 +6454,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>7967</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6054,6 +6471,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>Italy</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="9525" cap="rnd">
               <a:solidFill>
@@ -6186,6 +6606,9 @@
                 <c:pt idx="37">
                   <c:v>105792</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>110574</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6305,6 +6728,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4053</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6491,6 +6917,9 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:v>Spain</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="9525" cap="rnd">
               <a:solidFill>
@@ -6590,6 +7019,9 @@
                 <c:pt idx="26">
                   <c:v>25150</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>29474</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6676,6 +7108,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>3009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7522,7 +7957,7 @@
             <c:strRef>
               <c:f>'Cases Var'!$G:$G</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>BRA cases log</c:v>
                 </c:pt>
@@ -7579,6 +8014,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3,76</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3,83</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7645,6 +8083,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3.0561422620590522</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0488300865283495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7690,7 +8131,7 @@
             <c:strRef>
               <c:f>'Cases Var'!$K:$K</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>Spain cases Log</c:v>
                 </c:pt>
@@ -7783,6 +8224,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>4,98</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5,01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7885,6 +8329,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3.9012948171655668</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7962967400517909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7930,7 +8377,7 @@
             <c:strRef>
               <c:f>'Cases Var'!$O:$O</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>Italy cases Log</c:v>
                 </c:pt>
@@ -8047,6 +8494,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>5,02</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5,04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8170,6 +8620,9 @@
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00">
                   <c:v>3.6077766037416925</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00">
+                  <c:v>3.6796095717797557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8589,6 +9042,9 @@
                 <c:pt idx="26">
                   <c:v>4.4005379893919452</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4694390791836067</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8675,6 +9131,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>3.4784221877400801</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6358856852812722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13320,14 +13779,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
@@ -13356,16 +13815,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13621,12 +14080,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0.45715</cdr:y>
+      <cdr:x>0.07777</cdr:x>
+      <cdr:y>0.47327</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>0.50014</cdr:y>
+      <cdr:x>0.94012</cdr:x>
+      <cdr:y>0.56717</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -13640,9 +14099,9 @@
         <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="19883336">
-          <a:off x="-72857" y="2166294"/>
-          <a:ext cx="9834566" cy="203732"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20101751">
+          <a:off x="764859" y="2242676"/>
+          <a:ext cx="8480834" cy="444985"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -13947,10 +14406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="G169" sqref="G143:G169"/>
+    <sheetView topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13992,7 +14451,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D58" si="0">LOG(B2,10)</f>
+        <f t="shared" ref="D2:D59" si="0">LOG(B2,10)</f>
         <v>2.1958996524092336</v>
       </c>
       <c r="E2" t="s">
@@ -14913,11 +15372,11 @@
         <v>105792</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39" si="8">(B39-B38)/B38</f>
+        <f t="shared" ref="C39:C40" si="8">(B39-B38)/B38</f>
         <v>3.9837230560552002E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39" si="9">LOG(B39,10)</f>
+        <f t="shared" ref="D39:D40" si="9">LOG(B39,10)</f>
         <v>5.0244528275553346</v>
       </c>
       <c r="E39" t="s">
@@ -14932,3207 +15391,3237 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>110574</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="8"/>
+        <v>4.5201905626134305E-2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="9"/>
+        <v>5.0436530204228687</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G40">
+        <v>13155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>1</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>100</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>0</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F41" s="1">
         <v>43892</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>2</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>124</v>
       </c>
-      <c r="C41">
-        <f t="shared" ref="C41:C58" si="10">(B41-B40)/B40</f>
+      <c r="C42">
+        <f t="shared" ref="C42:C59" si="10">(B42-B41)/B41</f>
         <v>0.24</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <f t="shared" si="0"/>
         <v>2.0934216851622351</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F42" s="1">
         <v>43893</v>
       </c>
-      <c r="G41">
+      <c r="G42">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>3</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>158</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <f t="shared" si="10"/>
         <v>0.27419354838709675</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <f t="shared" si="0"/>
         <v>2.1986570869544226</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F43" s="1">
         <v>43894</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>4</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>221</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <f t="shared" si="10"/>
         <v>0.39873417721518989</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <f t="shared" si="0"/>
         <v>2.3443922736851102</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F44" s="1">
         <v>43895</v>
       </c>
-      <c r="G43">
+      <c r="G44">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>5</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>319</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <f t="shared" si="10"/>
         <v>0.4434389140271493</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <f t="shared" si="0"/>
         <v>2.503790683057181</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F45" s="1">
         <v>43896</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>6</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>435</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <f t="shared" si="10"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <f t="shared" si="0"/>
         <v>2.638489256954637</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F46" s="1">
         <v>43897</v>
       </c>
-      <c r="G45">
+      <c r="G46">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>7</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>541</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <f t="shared" si="10"/>
         <v>0.24367816091954023</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <f t="shared" si="0"/>
         <v>2.7331972651065688</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F47" s="1">
         <v>43898</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>8</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>704</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <f t="shared" si="10"/>
         <v>0.30129390018484287</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <f t="shared" si="0"/>
         <v>2.847572659142112</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F48" s="1">
         <v>43899</v>
       </c>
-      <c r="G47">
+      <c r="G48">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>9</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>994</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <f t="shared" si="10"/>
         <v>0.41193181818181818</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <f t="shared" si="0"/>
         <v>2.9973863843973132</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>6</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F49" s="1">
         <v>43900</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>10</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>1301</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <f t="shared" si="10"/>
         <v>0.30885311871227367</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <f t="shared" si="0"/>
         <v>3.1142772965615859</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F50" s="1">
         <v>43901</v>
       </c>
-      <c r="G49">
+      <c r="G50">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>11</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>1697</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <f t="shared" si="10"/>
         <v>0.30438124519600307</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <f t="shared" si="0"/>
         <v>3.2296818423176754</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F51" s="1">
         <v>43902</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>12</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>2247</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <f t="shared" si="10"/>
         <v>0.32410135533294049</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <f t="shared" si="0"/>
         <v>3.3516030724191288</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F52" s="1">
         <v>43903</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>13</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>2943</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <f t="shared" si="10"/>
         <v>0.30974632843791722</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <f t="shared" si="0"/>
         <v>3.4687902620996107</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F53" s="1">
         <v>43904</v>
       </c>
-      <c r="G52">
+      <c r="G53">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>14</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>3680</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <f t="shared" si="10"/>
         <v>0.25042473666326875</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <f t="shared" si="0"/>
         <v>3.5658478186735172</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F54" s="1">
         <v>43905</v>
       </c>
-      <c r="G53">
+      <c r="G54">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>15</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>4663</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <f t="shared" si="10"/>
         <v>0.26711956521739133</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <f t="shared" si="0"/>
         <v>3.6686654154544915</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>6</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F55" s="1">
         <v>43906</v>
       </c>
-      <c r="G54">
+      <c r="G55">
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>16</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>6411</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <f t="shared" si="10"/>
         <v>0.37486596611623418</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <f t="shared" si="0"/>
         <v>3.8069257768837312</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F56" s="1">
         <v>43907</v>
       </c>
-      <c r="G55">
+      <c r="G56">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>17</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>9259</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <f t="shared" si="10"/>
         <v>0.44423646856964594</v>
       </c>
-      <c r="D56">
+      <c r="D57">
         <f t="shared" si="0"/>
         <v>3.96656408409731</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F57" s="1">
         <v>43908</v>
       </c>
-      <c r="G56">
+      <c r="G57">
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>18</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>13789</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <f t="shared" si="10"/>
         <v>0.48925369910357491</v>
       </c>
-      <c r="D57">
+      <c r="D58">
         <f t="shared" si="0"/>
         <v>4.1395327715979393</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F58" s="1">
         <v>43909</v>
       </c>
-      <c r="G57">
+      <c r="G58">
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>19</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>19383</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <f t="shared" si="10"/>
         <v>0.40568569149321926</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <f t="shared" si="0"/>
         <v>4.287420995759831</v>
       </c>
-      <c r="E58" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="1">
-        <v>43910</v>
-      </c>
-      <c r="G58">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>20</v>
-      </c>
-      <c r="B59">
-        <v>24207</v>
-      </c>
-      <c r="C59">
-        <f t="shared" ref="C59:C62" si="11">(B59-B58)/B58</f>
-        <v>0.24887788268069957</v>
-      </c>
-      <c r="D59">
-        <f t="shared" ref="D59:D62" si="12">LOG(B59,10)</f>
-        <v>4.3839409701862078</v>
-      </c>
       <c r="E59" t="s">
         <v>6</v>
       </c>
       <c r="F59" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="G59">
-        <v>302</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>20</v>
+      </c>
+      <c r="B60">
+        <v>24207</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ref="C60:C63" si="11">(B60-B59)/B59</f>
+        <v>0.24887788268069957</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ref="D60:D63" si="12">LOG(B60,10)</f>
+        <v>4.3839409701862078</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="1">
+        <v>43911</v>
+      </c>
+      <c r="G60">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>21</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>33546</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <f t="shared" si="11"/>
         <v>0.38579749659189488</v>
       </c>
-      <c r="D60">
+      <c r="D61">
         <f t="shared" si="12"/>
         <v>4.5256407426423158</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>6</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F61" s="1">
         <v>43912</v>
       </c>
-      <c r="G60">
+      <c r="G61">
         <v>419</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>22</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>42751</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <f t="shared" si="11"/>
         <v>0.27439933226018004</v>
       </c>
-      <c r="D61">
+      <c r="D62">
         <f t="shared" si="12"/>
         <v>4.6309462778806241</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>6</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F62" s="1">
         <v>43913</v>
       </c>
-      <c r="G61">
+      <c r="G62">
         <v>520</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>23</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>54881</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <f t="shared" si="11"/>
         <v>0.28373605295782556</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <f t="shared" si="12"/>
         <v>4.7394220161557863</v>
       </c>
-      <c r="E62" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" s="1">
-        <v>43914</v>
-      </c>
-      <c r="G62">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>24</v>
-      </c>
-      <c r="B63">
-        <v>64775</v>
-      </c>
-      <c r="C63">
-        <f t="shared" ref="C63:C65" si="13">(B63-B62)/B62</f>
-        <v>0.18028097155664075</v>
-      </c>
-      <c r="D63">
-        <f t="shared" ref="D63:D65" si="14">LOG(B63,10)</f>
-        <v>4.8114074216578624</v>
-      </c>
       <c r="E63" t="s">
         <v>6</v>
       </c>
       <c r="F63" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="G63">
-        <v>910</v>
+        <v>780</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
+        <v>24</v>
+      </c>
+      <c r="B64">
+        <v>64775</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ref="C64:C66" si="13">(B64-B63)/B63</f>
+        <v>0.18028097155664075</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ref="D64:D66" si="14">LOG(B64,10)</f>
+        <v>4.8114074216578624</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="1">
+        <v>43915</v>
+      </c>
+      <c r="G64">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>25</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>82179</v>
       </c>
-      <c r="C64">
+      <c r="C65">
         <f t="shared" si="13"/>
         <v>0.26868390582786567</v>
       </c>
-      <c r="D64">
+      <c r="D65">
         <f t="shared" si="14"/>
         <v>4.9147608522200317</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>6</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F65" s="1">
         <v>43916</v>
       </c>
-      <c r="G64">
+      <c r="G65">
         <v>1177</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>26</v>
       </c>
-      <c r="B65">
+      <c r="B66">
         <v>103729</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <f t="shared" si="13"/>
         <v>0.26223244381167937</v>
       </c>
-      <c r="D65">
+      <c r="D66">
         <f t="shared" si="14"/>
         <v>5.015900191097372</v>
       </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="1">
-        <v>43917</v>
-      </c>
-      <c r="G65">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>27</v>
-      </c>
-      <c r="B66">
-        <v>120529</v>
-      </c>
-      <c r="C66">
-        <f t="shared" ref="C66:C68" si="15">(B66-B65)/B65</f>
-        <v>0.16196049320826383</v>
-      </c>
-      <c r="D66">
-        <f t="shared" ref="D66:D68" si="16">LOG(B66,10)</f>
-        <v>5.0810915533398715</v>
-      </c>
       <c r="E66" t="s">
         <v>6</v>
       </c>
       <c r="F66" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="G66">
-        <v>2008</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
+        <v>27</v>
+      </c>
+      <c r="B67">
+        <v>120529</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C69" si="15">(B67-B66)/B66</f>
+        <v>0.16196049320826383</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D69" si="16">LOG(B67,10)</f>
+        <v>5.0810915533398715</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G67">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>28</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>142460</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <f t="shared" si="15"/>
         <v>0.18195620970886675</v>
       </c>
-      <c r="D67">
+      <c r="D68">
         <f t="shared" si="16"/>
         <v>5.1536929400085496</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>6</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F68" s="1">
         <v>43919</v>
       </c>
-      <c r="G67">
+      <c r="G68">
         <v>2484</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>29</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>160344</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <f t="shared" si="15"/>
         <v>0.12553699284009545</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <f t="shared" si="16"/>
         <v>5.2050527134653057</v>
       </c>
-      <c r="E68" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" s="1">
-        <v>43920</v>
-      </c>
-      <c r="G68">
-        <v>2953</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>30</v>
-      </c>
-      <c r="B69">
-        <v>184487</v>
-      </c>
-      <c r="C69">
-        <f t="shared" ref="C69" si="17">(B69-B68)/B68</f>
-        <v>0.150570024447438</v>
-      </c>
-      <c r="D69">
-        <f t="shared" ref="D69" si="18">LOG(B69,10)</f>
-        <v>5.2659657687217525</v>
-      </c>
       <c r="E69" t="s">
         <v>6</v>
       </c>
       <c r="F69" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="G69">
-        <v>3756</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B70">
-        <v>120</v>
+        <v>184487</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <f t="shared" ref="C70:C71" si="17">(B70-B69)/B69</f>
+        <v>0.150570024447438</v>
       </c>
       <c r="D70">
-        <f t="shared" ref="D70:D134" si="19">LOG(B70,10)</f>
-        <v>2.0791812460476247</v>
+        <f t="shared" ref="D70:D71" si="18">LOG(B70,10)</f>
+        <v>5.2659657687217525</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F70" s="1">
-        <v>43892</v>
+        <v>43921</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
+        <v>31</v>
+      </c>
+      <c r="B71">
+        <v>211143</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="17"/>
+        <v>0.14448714543572175</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="18"/>
+        <v>5.3245766878837477</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G71">
+        <v>4713</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>120</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ref="D72:D138" si="19">LOG(B72,10)</f>
+        <v>2.0791812460476247</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="1">
+        <v>43892</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>2</v>
       </c>
-      <c r="B71">
+      <c r="B73">
         <v>165</v>
       </c>
-      <c r="C71">
-        <f t="shared" ref="C71:C89" si="20">(B71-B70)/B70</f>
+      <c r="C73">
+        <f t="shared" ref="C73:C91" si="20">(B73-B72)/B72</f>
         <v>0.375</v>
       </c>
-      <c r="D71">
+      <c r="D73">
         <f t="shared" si="19"/>
         <v>2.2174839442139058</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E73" t="s">
         <v>7</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F73" s="1">
         <v>43893</v>
       </c>
-      <c r="G71">
+      <c r="G73">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>3</v>
       </c>
-      <c r="B72">
+      <c r="B74">
         <v>228</v>
       </c>
-      <c r="C72">
+      <c r="C74">
         <f t="shared" si="20"/>
         <v>0.38181818181818183</v>
       </c>
-      <c r="D72">
+      <c r="D74">
         <f t="shared" si="19"/>
         <v>2.3579348470004535</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E74" t="s">
         <v>7</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F74" s="1">
         <v>43894</v>
       </c>
-      <c r="G72">
+      <c r="G74">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>4</v>
       </c>
-      <c r="B73">
+      <c r="B75">
         <v>282</v>
       </c>
-      <c r="C73">
+      <c r="C75">
         <f t="shared" si="20"/>
         <v>0.23684210526315788</v>
       </c>
-      <c r="D73">
+      <c r="D75">
         <f t="shared" si="19"/>
         <v>2.4502491083193609</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E75" t="s">
         <v>7</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F75" s="1">
         <v>43895</v>
       </c>
-      <c r="G73">
+      <c r="G75">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>5</v>
       </c>
-      <c r="B74">
+      <c r="B76">
         <v>401</v>
       </c>
-      <c r="C74">
+      <c r="C76">
         <f t="shared" si="20"/>
         <v>0.42198581560283688</v>
       </c>
-      <c r="D74">
+      <c r="D76">
         <f t="shared" si="19"/>
         <v>2.6031443726201822</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E76" t="s">
         <v>7</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F76" s="1">
         <v>43896</v>
       </c>
-      <c r="G74">
+      <c r="G76">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>6</v>
       </c>
-      <c r="B75">
+      <c r="B77">
         <v>525</v>
       </c>
-      <c r="C75">
+      <c r="C77">
         <f t="shared" si="20"/>
         <v>0.30922693266832918</v>
       </c>
-      <c r="D75">
+      <c r="D77">
         <f t="shared" si="19"/>
         <v>2.7201593034059566</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E77" t="s">
         <v>7</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F77" s="1">
         <v>43897</v>
       </c>
-      <c r="G75">
+      <c r="G77">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>7</v>
       </c>
-      <c r="B76">
+      <c r="B78">
         <v>674</v>
       </c>
-      <c r="C76">
+      <c r="C78">
         <f t="shared" si="20"/>
         <v>0.28380952380952379</v>
       </c>
-      <c r="D76">
+      <c r="D78">
         <f t="shared" si="19"/>
         <v>2.8286598965353194</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E78" t="s">
         <v>7</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F78" s="1">
         <v>43898</v>
       </c>
-      <c r="G76">
+      <c r="G78">
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>8</v>
       </c>
-      <c r="B77">
+      <c r="B79">
         <v>1231</v>
       </c>
-      <c r="C77">
+      <c r="C79">
         <f t="shared" si="20"/>
         <v>0.82640949554896137</v>
       </c>
-      <c r="D77">
+      <c r="D79">
         <f t="shared" si="19"/>
         <v>3.0902580529313162</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E79" t="s">
         <v>7</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F79" s="1">
         <v>43899</v>
       </c>
-      <c r="G77">
+      <c r="G79">
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>9</v>
       </c>
-      <c r="B78">
+      <c r="B80">
         <v>1695</v>
       </c>
-      <c r="C78">
+      <c r="C80">
         <f t="shared" si="20"/>
         <v>0.37692932575142163</v>
       </c>
-      <c r="D78">
+      <c r="D80">
         <f t="shared" si="19"/>
         <v>3.2291697025391004</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E80" t="s">
         <v>7</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F80" s="1">
         <v>43900</v>
       </c>
-      <c r="G78">
+      <c r="G80">
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>10</v>
       </c>
-      <c r="B79">
+      <c r="B81">
         <v>2277</v>
       </c>
-      <c r="C79">
+      <c r="C81">
         <f t="shared" si="20"/>
         <v>0.3433628318584071</v>
       </c>
-      <c r="D79">
+      <c r="D81">
         <f t="shared" si="19"/>
         <v>3.3573630306151423</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E81" t="s">
         <v>7</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F81" s="1">
         <v>43901</v>
       </c>
-      <c r="G79">
+      <c r="G81">
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>11</v>
       </c>
-      <c r="B80">
+      <c r="B82">
         <v>3146</v>
       </c>
-      <c r="C80">
+      <c r="C82">
         <f t="shared" si="20"/>
         <v>0.38164251207729466</v>
       </c>
-      <c r="D80">
+      <c r="D82">
         <f t="shared" si="19"/>
         <v>3.4977587182872676</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E82" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F82" s="1">
         <v>43902</v>
       </c>
-      <c r="G80">
+      <c r="G82">
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>12</v>
       </c>
-      <c r="B81">
+      <c r="B83">
         <v>5232</v>
       </c>
-      <c r="C81">
+      <c r="C83">
         <f t="shared" si="20"/>
         <v>0.66306420851875403</v>
       </c>
-      <c r="D81">
+      <c r="D83">
         <f t="shared" si="19"/>
         <v>3.7186677353162101</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E83" t="s">
         <v>7</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F83" s="1">
         <v>43903</v>
       </c>
-      <c r="G81">
+      <c r="G83">
         <v>133</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>13</v>
       </c>
-      <c r="B82">
+      <c r="B84">
         <v>6391</v>
       </c>
-      <c r="C82">
+      <c r="C84">
         <f t="shared" si="20"/>
         <v>0.22152140672782875</v>
       </c>
-      <c r="D82">
+      <c r="D84">
         <f t="shared" si="19"/>
         <v>3.8055688175485556</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E84" t="s">
         <v>7</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F84" s="1">
         <v>43904</v>
       </c>
-      <c r="G82">
+      <c r="G84">
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>14</v>
       </c>
-      <c r="B83">
+      <c r="B85">
         <v>7988</v>
       </c>
-      <c r="C83">
+      <c r="C85">
         <f t="shared" si="20"/>
         <v>0.24988264747300892</v>
       </c>
-      <c r="D83">
+      <c r="D85">
         <f t="shared" si="19"/>
         <v>3.9024380561986645</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E85" t="s">
         <v>7</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F85" s="1">
         <v>43905</v>
       </c>
-      <c r="G83">
+      <c r="G85">
         <v>294</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>15</v>
       </c>
-      <c r="B84">
+      <c r="B86">
         <v>9942</v>
       </c>
-      <c r="C84">
+      <c r="C86">
         <f t="shared" si="20"/>
         <v>0.24461692538808213</v>
       </c>
-      <c r="D84">
+      <c r="D86">
         <f t="shared" si="19"/>
         <v>3.9974737588029798</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E86" t="s">
         <v>7</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F86" s="1">
         <v>43906</v>
       </c>
-      <c r="G84">
+      <c r="G86">
         <v>342</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>16</v>
       </c>
-      <c r="B85">
+      <c r="B87">
         <v>11826</v>
       </c>
-      <c r="C85">
+      <c r="C87">
         <f t="shared" si="20"/>
         <v>0.18949909474954738</v>
       </c>
-      <c r="D85">
+      <c r="D87">
         <f t="shared" si="19"/>
         <v>4.0728378746630858</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E87" t="s">
         <v>7</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F87" s="1">
         <v>43907</v>
       </c>
-      <c r="G85">
+      <c r="G87">
         <v>533</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>17</v>
       </c>
-      <c r="B86">
+      <c r="B88">
         <v>14769</v>
       </c>
-      <c r="C86">
+      <c r="C88">
         <f t="shared" si="20"/>
         <v>0.24885844748858446</v>
       </c>
-      <c r="D86">
+      <c r="D88">
         <f t="shared" si="19"/>
         <v>4.1693510904924178</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E88" t="s">
         <v>7</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F88" s="1">
         <v>43908</v>
       </c>
-      <c r="G86">
+      <c r="G88">
         <v>638</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>18</v>
       </c>
-      <c r="B87">
+      <c r="B89">
         <v>18077</v>
       </c>
-      <c r="C87">
+      <c r="C89">
         <f t="shared" si="20"/>
         <v>0.22398266639582909</v>
       </c>
-      <c r="D87">
+      <c r="D89">
         <f t="shared" si="19"/>
         <v>4.2571263580225924</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E89" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F89" s="1">
         <v>43909</v>
       </c>
-      <c r="G87">
+      <c r="G89">
         <v>831</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>19</v>
       </c>
-      <c r="B88">
+      <c r="B90">
         <v>21571</v>
       </c>
-      <c r="C88">
+      <c r="C90">
         <f t="shared" si="20"/>
         <v>0.19328428389666427</v>
       </c>
-      <c r="D88">
+      <c r="D90">
         <f t="shared" si="19"/>
         <v>4.3338702788260086</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E90" t="s">
         <v>7</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F90" s="1">
         <v>43910</v>
       </c>
-      <c r="G88">
+      <c r="G90">
         <v>1093</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>20</v>
       </c>
-      <c r="B89">
+      <c r="B91">
         <v>25496</v>
       </c>
-      <c r="C89">
+      <c r="C91">
         <f t="shared" si="20"/>
         <v>0.18195725742895555</v>
       </c>
-      <c r="D89">
+      <c r="D91">
         <f t="shared" si="19"/>
         <v>4.406472050465676</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E91" t="s">
         <v>7</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F91" s="1">
         <v>43911</v>
       </c>
-      <c r="G89">
+      <c r="G91">
         <v>1381</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>21</v>
       </c>
-      <c r="B90">
+      <c r="B92">
         <v>28603</v>
       </c>
-      <c r="C90">
-        <f t="shared" ref="C90:C93" si="21">(B90-B89)/B89</f>
+      <c r="C92">
+        <f t="shared" ref="C92:C95" si="21">(B92-B91)/B91</f>
         <v>0.12186225290241606</v>
       </c>
-      <c r="D90">
-        <f t="shared" ref="D90:D93" si="22">LOG(B90,10)</f>
+      <c r="D92">
+        <f t="shared" ref="D92:D95" si="22">LOG(B92,10)</f>
         <v>4.456411586105177</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E92" t="s">
         <v>7</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F92" s="1">
         <v>43912</v>
       </c>
-      <c r="G90">
+      <c r="G92">
         <v>1756</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>22</v>
       </c>
-      <c r="B91">
+      <c r="B93">
         <v>33089</v>
       </c>
-      <c r="C91">
+      <c r="C93">
         <f t="shared" si="21"/>
         <v>0.15683669545152606</v>
       </c>
-      <c r="D91">
+      <c r="D93">
         <f t="shared" si="22"/>
         <v>4.5196836423171698</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E93" t="s">
         <v>7</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F93" s="1">
         <v>43913</v>
       </c>
-      <c r="G91">
+      <c r="G93">
         <v>2207</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>23</v>
       </c>
-      <c r="B92">
+      <c r="B94">
         <v>42058</v>
       </c>
-      <c r="C92">
+      <c r="C94">
         <f t="shared" si="21"/>
         <v>0.27105684668620994</v>
       </c>
-      <c r="D92">
+      <c r="D94">
         <f t="shared" si="22"/>
         <v>4.6238486166713759</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E94" t="s">
         <v>7</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F94" s="1">
         <v>43914</v>
       </c>
-      <c r="G92">
+      <c r="G94">
         <v>2991</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>24</v>
       </c>
-      <c r="B93">
+      <c r="B95">
         <v>47611</v>
       </c>
-      <c r="C93">
+      <c r="C95">
         <f t="shared" si="21"/>
         <v>0.1320319558704646</v>
       </c>
-      <c r="D93">
+      <c r="D95">
         <f t="shared" si="22"/>
         <v>4.677707303295997</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E95" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F95" s="1">
         <v>43915</v>
       </c>
-      <c r="G93">
+      <c r="G95">
         <v>3445</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>25</v>
       </c>
-      <c r="B94">
+      <c r="B96">
         <v>56347</v>
       </c>
-      <c r="C94">
-        <f>(B94-B93)/B93</f>
+      <c r="C96">
+        <f>(B96-B95)/B95</f>
         <v>0.18348700930457248</v>
       </c>
-      <c r="D94">
-        <f t="shared" ref="D94:D96" si="23">LOG(B94,10)</f>
+      <c r="D96">
+        <f t="shared" ref="D96:D98" si="23">LOG(B96,10)</f>
         <v>4.7508707984987382</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E96" t="s">
         <v>7</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F96" s="1">
         <v>43916</v>
       </c>
-      <c r="G94">
+      <c r="G96">
         <v>4154</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>26</v>
       </c>
-      <c r="B95">
+      <c r="B97">
         <v>65719</v>
       </c>
-      <c r="C95">
-        <f t="shared" ref="C95:C96" si="24">(B95-B94)/B94</f>
+      <c r="C97">
+        <f t="shared" ref="C97:C98" si="24">(B97-B96)/B96</f>
         <v>0.16632651250288391</v>
       </c>
-      <c r="D95">
+      <c r="D97">
         <f t="shared" si="23"/>
         <v>4.8176909464583062</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E97" t="s">
         <v>7</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F97" s="1">
         <v>43917</v>
       </c>
-      <c r="G95">
+      <c r="G97">
         <v>5138</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>27</v>
       </c>
-      <c r="B96">
+      <c r="B98">
         <v>73232</v>
       </c>
-      <c r="C96">
+      <c r="C98">
         <f t="shared" si="24"/>
         <v>0.11432005964789482</v>
       </c>
-      <c r="D96">
+      <c r="D98">
         <f t="shared" si="23"/>
         <v>4.8647008950832236</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E98" t="s">
         <v>7</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F98" s="1">
         <v>43918</v>
       </c>
-      <c r="G96">
+      <c r="G98">
         <v>5982</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>28</v>
       </c>
-      <c r="B97">
+      <c r="B99">
         <v>80110</v>
       </c>
-      <c r="C97">
-        <f>(B97-B96)/B96</f>
+      <c r="C99">
+        <f>(B99-B98)/B98</f>
         <v>9.3920690408564558E-2</v>
       </c>
-      <c r="D97">
-        <f t="shared" ref="D97:D99" si="25">LOG(B97,10)</f>
+      <c r="D99">
+        <f t="shared" ref="D99:D102" si="25">LOG(B99,10)</f>
         <v>4.903686731736502</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E99" t="s">
         <v>7</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F99" s="1">
         <v>43919</v>
       </c>
-      <c r="G97">
+      <c r="G99">
         <v>6803</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>29</v>
       </c>
-      <c r="B98">
+      <c r="B100">
         <v>87956</v>
       </c>
-      <c r="C98">
-        <f t="shared" ref="C98" si="26">(B98-B97)/B97</f>
+      <c r="C100">
+        <f t="shared" ref="C100" si="26">(B100-B99)/B99</f>
         <v>9.794033204344027E-2</v>
       </c>
-      <c r="D98">
+      <c r="D100">
         <f t="shared" si="25"/>
         <v>4.9442654706043037</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E100" t="s">
         <v>7</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F100" s="1">
         <v>43920</v>
       </c>
-      <c r="G98">
+      <c r="G100">
         <v>7716</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>30</v>
       </c>
-      <c r="B99">
+      <c r="B101">
         <v>95923</v>
       </c>
-      <c r="C99">
-        <f>(B99-B98)/B98</f>
+      <c r="C101">
+        <f>(B101-B100)/B100</f>
         <v>9.0579380599390608E-2</v>
       </c>
-      <c r="D99">
+      <c r="D101">
         <f t="shared" si="25"/>
         <v>4.9819227529001289</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E101" t="s">
         <v>7</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F101" s="1">
         <v>43921</v>
       </c>
-      <c r="G99">
+      <c r="G101">
         <v>8464</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>31</v>
+      </c>
+      <c r="B102">
+        <v>102179</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ref="C102" si="27">(B102-B101)/B101</f>
+        <v>6.5218977721714297E-2</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="25"/>
+        <v>5.0093616480369176</v>
+      </c>
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G102">
+        <v>9131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>1</v>
       </c>
-      <c r="B100">
+      <c r="B103">
         <v>151</v>
       </c>
-      <c r="C100">
+      <c r="C103">
         <v>0</v>
       </c>
-      <c r="D100">
+      <c r="D103">
         <f t="shared" si="19"/>
         <v>2.1789769472931693</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E103" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F103" s="1">
         <v>43904</v>
       </c>
-      <c r="G100">
+      <c r="G103">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>2</v>
       </c>
-      <c r="B101">
+      <c r="B104">
         <v>200</v>
       </c>
-      <c r="C101">
-        <f t="shared" ref="C101:C150" si="27">(B101-B100)/B100</f>
+      <c r="C104">
+        <f t="shared" ref="C104:C154" si="28">(B104-B103)/B103</f>
         <v>0.32450331125827814</v>
       </c>
-      <c r="D101">
+      <c r="D104">
         <f t="shared" si="19"/>
         <v>2.3010299956639808</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E104" t="s">
         <v>5</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F104" s="1">
         <v>43905</v>
       </c>
-      <c r="G101">
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>3</v>
       </c>
-      <c r="B102">
+      <c r="B105">
         <v>234</v>
       </c>
-      <c r="C102">
-        <f t="shared" si="27"/>
+      <c r="C105">
+        <f t="shared" si="28"/>
         <v>0.17</v>
       </c>
-      <c r="D102">
+      <c r="D105">
         <f t="shared" si="19"/>
         <v>2.3692158574101425</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E105" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F105" s="1">
         <v>43906</v>
       </c>
-      <c r="G102">
+      <c r="G105">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>4</v>
       </c>
-      <c r="B103">
+      <c r="B106">
         <v>346</v>
       </c>
-      <c r="C103">
-        <f t="shared" si="27"/>
+      <c r="C106">
+        <f t="shared" si="28"/>
         <v>0.47863247863247865</v>
       </c>
-      <c r="D103">
+      <c r="D106">
         <f t="shared" si="19"/>
         <v>2.5390760987927767</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E106" t="s">
         <v>5</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F106" s="1">
         <v>43907</v>
       </c>
-      <c r="G103">
+      <c r="G106">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>5</v>
       </c>
-      <c r="B104">
+      <c r="B107">
         <v>529</v>
       </c>
-      <c r="C104">
-        <f t="shared" si="27"/>
+      <c r="C107">
+        <f t="shared" si="28"/>
         <v>0.52890173410404628</v>
       </c>
-      <c r="D104">
+      <c r="D107">
         <f t="shared" si="19"/>
         <v>2.7234556720351857</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E107" t="s">
         <v>5</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F107" s="1">
         <v>43908</v>
       </c>
-      <c r="G104">
+      <c r="G107">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>6</v>
       </c>
-      <c r="B105">
+      <c r="B108">
         <v>640</v>
       </c>
-      <c r="C105">
-        <f t="shared" si="27"/>
+      <c r="C108">
+        <f t="shared" si="28"/>
         <v>0.20982986767485823</v>
       </c>
-      <c r="D105">
+      <c r="D108">
         <f t="shared" si="19"/>
         <v>2.8061799739838866</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E108" t="s">
         <v>5</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F108" s="1">
         <v>43909</v>
       </c>
-      <c r="G105">
+      <c r="G108">
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>7</v>
       </c>
-      <c r="B106">
+      <c r="B109">
         <v>970</v>
       </c>
-      <c r="C106">
-        <f t="shared" si="27"/>
+      <c r="C109">
+        <f t="shared" si="28"/>
         <v>0.515625</v>
       </c>
-      <c r="D106">
+      <c r="D109">
         <f t="shared" si="19"/>
         <v>2.9867717342662448</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E109" t="s">
         <v>5</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F109" s="1">
         <v>43910</v>
       </c>
-      <c r="G106">
+      <c r="G109">
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>8</v>
       </c>
-      <c r="B107">
+      <c r="B110">
         <v>1178</v>
       </c>
-      <c r="C107">
-        <f t="shared" si="27"/>
+      <c r="C110">
+        <f t="shared" si="28"/>
         <v>0.21443298969072164</v>
       </c>
-      <c r="D107">
+      <c r="D110">
         <f t="shared" si="19"/>
         <v>3.0711452904510823</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E110" t="s">
         <v>5</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F110" s="1">
         <v>43911</v>
       </c>
-      <c r="G107">
+      <c r="G110">
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>9</v>
       </c>
-      <c r="B108">
+      <c r="B111">
         <v>1546</v>
       </c>
-      <c r="C108">
-        <f t="shared" si="27"/>
+      <c r="C111">
+        <f t="shared" si="28"/>
         <v>0.31239388794567063</v>
       </c>
-      <c r="D108">
+      <c r="D111">
         <f t="shared" si="19"/>
         <v>3.1892094895823058</v>
       </c>
-      <c r="E108" t="s">
-        <v>5</v>
-      </c>
-      <c r="F108" s="1">
-        <v>43912</v>
-      </c>
-      <c r="G108">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>10</v>
-      </c>
-      <c r="B109">
-        <v>1891</v>
-      </c>
-      <c r="C109">
-        <f t="shared" ref="C109:C112" si="28">(B109-B108)/B108</f>
-        <v>0.22315653298835705</v>
-      </c>
-      <c r="D109">
-        <f t="shared" ref="D109:D112" si="29">LOG(B109,10)</f>
-        <v>3.2766915288450393</v>
-      </c>
-      <c r="E109" t="s">
-        <v>5</v>
-      </c>
-      <c r="F109" s="1">
-        <v>43913</v>
-      </c>
-      <c r="G109">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>11</v>
-      </c>
-      <c r="B110">
-        <v>2247</v>
-      </c>
-      <c r="C110">
-        <f t="shared" si="28"/>
-        <v>0.18826017979904813</v>
-      </c>
-      <c r="D110">
-        <f t="shared" si="29"/>
-        <v>3.3516030724191288</v>
-      </c>
-      <c r="E110" t="s">
-        <v>5</v>
-      </c>
-      <c r="F110" s="1">
-        <v>43914</v>
-      </c>
-      <c r="G110">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>12</v>
-      </c>
-      <c r="B111">
-        <v>2433</v>
-      </c>
-      <c r="C111">
-        <f t="shared" si="28"/>
-        <v>8.2777036048064079E-2</v>
-      </c>
-      <c r="D111">
-        <f t="shared" si="29"/>
-        <v>3.3861421089308181</v>
-      </c>
       <c r="E111" t="s">
         <v>5</v>
       </c>
       <c r="F111" s="1">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="G111">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B112">
-        <v>2915</v>
+        <v>1891</v>
       </c>
       <c r="C112">
-        <f t="shared" si="28"/>
-        <v>0.19810933004521167</v>
+        <f t="shared" ref="C112:C115" si="29">(B112-B111)/B111</f>
+        <v>0.22315653298835705</v>
       </c>
       <c r="D112">
-        <f t="shared" si="29"/>
-        <v>3.4646385590950324</v>
+        <f t="shared" ref="D112:D115" si="30">LOG(B112,10)</f>
+        <v>3.2766915288450393</v>
       </c>
       <c r="E112" t="s">
         <v>5</v>
       </c>
       <c r="F112" s="1">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="G112">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B113">
-        <v>3417</v>
+        <v>2247</v>
       </c>
       <c r="C113">
-        <f t="shared" ref="C113:C114" si="30">(B113-B112)/B112</f>
-        <v>0.17221269296740996</v>
+        <f t="shared" si="29"/>
+        <v>0.18826017979904813</v>
       </c>
       <c r="D113">
-        <f t="shared" ref="D113:D114" si="31">LOG(B113,10)</f>
-        <v>3.5336449787987623</v>
+        <f t="shared" si="30"/>
+        <v>3.3516030724191288</v>
       </c>
       <c r="E113" t="s">
         <v>5</v>
       </c>
       <c r="F113" s="1">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="G113">
-        <v>92</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B114">
-        <v>3904</v>
+        <v>2433</v>
       </c>
       <c r="C114">
+        <f t="shared" si="29"/>
+        <v>8.2777036048064079E-2</v>
+      </c>
+      <c r="D114">
         <f t="shared" si="30"/>
-        <v>0.14252268071407667</v>
-      </c>
-      <c r="D114">
-        <f t="shared" si="31"/>
-        <v>3.5915098089946538</v>
+        <v>3.3861421089308181</v>
       </c>
       <c r="E114" t="s">
         <v>5</v>
       </c>
       <c r="F114" s="1">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="G114">
-        <v>114</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B115">
-        <v>4256</v>
+        <v>2915</v>
       </c>
       <c r="C115">
-        <f t="shared" ref="C115:C117" si="32">(B115-B114)/B114</f>
-        <v>9.0163934426229511E-2</v>
+        <f t="shared" si="29"/>
+        <v>0.19810933004521167</v>
       </c>
       <c r="D115">
-        <f t="shared" ref="D115:D117" si="33">LOG(B115,10)</f>
-        <v>3.6290016192869916</v>
+        <f t="shared" si="30"/>
+        <v>3.4646385590950324</v>
       </c>
       <c r="E115" t="s">
         <v>5</v>
       </c>
       <c r="F115" s="1">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="G115">
-        <v>136</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B116">
-        <v>4579</v>
+        <v>3417</v>
       </c>
       <c r="C116">
-        <f t="shared" si="32"/>
-        <v>7.5892857142857137E-2</v>
+        <f t="shared" ref="C116:C117" si="31">(B116-B115)/B115</f>
+        <v>0.17221269296740996</v>
       </c>
       <c r="D116">
-        <f t="shared" si="33"/>
-        <v>3.6607706435276968</v>
+        <f t="shared" ref="D116:D117" si="32">LOG(B116,10)</f>
+        <v>3.5336449787987623</v>
       </c>
       <c r="E116" t="s">
         <v>5</v>
       </c>
       <c r="F116" s="1">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="G116">
-        <v>159</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B117">
-        <v>5717</v>
+        <v>3904</v>
       </c>
       <c r="C117">
+        <f t="shared" si="31"/>
+        <v>0.14252268071407667</v>
+      </c>
+      <c r="D117">
         <f t="shared" si="32"/>
-        <v>0.24852587901288492</v>
-      </c>
-      <c r="D117">
-        <f t="shared" si="33"/>
-        <v>3.7571681922142726</v>
+        <v>3.5915098089946538</v>
       </c>
       <c r="E117" t="s">
         <v>5</v>
       </c>
       <c r="F117" s="1">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="G117">
-        <v>201</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
+        <v>16</v>
+      </c>
+      <c r="B118">
+        <v>4256</v>
+      </c>
+      <c r="C118">
+        <f t="shared" ref="C118:C121" si="33">(B118-B117)/B117</f>
+        <v>9.0163934426229511E-2</v>
+      </c>
+      <c r="D118">
+        <f t="shared" ref="D118:D121" si="34">LOG(B118,10)</f>
+        <v>3.6290016192869916</v>
+      </c>
+      <c r="E118" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G118">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>17</v>
+      </c>
+      <c r="B119">
+        <v>4579</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="33"/>
+        <v>7.5892857142857137E-2</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="34"/>
+        <v>3.6607706435276968</v>
+      </c>
+      <c r="E119" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G119">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>18</v>
+      </c>
+      <c r="B120">
+        <v>5717</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="33"/>
+        <v>0.24852587901288492</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="34"/>
+        <v>3.7571681922142726</v>
+      </c>
+      <c r="E120" t="s">
+        <v>5</v>
+      </c>
+      <c r="F120" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G120">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>19</v>
+      </c>
+      <c r="B121">
+        <v>6836</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="33"/>
+        <v>0.19573202728703865</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="34"/>
+        <v>3.8348020540486991</v>
+      </c>
+      <c r="E121" t="s">
+        <v>5</v>
+      </c>
+      <c r="F121" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G121">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>1</v>
       </c>
-      <c r="B118">
+      <c r="B122">
         <v>139</v>
       </c>
-      <c r="C118">
+      <c r="C122">
         <v>0</v>
       </c>
-      <c r="D118">
+      <c r="D122">
         <f t="shared" si="19"/>
         <v>2.143014800254095</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E122" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>2</v>
       </c>
-      <c r="B119">
+      <c r="B123">
         <v>245</v>
       </c>
-      <c r="C119">
-        <f t="shared" si="27"/>
+      <c r="C123">
+        <f t="shared" si="28"/>
         <v>0.76258992805755399</v>
       </c>
-      <c r="D119">
+      <c r="D123">
         <f t="shared" si="19"/>
         <v>2.3891660843645326</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E123" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>3</v>
       </c>
-      <c r="B120">
+      <c r="B124">
         <v>388</v>
       </c>
-      <c r="C120">
-        <f t="shared" si="27"/>
+      <c r="C124">
+        <f t="shared" si="28"/>
         <v>0.58367346938775511</v>
       </c>
-      <c r="D120">
+      <c r="D124">
         <f t="shared" si="19"/>
         <v>2.5888317255942073</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E124" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>4</v>
       </c>
-      <c r="B121">
+      <c r="B125">
         <v>593</v>
       </c>
-      <c r="C121">
-        <f t="shared" si="27"/>
+      <c r="C125">
+        <f t="shared" si="28"/>
         <v>0.52835051546391754</v>
       </c>
-      <c r="D121">
+      <c r="D125">
         <f t="shared" si="19"/>
         <v>2.7730546933642626</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E125" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>5</v>
       </c>
-      <c r="B122">
+      <c r="B126">
         <v>978</v>
       </c>
-      <c r="C122">
-        <f t="shared" si="27"/>
+      <c r="C126">
+        <f t="shared" si="28"/>
         <v>0.6492411467116358</v>
       </c>
-      <c r="D122">
+      <c r="D126">
         <f t="shared" si="19"/>
         <v>2.9903388547876015</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E126" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>6</v>
       </c>
-      <c r="B123">
+      <c r="B127">
         <v>1501</v>
       </c>
-      <c r="C123">
-        <f t="shared" si="27"/>
+      <c r="C127">
+        <f t="shared" si="28"/>
         <v>0.53476482617586907</v>
       </c>
-      <c r="D123">
+      <c r="D127">
         <f t="shared" si="19"/>
         <v>3.1763806922432698</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E127" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>7</v>
       </c>
-      <c r="B124">
+      <c r="B128">
         <v>2336</v>
       </c>
-      <c r="C124">
-        <f t="shared" si="27"/>
+      <c r="C128">
+        <f t="shared" si="28"/>
         <v>0.55629580279813462</v>
       </c>
-      <c r="D124">
+      <c r="D128">
         <f t="shared" si="19"/>
         <v>3.3684728384403617</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E128" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>8</v>
       </c>
-      <c r="B125">
+      <c r="B129">
         <v>2922</v>
       </c>
-      <c r="C125">
-        <f t="shared" si="27"/>
+      <c r="C129">
+        <f t="shared" si="28"/>
         <v>0.25085616438356162</v>
       </c>
-      <c r="D125">
+      <c r="D129">
         <f t="shared" si="19"/>
         <v>3.4656802115982779</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E129" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>9</v>
       </c>
-      <c r="B126">
+      <c r="B130">
         <v>3513</v>
       </c>
-      <c r="C126">
-        <f t="shared" si="27"/>
+      <c r="C130">
+        <f t="shared" si="28"/>
         <v>0.20225872689938398</v>
       </c>
-      <c r="D126">
+      <c r="D130">
         <f t="shared" si="19"/>
         <v>3.5456781497920251</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E130" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>10</v>
       </c>
-      <c r="B127">
+      <c r="B131">
         <v>4747</v>
       </c>
-      <c r="C127">
-        <f t="shared" si="27"/>
+      <c r="C131">
+        <f t="shared" si="28"/>
         <v>0.35126672359806432</v>
       </c>
-      <c r="D127">
+      <c r="D131">
         <f t="shared" si="19"/>
         <v>3.6764192317183597</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E131" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>11</v>
       </c>
-      <c r="B128">
+      <c r="B132">
         <v>5823</v>
       </c>
-      <c r="C128">
-        <f t="shared" si="27"/>
+      <c r="C132">
+        <f t="shared" si="28"/>
         <v>0.22666947545818411</v>
       </c>
-      <c r="D128">
+      <c r="D132">
         <f t="shared" si="19"/>
         <v>3.7651467901080249</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E132" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>12</v>
       </c>
-      <c r="B129">
+      <c r="B133">
         <v>6566</v>
       </c>
-      <c r="C129">
-        <f t="shared" si="27"/>
+      <c r="C133">
+        <f t="shared" si="28"/>
         <v>0.12759745835479994</v>
       </c>
-      <c r="D129">
+      <c r="D133">
         <f t="shared" si="19"/>
         <v>3.8173008783933207</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E133" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>13</v>
       </c>
-      <c r="B130">
+      <c r="B134">
         <v>7161</v>
       </c>
-      <c r="C130">
-        <f t="shared" si="27"/>
+      <c r="C134">
+        <f t="shared" si="28"/>
         <v>9.0618336886993597E-2</v>
       </c>
-      <c r="D130">
+      <c r="D134">
         <f t="shared" si="19"/>
         <v>3.8549736737264171</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E134" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>14</v>
       </c>
-      <c r="B131">
+      <c r="B135">
         <v>8042</v>
       </c>
-      <c r="C131">
-        <f t="shared" si="27"/>
+      <c r="C135">
+        <f t="shared" si="28"/>
         <v>0.12302751012428431</v>
       </c>
-      <c r="D131">
+      <c r="D135">
         <f t="shared" si="19"/>
         <v>3.9053640687668914</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E135" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>15</v>
       </c>
-      <c r="B132">
+      <c r="B136">
         <v>9000</v>
       </c>
-      <c r="C132">
-        <f t="shared" si="27"/>
+      <c r="C136">
+        <f t="shared" si="28"/>
         <v>0.11912459587167372</v>
       </c>
-      <c r="D132">
+      <c r="D136">
         <f t="shared" si="19"/>
         <v>3.9542425094393248</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E136" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>16</v>
       </c>
-      <c r="B133">
+      <c r="B137">
         <v>10075</v>
       </c>
-      <c r="C133">
-        <f t="shared" si="27"/>
+      <c r="C137">
+        <f t="shared" si="28"/>
         <v>0.11944444444444445</v>
       </c>
-      <c r="D133">
+      <c r="D137">
         <f t="shared" si="19"/>
         <v>4.0032450548131466</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E137" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>17</v>
       </c>
-      <c r="B134">
+      <c r="B138">
         <v>11364</v>
       </c>
-      <c r="C134">
-        <f t="shared" si="27"/>
+      <c r="C138">
+        <f t="shared" si="28"/>
         <v>0.12794044665012408</v>
       </c>
-      <c r="D134">
+      <c r="D138">
         <f t="shared" si="19"/>
         <v>4.0555312250508981</v>
       </c>
-      <c r="E134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>18</v>
-      </c>
-      <c r="B135">
-        <v>12729</v>
-      </c>
-      <c r="C135">
-        <f t="shared" si="27"/>
-        <v>0.12011615628299895</v>
-      </c>
-      <c r="D135">
-        <f t="shared" ref="D135:D191" si="34">LOG(B135,10)</f>
-        <v>4.1047942864862774</v>
-      </c>
-      <c r="E135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>19</v>
-      </c>
-      <c r="B136">
-        <v>13938</v>
-      </c>
-      <c r="C136">
-        <f t="shared" si="27"/>
-        <v>9.4979967004477958E-2</v>
-      </c>
-      <c r="D136">
-        <f t="shared" si="34"/>
-        <v>4.1442004601838791</v>
-      </c>
-      <c r="E136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>20</v>
-      </c>
-      <c r="B137">
-        <v>14991</v>
-      </c>
-      <c r="C137">
-        <f t="shared" si="27"/>
-        <v>7.554885923374946E-2</v>
-      </c>
-      <c r="D137">
-        <f t="shared" si="34"/>
-        <v>4.1758306041622486</v>
-      </c>
-      <c r="E137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>21</v>
-      </c>
-      <c r="B138">
-        <v>16169</v>
-      </c>
-      <c r="C138">
-        <f t="shared" si="27"/>
-        <v>7.8580481622306714E-2</v>
-      </c>
-      <c r="D138">
-        <f t="shared" si="34"/>
-        <v>4.208683161037416</v>
-      </c>
       <c r="E138" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B139">
-        <v>17361</v>
+        <v>12729</v>
       </c>
       <c r="C139">
-        <f t="shared" si="27"/>
-        <v>7.372131857257716E-2</v>
+        <f t="shared" si="28"/>
+        <v>0.12011615628299895</v>
       </c>
       <c r="D139">
-        <f t="shared" si="34"/>
-        <v>4.2395747370832089</v>
+        <f t="shared" ref="D139:D196" si="35">LOG(B139,10)</f>
+        <v>4.1047942864862774</v>
       </c>
       <c r="E139" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B140">
-        <v>18407</v>
+        <v>13938</v>
       </c>
       <c r="C140">
-        <f t="shared" si="27"/>
-        <v>6.0249985599907838E-2</v>
+        <f t="shared" si="28"/>
+        <v>9.4979967004477958E-2</v>
       </c>
       <c r="D140">
-        <f t="shared" si="34"/>
-        <v>4.2649830123164598</v>
+        <f t="shared" si="35"/>
+        <v>4.1442004601838791</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B141">
-        <v>19644</v>
+        <v>14991</v>
       </c>
       <c r="C141">
-        <f t="shared" si="27"/>
-        <v>6.7202694627044063E-2</v>
+        <f t="shared" si="28"/>
+        <v>7.554885923374946E-2</v>
       </c>
       <c r="D141">
-        <f t="shared" si="34"/>
-        <v>4.2932299254595661</v>
+        <f t="shared" si="35"/>
+        <v>4.1758306041622486</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B142">
-        <v>21638</v>
+        <v>16169</v>
       </c>
       <c r="C142">
-        <f t="shared" ref="C142" si="35">(B142-B141)/B141</f>
-        <v>0.10150682142129912</v>
+        <f t="shared" si="28"/>
+        <v>7.8580481622306714E-2</v>
       </c>
       <c r="D142">
-        <f t="shared" ref="D142" si="36">LOG(B142,10)</f>
-        <v>4.335217116457434</v>
+        <f t="shared" si="35"/>
+        <v>4.208683161037416</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B143">
-        <v>116</v>
+        <v>17361</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>7.372131857257716E-2</v>
       </c>
       <c r="D143">
-        <f t="shared" si="34"/>
-        <v>2.0644579892269181</v>
+        <f t="shared" si="35"/>
+        <v>4.2395747370832089</v>
       </c>
       <c r="E143" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" s="1">
-        <v>43895</v>
-      </c>
-      <c r="G143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B144">
-        <v>164</v>
+        <v>18407</v>
       </c>
       <c r="C144">
-        <f t="shared" si="27"/>
-        <v>0.41379310344827586</v>
+        <f t="shared" si="28"/>
+        <v>6.0249985599907838E-2</v>
       </c>
       <c r="D144">
-        <f t="shared" si="34"/>
-        <v>2.214843848047698</v>
+        <f t="shared" si="35"/>
+        <v>4.2649830123164598</v>
       </c>
       <c r="E144" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" s="1">
-        <v>43896</v>
-      </c>
-      <c r="G144">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B145">
-        <v>209</v>
+        <v>19644</v>
       </c>
       <c r="C145">
-        <f t="shared" si="27"/>
-        <v>0.27439024390243905</v>
+        <f t="shared" si="28"/>
+        <v>6.7202694627044063E-2</v>
       </c>
       <c r="D145">
-        <f t="shared" si="34"/>
-        <v>2.3201462861110538</v>
+        <f t="shared" si="35"/>
+        <v>4.2932299254595661</v>
       </c>
       <c r="E145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" s="1">
-        <v>43897</v>
-      </c>
-      <c r="G145">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B146">
-        <v>278</v>
+        <v>21638</v>
       </c>
       <c r="C146">
-        <f t="shared" si="27"/>
-        <v>0.33014354066985646</v>
+        <f t="shared" ref="C146" si="36">(B146-B145)/B145</f>
+        <v>0.10150682142129912</v>
       </c>
       <c r="D146">
-        <f t="shared" si="34"/>
-        <v>2.4440447959180758</v>
+        <f t="shared" ref="D146" si="37">LOG(B146,10)</f>
+        <v>4.335217116457434</v>
       </c>
       <c r="E146" t="s">
-        <v>9</v>
-      </c>
-      <c r="F146" s="1">
-        <v>43898</v>
-      </c>
-      <c r="G146">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B147">
-        <v>321</v>
+        <v>116</v>
       </c>
       <c r="C147">
-        <f t="shared" si="27"/>
-        <v>0.15467625899280577</v>
+        <v>0</v>
       </c>
       <c r="D147">
-        <f t="shared" si="34"/>
-        <v>2.5065050324048719</v>
+        <f t="shared" si="35"/>
+        <v>2.0644579892269181</v>
       </c>
       <c r="E147" t="s">
         <v>9</v>
       </c>
       <c r="F147" s="1">
-        <v>43899</v>
+        <v>43895</v>
       </c>
       <c r="G147">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B148">
-        <v>383</v>
+        <v>164</v>
       </c>
       <c r="C148">
-        <f t="shared" si="27"/>
-        <v>0.19314641744548286</v>
+        <f t="shared" si="28"/>
+        <v>0.41379310344827586</v>
       </c>
       <c r="D148">
-        <f t="shared" si="34"/>
-        <v>2.5831987739686224</v>
+        <f t="shared" si="35"/>
+        <v>2.214843848047698</v>
       </c>
       <c r="E148" t="s">
         <v>9</v>
       </c>
       <c r="F148" s="1">
-        <v>43900</v>
+        <v>43896</v>
       </c>
       <c r="G148">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B149">
-        <v>460</v>
+        <v>209</v>
       </c>
       <c r="C149">
-        <f t="shared" si="27"/>
-        <v>0.20104438642297651</v>
+        <f t="shared" si="28"/>
+        <v>0.27439024390243905</v>
       </c>
       <c r="D149">
-        <f t="shared" si="34"/>
-        <v>2.6627578316815739</v>
+        <f t="shared" si="35"/>
+        <v>2.3201462861110538</v>
       </c>
       <c r="E149" t="s">
         <v>9</v>
       </c>
       <c r="F149" s="1">
-        <v>43901</v>
+        <v>43897</v>
       </c>
       <c r="G149">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B150">
-        <v>590</v>
+        <v>278</v>
       </c>
       <c r="C150">
-        <f t="shared" si="27"/>
-        <v>0.28260869565217389</v>
+        <f t="shared" si="28"/>
+        <v>0.33014354066985646</v>
       </c>
       <c r="D150">
-        <f t="shared" si="34"/>
-        <v>2.7708520116421438</v>
+        <f t="shared" si="35"/>
+        <v>2.4440447959180758</v>
       </c>
       <c r="E150" t="s">
         <v>9</v>
       </c>
       <c r="F150" s="1">
-        <v>43902</v>
+        <v>43898</v>
       </c>
       <c r="G150">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B151">
-        <v>798</v>
+        <v>321</v>
       </c>
       <c r="C151">
-        <f t="shared" ref="C151:C191" si="37">(B151-B150)/B150</f>
-        <v>0.35254237288135593</v>
+        <f t="shared" si="28"/>
+        <v>0.15467625899280577</v>
       </c>
       <c r="D151">
-        <f t="shared" si="34"/>
-        <v>2.9020028913507292</v>
+        <f t="shared" si="35"/>
+        <v>2.5065050324048719</v>
       </c>
       <c r="E151" t="s">
         <v>9</v>
       </c>
       <c r="F151" s="1">
-        <v>43903</v>
+        <v>43899</v>
       </c>
       <c r="G151">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B152">
-        <v>1140</v>
+        <v>383</v>
       </c>
       <c r="C152">
-        <f t="shared" si="37"/>
-        <v>0.42857142857142855</v>
+        <f t="shared" si="28"/>
+        <v>0.19314641744548286</v>
       </c>
       <c r="D152">
-        <f t="shared" si="34"/>
-        <v>3.0569048513364723</v>
+        <f t="shared" si="35"/>
+        <v>2.5831987739686224</v>
       </c>
       <c r="E152" t="s">
         <v>9</v>
       </c>
       <c r="F152" s="1">
-        <v>43904</v>
+        <v>43900</v>
       </c>
       <c r="G152">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B153">
-        <v>1391</v>
+        <v>460</v>
       </c>
       <c r="C153">
-        <f t="shared" si="37"/>
-        <v>0.22017543859649122</v>
+        <f t="shared" si="28"/>
+        <v>0.20104438642297651</v>
       </c>
       <c r="D153">
-        <f t="shared" si="34"/>
-        <v>3.1433271299920462</v>
+        <f t="shared" si="35"/>
+        <v>2.6627578316815739</v>
       </c>
       <c r="E153" t="s">
         <v>9</v>
       </c>
       <c r="F153" s="1">
-        <v>43905</v>
+        <v>43901</v>
       </c>
       <c r="G153">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B154">
-        <v>1543</v>
+        <v>590</v>
       </c>
       <c r="C154">
-        <f t="shared" si="37"/>
-        <v>0.10927390366642703</v>
+        <f t="shared" si="28"/>
+        <v>0.28260869565217389</v>
       </c>
       <c r="D154">
-        <f t="shared" si="34"/>
-        <v>3.1883659260631481</v>
+        <f t="shared" si="35"/>
+        <v>2.7708520116421438</v>
       </c>
       <c r="E154" t="s">
         <v>9</v>
       </c>
       <c r="F154" s="1">
-        <v>43906</v>
+        <v>43902</v>
       </c>
       <c r="G154">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B155">
-        <v>1950</v>
+        <v>798</v>
       </c>
       <c r="C155">
-        <f t="shared" si="37"/>
-        <v>0.26377187297472454</v>
+        <f t="shared" ref="C155:C196" si="38">(B155-B154)/B154</f>
+        <v>0.35254237288135593</v>
       </c>
       <c r="D155">
-        <f t="shared" si="34"/>
-        <v>3.2900346113625178</v>
+        <f t="shared" si="35"/>
+        <v>2.9020028913507292</v>
       </c>
       <c r="E155" t="s">
         <v>9</v>
       </c>
       <c r="F155" s="1">
-        <v>43907</v>
+        <v>43903</v>
       </c>
       <c r="G155">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B156">
-        <v>2626</v>
+        <v>1140</v>
       </c>
       <c r="C156">
-        <f t="shared" si="37"/>
-        <v>0.34666666666666668</v>
+        <f t="shared" si="38"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="D156">
-        <f t="shared" si="34"/>
-        <v>3.4192947217534599</v>
+        <f t="shared" si="35"/>
+        <v>3.0569048513364723</v>
       </c>
       <c r="E156" t="s">
         <v>9</v>
       </c>
       <c r="F156" s="1">
-        <v>43908</v>
+        <v>43904</v>
       </c>
       <c r="G156">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B157">
-        <v>3269</v>
+        <v>1391</v>
       </c>
       <c r="C157">
-        <f t="shared" si="37"/>
-        <v>0.24485910129474486</v>
+        <f t="shared" si="38"/>
+        <v>0.22017543859649122</v>
       </c>
       <c r="D157">
-        <f t="shared" si="34"/>
-        <v>3.5144149205803688</v>
+        <f t="shared" si="35"/>
+        <v>3.1433271299920462</v>
       </c>
       <c r="E157" t="s">
         <v>9</v>
       </c>
       <c r="F157" s="1">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="G157">
-        <v>144</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B158">
-        <v>3983</v>
+        <v>1543</v>
       </c>
       <c r="C158">
-        <f t="shared" si="37"/>
-        <v>0.21841541755888652</v>
+        <f t="shared" si="38"/>
+        <v>0.10927390366642703</v>
       </c>
       <c r="D158">
-        <f t="shared" si="34"/>
-        <v>3.6002103064093274</v>
+        <f t="shared" si="35"/>
+        <v>3.1883659260631481</v>
       </c>
       <c r="E158" t="s">
         <v>9</v>
       </c>
       <c r="F158" s="1">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="G158">
-        <v>177</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B159">
-        <v>5018</v>
+        <v>1950</v>
       </c>
       <c r="C159">
-        <f t="shared" si="37"/>
-        <v>0.25985438111975895</v>
+        <f t="shared" si="38"/>
+        <v>0.26377187297472454</v>
       </c>
       <c r="D159">
-        <f t="shared" si="34"/>
-        <v>3.7005306569785912</v>
+        <f t="shared" si="35"/>
+        <v>3.2900346113625178</v>
       </c>
       <c r="E159" t="s">
         <v>9</v>
       </c>
       <c r="F159" s="1">
-        <v>43911</v>
+        <v>43907</v>
       </c>
       <c r="G159">
-        <v>233</v>
+        <v>71</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B160">
-        <v>5683</v>
+        <v>2626</v>
       </c>
       <c r="C160">
-        <f t="shared" si="37"/>
-        <v>0.13252291749701076</v>
+        <f t="shared" si="38"/>
+        <v>0.34666666666666668</v>
       </c>
       <c r="D160">
-        <f t="shared" si="34"/>
-        <v>3.7545776560447299</v>
+        <f t="shared" si="35"/>
+        <v>3.4192947217534599</v>
       </c>
       <c r="E160" t="s">
         <v>9</v>
       </c>
       <c r="F160" s="1">
-        <v>43912</v>
+        <v>43908</v>
       </c>
       <c r="G160">
-        <v>281</v>
+        <v>104</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B161">
-        <v>6650</v>
+        <v>3269</v>
       </c>
       <c r="C161">
-        <f t="shared" si="37"/>
-        <v>0.17015660742565547</v>
+        <f t="shared" si="38"/>
+        <v>0.24485910129474486</v>
       </c>
       <c r="D161">
-        <f t="shared" si="34"/>
-        <v>3.8228216453031045</v>
+        <f t="shared" si="35"/>
+        <v>3.5144149205803688</v>
       </c>
       <c r="E161" t="s">
         <v>9</v>
       </c>
       <c r="F161" s="1">
-        <v>43913</v>
+        <v>43909</v>
       </c>
       <c r="G161">
-        <v>335</v>
+        <v>144</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B162">
-        <v>8077</v>
+        <v>3983</v>
       </c>
       <c r="C162">
-        <f t="shared" si="37"/>
-        <v>0.21458646616541355</v>
+        <f t="shared" si="38"/>
+        <v>0.21841541755888652</v>
       </c>
       <c r="D162">
-        <f t="shared" si="34"/>
-        <v>3.9072500828813279</v>
+        <f t="shared" si="35"/>
+        <v>3.6002103064093274</v>
       </c>
       <c r="E162" t="s">
         <v>9</v>
       </c>
       <c r="F162" s="1">
-        <v>43914</v>
+        <v>43910</v>
       </c>
       <c r="G162">
-        <v>422</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B163">
-        <v>9529</v>
+        <v>5018</v>
       </c>
       <c r="C163">
-        <f t="shared" si="37"/>
-        <v>0.17976971647889067</v>
+        <f t="shared" si="38"/>
+        <v>0.25985438111975895</v>
       </c>
       <c r="D163">
-        <f t="shared" si="34"/>
-        <v>3.9790473269479643</v>
+        <f t="shared" si="35"/>
+        <v>3.7005306569785912</v>
       </c>
       <c r="E163" t="s">
         <v>9</v>
       </c>
       <c r="F163" s="1">
-        <v>43915</v>
+        <v>43911</v>
       </c>
       <c r="G163">
-        <v>463</v>
+        <v>233</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B164">
-        <v>11658</v>
+        <v>5683</v>
       </c>
       <c r="C164">
-        <f t="shared" si="37"/>
-        <v>0.22342323433728617</v>
+        <f t="shared" si="38"/>
+        <v>0.13252291749701076</v>
       </c>
       <c r="D164">
-        <f t="shared" si="34"/>
-        <v>4.0666240509834264</v>
+        <f t="shared" si="35"/>
+        <v>3.7545776560447299</v>
       </c>
       <c r="E164" t="s">
         <v>9</v>
       </c>
       <c r="F164" s="1">
-        <v>43916</v>
+        <v>43912</v>
       </c>
       <c r="G164">
-        <v>578</v>
+        <v>281</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B165">
-        <v>14543</v>
+        <v>6650</v>
       </c>
       <c r="C165">
-        <f t="shared" si="37"/>
-        <v>0.24746954880768571</v>
+        <f t="shared" si="38"/>
+        <v>0.17015660742565547</v>
       </c>
       <c r="D165">
-        <f t="shared" si="34"/>
-        <v>4.1626540041195756</v>
+        <f t="shared" si="35"/>
+        <v>3.8228216453031045</v>
       </c>
       <c r="E165" t="s">
         <v>9</v>
       </c>
       <c r="F165" s="1">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="G165">
-        <v>759</v>
+        <v>335</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B166">
-        <v>17089</v>
+        <v>8077</v>
       </c>
       <c r="C166">
-        <f t="shared" si="37"/>
-        <v>0.17506704256343258</v>
+        <f t="shared" si="38"/>
+        <v>0.21458646616541355</v>
       </c>
       <c r="D166">
-        <f t="shared" si="34"/>
-        <v>4.2327166497781681</v>
+        <f t="shared" si="35"/>
+        <v>3.9072500828813279</v>
       </c>
       <c r="E166" t="s">
         <v>9</v>
       </c>
       <c r="F166" s="1">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="G166">
-        <v>1019</v>
+        <v>422</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B167">
-        <v>19522</v>
+        <v>9529</v>
       </c>
       <c r="C167">
-        <f t="shared" si="37"/>
-        <v>0.14237228626601908</v>
+        <f t="shared" si="38"/>
+        <v>0.17976971647889067</v>
       </c>
       <c r="D167">
-        <f t="shared" si="34"/>
-        <v>4.29052430843669</v>
+        <f t="shared" si="35"/>
+        <v>3.9790473269479643</v>
       </c>
       <c r="E167" t="s">
         <v>9</v>
       </c>
       <c r="F167" s="1">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="G167">
-        <v>1228</v>
+        <v>463</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B168">
-        <v>22141</v>
+        <v>11658</v>
       </c>
       <c r="C168">
-        <f t="shared" si="37"/>
-        <v>0.13415633644093844</v>
+        <f t="shared" si="38"/>
+        <v>0.22342323433728617</v>
       </c>
       <c r="D168">
-        <f t="shared" si="34"/>
-        <v>4.345197231929979</v>
+        <f t="shared" si="35"/>
+        <v>4.0666240509834264</v>
       </c>
       <c r="E168" t="s">
         <v>9</v>
       </c>
       <c r="F168" s="1">
-        <v>43920</v>
+        <v>43916</v>
       </c>
       <c r="G168">
-        <v>1408</v>
+        <v>578</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B169">
-        <v>25150</v>
+        <v>14543</v>
       </c>
       <c r="C169">
-        <f t="shared" si="37"/>
-        <v>0.13590172078948556</v>
+        <f t="shared" si="38"/>
+        <v>0.24746954880768571</v>
       </c>
       <c r="D169">
-        <f t="shared" si="34"/>
-        <v>4.4005379893919452</v>
+        <f t="shared" si="35"/>
+        <v>4.1626540041195756</v>
       </c>
       <c r="E169" t="s">
         <v>9</v>
       </c>
       <c r="F169" s="1">
-        <v>43921</v>
+        <v>43917</v>
       </c>
       <c r="G169">
-        <v>1789</v>
+        <v>759</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B170">
-        <v>100</v>
+        <v>17089</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>0.17506704256343258</v>
       </c>
       <c r="D170">
-        <f t="shared" si="34"/>
-        <v>2</v>
+        <f t="shared" si="35"/>
+        <v>4.2327166497781681</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F170" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G170">
+        <v>1019</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B171">
-        <v>130</v>
+        <v>19522</v>
       </c>
       <c r="C171">
-        <f t="shared" si="37"/>
-        <v>0.3</v>
+        <f t="shared" si="38"/>
+        <v>0.14237228626601908</v>
       </c>
       <c r="D171">
-        <f t="shared" si="34"/>
-        <v>2.1139433523068365</v>
+        <f t="shared" si="35"/>
+        <v>4.29052430843669</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F171" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G171">
+        <v>1228</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B172">
-        <v>191</v>
+        <v>22141</v>
       </c>
       <c r="C172">
-        <f t="shared" si="37"/>
-        <v>0.46923076923076923</v>
+        <f t="shared" si="38"/>
+        <v>0.13415633644093844</v>
       </c>
       <c r="D172">
-        <f t="shared" si="34"/>
-        <v>2.2810333672477272</v>
+        <f t="shared" si="35"/>
+        <v>4.345197231929979</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F172" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G172">
+        <v>1408</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B173">
-        <v>212</v>
+        <v>25150</v>
       </c>
       <c r="C173">
-        <f t="shared" si="37"/>
-        <v>0.1099476439790576</v>
+        <f t="shared" si="38"/>
+        <v>0.13590172078948556</v>
       </c>
       <c r="D173">
-        <f t="shared" si="34"/>
-        <v>2.3263358609287512</v>
+        <f t="shared" si="35"/>
+        <v>4.4005379893919452</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F173" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G173">
+        <v>1789</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B174">
-        <v>285</v>
+        <v>29474</v>
       </c>
       <c r="C174">
-        <f t="shared" si="37"/>
-        <v>0.34433962264150941</v>
+        <f t="shared" ref="C174" si="39">(B174-B173)/B173</f>
+        <v>0.17192842942345923</v>
       </c>
       <c r="D174">
-        <f t="shared" si="34"/>
-        <v>2.4548448600085102</v>
+        <f t="shared" ref="D174" si="40">LOG(B174,10)</f>
+        <v>4.4694390791836067</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F174" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G174">
+        <v>2352</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B175">
-        <v>423</v>
+        <v>100</v>
       </c>
       <c r="C175">
-        <f t="shared" si="37"/>
-        <v>0.48421052631578948</v>
+        <v>0</v>
       </c>
       <c r="D175">
-        <f t="shared" si="34"/>
-        <v>2.6263403673750418</v>
+        <f t="shared" si="35"/>
+        <v>2</v>
       </c>
       <c r="E175" t="s">
         <v>10</v>
@@ -18140,18 +18629,18 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B176">
-        <v>653</v>
+        <v>130</v>
       </c>
       <c r="C176">
-        <f t="shared" si="37"/>
-        <v>0.54373522458628842</v>
+        <f t="shared" si="38"/>
+        <v>0.3</v>
       </c>
       <c r="D176">
-        <f t="shared" si="34"/>
-        <v>2.8149131812750738</v>
+        <f t="shared" si="35"/>
+        <v>2.1139433523068365</v>
       </c>
       <c r="E176" t="s">
         <v>10</v>
@@ -18159,18 +18648,18 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B177">
-        <v>949</v>
+        <v>191</v>
       </c>
       <c r="C177">
-        <f t="shared" si="37"/>
-        <v>0.45329249617151607</v>
+        <f t="shared" si="38"/>
+        <v>0.46923076923076923</v>
       </c>
       <c r="D177">
-        <f t="shared" si="34"/>
-        <v>2.9772662124272924</v>
+        <f t="shared" si="35"/>
+        <v>2.2810333672477272</v>
       </c>
       <c r="E177" t="s">
         <v>10</v>
@@ -18178,18 +18667,18 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B178">
-        <v>1209</v>
+        <v>212</v>
       </c>
       <c r="C178">
-        <f t="shared" si="37"/>
-        <v>0.27397260273972601</v>
+        <f t="shared" si="38"/>
+        <v>0.1099476439790576</v>
       </c>
       <c r="D178">
-        <f t="shared" si="34"/>
-        <v>3.0824263008607717</v>
+        <f t="shared" si="35"/>
+        <v>2.3263358609287512</v>
       </c>
       <c r="E178" t="s">
         <v>10</v>
@@ -18197,18 +18686,18 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B179">
-        <v>1412</v>
+        <v>285</v>
       </c>
       <c r="C179">
-        <f t="shared" si="37"/>
-        <v>0.16790736145574855</v>
+        <f t="shared" si="38"/>
+        <v>0.34433962264150941</v>
       </c>
       <c r="D179">
-        <f t="shared" si="34"/>
-        <v>3.1498346967157844</v>
+        <f t="shared" si="35"/>
+        <v>2.4548448600085102</v>
       </c>
       <c r="E179" t="s">
         <v>10</v>
@@ -18216,18 +18705,18 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B180">
-        <v>1784</v>
+        <v>423</v>
       </c>
       <c r="C180">
-        <f t="shared" si="37"/>
-        <v>0.26345609065155806</v>
+        <f t="shared" si="38"/>
+        <v>0.48421052631578948</v>
       </c>
       <c r="D180">
-        <f t="shared" si="34"/>
-        <v>3.251394850040104</v>
+        <f t="shared" si="35"/>
+        <v>2.6263403673750418</v>
       </c>
       <c r="E180" t="s">
         <v>10</v>
@@ -18235,18 +18724,18 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B181">
-        <v>2281</v>
+        <v>653</v>
       </c>
       <c r="C181">
-        <f t="shared" si="37"/>
-        <v>0.27858744394618834</v>
+        <f t="shared" si="38"/>
+        <v>0.54373522458628842</v>
       </c>
       <c r="D181">
-        <f t="shared" si="34"/>
-        <v>3.3581252852766479</v>
+        <f t="shared" si="35"/>
+        <v>2.8149131812750738</v>
       </c>
       <c r="E181" t="s">
         <v>10</v>
@@ -18254,18 +18743,18 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B182">
-        <v>2876</v>
+        <v>949</v>
       </c>
       <c r="C182">
-        <f t="shared" si="37"/>
-        <v>0.26085050416483996</v>
+        <f t="shared" si="38"/>
+        <v>0.45329249617151607</v>
       </c>
       <c r="D182">
-        <f t="shared" si="34"/>
-        <v>3.4587888817108445</v>
+        <f t="shared" si="35"/>
+        <v>2.9772662124272924</v>
       </c>
       <c r="E182" t="s">
         <v>10</v>
@@ -18273,18 +18762,18 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B183">
-        <v>3661</v>
+        <v>1209</v>
       </c>
       <c r="C183">
-        <f t="shared" si="37"/>
-        <v>0.27294853963838667</v>
+        <f t="shared" si="38"/>
+        <v>0.27397260273972601</v>
       </c>
       <c r="D183">
-        <f t="shared" si="34"/>
-        <v>3.5635997288815306</v>
+        <f t="shared" si="35"/>
+        <v>3.0824263008607717</v>
       </c>
       <c r="E183" t="s">
         <v>10</v>
@@ -18292,18 +18781,18 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B184">
-        <v>4499</v>
+        <v>1412</v>
       </c>
       <c r="C184">
-        <f t="shared" si="37"/>
-        <v>0.22889920786670309</v>
+        <f t="shared" si="38"/>
+        <v>0.16790736145574855</v>
       </c>
       <c r="D184">
-        <f t="shared" si="34"/>
-        <v>3.6531159931655663</v>
+        <f t="shared" si="35"/>
+        <v>3.1498346967157844</v>
       </c>
       <c r="E184" t="s">
         <v>10</v>
@@ -18311,18 +18800,18 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B185">
-        <v>5423</v>
+        <v>1784</v>
       </c>
       <c r="C185">
-        <f t="shared" si="37"/>
-        <v>0.20537897310513448</v>
+        <f t="shared" si="38"/>
+        <v>0.26345609065155806</v>
       </c>
       <c r="D185">
-        <f t="shared" si="34"/>
-        <v>3.7342396044354547</v>
+        <f t="shared" si="35"/>
+        <v>3.251394850040104</v>
       </c>
       <c r="E185" t="s">
         <v>10</v>
@@ -18330,18 +18819,18 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B186">
-        <v>6633</v>
+        <v>2281</v>
       </c>
       <c r="C186">
-        <f t="shared" si="37"/>
-        <v>0.2231237322515213</v>
+        <f t="shared" si="38"/>
+        <v>0.27858744394618834</v>
       </c>
       <c r="D186">
-        <f t="shared" si="34"/>
-        <v>3.8217099972983757</v>
+        <f t="shared" si="35"/>
+        <v>3.3581252852766479</v>
       </c>
       <c r="E186" t="s">
         <v>10</v>
@@ -18349,18 +18838,18 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B187">
-        <v>7730</v>
+        <v>2876</v>
       </c>
       <c r="C187">
-        <f t="shared" si="37"/>
-        <v>0.1653851952359415</v>
+        <f t="shared" si="38"/>
+        <v>0.26085050416483996</v>
       </c>
       <c r="D187">
-        <f t="shared" si="34"/>
-        <v>3.888179493918325</v>
+        <f t="shared" si="35"/>
+        <v>3.4587888817108445</v>
       </c>
       <c r="E187" t="s">
         <v>10</v>
@@ -18368,18 +18857,18 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B188">
-        <v>9134</v>
+        <v>3661</v>
       </c>
       <c r="C188">
-        <f t="shared" si="37"/>
-        <v>0.1816300129366106</v>
+        <f t="shared" si="38"/>
+        <v>0.27294853963838667</v>
       </c>
       <c r="D188">
-        <f t="shared" si="34"/>
-        <v>3.9606610072709816</v>
+        <f t="shared" si="35"/>
+        <v>3.5635997288815306</v>
       </c>
       <c r="E188" t="s">
         <v>10</v>
@@ -18387,18 +18876,18 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B189">
-        <v>10995</v>
+        <v>4499</v>
       </c>
       <c r="C189">
-        <f t="shared" si="37"/>
-        <v>0.20374425224436171</v>
+        <f t="shared" si="38"/>
+        <v>0.22889920786670309</v>
       </c>
       <c r="D189">
-        <f t="shared" si="34"/>
-        <v>4.0411952336968087</v>
+        <f t="shared" si="35"/>
+        <v>3.6531159931655663</v>
       </c>
       <c r="E189" t="s">
         <v>10</v>
@@ -18406,18 +18895,18 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B190">
-        <v>12612</v>
+        <v>5423</v>
       </c>
       <c r="C190">
-        <f t="shared" si="37"/>
-        <v>0.14706684856753069</v>
+        <f t="shared" si="38"/>
+        <v>0.20537897310513448</v>
       </c>
       <c r="D190">
-        <f t="shared" si="34"/>
-        <v>4.1007839620758668</v>
+        <f t="shared" si="35"/>
+        <v>3.7342396044354547</v>
       </c>
       <c r="E190" t="s">
         <v>10</v>
@@ -18425,20 +18914,115 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
+        <v>17</v>
+      </c>
+      <c r="B191">
+        <v>6633</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="38"/>
+        <v>0.2231237322515213</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="35"/>
+        <v>3.8217099972983757</v>
+      </c>
+      <c r="E191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>18</v>
+      </c>
+      <c r="B192">
+        <v>7730</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="38"/>
+        <v>0.1653851952359415</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="35"/>
+        <v>3.888179493918325</v>
+      </c>
+      <c r="E192" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>19</v>
+      </c>
+      <c r="B193">
+        <v>9134</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="38"/>
+        <v>0.1816300129366106</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="35"/>
+        <v>3.9606610072709816</v>
+      </c>
+      <c r="E193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>20</v>
+      </c>
+      <c r="B194">
+        <v>10995</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="38"/>
+        <v>0.20374425224436171</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="35"/>
+        <v>4.0411952336968087</v>
+      </c>
+      <c r="E194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>21</v>
+      </c>
+      <c r="B195">
+        <v>12612</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="38"/>
+        <v>0.14706684856753069</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="35"/>
+        <v>4.1007839620758668</v>
+      </c>
+      <c r="E195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
         <v>22</v>
       </c>
-      <c r="B191">
+      <c r="B196">
         <v>14459</v>
       </c>
-      <c r="C191">
-        <f t="shared" si="37"/>
+      <c r="C196">
+        <f t="shared" si="38"/>
         <v>0.14644782746590548</v>
       </c>
-      <c r="D191">
-        <f t="shared" si="34"/>
+      <c r="D196">
+        <f t="shared" si="35"/>
         <v>4.1601382577234016</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E196" t="s">
         <v>10</v>
       </c>
     </row>
@@ -18449,41 +19033,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23278A49-B33F-4577-858B-35CF5CAE9C86}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D31"/>
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18494,27 +19090,40 @@
         <v>151</v>
       </c>
       <c r="D2">
+        <v>116</v>
+      </c>
+      <c r="E2">
         <v>6</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2" s="3">
-        <f>E2/C2</f>
+      <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="3">
-        <f>D2/B2</f>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <f>F2/C2</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <f>E2/B2</f>
         <v>0.06</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M2" s="3">
+        <f>G2/D2</f>
+        <v>8.6206896551724137E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18525,28 +19134,42 @@
         <v>200</v>
       </c>
       <c r="D3">
+        <v>164</v>
+      </c>
+      <c r="E3">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="2">
-        <f>(D3-D2)/D2</f>
+      <c r="I3" s="2">
+        <f>(E3-E2)/E2</f>
         <v>0.5</v>
       </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H19" si="0">E3/C3</f>
+      <c r="J3" s="2">
+        <f>(G3-G2)/G2</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <f>F3/C3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="3">
-        <f t="shared" ref="I3:I31" si="1">D3/B3</f>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L32" si="0">E3/B3</f>
         <v>7.2580645161290328E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M29" si="1">G3/D3</f>
+        <v>1.2195121951219513E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18557,28 +19180,42 @@
         <v>234</v>
       </c>
       <c r="D4">
+        <v>209</v>
+      </c>
+      <c r="E4">
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" ref="G4:G31" si="2">(D4-D3)/D3</f>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I32" si="2">(E4-E3)/E3</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="H4" s="3">
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J30" si="3">(G4-G3)/G3</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <f>F4/C4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
+        <v>6.9620253164556958E-2</v>
+      </c>
+      <c r="M4" s="3">
         <f t="shared" si="1"/>
-        <v>6.9620253164556958E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9.5693779904306216E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18589,28 +19226,42 @@
         <v>346</v>
       </c>
       <c r="D5">
+        <v>278</v>
+      </c>
+      <c r="E5">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="2">
+      <c r="I5" s="2">
         <f t="shared" si="2"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="J5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="3">
+        <f>F5/C5</f>
+        <v>2.8901734104046241E-3</v>
+      </c>
+      <c r="L5" s="3">
         <f t="shared" si="0"/>
-        <v>2.8901734104046241E-3</v>
-      </c>
-      <c r="I5" s="3">
+        <v>5.4298642533936653E-2</v>
+      </c>
+      <c r="M5" s="3">
         <f t="shared" si="1"/>
-        <v>5.4298642533936653E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0791366906474821E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18621,28 +19272,42 @@
         <v>529</v>
       </c>
       <c r="D6">
+        <v>321</v>
+      </c>
+      <c r="E6">
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
+      <c r="I6" s="2">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="H6" s="3">
+      <c r="J6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K6" s="3">
+        <f>F6/C6</f>
+        <v>7.5614366729678641E-3</v>
+      </c>
+      <c r="L6" s="3">
         <f t="shared" si="0"/>
-        <v>7.5614366729678641E-3</v>
-      </c>
-      <c r="I6" s="3">
+        <v>4.7021943573667714E-2</v>
+      </c>
+      <c r="M6" s="3">
         <f t="shared" si="1"/>
-        <v>4.7021943573667714E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.5576323987538941E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -18653,29 +19318,43 @@
         <v>640</v>
       </c>
       <c r="D7">
+        <v>383</v>
+      </c>
+      <c r="E7">
         <v>19</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" ref="F7:F19" si="3">(E7-E6)/E6</f>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2">
+        <f>(F7-F6)/F6</f>
         <v>0.75</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <f t="shared" si="2"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="H7" s="3">
+      <c r="J7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="K7" s="3">
+        <f>F7/C7</f>
+        <v>1.0937499999999999E-2</v>
+      </c>
+      <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>1.0937499999999999E-2</v>
-      </c>
-      <c r="I7" s="3">
+        <v>4.3678160919540229E-2</v>
+      </c>
+      <c r="M7" s="3">
         <f t="shared" si="1"/>
-        <v>4.3678160919540229E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.5665796344647518E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -18686,194 +19365,278 @@
         <v>970</v>
       </c>
       <c r="D8">
+        <v>460</v>
+      </c>
+      <c r="E8">
         <v>22</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>11</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2">
+        <f>(F8-F7)/F7</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K8" s="3">
+        <f>F8/C8</f>
+        <v>1.134020618556701E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="0"/>
+        <v>4.0665434380776341E-2</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7391304347826087E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>704</v>
+      </c>
+      <c r="C9">
+        <v>1178</v>
+      </c>
+      <c r="D9">
+        <v>590</v>
+      </c>
+      <c r="E9">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2">
+        <f>(F9-F8)/F8</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="K9" s="3">
+        <f>F9/C9</f>
+        <v>1.5280135823429542E-2</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6931818181818184E-2</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6949152542372881E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>994</v>
+      </c>
+      <c r="C10">
+        <v>1546</v>
+      </c>
+      <c r="D10">
+        <v>798</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2">
+        <f>(F10-F9)/F9</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="3">
+        <f>F10/C10</f>
+        <v>1.6170763260025874E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="0"/>
+        <v>3.0181086519114688E-2</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3784461152882205E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1301</v>
+      </c>
+      <c r="C11">
+        <v>1891</v>
+      </c>
+      <c r="D11">
+        <v>1140</v>
+      </c>
+      <c r="E11">
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>21</v>
+      </c>
+      <c r="H11" s="2">
+        <f>(F11-F10)/F10</f>
+        <v>0.36</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="K11" s="3">
+        <f>F11/C11</f>
+        <v>1.7979904812268643E-2</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="0"/>
+        <v>2.9208301306687164E-2</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8421052631578946E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1697</v>
+      </c>
+      <c r="C12">
+        <v>2247</v>
+      </c>
+      <c r="D12">
+        <v>1391</v>
+      </c>
+      <c r="E12">
+        <v>41</v>
+      </c>
+      <c r="F12">
+        <v>46</v>
+      </c>
+      <c r="G12">
+        <v>35</v>
+      </c>
+      <c r="H12" s="2">
+        <f>(F12-F11)/F11</f>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="2"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K12" s="3">
+        <f>F12/C12</f>
+        <v>2.0471740097908322E-2</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4160282852091926E-2</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5161754133716751E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2247</v>
+      </c>
+      <c r="C13">
+        <v>2433</v>
+      </c>
+      <c r="D13">
+        <v>1543</v>
+      </c>
+      <c r="E13">
+        <v>49</v>
+      </c>
+      <c r="F13">
+        <v>57</v>
+      </c>
+      <c r="G13">
+        <v>55</v>
+      </c>
+      <c r="H13" s="2">
+        <f>(F13-F12)/F12</f>
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="3"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" si="2"/>
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="K13" s="3">
+        <f>F13/C13</f>
+        <v>2.3427866831072751E-2</v>
+      </c>
+      <c r="L13" s="3">
         <f t="shared" si="0"/>
-        <v>1.134020618556701E-2</v>
-      </c>
-      <c r="I8" s="3">
+        <v>2.1806853582554516E-2</v>
+      </c>
+      <c r="M13" s="3">
         <f t="shared" si="1"/>
-        <v>4.0665434380776341E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>704</v>
-      </c>
-      <c r="C9">
-        <v>1178</v>
-      </c>
-      <c r="D9">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="3"/>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5280135823429542E-2</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="1"/>
-        <v>3.6931818181818184E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>994</v>
-      </c>
-      <c r="C10">
-        <v>1546</v>
-      </c>
-      <c r="D10">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="3"/>
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6170763260025874E-2</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="1"/>
-        <v>3.0181086519114688E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1301</v>
-      </c>
-      <c r="C11">
-        <v>1891</v>
-      </c>
-      <c r="D11">
-        <v>38</v>
-      </c>
-      <c r="E11">
-        <v>34</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="3"/>
-        <v>0.36</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="0"/>
-        <v>1.7979904812268643E-2</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="1"/>
-        <v>2.9208301306687164E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1697</v>
-      </c>
-      <c r="C12">
-        <v>2247</v>
-      </c>
-      <c r="D12">
-        <v>41</v>
-      </c>
-      <c r="E12">
-        <v>46</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="3"/>
-        <v>0.35294117647058826</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="2"/>
-        <v>7.8947368421052627E-2</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="0"/>
-        <v>2.0471740097908322E-2</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="1"/>
-        <v>2.4160282852091926E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>2247</v>
-      </c>
-      <c r="C13">
-        <v>2433</v>
-      </c>
-      <c r="D13">
-        <v>49</v>
-      </c>
-      <c r="E13">
-        <v>57</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2391304347826087</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="2"/>
-        <v>0.1951219512195122</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="0"/>
-        <v>2.3427866831072751E-2</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="1"/>
-        <v>2.1806853582554516E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.5644847699287101E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -18884,29 +19647,43 @@
         <v>2915</v>
       </c>
       <c r="D14">
+        <v>1950</v>
+      </c>
+      <c r="E14">
         <v>57</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>77</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" si="3"/>
+      <c r="G14">
+        <v>71</v>
+      </c>
+      <c r="H14" s="2">
+        <f>(F14-F13)/F13</f>
         <v>0.35087719298245612</v>
       </c>
-      <c r="G14" s="2">
+      <c r="I14" s="2">
         <f t="shared" si="2"/>
         <v>0.16326530612244897</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.29090909090909089</v>
+      </c>
+      <c r="K14" s="3">
+        <f>F14/C14</f>
+        <v>2.6415094339622643E-2</v>
+      </c>
+      <c r="L14" s="3">
         <f t="shared" si="0"/>
-        <v>2.6415094339622643E-2</v>
-      </c>
-      <c r="I14" s="3">
+        <v>1.9367991845056064E-2</v>
+      </c>
+      <c r="M14" s="3">
         <f t="shared" si="1"/>
-        <v>1.9367991845056064E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.6410256410256407E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -18917,29 +19694,43 @@
         <v>3417</v>
       </c>
       <c r="D15">
+        <v>2626</v>
+      </c>
+      <c r="E15">
         <v>68</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>92</v>
       </c>
-      <c r="F15" s="2">
-        <f t="shared" si="3"/>
+      <c r="G15">
+        <v>104</v>
+      </c>
+      <c r="H15" s="2">
+        <f>(F15-F14)/F14</f>
         <v>0.19480519480519481</v>
       </c>
-      <c r="G15" s="2">
+      <c r="I15" s="2">
         <f t="shared" si="2"/>
         <v>0.19298245614035087</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.46478873239436619</v>
+      </c>
+      <c r="K15" s="3">
+        <f>F15/C15</f>
+        <v>2.6924202516827627E-2</v>
+      </c>
+      <c r="L15" s="3">
         <f t="shared" si="0"/>
-        <v>2.6924202516827627E-2</v>
-      </c>
-      <c r="I15" s="3">
+        <v>1.8478260869565218E-2</v>
+      </c>
+      <c r="M15" s="3">
         <f t="shared" si="1"/>
-        <v>1.8478260869565218E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.9603960396039604E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -18950,29 +19741,43 @@
         <v>3904</v>
       </c>
       <c r="D16">
+        <v>3269</v>
+      </c>
+      <c r="E16">
         <v>86</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>114</v>
       </c>
-      <c r="F16" s="2">
-        <f t="shared" si="3"/>
+      <c r="G16">
+        <v>144</v>
+      </c>
+      <c r="H16" s="2">
+        <f>(F16-F15)/F15</f>
         <v>0.2391304347826087</v>
       </c>
-      <c r="G16" s="2">
+      <c r="I16" s="2">
         <f t="shared" si="2"/>
         <v>0.26470588235294118</v>
       </c>
-      <c r="H16" s="3">
+      <c r="J16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="K16" s="3">
+        <f>F16/C16</f>
+        <v>2.9200819672131149E-2</v>
+      </c>
+      <c r="L16" s="3">
         <f t="shared" si="0"/>
-        <v>2.9200819672131149E-2</v>
-      </c>
-      <c r="I16" s="3">
+        <v>1.844306240617628E-2</v>
+      </c>
+      <c r="M16" s="3">
         <f t="shared" si="1"/>
-        <v>1.844306240617628E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.4050168247170389E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -18983,29 +19788,43 @@
         <v>4256</v>
       </c>
       <c r="D17">
+        <v>3983</v>
+      </c>
+      <c r="E17">
         <v>109</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>136</v>
       </c>
-      <c r="F17" s="2">
-        <f t="shared" si="3"/>
+      <c r="G17">
+        <v>177</v>
+      </c>
+      <c r="H17" s="2">
+        <f>(F17-F16)/F16</f>
         <v>0.19298245614035087</v>
       </c>
-      <c r="G17" s="2">
+      <c r="I17" s="2">
         <f t="shared" si="2"/>
         <v>0.26744186046511625</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="K17" s="3">
+        <f>F17/C17</f>
+        <v>3.1954887218045111E-2</v>
+      </c>
+      <c r="L17" s="3">
         <f t="shared" si="0"/>
-        <v>3.1954887218045111E-2</v>
-      </c>
-      <c r="I17" s="3">
+        <v>1.7002027764779284E-2</v>
+      </c>
+      <c r="M17" s="3">
         <f t="shared" si="1"/>
-        <v>1.7002027764779284E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.4438865177002261E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -19016,29 +19835,43 @@
         <v>4579</v>
       </c>
       <c r="D18">
+        <v>5018</v>
+      </c>
+      <c r="E18">
         <v>150</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>159</v>
       </c>
-      <c r="F18" s="2">
-        <f t="shared" si="3"/>
+      <c r="G18">
+        <v>233</v>
+      </c>
+      <c r="H18" s="2">
+        <f>(F18-F17)/F17</f>
         <v>0.16911764705882354</v>
       </c>
-      <c r="G18" s="2">
+      <c r="I18" s="2">
         <f t="shared" si="2"/>
         <v>0.37614678899082571</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.31638418079096048</v>
+      </c>
+      <c r="K18" s="3">
+        <f>F18/C18</f>
+        <v>3.4723738807599915E-2</v>
+      </c>
+      <c r="L18" s="3">
         <f t="shared" si="0"/>
-        <v>3.4723738807599915E-2</v>
-      </c>
-      <c r="I18" s="3">
+        <v>1.6200453612701157E-2</v>
+      </c>
+      <c r="M18" s="3">
         <f t="shared" si="1"/>
-        <v>1.6200453612701157E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.6432841769629335E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -19049,48 +19882,90 @@
         <v>5717</v>
       </c>
       <c r="D19">
+        <v>5683</v>
+      </c>
+      <c r="E19">
         <v>207</v>
       </c>
-      <c r="E19" s="9">
+      <c r="F19" s="9">
         <v>201</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" si="3"/>
+      <c r="G19">
+        <v>281</v>
+      </c>
+      <c r="H19" s="2">
+        <f>(F19-F18)/F18</f>
         <v>0.26415094339622641</v>
       </c>
-      <c r="G19" s="2">
+      <c r="I19" s="2">
         <f t="shared" si="2"/>
         <v>0.38</v>
       </c>
-      <c r="H19" s="3">
+      <c r="J19" s="2">
+        <f t="shared" si="3"/>
+        <v>0.20600858369098712</v>
+      </c>
+      <c r="K19" s="3">
+        <f>F19/C19</f>
+        <v>3.5158299807591394E-2</v>
+      </c>
+      <c r="L19" s="3">
         <f t="shared" si="0"/>
-        <v>3.5158299807591394E-2</v>
-      </c>
-      <c r="I19" s="3">
+        <v>1.501196605990282E-2</v>
+      </c>
+      <c r="M19" s="3">
         <f t="shared" si="1"/>
-        <v>1.501196605990282E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.9445715291219425E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>19383</v>
       </c>
+      <c r="C20">
+        <v>6836</v>
+      </c>
       <c r="D20">
+        <v>6650</v>
+      </c>
+      <c r="E20">
         <v>256</v>
       </c>
-      <c r="G20" s="2">
+      <c r="F20" s="9">
+        <v>240</v>
+      </c>
+      <c r="G20">
+        <v>335</v>
+      </c>
+      <c r="H20" s="2">
+        <f>(F20-F19)/F19</f>
+        <v>0.19402985074626866</v>
+      </c>
+      <c r="I20" s="2">
         <f t="shared" si="2"/>
         <v>0.23671497584541062</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="2">
+        <f t="shared" si="3"/>
+        <v>0.19217081850533807</v>
+      </c>
+      <c r="K20" s="3">
+        <f>F20/C20</f>
+        <v>3.5108250438853128E-2</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3207449827168137E-2</v>
+      </c>
+      <c r="M20" s="3">
         <f t="shared" si="1"/>
-        <v>1.3207449827168137E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.037593984962406E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -19098,18 +19973,32 @@
         <v>24207</v>
       </c>
       <c r="D21">
+        <v>8077</v>
+      </c>
+      <c r="E21">
         <v>302</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21">
+        <v>422</v>
+      </c>
+      <c r="I21" s="2">
         <f t="shared" si="2"/>
         <v>0.1796875</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25970149253731345</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2475730160697319E-2</v>
+      </c>
+      <c r="M21" s="3">
         <f t="shared" si="1"/>
-        <v>1.2475730160697319E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.2247121455986131E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -19117,18 +20006,32 @@
         <v>33546</v>
       </c>
       <c r="D22">
+        <v>9529</v>
+      </c>
+      <c r="E22">
         <v>419</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22">
+        <v>463</v>
+      </c>
+      <c r="I22" s="2">
         <f t="shared" si="2"/>
         <v>0.38741721854304634</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="2">
+        <f t="shared" si="3"/>
+        <v>9.7156398104265407E-2</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2490311810648065E-2</v>
+      </c>
+      <c r="M22" s="3">
         <f t="shared" si="1"/>
-        <v>1.2490311810648065E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.8588519257004935E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -19136,18 +20039,32 @@
         <v>42751</v>
       </c>
       <c r="D23">
+        <v>11658</v>
+      </c>
+      <c r="E23">
         <v>520</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23">
+        <v>578</v>
+      </c>
+      <c r="I23" s="2">
         <f t="shared" si="2"/>
         <v>0.24105011933174225</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24838012958963282</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2163458164721292E-2</v>
+      </c>
+      <c r="M23" s="3">
         <f t="shared" si="1"/>
-        <v>1.2163458164721292E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.9579687768056269E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -19155,18 +20072,32 @@
         <v>54881</v>
       </c>
       <c r="D24">
+        <v>14543</v>
+      </c>
+      <c r="E24">
         <v>780</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24">
+        <v>759</v>
+      </c>
+      <c r="I24" s="2">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="2">
+        <f t="shared" si="3"/>
+        <v>0.31314878892733566</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4212569012955303E-2</v>
+      </c>
+      <c r="M24" s="3">
         <f t="shared" si="1"/>
-        <v>1.4212569012955303E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.2190057072130924E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -19174,18 +20105,32 @@
         <v>64775</v>
       </c>
       <c r="D25">
+        <v>17089</v>
+      </c>
+      <c r="E25">
         <v>910</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25">
+        <v>1019</v>
+      </c>
+      <c r="I25" s="2">
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I25" s="3">
+      <c r="J25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.34255599472990778</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4048629872636048E-2</v>
+      </c>
+      <c r="M25" s="3">
         <f t="shared" si="1"/>
-        <v>1.4048629872636048E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.962900111182632E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -19193,18 +20138,32 @@
         <v>82179</v>
       </c>
       <c r="D26">
+        <v>19522</v>
+      </c>
+      <c r="E26">
         <v>1177</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26">
+        <v>1228</v>
+      </c>
+      <c r="I26" s="2">
         <f t="shared" si="2"/>
         <v>0.29340659340659342</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="2">
+        <f t="shared" si="3"/>
+        <v>0.20510304219823355</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4322393798902397E-2</v>
+      </c>
+      <c r="M26" s="3">
         <f t="shared" si="1"/>
-        <v>1.4322393798902397E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.2903391045999388E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -19212,18 +20171,32 @@
         <v>103729</v>
       </c>
       <c r="D27">
+        <v>22141</v>
+      </c>
+      <c r="E27">
         <v>1693</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27">
+        <v>1408</v>
+      </c>
+      <c r="I27" s="2">
         <f t="shared" si="2"/>
         <v>0.43840271877655057</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1465798045602606</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6321375892951826E-2</v>
+      </c>
+      <c r="M27" s="3">
         <f t="shared" si="1"/>
-        <v>1.6321375892951826E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.3592430332866628E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -19231,18 +20204,32 @@
         <v>120529</v>
       </c>
       <c r="D28">
+        <v>25150</v>
+      </c>
+      <c r="E28">
         <v>2008</v>
       </c>
-      <c r="G28" s="2">
-        <f>(D28-D27)/D27</f>
+      <c r="G28">
+        <v>1789</v>
+      </c>
+      <c r="I28" s="2">
+        <f>(E28-E27)/E27</f>
         <v>0.18606024808033078</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J28" s="2">
+        <f t="shared" si="3"/>
+        <v>0.27059659090909088</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6659890980593881E-2</v>
+      </c>
+      <c r="M28" s="3">
         <f t="shared" si="1"/>
-        <v>1.6659890980593881E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7.1133200795228627E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -19250,53 +20237,89 @@
         <v>142460</v>
       </c>
       <c r="D29">
+        <v>29474</v>
+      </c>
+      <c r="E29">
         <v>2484</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29">
+        <v>2352</v>
+      </c>
+      <c r="I29" s="2">
         <f t="shared" si="2"/>
         <v>0.23705179282868527</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="2">
+        <f t="shared" si="3"/>
+        <v>0.31470095025153716</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7436473396040993E-2</v>
+      </c>
+      <c r="M29" s="3">
         <f t="shared" si="1"/>
-        <v>1.7436473396040993E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7.9799145009160619E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>160344</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>2953</v>
       </c>
-      <c r="G30" s="2">
+      <c r="I30" s="2">
         <f t="shared" si="2"/>
         <v>0.18880837359098229</v>
       </c>
-      <c r="I30" s="3">
-        <f t="shared" si="1"/>
+      <c r="J30" s="2"/>
+      <c r="L30" s="3">
+        <f t="shared" si="0"/>
         <v>1.8416654193484008E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>184487</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>3756</v>
       </c>
-      <c r="G31" s="2">
+      <c r="I31" s="2">
         <f t="shared" si="2"/>
         <v>0.27192685404673211</v>
       </c>
-      <c r="I31" s="3">
-        <f t="shared" si="1"/>
+      <c r="J31" s="2"/>
+      <c r="L31" s="3">
+        <f t="shared" si="0"/>
         <v>2.0359158097860555E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>211143</v>
+      </c>
+      <c r="E32">
+        <v>4713</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25479233226837061</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="L32" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2321365141160256E-2</v>
       </c>
     </row>
   </sheetData>
@@ -19309,8 +20332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25C859D-AA7D-4F12-87CB-B1F40BE28FD3}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17:U28"/>
+    <sheetView topLeftCell="M13" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19334,73 +20357,73 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="R1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="X1" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -19506,7 +20529,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="12">
-        <f t="shared" ref="I3:I19" si="1">H3/210000000</f>
+        <f t="shared" ref="I3:I20" si="1">H3/210000000</f>
         <v>0</v>
       </c>
       <c r="J3" s="11">
@@ -19904,7 +20927,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" ref="H8:H19" si="9">(G8-G7)</f>
+        <f t="shared" ref="H8:H20" si="9">(G8-G7)</f>
         <v>4</v>
       </c>
       <c r="I8" s="12">
@@ -20869,6 +21892,20 @@
         <f t="shared" si="0"/>
         <v>1.5312499999999999E-7</v>
       </c>
+      <c r="F20" s="8">
+        <v>6836</v>
+      </c>
+      <c r="G20">
+        <v>240</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" si="1"/>
+        <v>1.8571428571428572E-7</v>
+      </c>
       <c r="J20" s="11">
         <v>15113</v>
       </c>
@@ -21511,8 +22548,20 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="U29" s="11"/>
-      <c r="V29"/>
+      <c r="U29">
+        <v>29474</v>
+      </c>
+      <c r="V29">
+        <v>2352</v>
+      </c>
+      <c r="W29">
+        <f t="shared" ref="W29" si="11">V29-V28</f>
+        <v>563</v>
+      </c>
+      <c r="X29" s="17">
+        <f>W29/66000000</f>
+        <v>8.5303030303030308E-6</v>
+      </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -21627,6 +22676,23 @@
       <c r="V31"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>211143</v>
+      </c>
+      <c r="C32">
+        <v>4713</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" ref="D32" si="12">C32-C31</f>
+        <v>957</v>
+      </c>
+      <c r="E32" s="12">
+        <f t="shared" ref="E32" si="13">D32/320000000</f>
+        <v>2.9906249999999998E-6</v>
+      </c>
       <c r="J32" s="11">
         <v>69176</v>
       </c>
@@ -21641,6 +22707,20 @@
         <f t="shared" si="2"/>
         <v>1.2383333333333334E-5</v>
       </c>
+      <c r="N32">
+        <v>102179</v>
+      </c>
+      <c r="O32">
+        <v>9131</v>
+      </c>
+      <c r="P32">
+        <f t="shared" ref="P32" si="14">O32-O31</f>
+        <v>667</v>
+      </c>
+      <c r="Q32" s="15">
+        <f t="shared" ref="Q32" si="15">P32/46000000</f>
+        <v>1.45E-5</v>
+      </c>
       <c r="S32" s="6">
         <v>104</v>
       </c>
@@ -21651,7 +22731,10 @@
       <c r="U32" s="11"/>
       <c r="V32"/>
     </row>
-    <row r="33" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
       <c r="J33" s="11">
         <v>74386</v>
       </c>
@@ -21676,7 +22759,10 @@
       <c r="U33" s="11"/>
       <c r="V33"/>
     </row>
-    <row r="34" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
       <c r="J34" s="11">
         <v>80589</v>
       </c>
@@ -21701,7 +22787,10 @@
       <c r="U34" s="11"/>
       <c r="V34"/>
     </row>
-    <row r="35" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
       <c r="J35" s="11">
         <v>86498</v>
       </c>
@@ -21726,7 +22815,10 @@
       <c r="U35" s="11"/>
       <c r="V35"/>
     </row>
-    <row r="36" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
       <c r="J36" s="11">
         <v>92472</v>
       </c>
@@ -21751,7 +22843,10 @@
       <c r="U36" s="11"/>
       <c r="V36"/>
     </row>
-    <row r="37" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
       <c r="J37" s="11">
         <v>97689</v>
       </c>
@@ -21776,7 +22871,10 @@
       <c r="U37" s="11"/>
       <c r="V37"/>
     </row>
-    <row r="38" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
       <c r="J38" s="11">
         <v>101739</v>
       </c>
@@ -21801,7 +22899,10 @@
       <c r="U38" s="11"/>
       <c r="V38"/>
     </row>
-    <row r="39" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
       <c r="J39">
         <v>105792</v>
       </c>
@@ -21826,7 +22927,21 @@
       <c r="U39" s="11"/>
       <c r="V39"/>
     </row>
-    <row r="40" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>110574</v>
+      </c>
+      <c r="K40">
+        <v>13155</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ref="L40" si="16">K40-K39</f>
+        <v>727</v>
+      </c>
+      <c r="M40" s="14">
+        <f t="shared" ref="M40" si="17">L40/60000000</f>
+        <v>1.2116666666666667E-5</v>
+      </c>
       <c r="S40" s="6">
         <v>158</v>
       </c>
@@ -21847,8 +22962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A175D7D-09F8-434E-8823-11AEBD540A93}">
   <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView topLeftCell="V2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AD46" sqref="AD46"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AU15" sqref="AU15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21863,7 +22978,9 @@
     <col min="10" max="10" width="9.140625" style="7"/>
     <col min="11" max="13" width="9.140625" style="9"/>
     <col min="14" max="14" width="9.140625" style="7"/>
-    <col min="15" max="17" width="9.140625" style="9"/>
+    <col min="15" max="15" width="9.140625" style="9"/>
+    <col min="16" max="16" width="12.5703125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="9"/>
     <col min="18" max="18" width="9.140625" style="7"/>
     <col min="19" max="21" width="9.140625" style="9"/>
     <col min="22" max="22" width="9.140625" style="11"/>
@@ -21872,88 +22989,88 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="N1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="P1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="9" t="s">
+      <c r="S1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Z1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AB1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -23917,6 +25034,21 @@
         <f t="shared" si="20"/>
         <v>5594</v>
       </c>
+      <c r="F20">
+        <v>6836</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" ref="G20" si="24">LOG(F20,10)</f>
+        <v>3.8348020540486991</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" ref="H20" si="25">LOG(F20-F19,10)</f>
+        <v>3.0488300865283495</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" ref="I20" si="26">F20-F19</f>
+        <v>1119</v>
+      </c>
       <c r="J20" s="7">
         <v>21571</v>
       </c>
@@ -24690,7 +25822,7 @@
         <v>5.1536929400085496</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" ref="D29" si="24">LOG(B29-B28,10)</f>
+        <f t="shared" ref="D29" si="27">LOG(B29-B28,10)</f>
         <v>4.3410584348959613</v>
       </c>
       <c r="E29" s="6">
@@ -24727,6 +25859,21 @@
         <f t="shared" si="13"/>
         <v>6557</v>
       </c>
+      <c r="V29">
+        <v>29474</v>
+      </c>
+      <c r="W29" s="4">
+        <f t="shared" ref="W29" si="28">LOG(V29,10)</f>
+        <v>4.4694390791836067</v>
+      </c>
+      <c r="X29" s="4">
+        <f t="shared" ref="X29" si="29">LOG(V29-V28,10)</f>
+        <v>3.6358856852812722</v>
+      </c>
+      <c r="Y29" s="6">
+        <f t="shared" ref="Y29" si="30">V29-V28</f>
+        <v>4324</v>
+      </c>
       <c r="Z29" s="11">
         <v>8413</v>
       </c>
@@ -24755,15 +25902,15 @@
         <v>5.2050527134653057</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" ref="D30:D31" si="25">LOG(B30-B29,10)</f>
+        <f t="shared" ref="D30:D31" si="31">LOG(B30-B29,10)</f>
         <v>4.2524646611959938</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" ref="E30:E31" si="26">B30-B29</f>
+        <f t="shared" ref="E30:E31" si="32">B30-B29</f>
         <v>17884</v>
       </c>
       <c r="J30" s="7">
-        <f>Plan1!B98</f>
+        <f>Plan1!B100</f>
         <v>87956</v>
       </c>
       <c r="K30" s="4">
@@ -24771,7 +25918,7 @@
         <v>4.9442654706043037</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" ref="L30" si="27">LOG(J30-J29,10)</f>
+        <f t="shared" ref="L30" si="33">LOG(J30-J29,10)</f>
         <v>3.8946483037935162</v>
       </c>
       <c r="M30" s="6">
@@ -24821,11 +25968,11 @@
         <v>5.2659657687217525</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>4.3827912343816475</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>24143</v>
       </c>
       <c r="J31">
@@ -24836,7 +25983,7 @@
         <v>4.9819227529001289</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" ref="L31" si="28">LOG(J31-J30,10)</f>
+        <f t="shared" ref="L31" si="34">LOG(J31-J30,10)</f>
         <v>3.9012948171655668</v>
       </c>
       <c r="M31" s="6">
@@ -24875,9 +26022,39 @@
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="6"/>
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>211143</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" ref="C32" si="35">LOG(B32,10)</f>
+        <v>5.3245766878837477</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" ref="D32" si="36">LOG(B32-B31,10)</f>
+        <v>4.4257949797266933</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" ref="E32" si="37">B32-B31</f>
+        <v>26656</v>
+      </c>
+      <c r="J32">
+        <v>102179</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" ref="K32" si="38">LOG(J32,10)</f>
+        <v>5.0093616480369176</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" ref="L32" si="39">LOG(J32-J31,10)</f>
+        <v>3.7962967400517909</v>
+      </c>
+      <c r="M32" s="6">
+        <f>J32-J31</f>
+        <v>6256</v>
+      </c>
       <c r="N32" s="7">
         <v>69176</v>
       </c>
@@ -25079,11 +26256,11 @@
         <v>5.0074874646043952</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" ref="P38" si="29">LOG(N38-N37,10)</f>
+        <f t="shared" ref="P38" si="40">LOG(N38-N37,10)</f>
         <v>3.6074550232146683</v>
       </c>
       <c r="Q38" s="6">
-        <f t="shared" ref="Q38" si="30">N38-N37</f>
+        <f t="shared" ref="Q38" si="41">N38-N37</f>
         <v>4050</v>
       </c>
       <c r="Z38" s="11">
@@ -25111,11 +26288,11 @@
         <v>5.0244528275553346</v>
       </c>
       <c r="P39" s="4">
-        <f t="shared" ref="P39" si="31">LOG(N39-N38,10)</f>
+        <f t="shared" ref="P39" si="42">LOG(N39-N38,10)</f>
         <v>3.6077766037416925</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" ref="Q39" si="32">N39-N38</f>
+        <f t="shared" ref="Q39" si="43">N39-N38</f>
         <v>4053</v>
       </c>
       <c r="Z39" s="11">
@@ -25135,6 +26312,21 @@
       </c>
     </row>
     <row r="40" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>110574</v>
+      </c>
+      <c r="O40" s="4">
+        <f t="shared" ref="O40" si="44">LOG(N40,10)</f>
+        <v>5.0436530204228687</v>
+      </c>
+      <c r="P40" s="4">
+        <f t="shared" ref="P40" si="45">LOG(N40-N39,10)</f>
+        <v>3.6796095717797557</v>
+      </c>
+      <c r="Q40" s="6">
+        <f t="shared" ref="Q40" si="46">N40-N39</f>
+        <v>4782</v>
+      </c>
       <c r="Z40" s="11">
         <v>9583</v>
       </c>

--- a/dataset/dataset_infec.xlsx
+++ b/dataset/dataset_infec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braeued1\Documents\Octavio\projetos\Covid19_data\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FEC3F2-12F9-469D-A63C-266B8EAC752D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657FAC1D-E33C-4B6D-88C2-99A35F434DD6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="62">
   <si>
     <t>day</t>
   </si>
@@ -220,11 +220,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.00000%"/>
     <numFmt numFmtId="167" formatCode="0.000000%"/>
+    <numFmt numFmtId="168" formatCode="0.0000000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -281,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -300,6 +301,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +433,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Death Rate'!$A$2:$A$32</c:f>
+              <c:f>'Death Rate'!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -527,6 +529,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -593,6 +598,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.19402985074626866</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.24583333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -632,10 +640,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Death Rate'!$A$2:$A$32</c:f>
+              <c:f>'Death Rate'!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -728,16 +736,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$I$2:$I$32</c:f>
+              <c:f>'Death Rate'!$I$2:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -830,6 +841,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.25479233226837061</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.2321239125822194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,9 +858,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>UK death rate var</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -859,12 +870,117 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Death Rate'!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$J$2:$J$29</c:f>
+              <c:f>'Death Rate'!$J$2:$J$33</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -948,6 +1064,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.31470095025153716</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.241921768707483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1271,7 +1390,7 @@
             <c:numRef>
               <c:f>'Death Rate'!$K$2:$K$28</c:f>
               <c:numCache>
-                <c:formatCode>#,#00%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1329,6 +1448,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3.5108250438853128E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7800252844500636E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1370,7 +1492,7 @@
             <c:numRef>
               <c:f>'Death Rate'!$L$2:$L$32</c:f>
               <c:numCache>
-                <c:formatCode>#,#00%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
@@ -1478,9 +1600,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>UK dr</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1495,10 +1614,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$M$2:$M$29</c:f>
+              <c:f>'Death Rate'!$M$2:$M$30</c:f>
               <c:numCache>
-                <c:formatCode>#,#00%</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>8.6206896551724137E-3</c:v>
                 </c:pt>
@@ -1582,6 +1701,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>7.9799145009160619E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.6630286493860842E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1676,7 +1798,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,#00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1809,6 +1931,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Variação de Mortes por dia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1969,6 +2116,9 @@
                 <c:pt idx="30">
                   <c:v>957</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>1094</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2068,6 +2218,9 @@
                 <c:pt idx="18">
                   <c:v>39</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2226,6 +2379,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2496,6 +2652,9 @@
                 <c:pt idx="27">
                   <c:v>563</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>569</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2503,6 +2662,136 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A566-4BB6-9F89-CF64F37836B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Spain death var</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Death Var'!$P$2:$P$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92A2-4DDD-82FA-A7C697FC10BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2817,7 +3106,7 @@
             <c:numRef>
               <c:f>'Death Var'!$E$2:$E$38</c:f>
               <c:numCache>
-                <c:formatCode>0.000%</c:formatCode>
+                <c:formatCode>0.0000000%</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2911,6 +3200,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2.9906249999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4187500000000001E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2952,7 +3244,7 @@
             <c:numRef>
               <c:f>'Death Var'!$I$2:$I$38</c:f>
               <c:numCache>
-                <c:formatCode>0.000%</c:formatCode>
+                <c:formatCode>0.0000000%</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3010,6 +3302,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1.8571428571428572E-7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8095238095238096E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3169,6 +3464,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1.2116666666666667E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2666666666666667E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3297,6 +3595,9 @@
                 <c:pt idx="30">
                   <c:v>1.45E-5</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1195652173913045E-5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3310,6 +3611,9 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>UK</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3411,6 +3715,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>8.5303030303030308E-6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.6212121212121216E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3505,7 +3812,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000000%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3733,7 +4040,7 @@
             <c:numRef>
               <c:f>'Death Var'!$E$2:$E$38</c:f>
               <c:numCache>
-                <c:formatCode>0.000%</c:formatCode>
+                <c:formatCode>0.0000000%</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3827,6 +4134,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2.9906249999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4187500000000001E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3868,7 +4178,7 @@
             <c:numRef>
               <c:f>'Death Var'!$I$2:$I$38</c:f>
               <c:numCache>
-                <c:formatCode>0.000%</c:formatCode>
+                <c:formatCode>0.0000000%</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3926,6 +4236,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1.8571428571428572E-7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8095238095238096E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4020,7 +4333,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000000%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4249,6 +4562,9 @@
                 <c:pt idx="18">
                   <c:v>240</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>299</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4314,6 +4630,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4466,6 +4785,9 @@
                 <c:pt idx="38">
                   <c:v>13155</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>13915</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4594,6 +4916,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4722,6 +5047,9 @@
                 <c:pt idx="30">
                   <c:v>4713</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>5807</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4823,6 +5151,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4951,6 +5282,9 @@
                 <c:pt idx="30">
                   <c:v>9131</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>10106</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5052,6 +5386,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5453,6 +5790,9 @@
                 <c:pt idx="27">
                   <c:v>2352</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>2921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5545,6 +5885,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5790,6 +6133,871 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7469816272965873E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.83953018372703414"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Brasil</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Death Var'!$G$2:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Death Var'!$H$2:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5D0-4287-920D-172752407D4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>USA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Death Var'!$C$2:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1177</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1693</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2484</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2953</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3756</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4713</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Death Var'!$D$2:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A5D0-4287-920D-172752407D4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>UK</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Death Var'!$V$2:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1228</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1789</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2352</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Death Var'!$W$2:$W$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A5D0-4287-920D-172752407D4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="815963552"/>
+        <c:axId val="815960600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="815963552"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815960600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="815960600"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815963552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -5970,6 +7178,9 @@
                 <c:pt idx="30">
                   <c:v>211143</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>240375</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6071,6 +7282,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>26656</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6163,6 +7377,9 @@
                 <c:pt idx="18">
                   <c:v>6836</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>7910</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6228,6 +7445,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1119</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6243,7 +7463,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>UK</c:v>
+            <c:v>Spain</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="9525" cap="rnd">
@@ -6356,6 +7576,9 @@
                 <c:pt idx="30">
                   <c:v>102179</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>110409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6457,6 +7680,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6256</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6609,6 +7835,9 @@
                 <c:pt idx="38">
                   <c:v>110574</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>115242</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6731,6 +7960,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>4782</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6918,7 +8150,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>Spain</c:v>
+            <c:v>UK </c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="9525" cap="rnd">
@@ -7022,15 +8254,18 @@
                 <c:pt idx="27">
                   <c:v>29474</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>33718</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Cases Var'!$Y$2:$Y$30</c:f>
+              <c:f>'Cases Var'!$Y$2:$Y$33</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="1">
                   <c:v>48</c:v>
                 </c:pt>
@@ -7111,6 +8346,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>4324</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7608,7 +8846,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7957,7 +9195,7 @@
             <c:strRef>
               <c:f>'Cases Var'!$G:$G</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>BRA cases log</c:v>
                 </c:pt>
@@ -8017,6 +9255,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3,83</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3,90</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8086,6 +9327,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3.0488300865283495</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0310042813635367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8131,7 +9375,7 @@
             <c:strRef>
               <c:f>'Cases Var'!$K:$K</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>Spain cases Log</c:v>
                 </c:pt>
@@ -8227,6 +9471,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5,01</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5,04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8332,6 +9579,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>3.7962967400517909</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.915399835212269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8377,7 +9627,7 @@
             <c:strRef>
               <c:f>'Cases Var'!$O:$O</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>Italy cases Log</c:v>
                 </c:pt>
@@ -8497,6 +9747,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>5,04</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5,06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8623,6 +9876,9 @@
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00">
                   <c:v>3.6796095717797557</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00">
+                  <c:v>3.6691308473733324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9045,6 +10301,9 @@
                 <c:pt idx="27">
                   <c:v>4.4694390791836067</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5278618063227016</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9134,6 +10393,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>3.6358856852812722</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.6277753752293025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9645,6 +10907,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12781,6 +14083,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13259,7 +15077,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13930,16 +15748,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13997,6 +15815,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>184438</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>55851</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF4EDC0-F6AE-4281-AE3D-296A062F7378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14080,12 +15936,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.07777</cdr:x>
-      <cdr:y>0.47327</cdr:y>
+      <cdr:x>0.07898</cdr:x>
+      <cdr:y>0.46322</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.94012</cdr:x>
-      <cdr:y>0.56717</cdr:y>
+      <cdr:x>0.94133</cdr:x>
+      <cdr:y>0.55712</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -14100,8 +15956,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20101751">
-          <a:off x="764859" y="2242676"/>
-          <a:ext cx="8480834" cy="444985"/>
+          <a:off x="776741" y="2195055"/>
+          <a:ext cx="8480838" cy="444963"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -14406,10 +16262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G196"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14451,7 +16307,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D59" si="0">LOG(B2,10)</f>
+        <f t="shared" ref="D2:D60" si="0">LOG(B2,10)</f>
         <v>2.1958996524092336</v>
       </c>
       <c r="E2" t="s">
@@ -15372,11 +17228,11 @@
         <v>105792</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:C40" si="8">(B39-B38)/B38</f>
+        <f t="shared" ref="C39:C41" si="8">(B39-B38)/B38</f>
         <v>3.9837230560552002E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39:D40" si="9">LOG(B39,10)</f>
+        <f t="shared" ref="D39:D41" si="9">LOG(B39,10)</f>
         <v>5.0244528275553346</v>
       </c>
       <c r="E39" t="s">
@@ -15416,2438 +17272,2462 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>115242</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="8"/>
+        <v>4.2216072494438116E-2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="9"/>
+        <v>5.061610786760637</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G41">
+        <v>13915</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>1</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>100</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>0</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F42" s="1">
         <v>43892</v>
       </c>
-      <c r="G41">
+      <c r="G42">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>2</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>124</v>
       </c>
-      <c r="C42">
-        <f t="shared" ref="C42:C59" si="10">(B42-B41)/B41</f>
+      <c r="C43">
+        <f t="shared" ref="C43:C60" si="10">(B43-B42)/B42</f>
         <v>0.24</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <f t="shared" si="0"/>
         <v>2.0934216851622351</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F43" s="1">
         <v>43893</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>3</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>158</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <f t="shared" si="10"/>
         <v>0.27419354838709675</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <f t="shared" si="0"/>
         <v>2.1986570869544226</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F44" s="1">
         <v>43894</v>
       </c>
-      <c r="G43">
+      <c r="G44">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>4</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>221</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <f t="shared" si="10"/>
         <v>0.39873417721518989</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <f t="shared" si="0"/>
         <v>2.3443922736851102</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F45" s="1">
         <v>43895</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>5</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>319</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <f t="shared" si="10"/>
         <v>0.4434389140271493</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <f t="shared" si="0"/>
         <v>2.503790683057181</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F46" s="1">
         <v>43896</v>
       </c>
-      <c r="G45">
+      <c r="G46">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>6</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>435</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <f t="shared" si="10"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <f t="shared" si="0"/>
         <v>2.638489256954637</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F47" s="1">
         <v>43897</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>7</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>541</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <f t="shared" si="10"/>
         <v>0.24367816091954023</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <f t="shared" si="0"/>
         <v>2.7331972651065688</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F48" s="1">
         <v>43898</v>
       </c>
-      <c r="G47">
+      <c r="G48">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>8</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>704</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <f t="shared" si="10"/>
         <v>0.30129390018484287</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <f t="shared" si="0"/>
         <v>2.847572659142112</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>6</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F49" s="1">
         <v>43899</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>9</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>994</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <f t="shared" si="10"/>
         <v>0.41193181818181818</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <f t="shared" si="0"/>
         <v>2.9973863843973132</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F50" s="1">
         <v>43900</v>
       </c>
-      <c r="G49">
+      <c r="G50">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>10</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>1301</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <f t="shared" si="10"/>
         <v>0.30885311871227367</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <f t="shared" si="0"/>
         <v>3.1142772965615859</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F51" s="1">
         <v>43901</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>11</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>1697</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <f t="shared" si="10"/>
         <v>0.30438124519600307</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <f t="shared" si="0"/>
         <v>3.2296818423176754</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F52" s="1">
         <v>43902</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>12</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>2247</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <f t="shared" si="10"/>
         <v>0.32410135533294049</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <f t="shared" si="0"/>
         <v>3.3516030724191288</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F53" s="1">
         <v>43903</v>
       </c>
-      <c r="G52">
+      <c r="G53">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>13</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>2943</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <f t="shared" si="10"/>
         <v>0.30974632843791722</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <f t="shared" si="0"/>
         <v>3.4687902620996107</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F54" s="1">
         <v>43904</v>
       </c>
-      <c r="G53">
+      <c r="G54">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>14</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>3680</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <f t="shared" si="10"/>
         <v>0.25042473666326875</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <f t="shared" si="0"/>
         <v>3.5658478186735172</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>6</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F55" s="1">
         <v>43905</v>
       </c>
-      <c r="G54">
+      <c r="G55">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>15</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>4663</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <f t="shared" si="10"/>
         <v>0.26711956521739133</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <f t="shared" si="0"/>
         <v>3.6686654154544915</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F56" s="1">
         <v>43906</v>
       </c>
-      <c r="G55">
+      <c r="G56">
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>16</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>6411</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <f t="shared" si="10"/>
         <v>0.37486596611623418</v>
       </c>
-      <c r="D56">
+      <c r="D57">
         <f t="shared" si="0"/>
         <v>3.8069257768837312</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F57" s="1">
         <v>43907</v>
       </c>
-      <c r="G56">
+      <c r="G57">
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>17</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>9259</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <f t="shared" si="10"/>
         <v>0.44423646856964594</v>
       </c>
-      <c r="D57">
+      <c r="D58">
         <f t="shared" si="0"/>
         <v>3.96656408409731</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F58" s="1">
         <v>43908</v>
       </c>
-      <c r="G57">
+      <c r="G58">
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>18</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>13789</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <f t="shared" si="10"/>
         <v>0.48925369910357491</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <f t="shared" si="0"/>
         <v>4.1395327715979393</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>6</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F59" s="1">
         <v>43909</v>
       </c>
-      <c r="G58">
+      <c r="G59">
         <v>207</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>19</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>19383</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <f t="shared" si="10"/>
         <v>0.40568569149321926</v>
       </c>
-      <c r="D59">
+      <c r="D60">
         <f t="shared" si="0"/>
         <v>4.287420995759831</v>
       </c>
-      <c r="E59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="1">
-        <v>43910</v>
-      </c>
-      <c r="G59">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>20</v>
-      </c>
-      <c r="B60">
-        <v>24207</v>
-      </c>
-      <c r="C60">
-        <f t="shared" ref="C60:C63" si="11">(B60-B59)/B59</f>
-        <v>0.24887788268069957</v>
-      </c>
-      <c r="D60">
-        <f t="shared" ref="D60:D63" si="12">LOG(B60,10)</f>
-        <v>4.3839409701862078</v>
-      </c>
       <c r="E60" t="s">
         <v>6</v>
       </c>
       <c r="F60" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="G60">
-        <v>302</v>
+        <v>256</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
+        <v>20</v>
+      </c>
+      <c r="B61">
+        <v>24207</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ref="C61:C64" si="11">(B61-B60)/B60</f>
+        <v>0.24887788268069957</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ref="D61:D64" si="12">LOG(B61,10)</f>
+        <v>4.3839409701862078</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="1">
+        <v>43911</v>
+      </c>
+      <c r="G61">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>21</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>33546</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <f t="shared" si="11"/>
         <v>0.38579749659189488</v>
       </c>
-      <c r="D61">
+      <c r="D62">
         <f t="shared" si="12"/>
         <v>4.5256407426423158</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>6</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F62" s="1">
         <v>43912</v>
       </c>
-      <c r="G61">
+      <c r="G62">
         <v>419</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>22</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>42751</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <f t="shared" si="11"/>
         <v>0.27439933226018004</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <f t="shared" si="12"/>
         <v>4.6309462778806241</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E63" t="s">
         <v>6</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F63" s="1">
         <v>43913</v>
       </c>
-      <c r="G62">
+      <c r="G63">
         <v>520</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>23</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>54881</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <f t="shared" si="11"/>
         <v>0.28373605295782556</v>
       </c>
-      <c r="D63">
+      <c r="D64">
         <f t="shared" si="12"/>
         <v>4.7394220161557863</v>
       </c>
-      <c r="E63" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" s="1">
-        <v>43914</v>
-      </c>
-      <c r="G63">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>24</v>
-      </c>
-      <c r="B64">
-        <v>64775</v>
-      </c>
-      <c r="C64">
-        <f t="shared" ref="C64:C66" si="13">(B64-B63)/B63</f>
-        <v>0.18028097155664075</v>
-      </c>
-      <c r="D64">
-        <f t="shared" ref="D64:D66" si="14">LOG(B64,10)</f>
-        <v>4.8114074216578624</v>
-      </c>
       <c r="E64" t="s">
         <v>6</v>
       </c>
       <c r="F64" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="G64">
-        <v>910</v>
+        <v>780</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
+        <v>24</v>
+      </c>
+      <c r="B65">
+        <v>64775</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ref="C65:C67" si="13">(B65-B64)/B64</f>
+        <v>0.18028097155664075</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ref="D65:D67" si="14">LOG(B65,10)</f>
+        <v>4.8114074216578624</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="1">
+        <v>43915</v>
+      </c>
+      <c r="G65">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>25</v>
       </c>
-      <c r="B65">
+      <c r="B66">
         <v>82179</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <f t="shared" si="13"/>
         <v>0.26868390582786567</v>
       </c>
-      <c r="D65">
+      <c r="D66">
         <f t="shared" si="14"/>
         <v>4.9147608522200317</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>6</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F66" s="1">
         <v>43916</v>
       </c>
-      <c r="G65">
+      <c r="G66">
         <v>1177</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>26</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>103729</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <f t="shared" si="13"/>
         <v>0.26223244381167937</v>
       </c>
-      <c r="D66">
+      <c r="D67">
         <f t="shared" si="14"/>
         <v>5.015900191097372</v>
       </c>
-      <c r="E66" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" s="1">
-        <v>43917</v>
-      </c>
-      <c r="G66">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>27</v>
-      </c>
-      <c r="B67">
-        <v>120529</v>
-      </c>
-      <c r="C67">
-        <f t="shared" ref="C67:C69" si="15">(B67-B66)/B66</f>
-        <v>0.16196049320826383</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D69" si="16">LOG(B67,10)</f>
-        <v>5.0810915533398715</v>
-      </c>
       <c r="E67" t="s">
         <v>6</v>
       </c>
       <c r="F67" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="G67">
-        <v>2008</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
+        <v>27</v>
+      </c>
+      <c r="B68">
+        <v>120529</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:C70" si="15">(B68-B67)/B67</f>
+        <v>0.16196049320826383</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:D70" si="16">LOG(B68,10)</f>
+        <v>5.0810915533398715</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G68">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>28</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>142460</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <f t="shared" si="15"/>
         <v>0.18195620970886675</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <f t="shared" si="16"/>
         <v>5.1536929400085496</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>6</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F69" s="1">
         <v>43919</v>
       </c>
-      <c r="G68">
+      <c r="G69">
         <v>2484</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>29</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>160344</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <f t="shared" si="15"/>
         <v>0.12553699284009545</v>
       </c>
-      <c r="D69">
+      <c r="D70">
         <f t="shared" si="16"/>
         <v>5.2050527134653057</v>
       </c>
-      <c r="E69" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="1">
-        <v>43920</v>
-      </c>
-      <c r="G69">
-        <v>2953</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>30</v>
-      </c>
-      <c r="B70">
-        <v>184487</v>
-      </c>
-      <c r="C70">
-        <f t="shared" ref="C70:C71" si="17">(B70-B69)/B69</f>
-        <v>0.150570024447438</v>
-      </c>
-      <c r="D70">
-        <f t="shared" ref="D70:D71" si="18">LOG(B70,10)</f>
-        <v>5.2659657687217525</v>
-      </c>
       <c r="E70" t="s">
         <v>6</v>
       </c>
       <c r="F70" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="G70">
-        <v>3756</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
+        <v>30</v>
+      </c>
+      <c r="B71">
+        <v>184487</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:C73" si="17">(B71-B70)/B70</f>
+        <v>0.150570024447438</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ref="D71:D73" si="18">LOG(B71,10)</f>
+        <v>5.2659657687217525</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G71">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>31</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <v>211143</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <f t="shared" si="17"/>
         <v>0.14448714543572175</v>
       </c>
-      <c r="D71">
+      <c r="D72">
         <f t="shared" si="18"/>
         <v>5.3245766878837477</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>6</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F72" s="1">
         <v>43922</v>
       </c>
-      <c r="G71">
+      <c r="G72">
         <v>4713</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72">
-        <v>120</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <f t="shared" ref="D72:D138" si="19">LOG(B72,10)</f>
-        <v>2.0791812460476247</v>
-      </c>
-      <c r="E72" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" s="1">
-        <v>43892</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
+        <v>32</v>
+      </c>
+      <c r="B73">
+        <v>240375</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="17"/>
+        <v>0.13844645571958342</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="18"/>
+        <v>5.3808892972465356</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G73">
+        <v>5807</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>120</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ref="D74:D142" si="19">LOG(B74,10)</f>
+        <v>2.0791812460476247</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="1">
+        <v>43892</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>2</v>
       </c>
-      <c r="B73">
+      <c r="B75">
         <v>165</v>
       </c>
-      <c r="C73">
-        <f t="shared" ref="C73:C91" si="20">(B73-B72)/B72</f>
+      <c r="C75">
+        <f t="shared" ref="C75:C93" si="20">(B75-B74)/B74</f>
         <v>0.375</v>
       </c>
-      <c r="D73">
+      <c r="D75">
         <f t="shared" si="19"/>
         <v>2.2174839442139058</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E75" t="s">
         <v>7</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F75" s="1">
         <v>43893</v>
       </c>
-      <c r="G73">
+      <c r="G75">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>3</v>
       </c>
-      <c r="B74">
+      <c r="B76">
         <v>228</v>
       </c>
-      <c r="C74">
+      <c r="C76">
         <f t="shared" si="20"/>
         <v>0.38181818181818183</v>
       </c>
-      <c r="D74">
+      <c r="D76">
         <f t="shared" si="19"/>
         <v>2.3579348470004535</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E76" t="s">
         <v>7</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F76" s="1">
         <v>43894</v>
       </c>
-      <c r="G74">
+      <c r="G76">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>4</v>
       </c>
-      <c r="B75">
+      <c r="B77">
         <v>282</v>
       </c>
-      <c r="C75">
+      <c r="C77">
         <f t="shared" si="20"/>
         <v>0.23684210526315788</v>
       </c>
-      <c r="D75">
+      <c r="D77">
         <f t="shared" si="19"/>
         <v>2.4502491083193609</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E77" t="s">
         <v>7</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F77" s="1">
         <v>43895</v>
       </c>
-      <c r="G75">
+      <c r="G77">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>5</v>
       </c>
-      <c r="B76">
+      <c r="B78">
         <v>401</v>
       </c>
-      <c r="C76">
+      <c r="C78">
         <f t="shared" si="20"/>
         <v>0.42198581560283688</v>
       </c>
-      <c r="D76">
+      <c r="D78">
         <f t="shared" si="19"/>
         <v>2.6031443726201822</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E78" t="s">
         <v>7</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F78" s="1">
         <v>43896</v>
       </c>
-      <c r="G76">
+      <c r="G78">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>6</v>
       </c>
-      <c r="B77">
+      <c r="B79">
         <v>525</v>
       </c>
-      <c r="C77">
+      <c r="C79">
         <f t="shared" si="20"/>
         <v>0.30922693266832918</v>
       </c>
-      <c r="D77">
+      <c r="D79">
         <f t="shared" si="19"/>
         <v>2.7201593034059566</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E79" t="s">
         <v>7</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F79" s="1">
         <v>43897</v>
       </c>
-      <c r="G77">
+      <c r="G79">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>7</v>
       </c>
-      <c r="B78">
+      <c r="B80">
         <v>674</v>
       </c>
-      <c r="C78">
+      <c r="C80">
         <f t="shared" si="20"/>
         <v>0.28380952380952379</v>
       </c>
-      <c r="D78">
+      <c r="D80">
         <f t="shared" si="19"/>
         <v>2.8286598965353194</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E80" t="s">
         <v>7</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F80" s="1">
         <v>43898</v>
       </c>
-      <c r="G78">
+      <c r="G80">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>8</v>
       </c>
-      <c r="B79">
+      <c r="B81">
         <v>1231</v>
       </c>
-      <c r="C79">
+      <c r="C81">
         <f t="shared" si="20"/>
         <v>0.82640949554896137</v>
       </c>
-      <c r="D79">
+      <c r="D81">
         <f t="shared" si="19"/>
         <v>3.0902580529313162</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E81" t="s">
         <v>7</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F81" s="1">
         <v>43899</v>
       </c>
-      <c r="G79">
+      <c r="G81">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>9</v>
       </c>
-      <c r="B80">
+      <c r="B82">
         <v>1695</v>
       </c>
-      <c r="C80">
+      <c r="C82">
         <f t="shared" si="20"/>
         <v>0.37692932575142163</v>
       </c>
-      <c r="D80">
+      <c r="D82">
         <f t="shared" si="19"/>
         <v>3.2291697025391004</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E82" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F82" s="1">
         <v>43900</v>
       </c>
-      <c r="G80">
+      <c r="G82">
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>10</v>
       </c>
-      <c r="B81">
+      <c r="B83">
         <v>2277</v>
       </c>
-      <c r="C81">
+      <c r="C83">
         <f t="shared" si="20"/>
         <v>0.3433628318584071</v>
       </c>
-      <c r="D81">
+      <c r="D83">
         <f t="shared" si="19"/>
         <v>3.3573630306151423</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E83" t="s">
         <v>7</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F83" s="1">
         <v>43901</v>
       </c>
-      <c r="G81">
+      <c r="G83">
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>11</v>
       </c>
-      <c r="B82">
+      <c r="B84">
         <v>3146</v>
       </c>
-      <c r="C82">
+      <c r="C84">
         <f t="shared" si="20"/>
         <v>0.38164251207729466</v>
       </c>
-      <c r="D82">
+      <c r="D84">
         <f t="shared" si="19"/>
         <v>3.4977587182872676</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E84" t="s">
         <v>7</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F84" s="1">
         <v>43902</v>
       </c>
-      <c r="G82">
+      <c r="G84">
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>12</v>
       </c>
-      <c r="B83">
+      <c r="B85">
         <v>5232</v>
       </c>
-      <c r="C83">
+      <c r="C85">
         <f t="shared" si="20"/>
         <v>0.66306420851875403</v>
       </c>
-      <c r="D83">
+      <c r="D85">
         <f t="shared" si="19"/>
         <v>3.7186677353162101</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E85" t="s">
         <v>7</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F85" s="1">
         <v>43903</v>
       </c>
-      <c r="G83">
+      <c r="G85">
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>13</v>
       </c>
-      <c r="B84">
+      <c r="B86">
         <v>6391</v>
       </c>
-      <c r="C84">
+      <c r="C86">
         <f t="shared" si="20"/>
         <v>0.22152140672782875</v>
       </c>
-      <c r="D84">
+      <c r="D86">
         <f t="shared" si="19"/>
         <v>3.8055688175485556</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E86" t="s">
         <v>7</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F86" s="1">
         <v>43904</v>
       </c>
-      <c r="G84">
+      <c r="G86">
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>14</v>
       </c>
-      <c r="B85">
+      <c r="B87">
         <v>7988</v>
       </c>
-      <c r="C85">
+      <c r="C87">
         <f t="shared" si="20"/>
         <v>0.24988264747300892</v>
       </c>
-      <c r="D85">
+      <c r="D87">
         <f t="shared" si="19"/>
         <v>3.9024380561986645</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E87" t="s">
         <v>7</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F87" s="1">
         <v>43905</v>
       </c>
-      <c r="G85">
+      <c r="G87">
         <v>294</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>15</v>
       </c>
-      <c r="B86">
+      <c r="B88">
         <v>9942</v>
       </c>
-      <c r="C86">
+      <c r="C88">
         <f t="shared" si="20"/>
         <v>0.24461692538808213</v>
       </c>
-      <c r="D86">
+      <c r="D88">
         <f t="shared" si="19"/>
         <v>3.9974737588029798</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E88" t="s">
         <v>7</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F88" s="1">
         <v>43906</v>
       </c>
-      <c r="G86">
+      <c r="G88">
         <v>342</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>16</v>
       </c>
-      <c r="B87">
+      <c r="B89">
         <v>11826</v>
       </c>
-      <c r="C87">
+      <c r="C89">
         <f t="shared" si="20"/>
         <v>0.18949909474954738</v>
       </c>
-      <c r="D87">
+      <c r="D89">
         <f t="shared" si="19"/>
         <v>4.0728378746630858</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E89" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F89" s="1">
         <v>43907</v>
       </c>
-      <c r="G87">
+      <c r="G89">
         <v>533</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>17</v>
       </c>
-      <c r="B88">
+      <c r="B90">
         <v>14769</v>
       </c>
-      <c r="C88">
+      <c r="C90">
         <f t="shared" si="20"/>
         <v>0.24885844748858446</v>
       </c>
-      <c r="D88">
+      <c r="D90">
         <f t="shared" si="19"/>
         <v>4.1693510904924178</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E90" t="s">
         <v>7</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F90" s="1">
         <v>43908</v>
       </c>
-      <c r="G88">
+      <c r="G90">
         <v>638</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>18</v>
       </c>
-      <c r="B89">
+      <c r="B91">
         <v>18077</v>
       </c>
-      <c r="C89">
+      <c r="C91">
         <f t="shared" si="20"/>
         <v>0.22398266639582909</v>
       </c>
-      <c r="D89">
+      <c r="D91">
         <f t="shared" si="19"/>
         <v>4.2571263580225924</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E91" t="s">
         <v>7</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F91" s="1">
         <v>43909</v>
       </c>
-      <c r="G89">
+      <c r="G91">
         <v>831</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>19</v>
       </c>
-      <c r="B90">
+      <c r="B92">
         <v>21571</v>
       </c>
-      <c r="C90">
+      <c r="C92">
         <f t="shared" si="20"/>
         <v>0.19328428389666427</v>
       </c>
-      <c r="D90">
+      <c r="D92">
         <f t="shared" si="19"/>
         <v>4.3338702788260086</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E92" t="s">
         <v>7</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F92" s="1">
         <v>43910</v>
       </c>
-      <c r="G90">
+      <c r="G92">
         <v>1093</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>20</v>
       </c>
-      <c r="B91">
+      <c r="B93">
         <v>25496</v>
       </c>
-      <c r="C91">
+      <c r="C93">
         <f t="shared" si="20"/>
         <v>0.18195725742895555</v>
       </c>
-      <c r="D91">
+      <c r="D93">
         <f t="shared" si="19"/>
         <v>4.406472050465676</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E93" t="s">
         <v>7</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F93" s="1">
         <v>43911</v>
       </c>
-      <c r="G91">
+      <c r="G93">
         <v>1381</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>21</v>
       </c>
-      <c r="B92">
+      <c r="B94">
         <v>28603</v>
       </c>
-      <c r="C92">
-        <f t="shared" ref="C92:C95" si="21">(B92-B91)/B91</f>
+      <c r="C94">
+        <f t="shared" ref="C94:C97" si="21">(B94-B93)/B93</f>
         <v>0.12186225290241606</v>
       </c>
-      <c r="D92">
-        <f t="shared" ref="D92:D95" si="22">LOG(B92,10)</f>
+      <c r="D94">
+        <f t="shared" ref="D94:D97" si="22">LOG(B94,10)</f>
         <v>4.456411586105177</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E94" t="s">
         <v>7</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F94" s="1">
         <v>43912</v>
       </c>
-      <c r="G92">
+      <c r="G94">
         <v>1756</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>22</v>
       </c>
-      <c r="B93">
+      <c r="B95">
         <v>33089</v>
       </c>
-      <c r="C93">
+      <c r="C95">
         <f t="shared" si="21"/>
         <v>0.15683669545152606</v>
       </c>
-      <c r="D93">
+      <c r="D95">
         <f t="shared" si="22"/>
         <v>4.5196836423171698</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E95" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F95" s="1">
         <v>43913</v>
       </c>
-      <c r="G93">
+      <c r="G95">
         <v>2207</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>23</v>
       </c>
-      <c r="B94">
+      <c r="B96">
         <v>42058</v>
       </c>
-      <c r="C94">
+      <c r="C96">
         <f t="shared" si="21"/>
         <v>0.27105684668620994</v>
       </c>
-      <c r="D94">
+      <c r="D96">
         <f t="shared" si="22"/>
         <v>4.6238486166713759</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E96" t="s">
         <v>7</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F96" s="1">
         <v>43914</v>
       </c>
-      <c r="G94">
+      <c r="G96">
         <v>2991</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>24</v>
       </c>
-      <c r="B95">
+      <c r="B97">
         <v>47611</v>
       </c>
-      <c r="C95">
+      <c r="C97">
         <f t="shared" si="21"/>
         <v>0.1320319558704646</v>
       </c>
-      <c r="D95">
+      <c r="D97">
         <f t="shared" si="22"/>
         <v>4.677707303295997</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E97" t="s">
         <v>7</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F97" s="1">
         <v>43915</v>
       </c>
-      <c r="G95">
+      <c r="G97">
         <v>3445</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>25</v>
       </c>
-      <c r="B96">
+      <c r="B98">
         <v>56347</v>
       </c>
-      <c r="C96">
-        <f>(B96-B95)/B95</f>
+      <c r="C98">
+        <f>(B98-B97)/B97</f>
         <v>0.18348700930457248</v>
       </c>
-      <c r="D96">
-        <f t="shared" ref="D96:D98" si="23">LOG(B96,10)</f>
+      <c r="D98">
+        <f t="shared" ref="D98:D100" si="23">LOG(B98,10)</f>
         <v>4.7508707984987382</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E98" t="s">
         <v>7</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F98" s="1">
         <v>43916</v>
       </c>
-      <c r="G96">
+      <c r="G98">
         <v>4154</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>26</v>
       </c>
-      <c r="B97">
+      <c r="B99">
         <v>65719</v>
       </c>
-      <c r="C97">
-        <f t="shared" ref="C97:C98" si="24">(B97-B96)/B96</f>
+      <c r="C99">
+        <f t="shared" ref="C99:C100" si="24">(B99-B98)/B98</f>
         <v>0.16632651250288391</v>
       </c>
-      <c r="D97">
+      <c r="D99">
         <f t="shared" si="23"/>
         <v>4.8176909464583062</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E99" t="s">
         <v>7</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F99" s="1">
         <v>43917</v>
       </c>
-      <c r="G97">
+      <c r="G99">
         <v>5138</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>27</v>
       </c>
-      <c r="B98">
+      <c r="B100">
         <v>73232</v>
       </c>
-      <c r="C98">
+      <c r="C100">
         <f t="shared" si="24"/>
         <v>0.11432005964789482</v>
       </c>
-      <c r="D98">
+      <c r="D100">
         <f t="shared" si="23"/>
         <v>4.8647008950832236</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E100" t="s">
         <v>7</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F100" s="1">
         <v>43918</v>
       </c>
-      <c r="G98">
+      <c r="G100">
         <v>5982</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>28</v>
       </c>
-      <c r="B99">
+      <c r="B101">
         <v>80110</v>
       </c>
-      <c r="C99">
-        <f>(B99-B98)/B98</f>
+      <c r="C101">
+        <f>(B101-B100)/B100</f>
         <v>9.3920690408564558E-2</v>
       </c>
-      <c r="D99">
-        <f t="shared" ref="D99:D102" si="25">LOG(B99,10)</f>
+      <c r="D101">
+        <f t="shared" ref="D101:D104" si="25">LOG(B101,10)</f>
         <v>4.903686731736502</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E101" t="s">
         <v>7</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F101" s="1">
         <v>43919</v>
       </c>
-      <c r="G99">
+      <c r="G101">
         <v>6803</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>29</v>
       </c>
-      <c r="B100">
+      <c r="B102">
         <v>87956</v>
       </c>
-      <c r="C100">
-        <f t="shared" ref="C100" si="26">(B100-B99)/B99</f>
+      <c r="C102">
+        <f t="shared" ref="C102" si="26">(B102-B101)/B101</f>
         <v>9.794033204344027E-2</v>
       </c>
-      <c r="D100">
+      <c r="D102">
         <f t="shared" si="25"/>
         <v>4.9442654706043037</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E102" t="s">
         <v>7</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F102" s="1">
         <v>43920</v>
       </c>
-      <c r="G100">
+      <c r="G102">
         <v>7716</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>30</v>
       </c>
-      <c r="B101">
+      <c r="B103">
         <v>95923</v>
       </c>
-      <c r="C101">
-        <f>(B101-B100)/B100</f>
+      <c r="C103">
+        <f>(B103-B102)/B102</f>
         <v>9.0579380599390608E-2</v>
       </c>
-      <c r="D101">
+      <c r="D103">
         <f t="shared" si="25"/>
         <v>4.9819227529001289</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E103" t="s">
         <v>7</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F103" s="1">
         <v>43921</v>
       </c>
-      <c r="G101">
+      <c r="G103">
         <v>8464</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>31</v>
       </c>
-      <c r="B102">
+      <c r="B104">
         <v>102179</v>
       </c>
-      <c r="C102">
-        <f t="shared" ref="C102" si="27">(B102-B101)/B101</f>
+      <c r="C104">
+        <f t="shared" ref="C104:C105" si="27">(B104-B103)/B103</f>
         <v>6.5218977721714297E-2</v>
       </c>
-      <c r="D102">
+      <c r="D104">
         <f t="shared" si="25"/>
         <v>5.0093616480369176</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E104" t="s">
         <v>7</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F104" s="1">
         <v>43922</v>
       </c>
-      <c r="G102">
+      <c r="G104">
         <v>9131</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>32</v>
+      </c>
+      <c r="B105">
+        <v>110409</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="27"/>
+        <v>8.0544926061128022E-2</v>
+      </c>
+      <c r="D105">
+        <f t="shared" ref="D105" si="28">LOG(B105,10)</f>
+        <v>5.0430044763916015</v>
+      </c>
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G105">
+        <v>10106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>1</v>
       </c>
-      <c r="B103">
+      <c r="B106">
         <v>151</v>
       </c>
-      <c r="C103">
+      <c r="C106">
         <v>0</v>
       </c>
-      <c r="D103">
+      <c r="D106">
         <f t="shared" si="19"/>
         <v>2.1789769472931693</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E106" t="s">
         <v>5</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F106" s="1">
         <v>43904</v>
       </c>
-      <c r="G103">
+      <c r="G106">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>2</v>
       </c>
-      <c r="B104">
+      <c r="B107">
         <v>200</v>
       </c>
-      <c r="C104">
-        <f t="shared" ref="C104:C154" si="28">(B104-B103)/B103</f>
+      <c r="C107">
+        <f t="shared" ref="C107:C158" si="29">(B107-B106)/B106</f>
         <v>0.32450331125827814</v>
       </c>
-      <c r="D104">
+      <c r="D107">
         <f t="shared" si="19"/>
         <v>2.3010299956639808</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E107" t="s">
         <v>5</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F107" s="1">
         <v>43905</v>
       </c>
-      <c r="G104">
+      <c r="G107">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>3</v>
       </c>
-      <c r="B105">
+      <c r="B108">
         <v>234</v>
       </c>
-      <c r="C105">
-        <f t="shared" si="28"/>
+      <c r="C108">
+        <f t="shared" si="29"/>
         <v>0.17</v>
       </c>
-      <c r="D105">
+      <c r="D108">
         <f t="shared" si="19"/>
         <v>2.3692158574101425</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E108" t="s">
         <v>5</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F108" s="1">
         <v>43906</v>
       </c>
-      <c r="G105">
+      <c r="G108">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>4</v>
       </c>
-      <c r="B106">
+      <c r="B109">
         <v>346</v>
       </c>
-      <c r="C106">
-        <f t="shared" si="28"/>
+      <c r="C109">
+        <f t="shared" si="29"/>
         <v>0.47863247863247865</v>
       </c>
-      <c r="D106">
+      <c r="D109">
         <f t="shared" si="19"/>
         <v>2.5390760987927767</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E109" t="s">
         <v>5</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F109" s="1">
         <v>43907</v>
       </c>
-      <c r="G106">
+      <c r="G109">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>5</v>
       </c>
-      <c r="B107">
+      <c r="B110">
         <v>529</v>
       </c>
-      <c r="C107">
-        <f t="shared" si="28"/>
+      <c r="C110">
+        <f t="shared" si="29"/>
         <v>0.52890173410404628</v>
       </c>
-      <c r="D107">
+      <c r="D110">
         <f t="shared" si="19"/>
         <v>2.7234556720351857</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E110" t="s">
         <v>5</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F110" s="1">
         <v>43908</v>
       </c>
-      <c r="G107">
+      <c r="G110">
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>6</v>
       </c>
-      <c r="B108">
+      <c r="B111">
         <v>640</v>
       </c>
-      <c r="C108">
-        <f t="shared" si="28"/>
+      <c r="C111">
+        <f t="shared" si="29"/>
         <v>0.20982986767485823</v>
       </c>
-      <c r="D108">
+      <c r="D111">
         <f t="shared" si="19"/>
         <v>2.8061799739838866</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E111" t="s">
         <v>5</v>
       </c>
-      <c r="F108" s="1">
+      <c r="F111" s="1">
         <v>43909</v>
       </c>
-      <c r="G108">
+      <c r="G111">
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>7</v>
       </c>
-      <c r="B109">
+      <c r="B112">
         <v>970</v>
       </c>
-      <c r="C109">
-        <f t="shared" si="28"/>
+      <c r="C112">
+        <f t="shared" si="29"/>
         <v>0.515625</v>
       </c>
-      <c r="D109">
+      <c r="D112">
         <f t="shared" si="19"/>
         <v>2.9867717342662448</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E112" t="s">
         <v>5</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F112" s="1">
         <v>43910</v>
       </c>
-      <c r="G109">
+      <c r="G112">
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>8</v>
       </c>
-      <c r="B110">
+      <c r="B113">
         <v>1178</v>
       </c>
-      <c r="C110">
-        <f t="shared" si="28"/>
+      <c r="C113">
+        <f t="shared" si="29"/>
         <v>0.21443298969072164</v>
       </c>
-      <c r="D110">
+      <c r="D113">
         <f t="shared" si="19"/>
         <v>3.0711452904510823</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E113" t="s">
         <v>5</v>
       </c>
-      <c r="F110" s="1">
+      <c r="F113" s="1">
         <v>43911</v>
       </c>
-      <c r="G110">
+      <c r="G113">
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>9</v>
       </c>
-      <c r="B111">
+      <c r="B114">
         <v>1546</v>
       </c>
-      <c r="C111">
-        <f t="shared" si="28"/>
+      <c r="C114">
+        <f t="shared" si="29"/>
         <v>0.31239388794567063</v>
       </c>
-      <c r="D111">
+      <c r="D114">
         <f t="shared" si="19"/>
         <v>3.1892094895823058</v>
       </c>
-      <c r="E111" t="s">
-        <v>5</v>
-      </c>
-      <c r="F111" s="1">
-        <v>43912</v>
-      </c>
-      <c r="G111">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>10</v>
-      </c>
-      <c r="B112">
-        <v>1891</v>
-      </c>
-      <c r="C112">
-        <f t="shared" ref="C112:C115" si="29">(B112-B111)/B111</f>
-        <v>0.22315653298835705</v>
-      </c>
-      <c r="D112">
-        <f t="shared" ref="D112:D115" si="30">LOG(B112,10)</f>
-        <v>3.2766915288450393</v>
-      </c>
-      <c r="E112" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" s="1">
-        <v>43913</v>
-      </c>
-      <c r="G112">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>11</v>
-      </c>
-      <c r="B113">
-        <v>2247</v>
-      </c>
-      <c r="C113">
-        <f t="shared" si="29"/>
-        <v>0.18826017979904813</v>
-      </c>
-      <c r="D113">
-        <f t="shared" si="30"/>
-        <v>3.3516030724191288</v>
-      </c>
-      <c r="E113" t="s">
-        <v>5</v>
-      </c>
-      <c r="F113" s="1">
-        <v>43914</v>
-      </c>
-      <c r="G113">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>12</v>
-      </c>
-      <c r="B114">
-        <v>2433</v>
-      </c>
-      <c r="C114">
-        <f t="shared" si="29"/>
-        <v>8.2777036048064079E-2</v>
-      </c>
-      <c r="D114">
-        <f t="shared" si="30"/>
-        <v>3.3861421089308181</v>
-      </c>
       <c r="E114" t="s">
         <v>5</v>
       </c>
       <c r="F114" s="1">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="G114">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B115">
-        <v>2915</v>
+        <v>1891</v>
       </c>
       <c r="C115">
-        <f t="shared" si="29"/>
-        <v>0.19810933004521167</v>
+        <f t="shared" ref="C115:C118" si="30">(B115-B114)/B114</f>
+        <v>0.22315653298835705</v>
       </c>
       <c r="D115">
-        <f t="shared" si="30"/>
-        <v>3.4646385590950324</v>
+        <f t="shared" ref="D115:D118" si="31">LOG(B115,10)</f>
+        <v>3.2766915288450393</v>
       </c>
       <c r="E115" t="s">
         <v>5</v>
       </c>
       <c r="F115" s="1">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="G115">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B116">
-        <v>3417</v>
+        <v>2247</v>
       </c>
       <c r="C116">
-        <f t="shared" ref="C116:C117" si="31">(B116-B115)/B115</f>
-        <v>0.17221269296740996</v>
+        <f t="shared" si="30"/>
+        <v>0.18826017979904813</v>
       </c>
       <c r="D116">
-        <f t="shared" ref="D116:D117" si="32">LOG(B116,10)</f>
-        <v>3.5336449787987623</v>
+        <f t="shared" si="31"/>
+        <v>3.3516030724191288</v>
       </c>
       <c r="E116" t="s">
         <v>5</v>
       </c>
       <c r="F116" s="1">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="G116">
-        <v>92</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B117">
-        <v>3904</v>
+        <v>2433</v>
       </c>
       <c r="C117">
+        <f t="shared" si="30"/>
+        <v>8.2777036048064079E-2</v>
+      </c>
+      <c r="D117">
         <f t="shared" si="31"/>
-        <v>0.14252268071407667</v>
-      </c>
-      <c r="D117">
-        <f t="shared" si="32"/>
-        <v>3.5915098089946538</v>
+        <v>3.3861421089308181</v>
       </c>
       <c r="E117" t="s">
         <v>5</v>
       </c>
       <c r="F117" s="1">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="G117">
-        <v>114</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B118">
-        <v>4256</v>
+        <v>2915</v>
       </c>
       <c r="C118">
-        <f t="shared" ref="C118:C121" si="33">(B118-B117)/B117</f>
-        <v>9.0163934426229511E-2</v>
+        <f t="shared" si="30"/>
+        <v>0.19810933004521167</v>
       </c>
       <c r="D118">
-        <f t="shared" ref="D118:D121" si="34">LOG(B118,10)</f>
-        <v>3.6290016192869916</v>
+        <f t="shared" si="31"/>
+        <v>3.4646385590950324</v>
       </c>
       <c r="E118" t="s">
         <v>5</v>
       </c>
       <c r="F118" s="1">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="G118">
-        <v>136</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B119">
-        <v>4579</v>
+        <v>3417</v>
       </c>
       <c r="C119">
-        <f t="shared" si="33"/>
-        <v>7.5892857142857137E-2</v>
+        <f t="shared" ref="C119:C120" si="32">(B119-B118)/B118</f>
+        <v>0.17221269296740996</v>
       </c>
       <c r="D119">
-        <f t="shared" si="34"/>
-        <v>3.6607706435276968</v>
+        <f t="shared" ref="D119:D120" si="33">LOG(B119,10)</f>
+        <v>3.5336449787987623</v>
       </c>
       <c r="E119" t="s">
         <v>5</v>
       </c>
       <c r="F119" s="1">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="G119">
-        <v>159</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B120">
-        <v>5717</v>
+        <v>3904</v>
       </c>
       <c r="C120">
+        <f t="shared" si="32"/>
+        <v>0.14252268071407667</v>
+      </c>
+      <c r="D120">
         <f t="shared" si="33"/>
-        <v>0.24852587901288492</v>
-      </c>
-      <c r="D120">
-        <f t="shared" si="34"/>
-        <v>3.7571681922142726</v>
+        <v>3.5915098089946538</v>
       </c>
       <c r="E120" t="s">
         <v>5</v>
       </c>
       <c r="F120" s="1">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="G120">
-        <v>201</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B121">
-        <v>6836</v>
+        <v>4256</v>
       </c>
       <c r="C121">
-        <f t="shared" si="33"/>
-        <v>0.19573202728703865</v>
+        <f t="shared" ref="C121:C125" si="34">(B121-B120)/B120</f>
+        <v>9.0163934426229511E-2</v>
       </c>
       <c r="D121">
-        <f t="shared" si="34"/>
-        <v>3.8348020540486991</v>
+        <f t="shared" ref="D121:D125" si="35">LOG(B121,10)</f>
+        <v>3.6290016192869916</v>
       </c>
       <c r="E121" t="s">
         <v>5</v>
       </c>
       <c r="F121" s="1">
-        <v>43922</v>
+        <v>43919</v>
       </c>
       <c r="G121">
-        <v>240</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
+        <v>17</v>
+      </c>
+      <c r="B122">
+        <v>4579</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="34"/>
+        <v>7.5892857142857137E-2</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="35"/>
+        <v>3.6607706435276968</v>
+      </c>
+      <c r="E122" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G122">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>18</v>
+      </c>
+      <c r="B123">
+        <v>5717</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="34"/>
+        <v>0.24852587901288492</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="35"/>
+        <v>3.7571681922142726</v>
+      </c>
+      <c r="E123" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G123">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>19</v>
+      </c>
+      <c r="B124">
+        <v>6836</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="34"/>
+        <v>0.19573202728703865</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="35"/>
+        <v>3.8348020540486991</v>
+      </c>
+      <c r="E124" t="s">
+        <v>5</v>
+      </c>
+      <c r="F124" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G124">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>20</v>
+      </c>
+      <c r="B125">
+        <v>7910</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="34"/>
+        <v>0.15710942071386777</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="35"/>
+        <v>3.898176483497676</v>
+      </c>
+      <c r="E125" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G125">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>1</v>
       </c>
-      <c r="B122">
+      <c r="B126">
         <v>139</v>
       </c>
-      <c r="C122">
+      <c r="C126">
         <v>0</v>
       </c>
-      <c r="D122">
+      <c r="D126">
         <f t="shared" si="19"/>
         <v>2.143014800254095</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E126" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>2</v>
       </c>
-      <c r="B123">
+      <c r="B127">
         <v>245</v>
       </c>
-      <c r="C123">
-        <f t="shared" si="28"/>
+      <c r="C127">
+        <f t="shared" si="29"/>
         <v>0.76258992805755399</v>
       </c>
-      <c r="D123">
+      <c r="D127">
         <f t="shared" si="19"/>
         <v>2.3891660843645326</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E127" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>3</v>
       </c>
-      <c r="B124">
+      <c r="B128">
         <v>388</v>
       </c>
-      <c r="C124">
-        <f t="shared" si="28"/>
+      <c r="C128">
+        <f t="shared" si="29"/>
         <v>0.58367346938775511</v>
       </c>
-      <c r="D124">
+      <c r="D128">
         <f t="shared" si="19"/>
         <v>2.5888317255942073</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E128" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>4</v>
       </c>
-      <c r="B125">
+      <c r="B129">
         <v>593</v>
       </c>
-      <c r="C125">
-        <f t="shared" si="28"/>
+      <c r="C129">
+        <f t="shared" si="29"/>
         <v>0.52835051546391754</v>
       </c>
-      <c r="D125">
+      <c r="D129">
         <f t="shared" si="19"/>
         <v>2.7730546933642626</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E129" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>5</v>
       </c>
-      <c r="B126">
+      <c r="B130">
         <v>978</v>
       </c>
-      <c r="C126">
-        <f t="shared" si="28"/>
+      <c r="C130">
+        <f t="shared" si="29"/>
         <v>0.6492411467116358</v>
       </c>
-      <c r="D126">
+      <c r="D130">
         <f t="shared" si="19"/>
         <v>2.9903388547876015</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E130" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>6</v>
       </c>
-      <c r="B127">
+      <c r="B131">
         <v>1501</v>
       </c>
-      <c r="C127">
-        <f t="shared" si="28"/>
+      <c r="C131">
+        <f t="shared" si="29"/>
         <v>0.53476482617586907</v>
       </c>
-      <c r="D127">
+      <c r="D131">
         <f t="shared" si="19"/>
         <v>3.1763806922432698</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E131" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>7</v>
       </c>
-      <c r="B128">
+      <c r="B132">
         <v>2336</v>
       </c>
-      <c r="C128">
-        <f t="shared" si="28"/>
+      <c r="C132">
+        <f t="shared" si="29"/>
         <v>0.55629580279813462</v>
       </c>
-      <c r="D128">
+      <c r="D132">
         <f t="shared" si="19"/>
         <v>3.3684728384403617</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E132" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>8</v>
       </c>
-      <c r="B129">
+      <c r="B133">
         <v>2922</v>
       </c>
-      <c r="C129">
-        <f t="shared" si="28"/>
+      <c r="C133">
+        <f t="shared" si="29"/>
         <v>0.25085616438356162</v>
       </c>
-      <c r="D129">
+      <c r="D133">
         <f t="shared" si="19"/>
         <v>3.4656802115982779</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E133" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>9</v>
       </c>
-      <c r="B130">
+      <c r="B134">
         <v>3513</v>
       </c>
-      <c r="C130">
-        <f t="shared" si="28"/>
+      <c r="C134">
+        <f t="shared" si="29"/>
         <v>0.20225872689938398</v>
       </c>
-      <c r="D130">
+      <c r="D134">
         <f t="shared" si="19"/>
         <v>3.5456781497920251</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E134" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>10</v>
       </c>
-      <c r="B131">
+      <c r="B135">
         <v>4747</v>
       </c>
-      <c r="C131">
-        <f t="shared" si="28"/>
+      <c r="C135">
+        <f t="shared" si="29"/>
         <v>0.35126672359806432</v>
       </c>
-      <c r="D131">
+      <c r="D135">
         <f t="shared" si="19"/>
         <v>3.6764192317183597</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E135" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>11</v>
       </c>
-      <c r="B132">
+      <c r="B136">
         <v>5823</v>
       </c>
-      <c r="C132">
-        <f t="shared" si="28"/>
+      <c r="C136">
+        <f t="shared" si="29"/>
         <v>0.22666947545818411</v>
       </c>
-      <c r="D132">
+      <c r="D136">
         <f t="shared" si="19"/>
         <v>3.7651467901080249</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E136" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>12</v>
       </c>
-      <c r="B133">
+      <c r="B137">
         <v>6566</v>
       </c>
-      <c r="C133">
-        <f t="shared" si="28"/>
+      <c r="C137">
+        <f t="shared" si="29"/>
         <v>0.12759745835479994</v>
       </c>
-      <c r="D133">
+      <c r="D137">
         <f t="shared" si="19"/>
         <v>3.8173008783933207</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E137" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>13</v>
       </c>
-      <c r="B134">
+      <c r="B138">
         <v>7161</v>
       </c>
-      <c r="C134">
-        <f t="shared" si="28"/>
+      <c r="C138">
+        <f t="shared" si="29"/>
         <v>9.0618336886993597E-2</v>
       </c>
-      <c r="D134">
+      <c r="D138">
         <f t="shared" si="19"/>
         <v>3.8549736737264171</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E138" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>14</v>
       </c>
-      <c r="B135">
+      <c r="B139">
         <v>8042</v>
       </c>
-      <c r="C135">
-        <f t="shared" si="28"/>
+      <c r="C139">
+        <f t="shared" si="29"/>
         <v>0.12302751012428431</v>
       </c>
-      <c r="D135">
+      <c r="D139">
         <f t="shared" si="19"/>
         <v>3.9053640687668914</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E139" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>15</v>
       </c>
-      <c r="B136">
+      <c r="B140">
         <v>9000</v>
       </c>
-      <c r="C136">
-        <f t="shared" si="28"/>
+      <c r="C140">
+        <f t="shared" si="29"/>
         <v>0.11912459587167372</v>
       </c>
-      <c r="D136">
+      <c r="D140">
         <f t="shared" si="19"/>
         <v>3.9542425094393248</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E140" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>16</v>
       </c>
-      <c r="B137">
+      <c r="B141">
         <v>10075</v>
       </c>
-      <c r="C137">
-        <f t="shared" si="28"/>
+      <c r="C141">
+        <f t="shared" si="29"/>
         <v>0.11944444444444445</v>
       </c>
-      <c r="D137">
+      <c r="D141">
         <f t="shared" si="19"/>
         <v>4.0032450548131466</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E141" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>17</v>
       </c>
-      <c r="B138">
+      <c r="B142">
         <v>11364</v>
       </c>
-      <c r="C138">
-        <f t="shared" si="28"/>
+      <c r="C142">
+        <f t="shared" si="29"/>
         <v>0.12794044665012408</v>
       </c>
-      <c r="D138">
+      <c r="D142">
         <f t="shared" si="19"/>
         <v>4.0555312250508981</v>
       </c>
-      <c r="E138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>18</v>
-      </c>
-      <c r="B139">
-        <v>12729</v>
-      </c>
-      <c r="C139">
-        <f t="shared" si="28"/>
-        <v>0.12011615628299895</v>
-      </c>
-      <c r="D139">
-        <f t="shared" ref="D139:D196" si="35">LOG(B139,10)</f>
-        <v>4.1047942864862774</v>
-      </c>
-      <c r="E139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>19</v>
-      </c>
-      <c r="B140">
-        <v>13938</v>
-      </c>
-      <c r="C140">
-        <f t="shared" si="28"/>
-        <v>9.4979967004477958E-2</v>
-      </c>
-      <c r="D140">
-        <f t="shared" si="35"/>
-        <v>4.1442004601838791</v>
-      </c>
-      <c r="E140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>20</v>
-      </c>
-      <c r="B141">
-        <v>14991</v>
-      </c>
-      <c r="C141">
-        <f t="shared" si="28"/>
-        <v>7.554885923374946E-2</v>
-      </c>
-      <c r="D141">
-        <f t="shared" si="35"/>
-        <v>4.1758306041622486</v>
-      </c>
-      <c r="E141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>21</v>
-      </c>
-      <c r="B142">
-        <v>16169</v>
-      </c>
-      <c r="C142">
-        <f t="shared" si="28"/>
-        <v>7.8580481622306714E-2</v>
-      </c>
-      <c r="D142">
-        <f t="shared" si="35"/>
-        <v>4.208683161037416</v>
-      </c>
       <c r="E142" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B143">
-        <v>17361</v>
+        <v>12729</v>
       </c>
       <c r="C143">
-        <f t="shared" si="28"/>
-        <v>7.372131857257716E-2</v>
+        <f t="shared" si="29"/>
+        <v>0.12011615628299895</v>
       </c>
       <c r="D143">
-        <f t="shared" si="35"/>
-        <v>4.2395747370832089</v>
+        <f t="shared" ref="D143:D201" si="36">LOG(B143,10)</f>
+        <v>4.1047942864862774</v>
       </c>
       <c r="E143" t="s">
         <v>8</v>
@@ -17855,18 +19735,18 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B144">
-        <v>18407</v>
+        <v>13938</v>
       </c>
       <c r="C144">
-        <f t="shared" si="28"/>
-        <v>6.0249985599907838E-2</v>
+        <f t="shared" si="29"/>
+        <v>9.4979967004477958E-2</v>
       </c>
       <c r="D144">
-        <f t="shared" si="35"/>
-        <v>4.2649830123164598</v>
+        <f t="shared" si="36"/>
+        <v>4.1442004601838791</v>
       </c>
       <c r="E144" t="s">
         <v>8</v>
@@ -17874,18 +19754,18 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B145">
-        <v>19644</v>
+        <v>14991</v>
       </c>
       <c r="C145">
-        <f t="shared" si="28"/>
-        <v>6.7202694627044063E-2</v>
+        <f t="shared" si="29"/>
+        <v>7.554885923374946E-2</v>
       </c>
       <c r="D145">
-        <f t="shared" si="35"/>
-        <v>4.2932299254595661</v>
+        <f t="shared" si="36"/>
+        <v>4.1758306041622486</v>
       </c>
       <c r="E145" t="s">
         <v>8</v>
@@ -17893,18 +19773,18 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B146">
-        <v>21638</v>
+        <v>16169</v>
       </c>
       <c r="C146">
-        <f t="shared" ref="C146" si="36">(B146-B145)/B145</f>
-        <v>0.10150682142129912</v>
+        <f t="shared" si="29"/>
+        <v>7.8580481622306714E-2</v>
       </c>
       <c r="D146">
-        <f t="shared" ref="D146" si="37">LOG(B146,10)</f>
-        <v>4.335217116457434</v>
+        <f t="shared" si="36"/>
+        <v>4.208683161037416</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
@@ -17912,1039 +19792,1045 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B147">
-        <v>116</v>
+        <v>17361</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>7.372131857257716E-2</v>
       </c>
       <c r="D147">
-        <f t="shared" si="35"/>
-        <v>2.0644579892269181</v>
+        <f t="shared" si="36"/>
+        <v>4.2395747370832089</v>
       </c>
       <c r="E147" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" s="1">
-        <v>43895</v>
-      </c>
-      <c r="G147">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B148">
-        <v>164</v>
+        <v>18407</v>
       </c>
       <c r="C148">
-        <f t="shared" si="28"/>
-        <v>0.41379310344827586</v>
+        <f t="shared" si="29"/>
+        <v>6.0249985599907838E-2</v>
       </c>
       <c r="D148">
-        <f t="shared" si="35"/>
-        <v>2.214843848047698</v>
+        <f t="shared" si="36"/>
+        <v>4.2649830123164598</v>
       </c>
       <c r="E148" t="s">
-        <v>9</v>
-      </c>
-      <c r="F148" s="1">
-        <v>43896</v>
-      </c>
-      <c r="G148">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B149">
-        <v>209</v>
+        <v>19644</v>
       </c>
       <c r="C149">
-        <f t="shared" si="28"/>
-        <v>0.27439024390243905</v>
+        <f t="shared" si="29"/>
+        <v>6.7202694627044063E-2</v>
       </c>
       <c r="D149">
-        <f t="shared" si="35"/>
-        <v>2.3201462861110538</v>
+        <f t="shared" si="36"/>
+        <v>4.2932299254595661</v>
       </c>
       <c r="E149" t="s">
-        <v>9</v>
-      </c>
-      <c r="F149" s="1">
-        <v>43897</v>
-      </c>
-      <c r="G149">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B150">
-        <v>278</v>
+        <v>21638</v>
       </c>
       <c r="C150">
-        <f t="shared" si="28"/>
-        <v>0.33014354066985646</v>
+        <f t="shared" ref="C150" si="37">(B150-B149)/B149</f>
+        <v>0.10150682142129912</v>
       </c>
       <c r="D150">
-        <f t="shared" si="35"/>
-        <v>2.4440447959180758</v>
+        <f t="shared" ref="D150" si="38">LOG(B150,10)</f>
+        <v>4.335217116457434</v>
       </c>
       <c r="E150" t="s">
-        <v>9</v>
-      </c>
-      <c r="F150" s="1">
-        <v>43898</v>
-      </c>
-      <c r="G150">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B151">
-        <v>321</v>
+        <v>116</v>
       </c>
       <c r="C151">
-        <f t="shared" si="28"/>
-        <v>0.15467625899280577</v>
+        <v>0</v>
       </c>
       <c r="D151">
-        <f t="shared" si="35"/>
-        <v>2.5065050324048719</v>
+        <f t="shared" si="36"/>
+        <v>2.0644579892269181</v>
       </c>
       <c r="E151" t="s">
         <v>9</v>
       </c>
       <c r="F151" s="1">
-        <v>43899</v>
+        <v>43895</v>
       </c>
       <c r="G151">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B152">
-        <v>383</v>
+        <v>164</v>
       </c>
       <c r="C152">
-        <f t="shared" si="28"/>
-        <v>0.19314641744548286</v>
+        <f t="shared" si="29"/>
+        <v>0.41379310344827586</v>
       </c>
       <c r="D152">
-        <f t="shared" si="35"/>
-        <v>2.5831987739686224</v>
+        <f t="shared" si="36"/>
+        <v>2.214843848047698</v>
       </c>
       <c r="E152" t="s">
         <v>9</v>
       </c>
       <c r="F152" s="1">
-        <v>43900</v>
+        <v>43896</v>
       </c>
       <c r="G152">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B153">
-        <v>460</v>
+        <v>209</v>
       </c>
       <c r="C153">
-        <f t="shared" si="28"/>
-        <v>0.20104438642297651</v>
+        <f t="shared" si="29"/>
+        <v>0.27439024390243905</v>
       </c>
       <c r="D153">
-        <f t="shared" si="35"/>
-        <v>2.6627578316815739</v>
+        <f t="shared" si="36"/>
+        <v>2.3201462861110538</v>
       </c>
       <c r="E153" t="s">
         <v>9</v>
       </c>
       <c r="F153" s="1">
-        <v>43901</v>
+        <v>43897</v>
       </c>
       <c r="G153">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B154">
-        <v>590</v>
+        <v>278</v>
       </c>
       <c r="C154">
-        <f t="shared" si="28"/>
-        <v>0.28260869565217389</v>
+        <f t="shared" si="29"/>
+        <v>0.33014354066985646</v>
       </c>
       <c r="D154">
-        <f t="shared" si="35"/>
-        <v>2.7708520116421438</v>
+        <f t="shared" si="36"/>
+        <v>2.4440447959180758</v>
       </c>
       <c r="E154" t="s">
         <v>9</v>
       </c>
       <c r="F154" s="1">
-        <v>43902</v>
+        <v>43898</v>
       </c>
       <c r="G154">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B155">
-        <v>798</v>
+        <v>321</v>
       </c>
       <c r="C155">
-        <f t="shared" ref="C155:C196" si="38">(B155-B154)/B154</f>
-        <v>0.35254237288135593</v>
+        <f t="shared" si="29"/>
+        <v>0.15467625899280577</v>
       </c>
       <c r="D155">
-        <f t="shared" si="35"/>
-        <v>2.9020028913507292</v>
+        <f t="shared" si="36"/>
+        <v>2.5065050324048719</v>
       </c>
       <c r="E155" t="s">
         <v>9</v>
       </c>
       <c r="F155" s="1">
-        <v>43903</v>
+        <v>43899</v>
       </c>
       <c r="G155">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B156">
-        <v>1140</v>
+        <v>383</v>
       </c>
       <c r="C156">
-        <f t="shared" si="38"/>
-        <v>0.42857142857142855</v>
+        <f t="shared" si="29"/>
+        <v>0.19314641744548286</v>
       </c>
       <c r="D156">
-        <f t="shared" si="35"/>
-        <v>3.0569048513364723</v>
+        <f t="shared" si="36"/>
+        <v>2.5831987739686224</v>
       </c>
       <c r="E156" t="s">
         <v>9</v>
       </c>
       <c r="F156" s="1">
-        <v>43904</v>
+        <v>43900</v>
       </c>
       <c r="G156">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B157">
-        <v>1391</v>
+        <v>460</v>
       </c>
       <c r="C157">
-        <f t="shared" si="38"/>
-        <v>0.22017543859649122</v>
+        <f t="shared" si="29"/>
+        <v>0.20104438642297651</v>
       </c>
       <c r="D157">
-        <f t="shared" si="35"/>
-        <v>3.1433271299920462</v>
+        <f t="shared" si="36"/>
+        <v>2.6627578316815739</v>
       </c>
       <c r="E157" t="s">
         <v>9</v>
       </c>
       <c r="F157" s="1">
-        <v>43905</v>
+        <v>43901</v>
       </c>
       <c r="G157">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B158">
-        <v>1543</v>
+        <v>590</v>
       </c>
       <c r="C158">
-        <f t="shared" si="38"/>
-        <v>0.10927390366642703</v>
+        <f t="shared" si="29"/>
+        <v>0.28260869565217389</v>
       </c>
       <c r="D158">
-        <f t="shared" si="35"/>
-        <v>3.1883659260631481</v>
+        <f t="shared" si="36"/>
+        <v>2.7708520116421438</v>
       </c>
       <c r="E158" t="s">
         <v>9</v>
       </c>
       <c r="F158" s="1">
-        <v>43906</v>
+        <v>43902</v>
       </c>
       <c r="G158">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B159">
-        <v>1950</v>
+        <v>798</v>
       </c>
       <c r="C159">
-        <f t="shared" si="38"/>
-        <v>0.26377187297472454</v>
+        <f t="shared" ref="C159:C201" si="39">(B159-B158)/B158</f>
+        <v>0.35254237288135593</v>
       </c>
       <c r="D159">
-        <f t="shared" si="35"/>
-        <v>3.2900346113625178</v>
+        <f t="shared" si="36"/>
+        <v>2.9020028913507292</v>
       </c>
       <c r="E159" t="s">
         <v>9</v>
       </c>
       <c r="F159" s="1">
-        <v>43907</v>
+        <v>43903</v>
       </c>
       <c r="G159">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B160">
-        <v>2626</v>
+        <v>1140</v>
       </c>
       <c r="C160">
-        <f t="shared" si="38"/>
-        <v>0.34666666666666668</v>
+        <f t="shared" si="39"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="D160">
-        <f t="shared" si="35"/>
-        <v>3.4192947217534599</v>
+        <f t="shared" si="36"/>
+        <v>3.0569048513364723</v>
       </c>
       <c r="E160" t="s">
         <v>9</v>
       </c>
       <c r="F160" s="1">
-        <v>43908</v>
+        <v>43904</v>
       </c>
       <c r="G160">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B161">
-        <v>3269</v>
+        <v>1391</v>
       </c>
       <c r="C161">
-        <f t="shared" si="38"/>
-        <v>0.24485910129474486</v>
+        <f t="shared" si="39"/>
+        <v>0.22017543859649122</v>
       </c>
       <c r="D161">
-        <f t="shared" si="35"/>
-        <v>3.5144149205803688</v>
+        <f t="shared" si="36"/>
+        <v>3.1433271299920462</v>
       </c>
       <c r="E161" t="s">
         <v>9</v>
       </c>
       <c r="F161" s="1">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="G161">
-        <v>144</v>
+        <v>35</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B162">
-        <v>3983</v>
+        <v>1543</v>
       </c>
       <c r="C162">
-        <f t="shared" si="38"/>
-        <v>0.21841541755888652</v>
+        <f t="shared" si="39"/>
+        <v>0.10927390366642703</v>
       </c>
       <c r="D162">
-        <f t="shared" si="35"/>
-        <v>3.6002103064093274</v>
+        <f t="shared" si="36"/>
+        <v>3.1883659260631481</v>
       </c>
       <c r="E162" t="s">
         <v>9</v>
       </c>
       <c r="F162" s="1">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="G162">
-        <v>177</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B163">
-        <v>5018</v>
+        <v>1950</v>
       </c>
       <c r="C163">
-        <f t="shared" si="38"/>
-        <v>0.25985438111975895</v>
+        <f t="shared" si="39"/>
+        <v>0.26377187297472454</v>
       </c>
       <c r="D163">
-        <f t="shared" si="35"/>
-        <v>3.7005306569785912</v>
+        <f t="shared" si="36"/>
+        <v>3.2900346113625178</v>
       </c>
       <c r="E163" t="s">
         <v>9</v>
       </c>
       <c r="F163" s="1">
-        <v>43911</v>
+        <v>43907</v>
       </c>
       <c r="G163">
-        <v>233</v>
+        <v>71</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B164">
-        <v>5683</v>
+        <v>2626</v>
       </c>
       <c r="C164">
-        <f t="shared" si="38"/>
-        <v>0.13252291749701076</v>
+        <f t="shared" si="39"/>
+        <v>0.34666666666666668</v>
       </c>
       <c r="D164">
-        <f t="shared" si="35"/>
-        <v>3.7545776560447299</v>
+        <f t="shared" si="36"/>
+        <v>3.4192947217534599</v>
       </c>
       <c r="E164" t="s">
         <v>9</v>
       </c>
       <c r="F164" s="1">
-        <v>43912</v>
+        <v>43908</v>
       </c>
       <c r="G164">
-        <v>281</v>
+        <v>104</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B165">
-        <v>6650</v>
+        <v>3269</v>
       </c>
       <c r="C165">
-        <f t="shared" si="38"/>
-        <v>0.17015660742565547</v>
+        <f t="shared" si="39"/>
+        <v>0.24485910129474486</v>
       </c>
       <c r="D165">
-        <f t="shared" si="35"/>
-        <v>3.8228216453031045</v>
+        <f t="shared" si="36"/>
+        <v>3.5144149205803688</v>
       </c>
       <c r="E165" t="s">
         <v>9</v>
       </c>
       <c r="F165" s="1">
-        <v>43913</v>
+        <v>43909</v>
       </c>
       <c r="G165">
-        <v>335</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B166">
-        <v>8077</v>
+        <v>3983</v>
       </c>
       <c r="C166">
-        <f t="shared" si="38"/>
-        <v>0.21458646616541355</v>
+        <f t="shared" si="39"/>
+        <v>0.21841541755888652</v>
       </c>
       <c r="D166">
-        <f t="shared" si="35"/>
-        <v>3.9072500828813279</v>
+        <f t="shared" si="36"/>
+        <v>3.6002103064093274</v>
       </c>
       <c r="E166" t="s">
         <v>9</v>
       </c>
       <c r="F166" s="1">
-        <v>43914</v>
+        <v>43910</v>
       </c>
       <c r="G166">
-        <v>422</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B167">
-        <v>9529</v>
+        <v>5018</v>
       </c>
       <c r="C167">
-        <f t="shared" si="38"/>
-        <v>0.17976971647889067</v>
+        <f t="shared" si="39"/>
+        <v>0.25985438111975895</v>
       </c>
       <c r="D167">
-        <f t="shared" si="35"/>
-        <v>3.9790473269479643</v>
+        <f t="shared" si="36"/>
+        <v>3.7005306569785912</v>
       </c>
       <c r="E167" t="s">
         <v>9</v>
       </c>
       <c r="F167" s="1">
-        <v>43915</v>
+        <v>43911</v>
       </c>
       <c r="G167">
-        <v>463</v>
+        <v>233</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B168">
-        <v>11658</v>
+        <v>5683</v>
       </c>
       <c r="C168">
-        <f t="shared" si="38"/>
-        <v>0.22342323433728617</v>
+        <f t="shared" si="39"/>
+        <v>0.13252291749701076</v>
       </c>
       <c r="D168">
-        <f t="shared" si="35"/>
-        <v>4.0666240509834264</v>
+        <f t="shared" si="36"/>
+        <v>3.7545776560447299</v>
       </c>
       <c r="E168" t="s">
         <v>9</v>
       </c>
       <c r="F168" s="1">
-        <v>43916</v>
+        <v>43912</v>
       </c>
       <c r="G168">
-        <v>578</v>
+        <v>281</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B169">
-        <v>14543</v>
+        <v>6650</v>
       </c>
       <c r="C169">
-        <f t="shared" si="38"/>
-        <v>0.24746954880768571</v>
+        <f t="shared" si="39"/>
+        <v>0.17015660742565547</v>
       </c>
       <c r="D169">
-        <f t="shared" si="35"/>
-        <v>4.1626540041195756</v>
+        <f t="shared" si="36"/>
+        <v>3.8228216453031045</v>
       </c>
       <c r="E169" t="s">
         <v>9</v>
       </c>
       <c r="F169" s="1">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="G169">
-        <v>759</v>
+        <v>335</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B170">
-        <v>17089</v>
+        <v>8077</v>
       </c>
       <c r="C170">
-        <f t="shared" si="38"/>
-        <v>0.17506704256343258</v>
+        <f t="shared" si="39"/>
+        <v>0.21458646616541355</v>
       </c>
       <c r="D170">
-        <f t="shared" si="35"/>
-        <v>4.2327166497781681</v>
+        <f t="shared" si="36"/>
+        <v>3.9072500828813279</v>
       </c>
       <c r="E170" t="s">
         <v>9</v>
       </c>
       <c r="F170" s="1">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="G170">
-        <v>1019</v>
+        <v>422</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B171">
-        <v>19522</v>
+        <v>9529</v>
       </c>
       <c r="C171">
-        <f t="shared" si="38"/>
-        <v>0.14237228626601908</v>
+        <f t="shared" si="39"/>
+        <v>0.17976971647889067</v>
       </c>
       <c r="D171">
-        <f t="shared" si="35"/>
-        <v>4.29052430843669</v>
+        <f t="shared" si="36"/>
+        <v>3.9790473269479643</v>
       </c>
       <c r="E171" t="s">
         <v>9</v>
       </c>
       <c r="F171" s="1">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="G171">
-        <v>1228</v>
+        <v>463</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B172">
-        <v>22141</v>
+        <v>11658</v>
       </c>
       <c r="C172">
-        <f t="shared" si="38"/>
-        <v>0.13415633644093844</v>
+        <f t="shared" si="39"/>
+        <v>0.22342323433728617</v>
       </c>
       <c r="D172">
-        <f t="shared" si="35"/>
-        <v>4.345197231929979</v>
+        <f t="shared" si="36"/>
+        <v>4.0666240509834264</v>
       </c>
       <c r="E172" t="s">
         <v>9</v>
       </c>
       <c r="F172" s="1">
-        <v>43920</v>
+        <v>43916</v>
       </c>
       <c r="G172">
-        <v>1408</v>
+        <v>578</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B173">
-        <v>25150</v>
+        <v>14543</v>
       </c>
       <c r="C173">
-        <f t="shared" si="38"/>
-        <v>0.13590172078948556</v>
+        <f t="shared" si="39"/>
+        <v>0.24746954880768571</v>
       </c>
       <c r="D173">
-        <f t="shared" si="35"/>
-        <v>4.4005379893919452</v>
+        <f t="shared" si="36"/>
+        <v>4.1626540041195756</v>
       </c>
       <c r="E173" t="s">
         <v>9</v>
       </c>
       <c r="F173" s="1">
-        <v>43921</v>
+        <v>43917</v>
       </c>
       <c r="G173">
-        <v>1789</v>
+        <v>759</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B174">
-        <v>29474</v>
+        <v>17089</v>
       </c>
       <c r="C174">
-        <f t="shared" ref="C174" si="39">(B174-B173)/B173</f>
-        <v>0.17192842942345923</v>
+        <f t="shared" si="39"/>
+        <v>0.17506704256343258</v>
       </c>
       <c r="D174">
-        <f t="shared" ref="D174" si="40">LOG(B174,10)</f>
-        <v>4.4694390791836067</v>
+        <f t="shared" si="36"/>
+        <v>4.2327166497781681</v>
       </c>
       <c r="E174" t="s">
         <v>9</v>
       </c>
       <c r="F174" s="1">
-        <v>43922</v>
+        <v>43918</v>
       </c>
       <c r="G174">
-        <v>2352</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B175">
-        <v>100</v>
+        <v>19522</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>0.14237228626601908</v>
       </c>
       <c r="D175">
-        <f t="shared" si="35"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>4.29052430843669</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F175" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G175">
+        <v>1228</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
+        <v>26</v>
+      </c>
+      <c r="B176">
+        <v>22141</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="39"/>
+        <v>0.13415633644093844</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="36"/>
+        <v>4.345197231929979</v>
+      </c>
+      <c r="E176" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G176">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>27</v>
+      </c>
+      <c r="B177">
+        <v>25150</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="39"/>
+        <v>0.13590172078948556</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="36"/>
+        <v>4.4005379893919452</v>
+      </c>
+      <c r="E177" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G177">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>28</v>
+      </c>
+      <c r="B178">
+        <v>29474</v>
+      </c>
+      <c r="C178">
+        <f t="shared" ref="C178:C179" si="40">(B178-B177)/B177</f>
+        <v>0.17192842942345923</v>
+      </c>
+      <c r="D178">
+        <f t="shared" ref="D178:D179" si="41">LOG(B178,10)</f>
+        <v>4.4694390791836067</v>
+      </c>
+      <c r="E178" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G178">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>29</v>
+      </c>
+      <c r="B179">
+        <v>33718</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="40"/>
+        <v>0.14399131437877452</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="41"/>
+        <v>4.5278618063227016</v>
+      </c>
+      <c r="E179" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G179">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180">
+        <v>100</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="36"/>
         <v>2</v>
-      </c>
-      <c r="B176">
-        <v>130</v>
-      </c>
-      <c r="C176">
-        <f t="shared" si="38"/>
-        <v>0.3</v>
-      </c>
-      <c r="D176">
-        <f t="shared" si="35"/>
-        <v>2.1139433523068365</v>
-      </c>
-      <c r="E176" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>3</v>
-      </c>
-      <c r="B177">
-        <v>191</v>
-      </c>
-      <c r="C177">
-        <f t="shared" si="38"/>
-        <v>0.46923076923076923</v>
-      </c>
-      <c r="D177">
-        <f t="shared" si="35"/>
-        <v>2.2810333672477272</v>
-      </c>
-      <c r="E177" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>4</v>
-      </c>
-      <c r="B178">
-        <v>212</v>
-      </c>
-      <c r="C178">
-        <f t="shared" si="38"/>
-        <v>0.1099476439790576</v>
-      </c>
-      <c r="D178">
-        <f t="shared" si="35"/>
-        <v>2.3263358609287512</v>
-      </c>
-      <c r="E178" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>5</v>
-      </c>
-      <c r="B179">
-        <v>285</v>
-      </c>
-      <c r="C179">
-        <f t="shared" si="38"/>
-        <v>0.34433962264150941</v>
-      </c>
-      <c r="D179">
-        <f t="shared" si="35"/>
-        <v>2.4548448600085102</v>
-      </c>
-      <c r="E179" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>6</v>
-      </c>
-      <c r="B180">
-        <v>423</v>
-      </c>
-      <c r="C180">
-        <f t="shared" si="38"/>
-        <v>0.48421052631578948</v>
-      </c>
-      <c r="D180">
-        <f t="shared" si="35"/>
-        <v>2.6263403673750418</v>
       </c>
       <c r="E180" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B181">
-        <v>653</v>
+        <v>130</v>
       </c>
       <c r="C181">
-        <f t="shared" si="38"/>
-        <v>0.54373522458628842</v>
+        <f t="shared" si="39"/>
+        <v>0.3</v>
       </c>
       <c r="D181">
-        <f t="shared" si="35"/>
-        <v>2.8149131812750738</v>
+        <f t="shared" si="36"/>
+        <v>2.1139433523068365</v>
       </c>
       <c r="E181" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B182">
-        <v>949</v>
+        <v>191</v>
       </c>
       <c r="C182">
-        <f t="shared" si="38"/>
-        <v>0.45329249617151607</v>
+        <f t="shared" si="39"/>
+        <v>0.46923076923076923</v>
       </c>
       <c r="D182">
-        <f t="shared" si="35"/>
-        <v>2.9772662124272924</v>
+        <f t="shared" si="36"/>
+        <v>2.2810333672477272</v>
       </c>
       <c r="E182" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B183">
-        <v>1209</v>
+        <v>212</v>
       </c>
       <c r="C183">
-        <f t="shared" si="38"/>
-        <v>0.27397260273972601</v>
+        <f t="shared" si="39"/>
+        <v>0.1099476439790576</v>
       </c>
       <c r="D183">
-        <f t="shared" si="35"/>
-        <v>3.0824263008607717</v>
+        <f t="shared" si="36"/>
+        <v>2.3263358609287512</v>
       </c>
       <c r="E183" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B184">
-        <v>1412</v>
+        <v>285</v>
       </c>
       <c r="C184">
-        <f t="shared" si="38"/>
-        <v>0.16790736145574855</v>
+        <f t="shared" si="39"/>
+        <v>0.34433962264150941</v>
       </c>
       <c r="D184">
-        <f t="shared" si="35"/>
-        <v>3.1498346967157844</v>
+        <f t="shared" si="36"/>
+        <v>2.4548448600085102</v>
       </c>
       <c r="E184" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B185">
-        <v>1784</v>
+        <v>423</v>
       </c>
       <c r="C185">
-        <f t="shared" si="38"/>
-        <v>0.26345609065155806</v>
+        <f t="shared" si="39"/>
+        <v>0.48421052631578948</v>
       </c>
       <c r="D185">
-        <f t="shared" si="35"/>
-        <v>3.251394850040104</v>
+        <f t="shared" si="36"/>
+        <v>2.6263403673750418</v>
       </c>
       <c r="E185" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B186">
-        <v>2281</v>
+        <v>653</v>
       </c>
       <c r="C186">
-        <f t="shared" si="38"/>
-        <v>0.27858744394618834</v>
+        <f t="shared" si="39"/>
+        <v>0.54373522458628842</v>
       </c>
       <c r="D186">
-        <f t="shared" si="35"/>
-        <v>3.3581252852766479</v>
+        <f t="shared" si="36"/>
+        <v>2.8149131812750738</v>
       </c>
       <c r="E186" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B187">
-        <v>2876</v>
+        <v>949</v>
       </c>
       <c r="C187">
-        <f t="shared" si="38"/>
-        <v>0.26085050416483996</v>
+        <f t="shared" si="39"/>
+        <v>0.45329249617151607</v>
       </c>
       <c r="D187">
-        <f t="shared" si="35"/>
-        <v>3.4587888817108445</v>
+        <f t="shared" si="36"/>
+        <v>2.9772662124272924</v>
       </c>
       <c r="E187" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B188">
-        <v>3661</v>
+        <v>1209</v>
       </c>
       <c r="C188">
-        <f t="shared" si="38"/>
-        <v>0.27294853963838667</v>
+        <f t="shared" si="39"/>
+        <v>0.27397260273972601</v>
       </c>
       <c r="D188">
-        <f t="shared" si="35"/>
-        <v>3.5635997288815306</v>
+        <f t="shared" si="36"/>
+        <v>3.0824263008607717</v>
       </c>
       <c r="E188" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B189">
-        <v>4499</v>
+        <v>1412</v>
       </c>
       <c r="C189">
-        <f t="shared" si="38"/>
-        <v>0.22889920786670309</v>
+        <f t="shared" si="39"/>
+        <v>0.16790736145574855</v>
       </c>
       <c r="D189">
-        <f t="shared" si="35"/>
-        <v>3.6531159931655663</v>
+        <f t="shared" si="36"/>
+        <v>3.1498346967157844</v>
       </c>
       <c r="E189" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B190">
-        <v>5423</v>
+        <v>1784</v>
       </c>
       <c r="C190">
-        <f t="shared" si="38"/>
-        <v>0.20537897310513448</v>
+        <f t="shared" si="39"/>
+        <v>0.26345609065155806</v>
       </c>
       <c r="D190">
-        <f t="shared" si="35"/>
-        <v>3.7342396044354547</v>
+        <f t="shared" si="36"/>
+        <v>3.251394850040104</v>
       </c>
       <c r="E190" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B191">
-        <v>6633</v>
+        <v>2281</v>
       </c>
       <c r="C191">
-        <f t="shared" si="38"/>
-        <v>0.2231237322515213</v>
+        <f t="shared" si="39"/>
+        <v>0.27858744394618834</v>
       </c>
       <c r="D191">
-        <f t="shared" si="35"/>
-        <v>3.8217099972983757</v>
+        <f t="shared" si="36"/>
+        <v>3.3581252852766479</v>
       </c>
       <c r="E191" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B192">
-        <v>7730</v>
+        <v>2876</v>
       </c>
       <c r="C192">
-        <f t="shared" si="38"/>
-        <v>0.1653851952359415</v>
+        <f t="shared" si="39"/>
+        <v>0.26085050416483996</v>
       </c>
       <c r="D192">
-        <f t="shared" si="35"/>
-        <v>3.888179493918325</v>
+        <f t="shared" si="36"/>
+        <v>3.4587888817108445</v>
       </c>
       <c r="E192" t="s">
         <v>10</v>
@@ -18952,18 +20838,18 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B193">
-        <v>9134</v>
+        <v>3661</v>
       </c>
       <c r="C193">
-        <f t="shared" si="38"/>
-        <v>0.1816300129366106</v>
+        <f t="shared" si="39"/>
+        <v>0.27294853963838667</v>
       </c>
       <c r="D193">
-        <f t="shared" si="35"/>
-        <v>3.9606610072709816</v>
+        <f t="shared" si="36"/>
+        <v>3.5635997288815306</v>
       </c>
       <c r="E193" t="s">
         <v>10</v>
@@ -18971,18 +20857,18 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B194">
-        <v>10995</v>
+        <v>4499</v>
       </c>
       <c r="C194">
-        <f t="shared" si="38"/>
-        <v>0.20374425224436171</v>
+        <f t="shared" si="39"/>
+        <v>0.22889920786670309</v>
       </c>
       <c r="D194">
-        <f t="shared" si="35"/>
-        <v>4.0411952336968087</v>
+        <f t="shared" si="36"/>
+        <v>3.6531159931655663</v>
       </c>
       <c r="E194" t="s">
         <v>10</v>
@@ -18990,18 +20876,18 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B195">
-        <v>12612</v>
+        <v>5423</v>
       </c>
       <c r="C195">
-        <f t="shared" si="38"/>
-        <v>0.14706684856753069</v>
+        <f t="shared" si="39"/>
+        <v>0.20537897310513448</v>
       </c>
       <c r="D195">
-        <f t="shared" si="35"/>
-        <v>4.1007839620758668</v>
+        <f t="shared" si="36"/>
+        <v>3.7342396044354547</v>
       </c>
       <c r="E195" t="s">
         <v>10</v>
@@ -19009,20 +20895,115 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
+        <v>17</v>
+      </c>
+      <c r="B196">
+        <v>6633</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="39"/>
+        <v>0.2231237322515213</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="36"/>
+        <v>3.8217099972983757</v>
+      </c>
+      <c r="E196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>18</v>
+      </c>
+      <c r="B197">
+        <v>7730</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="39"/>
+        <v>0.1653851952359415</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="36"/>
+        <v>3.888179493918325</v>
+      </c>
+      <c r="E197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>19</v>
+      </c>
+      <c r="B198">
+        <v>9134</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="39"/>
+        <v>0.1816300129366106</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="36"/>
+        <v>3.9606610072709816</v>
+      </c>
+      <c r="E198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>20</v>
+      </c>
+      <c r="B199">
+        <v>10995</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="39"/>
+        <v>0.20374425224436171</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="36"/>
+        <v>4.0411952336968087</v>
+      </c>
+      <c r="E199" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>21</v>
+      </c>
+      <c r="B200">
+        <v>12612</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="39"/>
+        <v>0.14706684856753069</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="36"/>
+        <v>4.1007839620758668</v>
+      </c>
+      <c r="E200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>22</v>
       </c>
-      <c r="B196">
+      <c r="B201">
         <v>14459</v>
       </c>
-      <c r="C196">
-        <f t="shared" si="38"/>
+      <c r="C201">
+        <f t="shared" si="39"/>
         <v>0.14644782746590548</v>
       </c>
-      <c r="D196">
-        <f t="shared" si="35"/>
+      <c r="D201">
+        <f t="shared" si="36"/>
         <v>4.1601382577234016</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E201" t="s">
         <v>10</v>
       </c>
     </row>
@@ -19033,10 +21014,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23278A49-B33F-4577-858B-35CF5CAE9C86}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19111,7 +21092,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="3">
-        <f>F2/C2</f>
+        <f t="shared" ref="K2:K21" si="0">F2/C2</f>
         <v>0</v>
       </c>
       <c r="L2" s="3">
@@ -19157,15 +21138,15 @@
         <v>1</v>
       </c>
       <c r="K3" s="3">
-        <f>F3/C3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L32" si="0">E3/B3</f>
+        <f t="shared" ref="L3:L32" si="1">E3/B3</f>
         <v>7.2580645161290328E-2</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M29" si="1">G3/D3</f>
+        <f t="shared" ref="M3:M30" si="2">G3/D3</f>
         <v>1.2195121951219513E-2</v>
       </c>
     </row>
@@ -19195,23 +21176,23 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:I32" si="2">(E4-E3)/E3</f>
+        <f t="shared" ref="I4:I32" si="3">(E4-E3)/E3</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J30" si="3">(G4-G3)/G3</f>
+        <f t="shared" ref="J4:J30" si="4">(G4-G3)/G3</f>
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <f>F4/C4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9620253164556958E-2</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5693779904306216E-3</v>
       </c>
     </row>
@@ -19241,23 +21222,23 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8901734104046241E-3</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="1"/>
+        <v>5.4298642533936653E-2</v>
+      </c>
+      <c r="M5" s="3">
         <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="3">
-        <f>F5/C5</f>
-        <v>2.8901734104046241E-3</v>
-      </c>
-      <c r="L5" s="3">
-        <f t="shared" si="0"/>
-        <v>5.4298642533936653E-2</v>
-      </c>
-      <c r="M5" s="3">
-        <f t="shared" si="1"/>
         <v>1.0791366906474821E-2</v>
       </c>
     </row>
@@ -19287,23 +21268,23 @@
         <v>1</v>
       </c>
       <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
+        <v>7.5614366729678641E-3</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="1"/>
+        <v>4.7021943573667714E-2</v>
+      </c>
+      <c r="M6" s="3">
         <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K6" s="3">
-        <f>F6/C6</f>
-        <v>7.5614366729678641E-3</v>
-      </c>
-      <c r="L6" s="3">
-        <f t="shared" si="0"/>
-        <v>4.7021943573667714E-2</v>
-      </c>
-      <c r="M6" s="3">
-        <f t="shared" si="1"/>
         <v>1.5576323987538941E-2</v>
       </c>
     </row>
@@ -19330,27 +21311,27 @@
         <v>6</v>
       </c>
       <c r="H7" s="2">
-        <f>(F7-F6)/F6</f>
+        <f t="shared" ref="H7:H21" si="5">(F7-F6)/F6</f>
         <v>0.75</v>
       </c>
       <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0937499999999999E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="1"/>
+        <v>4.3678160919540229E-2</v>
+      </c>
+      <c r="M7" s="3">
         <f t="shared" si="2"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="K7" s="3">
-        <f>F7/C7</f>
-        <v>1.0937499999999999E-2</v>
-      </c>
-      <c r="L7" s="3">
-        <f t="shared" si="0"/>
-        <v>4.3678160919540229E-2</v>
-      </c>
-      <c r="M7" s="3">
-        <f t="shared" si="1"/>
         <v>1.5665796344647518E-2</v>
       </c>
     </row>
@@ -19377,27 +21358,27 @@
         <v>8</v>
       </c>
       <c r="H8" s="2">
-        <f>(F8-F7)/F7</f>
+        <f t="shared" si="5"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.134020618556701E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="1"/>
+        <v>4.0665434380776341E-2</v>
+      </c>
+      <c r="M8" s="3">
         <f t="shared" si="2"/>
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K8" s="3">
-        <f>F8/C8</f>
-        <v>1.134020618556701E-2</v>
-      </c>
-      <c r="L8" s="3">
-        <f t="shared" si="0"/>
-        <v>4.0665434380776341E-2</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" si="1"/>
         <v>1.7391304347826087E-2</v>
       </c>
     </row>
@@ -19424,27 +21405,27 @@
         <v>10</v>
       </c>
       <c r="H9" s="2">
-        <f>(F9-F8)/F8</f>
+        <f t="shared" si="5"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5280135823429542E-2</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="1"/>
+        <v>3.6931818181818184E-2</v>
+      </c>
+      <c r="M9" s="3">
         <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-      <c r="K9" s="3">
-        <f>F9/C9</f>
-        <v>1.5280135823429542E-2</v>
-      </c>
-      <c r="L9" s="3">
-        <f t="shared" si="0"/>
-        <v>3.6931818181818184E-2</v>
-      </c>
-      <c r="M9" s="3">
-        <f t="shared" si="1"/>
         <v>1.6949152542372881E-2</v>
       </c>
     </row>
@@ -19471,27 +21452,27 @@
         <v>11</v>
       </c>
       <c r="H10" s="2">
-        <f>(F10-F9)/F9</f>
+        <f t="shared" si="5"/>
         <v>0.3888888888888889</v>
       </c>
       <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6170763260025874E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0181086519114688E-2</v>
+      </c>
+      <c r="M10" s="3">
         <f t="shared" si="2"/>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="K10" s="3">
-        <f>F10/C10</f>
-        <v>1.6170763260025874E-2</v>
-      </c>
-      <c r="L10" s="3">
-        <f t="shared" si="0"/>
-        <v>3.0181086519114688E-2</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" si="1"/>
         <v>1.3784461152882205E-2</v>
       </c>
     </row>
@@ -19518,27 +21499,27 @@
         <v>21</v>
       </c>
       <c r="H11" s="2">
-        <f>(F11-F10)/F10</f>
+        <f t="shared" si="5"/>
         <v>0.36</v>
       </c>
       <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="4"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7979904812268643E-2</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9208301306687164E-2</v>
+      </c>
+      <c r="M11" s="3">
         <f t="shared" si="2"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="3"/>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="K11" s="3">
-        <f>F11/C11</f>
-        <v>1.7979904812268643E-2</v>
-      </c>
-      <c r="L11" s="3">
-        <f t="shared" si="0"/>
-        <v>2.9208301306687164E-2</v>
-      </c>
-      <c r="M11" s="3">
-        <f t="shared" si="1"/>
         <v>1.8421052631578946E-2</v>
       </c>
     </row>
@@ -19565,27 +21546,27 @@
         <v>35</v>
       </c>
       <c r="H12" s="2">
-        <f>(F12-F11)/F11</f>
+        <f t="shared" si="5"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0471740097908322E-2</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4160282852091926E-2</v>
+      </c>
+      <c r="M12" s="3">
         <f t="shared" si="2"/>
-        <v>7.8947368421052627E-2</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K12" s="3">
-        <f>F12/C12</f>
-        <v>2.0471740097908322E-2</v>
-      </c>
-      <c r="L12" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4160282852091926E-2</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" si="1"/>
         <v>2.5161754133716751E-2</v>
       </c>
     </row>
@@ -19612,27 +21593,27 @@
         <v>55</v>
       </c>
       <c r="H13" s="2">
-        <f>(F13-F12)/F12</f>
+        <f t="shared" si="5"/>
         <v>0.2391304347826087</v>
       </c>
       <c r="I13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3427866831072751E-2</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1806853582554516E-2</v>
+      </c>
+      <c r="M13" s="3">
         <f t="shared" si="2"/>
-        <v>0.1951219512195122</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="3"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="K13" s="3">
-        <f>F13/C13</f>
-        <v>2.3427866831072751E-2</v>
-      </c>
-      <c r="L13" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1806853582554516E-2</v>
-      </c>
-      <c r="M13" s="3">
-        <f t="shared" si="1"/>
         <v>3.5644847699287101E-2</v>
       </c>
     </row>
@@ -19659,27 +21640,27 @@
         <v>71</v>
       </c>
       <c r="H14" s="2">
-        <f>(F14-F13)/F13</f>
+        <f t="shared" si="5"/>
         <v>0.35087719298245612</v>
       </c>
       <c r="I14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.16326530612244897</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="4"/>
+        <v>0.29090909090909089</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6415094339622643E-2</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9367991845056064E-2</v>
+      </c>
+      <c r="M14" s="3">
         <f t="shared" si="2"/>
-        <v>0.16326530612244897</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="3"/>
-        <v>0.29090909090909089</v>
-      </c>
-      <c r="K14" s="3">
-        <f>F14/C14</f>
-        <v>2.6415094339622643E-2</v>
-      </c>
-      <c r="L14" s="3">
-        <f t="shared" si="0"/>
-        <v>1.9367991845056064E-2</v>
-      </c>
-      <c r="M14" s="3">
-        <f t="shared" si="1"/>
         <v>3.6410256410256407E-2</v>
       </c>
     </row>
@@ -19706,27 +21687,27 @@
         <v>104</v>
       </c>
       <c r="H15" s="2">
-        <f>(F15-F14)/F14</f>
+        <f t="shared" si="5"/>
         <v>0.19480519480519481</v>
       </c>
       <c r="I15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.19298245614035087</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="4"/>
+        <v>0.46478873239436619</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6924202516827627E-2</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8478260869565218E-2</v>
+      </c>
+      <c r="M15" s="3">
         <f t="shared" si="2"/>
-        <v>0.19298245614035087</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="3"/>
-        <v>0.46478873239436619</v>
-      </c>
-      <c r="K15" s="3">
-        <f>F15/C15</f>
-        <v>2.6924202516827627E-2</v>
-      </c>
-      <c r="L15" s="3">
-        <f t="shared" si="0"/>
-        <v>1.8478260869565218E-2</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" si="1"/>
         <v>3.9603960396039604E-2</v>
       </c>
     </row>
@@ -19753,27 +21734,27 @@
         <v>144</v>
       </c>
       <c r="H16" s="2">
-        <f>(F16-F15)/F15</f>
+        <f t="shared" si="5"/>
         <v>0.2391304347826087</v>
       </c>
       <c r="I16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="4"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="0"/>
+        <v>2.9200819672131149E-2</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="1"/>
+        <v>1.844306240617628E-2</v>
+      </c>
+      <c r="M16" s="3">
         <f t="shared" si="2"/>
-        <v>0.26470588235294118</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="3"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="K16" s="3">
-        <f>F16/C16</f>
-        <v>2.9200819672131149E-2</v>
-      </c>
-      <c r="L16" s="3">
-        <f t="shared" si="0"/>
-        <v>1.844306240617628E-2</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="1"/>
         <v>4.4050168247170389E-2</v>
       </c>
     </row>
@@ -19800,27 +21781,27 @@
         <v>177</v>
       </c>
       <c r="H17" s="2">
-        <f>(F17-F16)/F16</f>
+        <f t="shared" si="5"/>
         <v>0.19298245614035087</v>
       </c>
       <c r="I17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.26744186046511625</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="4"/>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1954887218045111E-2</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7002027764779284E-2</v>
+      </c>
+      <c r="M17" s="3">
         <f t="shared" si="2"/>
-        <v>0.26744186046511625</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="3"/>
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="K17" s="3">
-        <f>F17/C17</f>
-        <v>3.1954887218045111E-2</v>
-      </c>
-      <c r="L17" s="3">
-        <f t="shared" si="0"/>
-        <v>1.7002027764779284E-2</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" si="1"/>
         <v>4.4438865177002261E-2</v>
       </c>
     </row>
@@ -19847,27 +21828,27 @@
         <v>233</v>
       </c>
       <c r="H18" s="2">
-        <f>(F18-F17)/F17</f>
+        <f t="shared" si="5"/>
         <v>0.16911764705882354</v>
       </c>
       <c r="I18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.37614678899082571</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="4"/>
+        <v>0.31638418079096048</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="0"/>
+        <v>3.4723738807599915E-2</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6200453612701157E-2</v>
+      </c>
+      <c r="M18" s="3">
         <f t="shared" si="2"/>
-        <v>0.37614678899082571</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="3"/>
-        <v>0.31638418079096048</v>
-      </c>
-      <c r="K18" s="3">
-        <f>F18/C18</f>
-        <v>3.4723738807599915E-2</v>
-      </c>
-      <c r="L18" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6200453612701157E-2</v>
-      </c>
-      <c r="M18" s="3">
-        <f t="shared" si="1"/>
         <v>4.6432841769629335E-2</v>
       </c>
     </row>
@@ -19894,27 +21875,27 @@
         <v>281</v>
       </c>
       <c r="H19" s="2">
-        <f>(F19-F18)/F18</f>
+        <f t="shared" si="5"/>
         <v>0.26415094339622641</v>
       </c>
       <c r="I19" s="2">
+        <f t="shared" si="3"/>
+        <v>0.38</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="4"/>
+        <v>0.20600858369098712</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5158299807591394E-2</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="1"/>
+        <v>1.501196605990282E-2</v>
+      </c>
+      <c r="M19" s="3">
         <f t="shared" si="2"/>
-        <v>0.38</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="3"/>
-        <v>0.20600858369098712</v>
-      </c>
-      <c r="K19" s="3">
-        <f>F19/C19</f>
-        <v>3.5158299807591394E-2</v>
-      </c>
-      <c r="L19" s="3">
-        <f t="shared" si="0"/>
-        <v>1.501196605990282E-2</v>
-      </c>
-      <c r="M19" s="3">
-        <f t="shared" si="1"/>
         <v>4.9445715291219425E-2</v>
       </c>
     </row>
@@ -19941,27 +21922,27 @@
         <v>335</v>
       </c>
       <c r="H20" s="2">
-        <f>(F20-F19)/F19</f>
+        <f t="shared" si="5"/>
         <v>0.19402985074626866</v>
       </c>
       <c r="I20" s="2">
+        <f t="shared" si="3"/>
+        <v>0.23671497584541062</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="4"/>
+        <v>0.19217081850533807</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5108250438853128E-2</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3207449827168137E-2</v>
+      </c>
+      <c r="M20" s="3">
         <f t="shared" si="2"/>
-        <v>0.23671497584541062</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="3"/>
-        <v>0.19217081850533807</v>
-      </c>
-      <c r="K20" s="3">
-        <f>F20/C20</f>
-        <v>3.5108250438853128E-2</v>
-      </c>
-      <c r="L20" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3207449827168137E-2</v>
-      </c>
-      <c r="M20" s="3">
-        <f t="shared" si="1"/>
         <v>5.037593984962406E-2</v>
       </c>
     </row>
@@ -19972,29 +21953,43 @@
       <c r="B21">
         <v>24207</v>
       </c>
+      <c r="C21">
+        <v>7910</v>
+      </c>
       <c r="D21">
         <v>8077</v>
       </c>
       <c r="E21">
         <v>302</v>
       </c>
+      <c r="F21" s="9">
+        <v>299</v>
+      </c>
       <c r="G21">
         <v>422</v>
       </c>
+      <c r="H21" s="2">
+        <f t="shared" si="5"/>
+        <v>0.24583333333333332</v>
+      </c>
       <c r="I21" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1796875</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="4"/>
+        <v>0.25970149253731345</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="0"/>
+        <v>3.7800252844500636E-2</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2475730160697319E-2</v>
+      </c>
+      <c r="M21" s="3">
         <f t="shared" si="2"/>
-        <v>0.1796875</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="3"/>
-        <v>0.25970149253731345</v>
-      </c>
-      <c r="L21" s="3">
-        <f t="shared" si="0"/>
-        <v>1.2475730160697319E-2</v>
-      </c>
-      <c r="M21" s="3">
-        <f t="shared" si="1"/>
         <v>5.2247121455986131E-2</v>
       </c>
     </row>
@@ -20015,19 +22010,19 @@
         <v>463</v>
       </c>
       <c r="I22" s="2">
+        <f t="shared" si="3"/>
+        <v>0.38741721854304634</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="4"/>
+        <v>9.7156398104265407E-2</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2490311810648065E-2</v>
+      </c>
+      <c r="M22" s="3">
         <f t="shared" si="2"/>
-        <v>0.38741721854304634</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="3"/>
-        <v>9.7156398104265407E-2</v>
-      </c>
-      <c r="L22" s="3">
-        <f t="shared" si="0"/>
-        <v>1.2490311810648065E-2</v>
-      </c>
-      <c r="M22" s="3">
-        <f t="shared" si="1"/>
         <v>4.8588519257004935E-2</v>
       </c>
     </row>
@@ -20048,19 +22043,19 @@
         <v>578</v>
       </c>
       <c r="I23" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24105011933174225</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="4"/>
+        <v>0.24838012958963282</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2163458164721292E-2</v>
+      </c>
+      <c r="M23" s="3">
         <f t="shared" si="2"/>
-        <v>0.24105011933174225</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="3"/>
-        <v>0.24838012958963282</v>
-      </c>
-      <c r="L23" s="3">
-        <f t="shared" si="0"/>
-        <v>1.2163458164721292E-2</v>
-      </c>
-      <c r="M23" s="3">
-        <f t="shared" si="1"/>
         <v>4.9579687768056269E-2</v>
       </c>
     </row>
@@ -20081,19 +22076,19 @@
         <v>759</v>
       </c>
       <c r="I24" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="4"/>
+        <v>0.31314878892733566</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4212569012955303E-2</v>
+      </c>
+      <c r="M24" s="3">
         <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" si="3"/>
-        <v>0.31314878892733566</v>
-      </c>
-      <c r="L24" s="3">
-        <f t="shared" si="0"/>
-        <v>1.4212569012955303E-2</v>
-      </c>
-      <c r="M24" s="3">
-        <f t="shared" si="1"/>
         <v>5.2190057072130924E-2</v>
       </c>
     </row>
@@ -20114,19 +22109,19 @@
         <v>1019</v>
       </c>
       <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="4"/>
+        <v>0.34255599472990778</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4048629872636048E-2</v>
+      </c>
+      <c r="M25" s="3">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" si="3"/>
-        <v>0.34255599472990778</v>
-      </c>
-      <c r="L25" s="3">
-        <f t="shared" si="0"/>
-        <v>1.4048629872636048E-2</v>
-      </c>
-      <c r="M25" s="3">
-        <f t="shared" si="1"/>
         <v>5.962900111182632E-2</v>
       </c>
     </row>
@@ -20147,19 +22142,19 @@
         <v>1228</v>
       </c>
       <c r="I26" s="2">
+        <f t="shared" si="3"/>
+        <v>0.29340659340659342</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="4"/>
+        <v>0.20510304219823355</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4322393798902397E-2</v>
+      </c>
+      <c r="M26" s="3">
         <f t="shared" si="2"/>
-        <v>0.29340659340659342</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" si="3"/>
-        <v>0.20510304219823355</v>
-      </c>
-      <c r="L26" s="3">
-        <f t="shared" si="0"/>
-        <v>1.4322393798902397E-2</v>
-      </c>
-      <c r="M26" s="3">
-        <f t="shared" si="1"/>
         <v>6.2903391045999388E-2</v>
       </c>
     </row>
@@ -20180,19 +22175,19 @@
         <v>1408</v>
       </c>
       <c r="I27" s="2">
+        <f t="shared" si="3"/>
+        <v>0.43840271877655057</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="4"/>
+        <v>0.1465798045602606</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6321375892951826E-2</v>
+      </c>
+      <c r="M27" s="3">
         <f t="shared" si="2"/>
-        <v>0.43840271877655057</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" si="3"/>
-        <v>0.1465798045602606</v>
-      </c>
-      <c r="L27" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6321375892951826E-2</v>
-      </c>
-      <c r="M27" s="3">
-        <f t="shared" si="1"/>
         <v>6.3592430332866628E-2</v>
       </c>
     </row>
@@ -20217,15 +22212,15 @@
         <v>0.18606024808033078</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.27059659090909088</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6659890980593881E-2</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1133200795228627E-2</v>
       </c>
     </row>
@@ -20246,19 +22241,19 @@
         <v>2352</v>
       </c>
       <c r="I29" s="2">
+        <f t="shared" si="3"/>
+        <v>0.23705179282868527</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="4"/>
+        <v>0.31470095025153716</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7436473396040993E-2</v>
+      </c>
+      <c r="M29" s="3">
         <f t="shared" si="2"/>
-        <v>0.23705179282868527</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" si="3"/>
-        <v>0.31470095025153716</v>
-      </c>
-      <c r="L29" s="3">
-        <f t="shared" si="0"/>
-        <v>1.7436473396040993E-2</v>
-      </c>
-      <c r="M29" s="3">
-        <f t="shared" si="1"/>
         <v>7.9799145009160619E-2</v>
       </c>
     </row>
@@ -20269,17 +22264,30 @@
       <c r="B30">
         <v>160344</v>
       </c>
+      <c r="D30">
+        <v>33718</v>
+      </c>
       <c r="E30">
         <v>2953</v>
       </c>
+      <c r="G30">
+        <v>2921</v>
+      </c>
       <c r="I30" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18880837359098229</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="4"/>
+        <v>0.241921768707483</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8416654193484008E-2</v>
+      </c>
+      <c r="M30" s="3">
         <f t="shared" si="2"/>
-        <v>0.18880837359098229</v>
-      </c>
-      <c r="J30" s="2"/>
-      <c r="L30" s="3">
-        <f t="shared" si="0"/>
-        <v>1.8416654193484008E-2</v>
+        <v>8.6630286493860842E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -20293,12 +22301,12 @@
         <v>3756</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27192685404673211</v>
       </c>
       <c r="J31" s="2"/>
       <c r="L31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0359158097860555E-2</v>
       </c>
     </row>
@@ -20313,13 +22321,33 @@
         <v>4713</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25479233226837061</v>
       </c>
       <c r="J32" s="2"/>
       <c r="L32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2321365141160256E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>240375</v>
+      </c>
+      <c r="E33">
+        <v>5807</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" ref="I33" si="6">(E33-E32)/E32</f>
+        <v>0.2321239125822194</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="L33" s="3">
+        <f t="shared" ref="L33" si="7">E33/B33</f>
+        <v>2.4158086323452937E-2</v>
       </c>
     </row>
   </sheetData>
@@ -20330,10 +22358,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25C859D-AA7D-4F12-87CB-B1F40BE28FD3}">
-  <dimension ref="A1:X40"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView topLeftCell="M13" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView topLeftCell="Z28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AN25" sqref="AN25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20439,7 +22467,7 @@
       <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="18">
         <f>D2/320000000</f>
         <v>0</v>
       </c>
@@ -20452,7 +22480,7 @@
       <c r="H2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="18">
         <f>H2/210000000</f>
         <v>0</v>
       </c>
@@ -20515,7 +22543,7 @@
       <c r="D3" s="6">
         <v>3</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="18">
         <f t="shared" ref="E3:E31" si="0">D3/320000000</f>
         <v>9.3749999999999996E-9</v>
       </c>
@@ -20528,8 +22556,8 @@
       <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="I3" s="12">
-        <f t="shared" ref="I3:I20" si="1">H3/210000000</f>
+      <c r="I3" s="18">
+        <f t="shared" ref="I3:I21" si="1">H3/210000000</f>
         <v>0</v>
       </c>
       <c r="J3" s="11">
@@ -20595,7 +22623,7 @@
       <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="18">
         <f t="shared" si="0"/>
         <v>6.2499999999999997E-9</v>
       </c>
@@ -20608,7 +22636,7 @@
       <c r="H4" s="6">
         <v>0</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -20675,7 +22703,7 @@
       <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="18">
         <f t="shared" si="0"/>
         <v>3.1249999999999999E-9</v>
       </c>
@@ -20688,7 +22716,7 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -20755,7 +22783,7 @@
       <c r="D6" s="6">
         <v>3</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="18">
         <f t="shared" si="0"/>
         <v>9.3749999999999996E-9</v>
       </c>
@@ -20768,7 +22796,7 @@
       <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="18">
         <f t="shared" si="1"/>
         <v>4.761904761904762E-9</v>
       </c>
@@ -20835,7 +22863,7 @@
       <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="18">
         <f t="shared" si="0"/>
         <v>1.2499999999999999E-8</v>
       </c>
@@ -20849,7 +22877,7 @@
         <f>(G7-G6)</f>
         <v>3</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="18">
         <f t="shared" si="1"/>
         <v>1.4285714285714286E-8</v>
       </c>
@@ -20916,7 +22944,7 @@
       <c r="D8" s="6">
         <v>3</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="18">
         <f t="shared" si="0"/>
         <v>9.3749999999999996E-9</v>
       </c>
@@ -20927,10 +22955,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" ref="H8:H20" si="9">(G8-G7)</f>
+        <f t="shared" ref="H8:H21" si="9">(G8-G7)</f>
         <v>4</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="18">
         <f t="shared" si="1"/>
         <v>1.9047619047619048E-8</v>
       </c>
@@ -20997,7 +23025,7 @@
       <c r="D9" s="6">
         <v>4</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="18">
         <f t="shared" si="0"/>
         <v>1.2499999999999999E-8</v>
       </c>
@@ -21011,7 +23039,7 @@
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="18">
         <f t="shared" si="1"/>
         <v>3.3333333333333334E-8</v>
       </c>
@@ -21078,7 +23106,7 @@
       <c r="D10" s="6">
         <v>4</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="18">
         <f t="shared" si="0"/>
         <v>1.2499999999999999E-8</v>
       </c>
@@ -21092,7 +23120,7 @@
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="18">
         <f t="shared" si="1"/>
         <v>3.3333333333333334E-8</v>
       </c>
@@ -21159,7 +23187,7 @@
       <c r="D11" s="6">
         <v>8</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="18">
         <f t="shared" si="0"/>
         <v>2.4999999999999999E-8</v>
       </c>
@@ -21173,7 +23201,7 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="18">
         <f t="shared" si="1"/>
         <v>4.2857142857142858E-8</v>
       </c>
@@ -21240,7 +23268,7 @@
       <c r="D12" s="6">
         <v>3</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="18">
         <f t="shared" si="0"/>
         <v>9.3749999999999996E-9</v>
       </c>
@@ -21254,7 +23282,7 @@
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="18">
         <f t="shared" si="1"/>
         <v>5.7142857142857144E-8</v>
       </c>
@@ -21321,7 +23349,7 @@
       <c r="D13" s="6">
         <v>8</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="18">
         <f t="shared" si="0"/>
         <v>2.4999999999999999E-8</v>
       </c>
@@ -21335,7 +23363,7 @@
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="18">
         <f t="shared" si="1"/>
         <v>5.2380952380952382E-8</v>
       </c>
@@ -21402,7 +23430,7 @@
       <c r="D14" s="6">
         <v>8</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="18">
         <f t="shared" si="0"/>
         <v>2.4999999999999999E-8</v>
       </c>
@@ -21416,7 +23444,7 @@
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="18">
         <f t="shared" si="1"/>
         <v>9.523809523809524E-8</v>
       </c>
@@ -21483,7 +23511,7 @@
       <c r="D15" s="6">
         <v>11</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="18">
         <f t="shared" si="0"/>
         <v>3.4375000000000002E-8</v>
       </c>
@@ -21497,7 +23525,7 @@
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="18">
         <f t="shared" si="1"/>
         <v>7.1428571428571423E-8</v>
       </c>
@@ -21564,7 +23592,7 @@
       <c r="D16" s="6">
         <v>18</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="18">
         <f t="shared" si="0"/>
         <v>5.6249999999999997E-8</v>
       </c>
@@ -21578,7 +23606,7 @@
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="18">
         <f t="shared" si="1"/>
         <v>1.0476190476190476E-7</v>
       </c>
@@ -21645,7 +23673,7 @@
       <c r="D17" s="6">
         <v>23</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="18">
         <f t="shared" si="0"/>
         <v>7.1875E-8</v>
       </c>
@@ -21659,7 +23687,7 @@
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="18">
         <f t="shared" si="1"/>
         <v>1.0476190476190476E-7</v>
       </c>
@@ -21726,7 +23754,7 @@
       <c r="D18" s="6">
         <v>41</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="18">
         <f t="shared" si="0"/>
         <v>1.2812499999999999E-7</v>
       </c>
@@ -21740,7 +23768,7 @@
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="18">
         <f t="shared" si="1"/>
         <v>1.0952380952380952E-7</v>
       </c>
@@ -21807,7 +23835,7 @@
       <c r="D19" s="6">
         <v>57</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="18">
         <f t="shared" si="0"/>
         <v>1.7812499999999999E-7</v>
       </c>
@@ -21821,7 +23849,7 @@
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="18">
         <f t="shared" si="1"/>
         <v>1.9999999999999999E-7</v>
       </c>
@@ -21888,7 +23916,7 @@
       <c r="D20" s="6">
         <v>49</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="18">
         <f t="shared" si="0"/>
         <v>1.5312499999999999E-7</v>
       </c>
@@ -21902,7 +23930,7 @@
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="18">
         <f t="shared" si="1"/>
         <v>1.8571428571428572E-7</v>
       </c>
@@ -21969,9 +23997,23 @@
       <c r="D21" s="6">
         <v>46</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="18">
         <f t="shared" si="0"/>
         <v>1.4375E-7</v>
+      </c>
+      <c r="F21">
+        <v>7910</v>
+      </c>
+      <c r="G21">
+        <v>299</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="9"/>
+        <v>59</v>
+      </c>
+      <c r="I21" s="18">
+        <f t="shared" si="1"/>
+        <v>2.8095238095238096E-7</v>
       </c>
       <c r="J21" s="11">
         <v>17660</v>
@@ -22036,7 +24078,7 @@
       <c r="D22" s="6">
         <v>117</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="18">
         <f t="shared" si="0"/>
         <v>3.6562499999999999E-7</v>
       </c>
@@ -22103,7 +24145,7 @@
       <c r="D23" s="6">
         <v>101</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="18">
         <f t="shared" si="0"/>
         <v>3.15625E-7</v>
       </c>
@@ -22170,7 +24212,7 @@
       <c r="D24" s="6">
         <v>260</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="18">
         <f t="shared" si="0"/>
         <v>8.1249999999999995E-7</v>
       </c>
@@ -22237,7 +24279,7 @@
       <c r="D25" s="6">
         <v>130</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="18">
         <f t="shared" si="0"/>
         <v>4.0624999999999997E-7</v>
       </c>
@@ -22305,7 +24347,7 @@
         <f>C26-C25</f>
         <v>267</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="18">
         <f t="shared" si="0"/>
         <v>8.3437499999999995E-7</v>
       </c>
@@ -22373,7 +24415,7 @@
         <f t="shared" ref="D27:D31" si="10">C27-C26</f>
         <v>516</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="18">
         <f t="shared" si="0"/>
         <v>1.6125E-6</v>
       </c>
@@ -22441,7 +24483,7 @@
         <f t="shared" si="10"/>
         <v>315</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="18">
         <f t="shared" si="0"/>
         <v>9.84375E-7</v>
       </c>
@@ -22509,7 +24551,7 @@
         <f t="shared" si="10"/>
         <v>476</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="18">
         <f t="shared" si="0"/>
         <v>1.4874999999999999E-6</v>
       </c>
@@ -22577,7 +24619,7 @@
         <f t="shared" si="10"/>
         <v>469</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="18">
         <f t="shared" si="0"/>
         <v>1.465625E-6</v>
       </c>
@@ -22616,8 +24658,20 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="U30" s="11"/>
-      <c r="V30"/>
+      <c r="U30">
+        <v>33718</v>
+      </c>
+      <c r="V30">
+        <v>2921</v>
+      </c>
+      <c r="W30">
+        <f t="shared" ref="W30" si="12">V30-V29</f>
+        <v>569</v>
+      </c>
+      <c r="X30" s="17">
+        <f>W30/66000000</f>
+        <v>8.6212121212121216E-6</v>
+      </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -22633,7 +24687,7 @@
         <f t="shared" si="10"/>
         <v>803</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="18">
         <f t="shared" si="0"/>
         <v>2.509375E-6</v>
       </c>
@@ -22686,11 +24740,11 @@
         <v>4713</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" ref="D32" si="12">C32-C31</f>
+        <f t="shared" ref="D32" si="13">C32-C31</f>
         <v>957</v>
       </c>
-      <c r="E32" s="12">
-        <f t="shared" ref="E32" si="13">D32/320000000</f>
+      <c r="E32" s="18">
+        <f t="shared" ref="E32" si="14">D32/320000000</f>
         <v>2.9906249999999998E-6</v>
       </c>
       <c r="J32" s="11">
@@ -22714,11 +24768,11 @@
         <v>9131</v>
       </c>
       <c r="P32">
-        <f t="shared" ref="P32" si="14">O32-O31</f>
+        <f t="shared" ref="P32" si="15">O32-O31</f>
         <v>667</v>
       </c>
       <c r="Q32" s="15">
-        <f t="shared" ref="Q32" si="15">P32/46000000</f>
+        <f t="shared" ref="Q32" si="16">P32/46000000</f>
         <v>1.45E-5</v>
       </c>
       <c r="S32" s="6">
@@ -22735,6 +24789,20 @@
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33">
+        <v>240375</v>
+      </c>
+      <c r="C33">
+        <v>5807</v>
+      </c>
+      <c r="D33" s="6">
+        <f t="shared" ref="D33" si="17">C33-C32</f>
+        <v>1094</v>
+      </c>
+      <c r="E33" s="18">
+        <f t="shared" ref="E33" si="18">D33/320000000</f>
+        <v>3.4187500000000001E-6</v>
+      </c>
       <c r="J33" s="11">
         <v>74386</v>
       </c>
@@ -22749,6 +24817,20 @@
         <f t="shared" si="2"/>
         <v>1.1383333333333333E-5</v>
       </c>
+      <c r="N33">
+        <v>110409</v>
+      </c>
+      <c r="O33">
+        <v>10106</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ref="P33" si="19">O33-O32</f>
+        <v>975</v>
+      </c>
+      <c r="Q33" s="15">
+        <f t="shared" ref="Q33" si="20">P33/46000000</f>
+        <v>2.1195652173913045E-5</v>
+      </c>
       <c r="S33" s="6">
         <v>111</v>
       </c>
@@ -22935,11 +25017,11 @@
         <v>13155</v>
       </c>
       <c r="L40">
-        <f t="shared" ref="L40" si="16">K40-K39</f>
+        <f t="shared" ref="L40" si="21">K40-K39</f>
         <v>727</v>
       </c>
       <c r="M40" s="14">
-        <f t="shared" ref="M40" si="17">L40/60000000</f>
+        <f t="shared" ref="M40" si="22">L40/60000000</f>
         <v>1.2116666666666667E-5</v>
       </c>
       <c r="S40" s="6">
@@ -22951,6 +25033,22 @@
       </c>
       <c r="U40" s="11"/>
       <c r="V40"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>115242</v>
+      </c>
+      <c r="K41">
+        <v>13915</v>
+      </c>
+      <c r="L41">
+        <f t="shared" ref="L41" si="23">K41-K40</f>
+        <v>760</v>
+      </c>
+      <c r="M41" s="14">
+        <f t="shared" ref="M41" si="24">L41/60000000</f>
+        <v>1.2666666666666667E-5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22960,10 +25058,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A175D7D-09F8-434E-8823-11AEBD540A93}">
-  <dimension ref="A1:AC40"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AU15" sqref="AU15"/>
+    <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AH29" sqref="AH29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25144,6 +27242,21 @@
         <f t="shared" si="20"/>
         <v>4824</v>
       </c>
+      <c r="F21">
+        <v>7910</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" ref="G21" si="27">LOG(F21,10)</f>
+        <v>3.898176483497676</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" ref="H21" si="28">LOG(F21-F20,10)</f>
+        <v>3.0310042813635367</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" ref="I21" si="29">F21-F20</f>
+        <v>1074</v>
+      </c>
       <c r="J21" s="7">
         <v>25496</v>
       </c>
@@ -25822,7 +27935,7 @@
         <v>5.1536929400085496</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" ref="D29" si="27">LOG(B29-B28,10)</f>
+        <f t="shared" ref="D29" si="30">LOG(B29-B28,10)</f>
         <v>4.3410584348959613</v>
       </c>
       <c r="E29" s="6">
@@ -25863,15 +27976,15 @@
         <v>29474</v>
       </c>
       <c r="W29" s="4">
-        <f t="shared" ref="W29" si="28">LOG(V29,10)</f>
+        <f t="shared" ref="W29" si="31">LOG(V29,10)</f>
         <v>4.4694390791836067</v>
       </c>
       <c r="X29" s="4">
-        <f t="shared" ref="X29" si="29">LOG(V29-V28,10)</f>
+        <f t="shared" ref="X29" si="32">LOG(V29-V28,10)</f>
         <v>3.6358856852812722</v>
       </c>
       <c r="Y29" s="6">
-        <f t="shared" ref="Y29" si="30">V29-V28</f>
+        <f t="shared" ref="Y29" si="33">V29-V28</f>
         <v>4324</v>
       </c>
       <c r="Z29" s="11">
@@ -25902,15 +28015,15 @@
         <v>5.2050527134653057</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" ref="D30:D31" si="31">LOG(B30-B29,10)</f>
+        <f t="shared" ref="D30:D31" si="34">LOG(B30-B29,10)</f>
         <v>4.2524646611959938</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" ref="E30:E31" si="32">B30-B29</f>
+        <f t="shared" ref="E30:E31" si="35">B30-B29</f>
         <v>17884</v>
       </c>
       <c r="J30" s="7">
-        <f>Plan1!B100</f>
+        <f>Plan1!B102</f>
         <v>87956</v>
       </c>
       <c r="K30" s="4">
@@ -25918,7 +28031,7 @@
         <v>4.9442654706043037</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" ref="L30" si="33">LOG(J30-J29,10)</f>
+        <f t="shared" ref="L30" si="36">LOG(J30-J29,10)</f>
         <v>3.8946483037935162</v>
       </c>
       <c r="M30" s="6">
@@ -25940,6 +28053,21 @@
         <f t="shared" si="13"/>
         <v>5560</v>
       </c>
+      <c r="V30">
+        <v>33718</v>
+      </c>
+      <c r="W30" s="4">
+        <f t="shared" ref="W30" si="37">LOG(V30,10)</f>
+        <v>4.5278618063227016</v>
+      </c>
+      <c r="X30" s="4">
+        <f t="shared" ref="X30" si="38">LOG(V30-V29,10)</f>
+        <v>3.6277753752293025</v>
+      </c>
+      <c r="Y30" s="6">
+        <f t="shared" ref="Y30" si="39">V30-V29</f>
+        <v>4244</v>
+      </c>
       <c r="Z30" s="11">
         <v>8565</v>
       </c>
@@ -25968,11 +28096,11 @@
         <v>5.2659657687217525</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>4.3827912343816475</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>24143</v>
       </c>
       <c r="J31">
@@ -25983,7 +28111,7 @@
         <v>4.9819227529001289</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" ref="L31" si="34">LOG(J31-J30,10)</f>
+        <f t="shared" ref="L31" si="40">LOG(J31-J30,10)</f>
         <v>3.9012948171655668</v>
       </c>
       <c r="M31" s="6">
@@ -26029,26 +28157,26 @@
         <v>211143</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" ref="C32" si="35">LOG(B32,10)</f>
+        <f t="shared" ref="C32" si="41">LOG(B32,10)</f>
         <v>5.3245766878837477</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" ref="D32" si="36">LOG(B32-B31,10)</f>
+        <f t="shared" ref="D32" si="42">LOG(B32-B31,10)</f>
         <v>4.4257949797266933</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" ref="E32" si="37">B32-B31</f>
+        <f t="shared" ref="E32" si="43">B32-B31</f>
         <v>26656</v>
       </c>
       <c r="J32">
         <v>102179</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" ref="K32" si="38">LOG(J32,10)</f>
+        <f t="shared" ref="K32" si="44">LOG(J32,10)</f>
         <v>5.0093616480369176</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" ref="L32" si="39">LOG(J32-J31,10)</f>
+        <f t="shared" ref="L32" si="45">LOG(J32-J31,10)</f>
         <v>3.7962967400517909</v>
       </c>
       <c r="M32" s="6">
@@ -26086,7 +28214,40 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="14:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>240375</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" ref="C33" si="46">LOG(B33,10)</f>
+        <v>5.3808892972465356</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" ref="D33" si="47">LOG(B33-B32,10)</f>
+        <v>4.4658585300084619</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" ref="E33" si="48">B33-B32</f>
+        <v>29232</v>
+      </c>
+      <c r="J33">
+        <v>110409</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" ref="K33" si="49">LOG(J33,10)</f>
+        <v>5.0430044763916015</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" ref="L33" si="50">LOG(J33-J32,10)</f>
+        <v>3.915399835212269</v>
+      </c>
+      <c r="M33" s="6">
+        <f>J33-J32</f>
+        <v>8230</v>
+      </c>
       <c r="N33" s="7">
         <v>74386</v>
       </c>
@@ -26118,7 +28279,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="14:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="N34" s="7">
         <v>80589</v>
       </c>
@@ -26150,7 +28311,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="14:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="N35" s="7">
         <v>86498</v>
       </c>
@@ -26182,7 +28343,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="14:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="N36" s="7">
         <v>92472</v>
       </c>
@@ -26214,7 +28375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="14:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="N37" s="7">
         <v>97689</v>
       </c>
@@ -26246,7 +28407,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="14:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="N38" s="7">
         <f>Plan1!B38</f>
         <v>101739</v>
@@ -26256,11 +28417,11 @@
         <v>5.0074874646043952</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" ref="P38" si="40">LOG(N38-N37,10)</f>
+        <f t="shared" ref="P38" si="51">LOG(N38-N37,10)</f>
         <v>3.6074550232146683</v>
       </c>
       <c r="Q38" s="6">
-        <f t="shared" ref="Q38" si="41">N38-N37</f>
+        <f t="shared" ref="Q38" si="52">N38-N37</f>
         <v>4050</v>
       </c>
       <c r="Z38" s="11">
@@ -26279,7 +28440,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="14:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="N39">
         <v>105792</v>
       </c>
@@ -26288,11 +28449,11 @@
         <v>5.0244528275553346</v>
       </c>
       <c r="P39" s="4">
-        <f t="shared" ref="P39" si="42">LOG(N39-N38,10)</f>
+        <f t="shared" ref="P39" si="53">LOG(N39-N38,10)</f>
         <v>3.6077766037416925</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" ref="Q39" si="43">N39-N38</f>
+        <f t="shared" ref="Q39" si="54">N39-N38</f>
         <v>4053</v>
       </c>
       <c r="Z39" s="11">
@@ -26311,20 +28472,20 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="14:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="N40">
         <v>110574</v>
       </c>
       <c r="O40" s="4">
-        <f t="shared" ref="O40" si="44">LOG(N40,10)</f>
+        <f t="shared" ref="O40" si="55">LOG(N40,10)</f>
         <v>5.0436530204228687</v>
       </c>
       <c r="P40" s="4">
-        <f t="shared" ref="P40" si="45">LOG(N40-N39,10)</f>
+        <f t="shared" ref="P40" si="56">LOG(N40-N39,10)</f>
         <v>3.6796095717797557</v>
       </c>
       <c r="Q40" s="6">
-        <f t="shared" ref="Q40" si="46">N40-N39</f>
+        <f t="shared" ref="Q40" si="57">N40-N39</f>
         <v>4782</v>
       </c>
       <c r="Z40" s="11">
@@ -26341,6 +28502,23 @@
       <c r="AC40" s="6">
         <f t="shared" si="19"/>
         <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <v>115242</v>
+      </c>
+      <c r="O41" s="4">
+        <f t="shared" ref="O41" si="58">LOG(N41,10)</f>
+        <v>5.061610786760637</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" ref="P41" si="59">LOG(N41-N40,10)</f>
+        <v>3.6691308473733324</v>
+      </c>
+      <c r="Q41" s="6">
+        <f t="shared" ref="Q41" si="60">N41-N40</f>
+        <v>4668</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/dataset_infec.xlsx
+++ b/dataset/dataset_infec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braeued1\Documents\Octavio\projetos\Covid19_data\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657FAC1D-E33C-4B6D-88C2-99A35F434DD6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C67AB5C-A557-4C6F-9B84-8A67A19EFA13}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="62">
   <si>
     <t>day</t>
   </si>
@@ -311,6 +311,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF2F2F2"/>
       <color rgb="FFD9D9D9"/>
     </mruColors>
   </colors>
@@ -602,6 +603,9 @@
                 <c:pt idx="19">
                   <c:v>0.24583333333333332</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20066889632107024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -745,10 +749,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$I$2:$I$33</c:f>
+              <c:f>'Death Rate'!$I$2:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -844,6 +848,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.2321239125822194</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.27277423798863443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,6 +1074,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.241921768707483</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.23416638137624102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1452,6 +1462,9 @@
                 <c:pt idx="19">
                   <c:v>3.7800252844500636E-2</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.9642226148409891E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1490,10 +1503,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$L$2:$L$32</c:f>
+              <c:f>'Death Rate'!$L$2:$L$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
@@ -1586,6 +1599,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2.2321365141160256E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4158086323452937E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.668568230642861E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1614,10 +1633,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Death Rate'!$M$2:$M$30</c:f>
+              <c:f>'Death Rate'!$M$2:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>8.6206896551724137E-3</c:v>
                 </c:pt>
@@ -1704,6 +1723,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>8.6630286493860842E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.4450848878641788E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2119,6 +2141,9 @@
                 <c:pt idx="31">
                   <c:v>1094</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>1584</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2220,6 +2245,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2655,6 +2683,9 @@
                 <c:pt idx="28">
                   <c:v>569</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>684</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2783,7 +2814,7 @@
                   <c:v>667</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>975</c:v>
+                  <c:v>2067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3204,6 +3235,9 @@
                 <c:pt idx="31">
                   <c:v>3.4187500000000001E-6</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.95E-6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3305,6 +3339,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2.8095238095238096E-7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8571428571428569E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3596,7 +3633,7 @@
                   <c:v>1.45E-5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.1195652173913045E-5</c:v>
+                  <c:v>4.493478260869565E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3718,6 +3755,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>8.6212121212121216E-6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0363636363636364E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4138,6 +4178,9 @@
                 <c:pt idx="31">
                   <c:v>3.4187500000000001E-6</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.95E-6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4239,6 +4282,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2.8095238095238096E-7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8571428571428569E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4565,6 +4611,9 @@
                 <c:pt idx="19">
                   <c:v>299</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>359</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4633,6 +4682,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5050,6 +5102,9 @@
                 <c:pt idx="31">
                   <c:v>5807</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>7391</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5154,6 +5209,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1094</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5283,7 +5341,7 @@
                   <c:v>9131</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10106</c:v>
+                  <c:v>11198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5388,7 +5446,7 @@
                   <c:v>667</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>975</c:v>
+                  <c:v>2067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5793,6 +5851,9 @@
                 <c:pt idx="28">
                   <c:v>2921</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>3605</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5888,6 +5949,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6233,6 +6297,9 @@
                 <c:pt idx="19">
                   <c:v>299</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>359</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6301,6 +6368,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6432,6 +6502,9 @@
                 <c:pt idx="31">
                   <c:v>5807</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>7391</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6536,6 +6609,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1094</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6658,6 +6734,9 @@
                 <c:pt idx="28">
                   <c:v>2921</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>3605</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6753,6 +6832,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7181,6 +7263,9 @@
                 <c:pt idx="31">
                   <c:v>240375</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>276965</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7285,6 +7370,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>29232</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36590</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7380,6 +7468,9 @@
                 <c:pt idx="19">
                   <c:v>7910</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>9056</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7448,6 +7539,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1074</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7579,6 +7673,9 @@
                 <c:pt idx="31">
                   <c:v>110409</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>119199</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7683,6 +7780,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>8230</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7838,6 +7938,9 @@
                 <c:pt idx="39">
                   <c:v>115242</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>119827</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7963,6 +8066,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4668</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8257,6 +8363,9 @@
                 <c:pt idx="28">
                   <c:v>33718</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>38168</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8349,6 +8458,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>4244</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8363,9 +8475,6 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
-          <c:tx>
-            <c:v>S Korea</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="9525" cap="rnd">
               <a:solidFill>
@@ -8382,10 +8491,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Cases Var'!$Z$2:$Z$40</c:f>
+              <c:f>'Cases Var'!$Z$2:$Z$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>111</c:v>
                 </c:pt>
@@ -8502,16 +8611,31 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>9583</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9661</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9786</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9887</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9976</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Cases Var'!$AC$2:$AC$40</c:f>
+              <c:f>'Cases Var'!$AC$2:$AC$45</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="1">
                   <c:v>98</c:v>
                 </c:pt>
@@ -8625,6 +8749,21 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9195,7 +9334,7 @@
             <c:strRef>
               <c:f>'Cases Var'!$G:$G</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>BRA cases log</c:v>
                 </c:pt>
@@ -9258,6 +9397,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3,90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3,96</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9330,6 +9472,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3.0310042813635367</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.0591846176313711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9375,7 +9520,7 @@
             <c:strRef>
               <c:f>'Cases Var'!$K:$K</c:f>
               <c:strCache>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>Spain cases Log</c:v>
                 </c:pt>
@@ -9474,6 +9619,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>5,04</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5,08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9582,6 +9730,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>3.915399835212269</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.9439888750737717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9627,7 +9778,7 @@
             <c:strRef>
               <c:f>'Cases Var'!$O:$O</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>Italy cases Log</c:v>
                 </c:pt>
@@ -9750,6 +9901,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>5,06</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5,08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9879,6 +10033,9 @@
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00">
                   <c:v>3.6691308473733324</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00">
+                  <c:v>3.6613393400060401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9924,7 +10081,7 @@
             <c:strRef>
               <c:f>'Cases Var'!$AA:$AA</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>S Korea cases Log</c:v>
                 </c:pt>
@@ -10044,6 +10201,21 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>3,98</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3,99</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3,99</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4,00</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4,00</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4,00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10170,6 +10342,21 @@
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00">
                   <c:v>2.0211892990699378</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00">
+                  <c:v>1.8920946026904801</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00">
+                  <c:v>2.0969100130080562</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.00">
+                  <c:v>2.0043213737826426</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.00">
+                  <c:v>1.9493900066449126</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.00">
+                  <c:v>1.9344984512435675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10304,6 +10491,9 @@
                 <c:pt idx="28">
                   <c:v>4.5278618063227016</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5816994035508687</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10396,6 +10586,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3.6277753752293025</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.6483600109809311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15669,6 +15862,75 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A61D42-6896-4FC8-AEB6-2941130C7A9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="1695450"/>
+          <a:ext cx="5086350" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+            <a:alpha val="52157"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16262,10 +16524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B41"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16307,7 +16569,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D60" si="0">LOG(B2,10)</f>
+        <f t="shared" ref="D2:D61" si="0">LOG(B2,10)</f>
         <v>2.1958996524092336</v>
       </c>
       <c r="E2" t="s">
@@ -17297,2456 +17559,2480 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>119827</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42" si="10">(B42-B41)/B41</f>
+        <v>3.9785841967338295E-2</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="11">LOG(B42,10)</f>
+        <v>5.078554686415881</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G42">
+        <v>14681</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>1</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>100</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>0</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F43" s="1">
         <v>43892</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>2</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>124</v>
       </c>
-      <c r="C43">
-        <f t="shared" ref="C43:C60" si="10">(B43-B42)/B42</f>
+      <c r="C44">
+        <f t="shared" ref="C44:C61" si="12">(B44-B43)/B43</f>
         <v>0.24</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <f t="shared" si="0"/>
         <v>2.0934216851622351</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F44" s="1">
         <v>43893</v>
       </c>
-      <c r="G43">
+      <c r="G44">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>3</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>158</v>
       </c>
-      <c r="C44">
-        <f t="shared" si="10"/>
+      <c r="C45">
+        <f t="shared" si="12"/>
         <v>0.27419354838709675</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <f t="shared" si="0"/>
         <v>2.1986570869544226</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F45" s="1">
         <v>43894</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>4</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>221</v>
       </c>
-      <c r="C45">
-        <f t="shared" si="10"/>
+      <c r="C46">
+        <f t="shared" si="12"/>
         <v>0.39873417721518989</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <f t="shared" si="0"/>
         <v>2.3443922736851102</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F46" s="1">
         <v>43895</v>
       </c>
-      <c r="G45">
+      <c r="G46">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>5</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>319</v>
       </c>
-      <c r="C46">
-        <f t="shared" si="10"/>
+      <c r="C47">
+        <f t="shared" si="12"/>
         <v>0.4434389140271493</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <f t="shared" si="0"/>
         <v>2.503790683057181</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F47" s="1">
         <v>43896</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>6</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>435</v>
       </c>
-      <c r="C47">
-        <f t="shared" si="10"/>
+      <c r="C48">
+        <f t="shared" si="12"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <f t="shared" si="0"/>
         <v>2.638489256954637</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F48" s="1">
         <v>43897</v>
       </c>
-      <c r="G47">
+      <c r="G48">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>7</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>541</v>
       </c>
-      <c r="C48">
-        <f t="shared" si="10"/>
+      <c r="C49">
+        <f t="shared" si="12"/>
         <v>0.24367816091954023</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <f t="shared" si="0"/>
         <v>2.7331972651065688</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>6</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F49" s="1">
         <v>43898</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>8</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>704</v>
       </c>
-      <c r="C49">
-        <f t="shared" si="10"/>
+      <c r="C50">
+        <f t="shared" si="12"/>
         <v>0.30129390018484287</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <f t="shared" si="0"/>
         <v>2.847572659142112</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F50" s="1">
         <v>43899</v>
       </c>
-      <c r="G49">
+      <c r="G50">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>9</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>994</v>
       </c>
-      <c r="C50">
-        <f t="shared" si="10"/>
+      <c r="C51">
+        <f t="shared" si="12"/>
         <v>0.41193181818181818</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <f t="shared" si="0"/>
         <v>2.9973863843973132</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F51" s="1">
         <v>43900</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>10</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>1301</v>
       </c>
-      <c r="C51">
-        <f t="shared" si="10"/>
+      <c r="C52">
+        <f t="shared" si="12"/>
         <v>0.30885311871227367</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <f t="shared" si="0"/>
         <v>3.1142772965615859</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F52" s="1">
         <v>43901</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>11</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>1697</v>
       </c>
-      <c r="C52">
-        <f t="shared" si="10"/>
+      <c r="C53">
+        <f t="shared" si="12"/>
         <v>0.30438124519600307</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <f t="shared" si="0"/>
         <v>3.2296818423176754</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F53" s="1">
         <v>43902</v>
       </c>
-      <c r="G52">
+      <c r="G53">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>12</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>2247</v>
       </c>
-      <c r="C53">
-        <f t="shared" si="10"/>
+      <c r="C54">
+        <f t="shared" si="12"/>
         <v>0.32410135533294049</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <f t="shared" si="0"/>
         <v>3.3516030724191288</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F54" s="1">
         <v>43903</v>
       </c>
-      <c r="G53">
+      <c r="G54">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>13</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>2943</v>
       </c>
-      <c r="C54">
-        <f t="shared" si="10"/>
+      <c r="C55">
+        <f t="shared" si="12"/>
         <v>0.30974632843791722</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <f t="shared" si="0"/>
         <v>3.4687902620996107</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>6</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F55" s="1">
         <v>43904</v>
       </c>
-      <c r="G54">
+      <c r="G55">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>14</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>3680</v>
       </c>
-      <c r="C55">
-        <f t="shared" si="10"/>
+      <c r="C56">
+        <f t="shared" si="12"/>
         <v>0.25042473666326875</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <f t="shared" si="0"/>
         <v>3.5658478186735172</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F56" s="1">
         <v>43905</v>
       </c>
-      <c r="G55">
+      <c r="G56">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>15</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>4663</v>
       </c>
-      <c r="C56">
-        <f t="shared" si="10"/>
+      <c r="C57">
+        <f t="shared" si="12"/>
         <v>0.26711956521739133</v>
       </c>
-      <c r="D56">
+      <c r="D57">
         <f t="shared" si="0"/>
         <v>3.6686654154544915</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F57" s="1">
         <v>43906</v>
       </c>
-      <c r="G56">
+      <c r="G57">
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>16</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>6411</v>
       </c>
-      <c r="C57">
-        <f t="shared" si="10"/>
+      <c r="C58">
+        <f t="shared" si="12"/>
         <v>0.37486596611623418</v>
       </c>
-      <c r="D57">
+      <c r="D58">
         <f t="shared" si="0"/>
         <v>3.8069257768837312</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F58" s="1">
         <v>43907</v>
       </c>
-      <c r="G57">
+      <c r="G58">
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>17</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>9259</v>
       </c>
-      <c r="C58">
-        <f t="shared" si="10"/>
+      <c r="C59">
+        <f t="shared" si="12"/>
         <v>0.44423646856964594</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <f t="shared" si="0"/>
         <v>3.96656408409731</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>6</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F59" s="1">
         <v>43908</v>
       </c>
-      <c r="G58">
+      <c r="G59">
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>18</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>13789</v>
       </c>
-      <c r="C59">
-        <f t="shared" si="10"/>
+      <c r="C60">
+        <f t="shared" si="12"/>
         <v>0.48925369910357491</v>
       </c>
-      <c r="D59">
+      <c r="D60">
         <f t="shared" si="0"/>
         <v>4.1395327715979393</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>6</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F60" s="1">
         <v>43909</v>
       </c>
-      <c r="G59">
+      <c r="G60">
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>19</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>19383</v>
       </c>
-      <c r="C60">
-        <f t="shared" si="10"/>
+      <c r="C61">
+        <f t="shared" si="12"/>
         <v>0.40568569149321926</v>
       </c>
-      <c r="D60">
+      <c r="D61">
         <f t="shared" si="0"/>
         <v>4.287420995759831</v>
       </c>
-      <c r="E60" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="1">
-        <v>43910</v>
-      </c>
-      <c r="G60">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>20</v>
-      </c>
-      <c r="B61">
-        <v>24207</v>
-      </c>
-      <c r="C61">
-        <f t="shared" ref="C61:C64" si="11">(B61-B60)/B60</f>
-        <v>0.24887788268069957</v>
-      </c>
-      <c r="D61">
-        <f t="shared" ref="D61:D64" si="12">LOG(B61,10)</f>
-        <v>4.3839409701862078</v>
-      </c>
       <c r="E61" t="s">
         <v>6</v>
       </c>
       <c r="F61" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="G61">
-        <v>302</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B62">
-        <v>33546</v>
+        <v>24207</v>
       </c>
       <c r="C62">
-        <f t="shared" si="11"/>
-        <v>0.38579749659189488</v>
+        <f t="shared" ref="C62:C65" si="13">(B62-B61)/B61</f>
+        <v>0.24887788268069957</v>
       </c>
       <c r="D62">
-        <f t="shared" si="12"/>
-        <v>4.5256407426423158</v>
+        <f t="shared" ref="D62:D65" si="14">LOG(B62,10)</f>
+        <v>4.3839409701862078</v>
       </c>
       <c r="E62" t="s">
         <v>6</v>
       </c>
       <c r="F62" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="G62">
-        <v>419</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B63">
-        <v>42751</v>
+        <v>33546</v>
       </c>
       <c r="C63">
-        <f t="shared" si="11"/>
-        <v>0.27439933226018004</v>
+        <f t="shared" si="13"/>
+        <v>0.38579749659189488</v>
       </c>
       <c r="D63">
-        <f t="shared" si="12"/>
-        <v>4.6309462778806241</v>
+        <f t="shared" si="14"/>
+        <v>4.5256407426423158</v>
       </c>
       <c r="E63" t="s">
         <v>6</v>
       </c>
       <c r="F63" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="G63">
-        <v>520</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B64">
-        <v>54881</v>
+        <v>42751</v>
       </c>
       <c r="C64">
-        <f t="shared" si="11"/>
-        <v>0.28373605295782556</v>
+        <f t="shared" si="13"/>
+        <v>0.27439933226018004</v>
       </c>
       <c r="D64">
-        <f t="shared" si="12"/>
-        <v>4.7394220161557863</v>
+        <f t="shared" si="14"/>
+        <v>4.6309462778806241</v>
       </c>
       <c r="E64" t="s">
         <v>6</v>
       </c>
       <c r="F64" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="G64">
-        <v>780</v>
+        <v>520</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B65">
-        <v>64775</v>
+        <v>54881</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:C67" si="13">(B65-B64)/B64</f>
-        <v>0.18028097155664075</v>
+        <f t="shared" si="13"/>
+        <v>0.28373605295782556</v>
       </c>
       <c r="D65">
-        <f t="shared" ref="D65:D67" si="14">LOG(B65,10)</f>
-        <v>4.8114074216578624</v>
+        <f t="shared" si="14"/>
+        <v>4.7394220161557863</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
       </c>
       <c r="F65" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="G65">
-        <v>910</v>
+        <v>780</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66">
-        <v>82179</v>
+        <v>64775</v>
       </c>
       <c r="C66">
-        <f t="shared" si="13"/>
-        <v>0.26868390582786567</v>
+        <f t="shared" ref="C66:C68" si="15">(B66-B65)/B65</f>
+        <v>0.18028097155664075</v>
       </c>
       <c r="D66">
-        <f t="shared" si="14"/>
-        <v>4.9147608522200317</v>
+        <f t="shared" ref="D66:D68" si="16">LOG(B66,10)</f>
+        <v>4.8114074216578624</v>
       </c>
       <c r="E66" t="s">
         <v>6</v>
       </c>
       <c r="F66" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="G66">
-        <v>1177</v>
+        <v>910</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B67">
-        <v>103729</v>
+        <v>82179</v>
       </c>
       <c r="C67">
-        <f t="shared" si="13"/>
-        <v>0.26223244381167937</v>
+        <f t="shared" si="15"/>
+        <v>0.26868390582786567</v>
       </c>
       <c r="D67">
-        <f t="shared" si="14"/>
-        <v>5.015900191097372</v>
+        <f t="shared" si="16"/>
+        <v>4.9147608522200317</v>
       </c>
       <c r="E67" t="s">
         <v>6</v>
       </c>
       <c r="F67" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="G67">
-        <v>1693</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B68">
-        <v>120529</v>
+        <v>103729</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C70" si="15">(B68-B67)/B67</f>
-        <v>0.16196049320826383</v>
+        <f t="shared" si="15"/>
+        <v>0.26223244381167937</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D70" si="16">LOG(B68,10)</f>
-        <v>5.0810915533398715</v>
+        <f t="shared" si="16"/>
+        <v>5.015900191097372</v>
       </c>
       <c r="E68" t="s">
         <v>6</v>
       </c>
       <c r="F68" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="G68">
-        <v>2008</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B69">
-        <v>142460</v>
+        <v>120529</v>
       </c>
       <c r="C69">
-        <f t="shared" si="15"/>
-        <v>0.18195620970886675</v>
+        <f t="shared" ref="C69:C71" si="17">(B69-B68)/B68</f>
+        <v>0.16196049320826383</v>
       </c>
       <c r="D69">
-        <f t="shared" si="16"/>
-        <v>5.1536929400085496</v>
+        <f t="shared" ref="D69:D71" si="18">LOG(B69,10)</f>
+        <v>5.0810915533398715</v>
       </c>
       <c r="E69" t="s">
         <v>6</v>
       </c>
       <c r="F69" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="G69">
-        <v>2484</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B70">
-        <v>160344</v>
+        <v>142460</v>
       </c>
       <c r="C70">
-        <f t="shared" si="15"/>
-        <v>0.12553699284009545</v>
+        <f t="shared" si="17"/>
+        <v>0.18195620970886675</v>
       </c>
       <c r="D70">
-        <f t="shared" si="16"/>
-        <v>5.2050527134653057</v>
+        <f t="shared" si="18"/>
+        <v>5.1536929400085496</v>
       </c>
       <c r="E70" t="s">
         <v>6</v>
       </c>
       <c r="F70" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="G70">
-        <v>2953</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B71">
-        <v>184487</v>
+        <v>160344</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:C73" si="17">(B71-B70)/B70</f>
-        <v>0.150570024447438</v>
+        <f t="shared" si="17"/>
+        <v>0.12553699284009545</v>
       </c>
       <c r="D71">
-        <f t="shared" ref="D71:D73" si="18">LOG(B71,10)</f>
-        <v>5.2659657687217525</v>
+        <f t="shared" si="18"/>
+        <v>5.2050527134653057</v>
       </c>
       <c r="E71" t="s">
         <v>6</v>
       </c>
       <c r="F71" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="G71">
-        <v>3756</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B72">
-        <v>211143</v>
+        <v>184487</v>
       </c>
       <c r="C72">
-        <f t="shared" si="17"/>
-        <v>0.14448714543572175</v>
+        <f t="shared" ref="C72:C74" si="19">(B72-B71)/B71</f>
+        <v>0.150570024447438</v>
       </c>
       <c r="D72">
-        <f t="shared" si="18"/>
-        <v>5.3245766878837477</v>
+        <f t="shared" ref="D72:D74" si="20">LOG(B72,10)</f>
+        <v>5.2659657687217525</v>
       </c>
       <c r="E72" t="s">
         <v>6</v>
       </c>
       <c r="F72" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="G72">
-        <v>4713</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B73">
-        <v>240375</v>
+        <v>211143</v>
       </c>
       <c r="C73">
-        <f t="shared" si="17"/>
-        <v>0.13844645571958342</v>
+        <f t="shared" si="19"/>
+        <v>0.14448714543572175</v>
       </c>
       <c r="D73">
-        <f t="shared" si="18"/>
-        <v>5.3808892972465356</v>
+        <f t="shared" si="20"/>
+        <v>5.3245766878837477</v>
       </c>
       <c r="E73" t="s">
         <v>6</v>
       </c>
       <c r="F73" s="1">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="G73">
-        <v>5807</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B74">
-        <v>120</v>
+        <v>240375</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>0.13844645571958342</v>
       </c>
       <c r="D74">
-        <f t="shared" ref="D74:D142" si="19">LOG(B74,10)</f>
-        <v>2.0791812460476247</v>
+        <f t="shared" si="20"/>
+        <v>5.3808892972465356</v>
       </c>
       <c r="E74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74" s="1">
-        <v>43892</v>
+        <v>43923</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>5807</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B75">
-        <v>165</v>
+        <v>276965</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:C93" si="20">(B75-B74)/B74</f>
-        <v>0.375</v>
+        <f t="shared" ref="C75" si="21">(B75-B74)/B74</f>
+        <v>0.15222048881955277</v>
       </c>
       <c r="D75">
-        <f t="shared" si="19"/>
-        <v>2.2174839442139058</v>
+        <f t="shared" ref="D75" si="22">LOG(B75,10)</f>
+        <v>5.4424248908433084</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F75" s="1">
-        <v>43893</v>
+        <v>43924</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>7391</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B76">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="C76">
-        <f t="shared" si="20"/>
-        <v>0.38181818181818183</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <f t="shared" si="19"/>
-        <v>2.3579348470004535</v>
+        <f t="shared" ref="D76:D146" si="23">LOG(B76,10)</f>
+        <v>2.0791812460476247</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
       </c>
       <c r="F76" s="1">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B77">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="C77">
-        <f t="shared" si="20"/>
-        <v>0.23684210526315788</v>
+        <f t="shared" ref="C77:C95" si="24">(B77-B76)/B76</f>
+        <v>0.375</v>
       </c>
       <c r="D77">
-        <f t="shared" si="19"/>
-        <v>2.4502491083193609</v>
+        <f t="shared" si="23"/>
+        <v>2.2174839442139058</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
       </c>
       <c r="F77" s="1">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B78">
-        <v>401</v>
+        <v>228</v>
       </c>
       <c r="C78">
-        <f t="shared" si="20"/>
-        <v>0.42198581560283688</v>
+        <f t="shared" si="24"/>
+        <v>0.38181818181818183</v>
       </c>
       <c r="D78">
-        <f t="shared" si="19"/>
-        <v>2.6031443726201822</v>
+        <f t="shared" si="23"/>
+        <v>2.3579348470004535</v>
       </c>
       <c r="E78" t="s">
         <v>7</v>
       </c>
       <c r="F78" s="1">
-        <v>43896</v>
+        <v>43894</v>
       </c>
       <c r="G78">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B79">
-        <v>525</v>
+        <v>282</v>
       </c>
       <c r="C79">
-        <f t="shared" si="20"/>
-        <v>0.30922693266832918</v>
+        <f t="shared" si="24"/>
+        <v>0.23684210526315788</v>
       </c>
       <c r="D79">
-        <f t="shared" si="19"/>
-        <v>2.7201593034059566</v>
+        <f t="shared" si="23"/>
+        <v>2.4502491083193609</v>
       </c>
       <c r="E79" t="s">
         <v>7</v>
       </c>
       <c r="F79" s="1">
-        <v>43897</v>
+        <v>43895</v>
       </c>
       <c r="G79">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B80">
-        <v>674</v>
+        <v>401</v>
       </c>
       <c r="C80">
-        <f t="shared" si="20"/>
-        <v>0.28380952380952379</v>
+        <f t="shared" si="24"/>
+        <v>0.42198581560283688</v>
       </c>
       <c r="D80">
-        <f t="shared" si="19"/>
-        <v>2.8286598965353194</v>
+        <f t="shared" si="23"/>
+        <v>2.6031443726201822</v>
       </c>
       <c r="E80" t="s">
         <v>7</v>
       </c>
       <c r="F80" s="1">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G80">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B81">
-        <v>1231</v>
+        <v>525</v>
       </c>
       <c r="C81">
-        <f t="shared" si="20"/>
-        <v>0.82640949554896137</v>
+        <f t="shared" si="24"/>
+        <v>0.30922693266832918</v>
       </c>
       <c r="D81">
-        <f t="shared" si="19"/>
-        <v>3.0902580529313162</v>
+        <f t="shared" si="23"/>
+        <v>2.7201593034059566</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
       </c>
       <c r="F81" s="1">
-        <v>43899</v>
+        <v>43897</v>
       </c>
       <c r="G81">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B82">
-        <v>1695</v>
+        <v>674</v>
       </c>
       <c r="C82">
-        <f t="shared" si="20"/>
-        <v>0.37692932575142163</v>
+        <f t="shared" si="24"/>
+        <v>0.28380952380952379</v>
       </c>
       <c r="D82">
-        <f t="shared" si="19"/>
-        <v>3.2291697025391004</v>
+        <f t="shared" si="23"/>
+        <v>2.8286598965353194</v>
       </c>
       <c r="E82" t="s">
         <v>7</v>
       </c>
       <c r="F82" s="1">
-        <v>43900</v>
+        <v>43898</v>
       </c>
       <c r="G82">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B83">
-        <v>2277</v>
+        <v>1231</v>
       </c>
       <c r="C83">
-        <f t="shared" si="20"/>
-        <v>0.3433628318584071</v>
+        <f t="shared" si="24"/>
+        <v>0.82640949554896137</v>
       </c>
       <c r="D83">
-        <f t="shared" si="19"/>
-        <v>3.3573630306151423</v>
+        <f t="shared" si="23"/>
+        <v>3.0902580529313162</v>
       </c>
       <c r="E83" t="s">
         <v>7</v>
       </c>
       <c r="F83" s="1">
-        <v>43901</v>
+        <v>43899</v>
       </c>
       <c r="G83">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B84">
-        <v>3146</v>
+        <v>1695</v>
       </c>
       <c r="C84">
-        <f t="shared" si="20"/>
-        <v>0.38164251207729466</v>
+        <f t="shared" si="24"/>
+        <v>0.37692932575142163</v>
       </c>
       <c r="D84">
-        <f t="shared" si="19"/>
-        <v>3.4977587182872676</v>
+        <f t="shared" si="23"/>
+        <v>3.2291697025391004</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
       </c>
       <c r="F84" s="1">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="G84">
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B85">
-        <v>5232</v>
+        <v>2277</v>
       </c>
       <c r="C85">
-        <f t="shared" si="20"/>
-        <v>0.66306420851875403</v>
+        <f t="shared" si="24"/>
+        <v>0.3433628318584071</v>
       </c>
       <c r="D85">
-        <f t="shared" si="19"/>
-        <v>3.7186677353162101</v>
+        <f t="shared" si="23"/>
+        <v>3.3573630306151423</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
       </c>
       <c r="F85" s="1">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="G85">
-        <v>133</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B86">
-        <v>6391</v>
+        <v>3146</v>
       </c>
       <c r="C86">
-        <f t="shared" si="20"/>
-        <v>0.22152140672782875</v>
+        <f t="shared" si="24"/>
+        <v>0.38164251207729466</v>
       </c>
       <c r="D86">
-        <f t="shared" si="19"/>
-        <v>3.8055688175485556</v>
+        <f t="shared" si="23"/>
+        <v>3.4977587182872676</v>
       </c>
       <c r="E86" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="1">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="G86">
-        <v>196</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B87">
-        <v>7988</v>
+        <v>5232</v>
       </c>
       <c r="C87">
-        <f t="shared" si="20"/>
-        <v>0.24988264747300892</v>
+        <f t="shared" si="24"/>
+        <v>0.66306420851875403</v>
       </c>
       <c r="D87">
-        <f t="shared" si="19"/>
-        <v>3.9024380561986645</v>
+        <f t="shared" si="23"/>
+        <v>3.7186677353162101</v>
       </c>
       <c r="E87" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="1">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="G87">
-        <v>294</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B88">
-        <v>9942</v>
+        <v>6391</v>
       </c>
       <c r="C88">
-        <f t="shared" si="20"/>
-        <v>0.24461692538808213</v>
+        <f t="shared" si="24"/>
+        <v>0.22152140672782875</v>
       </c>
       <c r="D88">
-        <f t="shared" si="19"/>
-        <v>3.9974737588029798</v>
+        <f t="shared" si="23"/>
+        <v>3.8055688175485556</v>
       </c>
       <c r="E88" t="s">
         <v>7</v>
       </c>
       <c r="F88" s="1">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="G88">
-        <v>342</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B89">
-        <v>11826</v>
+        <v>7988</v>
       </c>
       <c r="C89">
-        <f t="shared" si="20"/>
-        <v>0.18949909474954738</v>
+        <f t="shared" si="24"/>
+        <v>0.24988264747300892</v>
       </c>
       <c r="D89">
-        <f t="shared" si="19"/>
-        <v>4.0728378746630858</v>
+        <f t="shared" si="23"/>
+        <v>3.9024380561986645</v>
       </c>
       <c r="E89" t="s">
         <v>7</v>
       </c>
       <c r="F89" s="1">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="G89">
-        <v>533</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B90">
-        <v>14769</v>
+        <v>9942</v>
       </c>
       <c r="C90">
-        <f t="shared" si="20"/>
-        <v>0.24885844748858446</v>
+        <f t="shared" si="24"/>
+        <v>0.24461692538808213</v>
       </c>
       <c r="D90">
-        <f t="shared" si="19"/>
-        <v>4.1693510904924178</v>
+        <f t="shared" si="23"/>
+        <v>3.9974737588029798</v>
       </c>
       <c r="E90" t="s">
         <v>7</v>
       </c>
       <c r="F90" s="1">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="G90">
-        <v>638</v>
+        <v>342</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B91">
-        <v>18077</v>
+        <v>11826</v>
       </c>
       <c r="C91">
-        <f t="shared" si="20"/>
-        <v>0.22398266639582909</v>
+        <f t="shared" si="24"/>
+        <v>0.18949909474954738</v>
       </c>
       <c r="D91">
-        <f t="shared" si="19"/>
-        <v>4.2571263580225924</v>
+        <f t="shared" si="23"/>
+        <v>4.0728378746630858</v>
       </c>
       <c r="E91" t="s">
         <v>7</v>
       </c>
       <c r="F91" s="1">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="G91">
-        <v>831</v>
+        <v>533</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B92">
-        <v>21571</v>
+        <v>14769</v>
       </c>
       <c r="C92">
-        <f t="shared" si="20"/>
-        <v>0.19328428389666427</v>
+        <f t="shared" si="24"/>
+        <v>0.24885844748858446</v>
       </c>
       <c r="D92">
-        <f t="shared" si="19"/>
-        <v>4.3338702788260086</v>
+        <f t="shared" si="23"/>
+        <v>4.1693510904924178</v>
       </c>
       <c r="E92" t="s">
         <v>7</v>
       </c>
       <c r="F92" s="1">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="G92">
-        <v>1093</v>
+        <v>638</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B93">
-        <v>25496</v>
+        <v>18077</v>
       </c>
       <c r="C93">
-        <f t="shared" si="20"/>
-        <v>0.18195725742895555</v>
+        <f t="shared" si="24"/>
+        <v>0.22398266639582909</v>
       </c>
       <c r="D93">
-        <f t="shared" si="19"/>
-        <v>4.406472050465676</v>
+        <f t="shared" si="23"/>
+        <v>4.2571263580225924</v>
       </c>
       <c r="E93" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="1">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="G93">
-        <v>1381</v>
+        <v>831</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B94">
-        <v>28603</v>
+        <v>21571</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:C97" si="21">(B94-B93)/B93</f>
-        <v>0.12186225290241606</v>
+        <f t="shared" si="24"/>
+        <v>0.19328428389666427</v>
       </c>
       <c r="D94">
-        <f t="shared" ref="D94:D97" si="22">LOG(B94,10)</f>
-        <v>4.456411586105177</v>
+        <f t="shared" si="23"/>
+        <v>4.3338702788260086</v>
       </c>
       <c r="E94" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="1">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="G94">
-        <v>1756</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B95">
-        <v>33089</v>
+        <v>25496</v>
       </c>
       <c r="C95">
-        <f t="shared" si="21"/>
-        <v>0.15683669545152606</v>
+        <f t="shared" si="24"/>
+        <v>0.18195725742895555</v>
       </c>
       <c r="D95">
-        <f t="shared" si="22"/>
-        <v>4.5196836423171698</v>
+        <f t="shared" si="23"/>
+        <v>4.406472050465676</v>
       </c>
       <c r="E95" t="s">
         <v>7</v>
       </c>
       <c r="F95" s="1">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="G95">
-        <v>2207</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B96">
-        <v>42058</v>
+        <v>28603</v>
       </c>
       <c r="C96">
-        <f t="shared" si="21"/>
-        <v>0.27105684668620994</v>
+        <f t="shared" ref="C96:C99" si="25">(B96-B95)/B95</f>
+        <v>0.12186225290241606</v>
       </c>
       <c r="D96">
-        <f t="shared" si="22"/>
-        <v>4.6238486166713759</v>
+        <f t="shared" ref="D96:D99" si="26">LOG(B96,10)</f>
+        <v>4.456411586105177</v>
       </c>
       <c r="E96" t="s">
         <v>7</v>
       </c>
       <c r="F96" s="1">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="G96">
-        <v>2991</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B97">
-        <v>47611</v>
+        <v>33089</v>
       </c>
       <c r="C97">
-        <f t="shared" si="21"/>
-        <v>0.1320319558704646</v>
+        <f t="shared" si="25"/>
+        <v>0.15683669545152606</v>
       </c>
       <c r="D97">
-        <f t="shared" si="22"/>
-        <v>4.677707303295997</v>
+        <f t="shared" si="26"/>
+        <v>4.5196836423171698</v>
       </c>
       <c r="E97" t="s">
         <v>7</v>
       </c>
       <c r="F97" s="1">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="G97">
-        <v>3445</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B98">
-        <v>56347</v>
+        <v>42058</v>
       </c>
       <c r="C98">
-        <f>(B98-B97)/B97</f>
-        <v>0.18348700930457248</v>
+        <f t="shared" si="25"/>
+        <v>0.27105684668620994</v>
       </c>
       <c r="D98">
-        <f t="shared" ref="D98:D100" si="23">LOG(B98,10)</f>
-        <v>4.7508707984987382</v>
+        <f t="shared" si="26"/>
+        <v>4.6238486166713759</v>
       </c>
       <c r="E98" t="s">
         <v>7</v>
       </c>
       <c r="F98" s="1">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="G98">
-        <v>4154</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B99">
-        <v>65719</v>
+        <v>47611</v>
       </c>
       <c r="C99">
-        <f t="shared" ref="C99:C100" si="24">(B99-B98)/B98</f>
-        <v>0.16632651250288391</v>
+        <f t="shared" si="25"/>
+        <v>0.1320319558704646</v>
       </c>
       <c r="D99">
-        <f t="shared" si="23"/>
-        <v>4.8176909464583062</v>
+        <f t="shared" si="26"/>
+        <v>4.677707303295997</v>
       </c>
       <c r="E99" t="s">
         <v>7</v>
       </c>
       <c r="F99" s="1">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="G99">
-        <v>5138</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B100">
-        <v>73232</v>
+        <v>56347</v>
       </c>
       <c r="C100">
-        <f t="shared" si="24"/>
-        <v>0.11432005964789482</v>
+        <f>(B100-B99)/B99</f>
+        <v>0.18348700930457248</v>
       </c>
       <c r="D100">
-        <f t="shared" si="23"/>
-        <v>4.8647008950832236</v>
+        <f t="shared" ref="D100:D102" si="27">LOG(B100,10)</f>
+        <v>4.7508707984987382</v>
       </c>
       <c r="E100" t="s">
         <v>7</v>
       </c>
       <c r="F100" s="1">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="G100">
-        <v>5982</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B101">
-        <v>80110</v>
+        <v>65719</v>
       </c>
       <c r="C101">
-        <f>(B101-B100)/B100</f>
-        <v>9.3920690408564558E-2</v>
+        <f t="shared" ref="C101:C102" si="28">(B101-B100)/B100</f>
+        <v>0.16632651250288391</v>
       </c>
       <c r="D101">
-        <f t="shared" ref="D101:D104" si="25">LOG(B101,10)</f>
-        <v>4.903686731736502</v>
+        <f t="shared" si="27"/>
+        <v>4.8176909464583062</v>
       </c>
       <c r="E101" t="s">
         <v>7</v>
       </c>
       <c r="F101" s="1">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="G101">
-        <v>6803</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B102">
-        <v>87956</v>
+        <v>73232</v>
       </c>
       <c r="C102">
-        <f t="shared" ref="C102" si="26">(B102-B101)/B101</f>
-        <v>9.794033204344027E-2</v>
+        <f t="shared" si="28"/>
+        <v>0.11432005964789482</v>
       </c>
       <c r="D102">
-        <f t="shared" si="25"/>
-        <v>4.9442654706043037</v>
+        <f t="shared" si="27"/>
+        <v>4.8647008950832236</v>
       </c>
       <c r="E102" t="s">
         <v>7</v>
       </c>
       <c r="F102" s="1">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="G102">
-        <v>7716</v>
+        <v>5982</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B103">
-        <v>95923</v>
+        <v>80110</v>
       </c>
       <c r="C103">
         <f>(B103-B102)/B102</f>
-        <v>9.0579380599390608E-2</v>
+        <v>9.3920690408564558E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" si="25"/>
-        <v>4.9819227529001289</v>
+        <f t="shared" ref="D103:D106" si="29">LOG(B103,10)</f>
+        <v>4.903686731736502</v>
       </c>
       <c r="E103" t="s">
         <v>7</v>
       </c>
       <c r="F103" s="1">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="G103">
-        <v>8464</v>
+        <v>6803</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B104">
-        <v>102179</v>
+        <v>87956</v>
       </c>
       <c r="C104">
-        <f t="shared" ref="C104:C105" si="27">(B104-B103)/B103</f>
-        <v>6.5218977721714297E-2</v>
+        <f t="shared" ref="C104" si="30">(B104-B103)/B103</f>
+        <v>9.794033204344027E-2</v>
       </c>
       <c r="D104">
-        <f t="shared" si="25"/>
-        <v>5.0093616480369176</v>
+        <f t="shared" si="29"/>
+        <v>4.9442654706043037</v>
       </c>
       <c r="E104" t="s">
         <v>7</v>
       </c>
       <c r="F104" s="1">
-        <v>43922</v>
+        <v>43920</v>
       </c>
       <c r="G104">
-        <v>9131</v>
+        <v>7716</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B105">
-        <v>110409</v>
+        <v>95923</v>
       </c>
       <c r="C105">
-        <f t="shared" si="27"/>
-        <v>8.0544926061128022E-2</v>
+        <f>(B105-B104)/B104</f>
+        <v>9.0579380599390608E-2</v>
       </c>
       <c r="D105">
-        <f t="shared" ref="D105" si="28">LOG(B105,10)</f>
-        <v>5.0430044763916015</v>
+        <f t="shared" si="29"/>
+        <v>4.9819227529001289</v>
       </c>
       <c r="E105" t="s">
         <v>7</v>
       </c>
       <c r="F105" s="1">
-        <v>43923</v>
+        <v>43921</v>
       </c>
       <c r="G105">
-        <v>10106</v>
+        <v>8464</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B106">
-        <v>151</v>
+        <v>102179</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <f t="shared" ref="C106:C107" si="31">(B106-B105)/B105</f>
+        <v>6.5218977721714297E-2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="19"/>
-        <v>2.1789769472931693</v>
+        <f t="shared" si="29"/>
+        <v>5.0093616480369176</v>
       </c>
       <c r="E106" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F106" s="1">
-        <v>43904</v>
+        <v>43922</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>9131</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B107">
-        <v>200</v>
+        <v>110409</v>
       </c>
       <c r="C107">
-        <f t="shared" ref="C107:C158" si="29">(B107-B106)/B106</f>
-        <v>0.32450331125827814</v>
+        <f t="shared" si="31"/>
+        <v>8.0544926061128022E-2</v>
       </c>
       <c r="D107">
-        <f t="shared" si="19"/>
-        <v>2.3010299956639808</v>
+        <f t="shared" ref="D107:D108" si="32">LOG(B107,10)</f>
+        <v>5.0430044763916015</v>
       </c>
       <c r="E107" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F107" s="1">
-        <v>43905</v>
+        <v>43923</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>10106</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B108">
-        <v>234</v>
+        <v>119199</v>
       </c>
       <c r="C108">
-        <f t="shared" si="29"/>
-        <v>0.17</v>
+        <f>(B108-B107)/B107</f>
+        <v>7.9613075021058063E-2</v>
       </c>
       <c r="D108">
-        <f t="shared" si="19"/>
-        <v>2.3692158574101425</v>
+        <f t="shared" si="32"/>
+        <v>5.076272611978851</v>
       </c>
       <c r="E108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F108" s="1">
-        <v>43906</v>
+        <v>43924</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>11198</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B109">
-        <v>346</v>
+        <v>151</v>
       </c>
       <c r="C109">
-        <f t="shared" si="29"/>
-        <v>0.47863247863247865</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <f t="shared" si="19"/>
-        <v>2.5390760987927767</v>
+        <f t="shared" si="23"/>
+        <v>2.1789769472931693</v>
       </c>
       <c r="E109" t="s">
         <v>5</v>
       </c>
       <c r="F109" s="1">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B110">
-        <v>529</v>
+        <v>200</v>
       </c>
       <c r="C110">
-        <f t="shared" si="29"/>
-        <v>0.52890173410404628</v>
+        <f t="shared" ref="C110:C162" si="33">(B110-B109)/B109</f>
+        <v>0.32450331125827814</v>
       </c>
       <c r="D110">
-        <f t="shared" si="19"/>
-        <v>2.7234556720351857</v>
+        <f t="shared" si="23"/>
+        <v>2.3010299956639808</v>
       </c>
       <c r="E110" t="s">
         <v>5</v>
       </c>
       <c r="F110" s="1">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="G110">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B111">
-        <v>640</v>
+        <v>234</v>
       </c>
       <c r="C111">
-        <f t="shared" si="29"/>
-        <v>0.20982986767485823</v>
+        <f t="shared" si="33"/>
+        <v>0.17</v>
       </c>
       <c r="D111">
-        <f t="shared" si="19"/>
-        <v>2.8061799739838866</v>
+        <f t="shared" si="23"/>
+        <v>2.3692158574101425</v>
       </c>
       <c r="E111" t="s">
         <v>5</v>
       </c>
       <c r="F111" s="1">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="G111">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B112">
-        <v>970</v>
+        <v>346</v>
       </c>
       <c r="C112">
-        <f t="shared" si="29"/>
-        <v>0.515625</v>
+        <f t="shared" si="33"/>
+        <v>0.47863247863247865</v>
       </c>
       <c r="D112">
-        <f t="shared" si="19"/>
-        <v>2.9867717342662448</v>
+        <f t="shared" si="23"/>
+        <v>2.5390760987927767</v>
       </c>
       <c r="E112" t="s">
         <v>5</v>
       </c>
       <c r="F112" s="1">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="G112">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B113">
-        <v>1178</v>
+        <v>529</v>
       </c>
       <c r="C113">
-        <f t="shared" si="29"/>
-        <v>0.21443298969072164</v>
+        <f t="shared" si="33"/>
+        <v>0.52890173410404628</v>
       </c>
       <c r="D113">
-        <f t="shared" si="19"/>
-        <v>3.0711452904510823</v>
+        <f t="shared" si="23"/>
+        <v>2.7234556720351857</v>
       </c>
       <c r="E113" t="s">
         <v>5</v>
       </c>
       <c r="F113" s="1">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="G113">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B114">
-        <v>1546</v>
+        <v>640</v>
       </c>
       <c r="C114">
-        <f t="shared" si="29"/>
-        <v>0.31239388794567063</v>
+        <f t="shared" si="33"/>
+        <v>0.20982986767485823</v>
       </c>
       <c r="D114">
-        <f t="shared" si="19"/>
-        <v>3.1892094895823058</v>
+        <f t="shared" si="23"/>
+        <v>2.8061799739838866</v>
       </c>
       <c r="E114" t="s">
         <v>5</v>
       </c>
       <c r="F114" s="1">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="G114">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B115">
-        <v>1891</v>
+        <v>970</v>
       </c>
       <c r="C115">
-        <f t="shared" ref="C115:C118" si="30">(B115-B114)/B114</f>
-        <v>0.22315653298835705</v>
+        <f t="shared" si="33"/>
+        <v>0.515625</v>
       </c>
       <c r="D115">
-        <f t="shared" ref="D115:D118" si="31">LOG(B115,10)</f>
-        <v>3.2766915288450393</v>
+        <f t="shared" si="23"/>
+        <v>2.9867717342662448</v>
       </c>
       <c r="E115" t="s">
         <v>5</v>
       </c>
       <c r="F115" s="1">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="G115">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B116">
-        <v>2247</v>
+        <v>1178</v>
       </c>
       <c r="C116">
-        <f t="shared" si="30"/>
-        <v>0.18826017979904813</v>
+        <f t="shared" si="33"/>
+        <v>0.21443298969072164</v>
       </c>
       <c r="D116">
-        <f t="shared" si="31"/>
-        <v>3.3516030724191288</v>
+        <f t="shared" si="23"/>
+        <v>3.0711452904510823</v>
       </c>
       <c r="E116" t="s">
         <v>5</v>
       </c>
       <c r="F116" s="1">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="G116">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B117">
-        <v>2433</v>
+        <v>1546</v>
       </c>
       <c r="C117">
-        <f t="shared" si="30"/>
-        <v>8.2777036048064079E-2</v>
+        <f t="shared" si="33"/>
+        <v>0.31239388794567063</v>
       </c>
       <c r="D117">
-        <f t="shared" si="31"/>
-        <v>3.3861421089308181</v>
+        <f t="shared" si="23"/>
+        <v>3.1892094895823058</v>
       </c>
       <c r="E117" t="s">
         <v>5</v>
       </c>
       <c r="F117" s="1">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="G117">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B118">
-        <v>2915</v>
+        <v>1891</v>
       </c>
       <c r="C118">
-        <f t="shared" si="30"/>
-        <v>0.19810933004521167</v>
+        <f t="shared" ref="C118:C121" si="34">(B118-B117)/B117</f>
+        <v>0.22315653298835705</v>
       </c>
       <c r="D118">
-        <f t="shared" si="31"/>
-        <v>3.4646385590950324</v>
+        <f t="shared" ref="D118:D121" si="35">LOG(B118,10)</f>
+        <v>3.2766915288450393</v>
       </c>
       <c r="E118" t="s">
         <v>5</v>
       </c>
       <c r="F118" s="1">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="G118">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B119">
-        <v>3417</v>
+        <v>2247</v>
       </c>
       <c r="C119">
-        <f t="shared" ref="C119:C120" si="32">(B119-B118)/B118</f>
-        <v>0.17221269296740996</v>
+        <f t="shared" si="34"/>
+        <v>0.18826017979904813</v>
       </c>
       <c r="D119">
-        <f t="shared" ref="D119:D120" si="33">LOG(B119,10)</f>
-        <v>3.5336449787987623</v>
+        <f t="shared" si="35"/>
+        <v>3.3516030724191288</v>
       </c>
       <c r="E119" t="s">
         <v>5</v>
       </c>
       <c r="F119" s="1">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="G119">
-        <v>92</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B120">
-        <v>3904</v>
+        <v>2433</v>
       </c>
       <c r="C120">
-        <f t="shared" si="32"/>
-        <v>0.14252268071407667</v>
+        <f t="shared" si="34"/>
+        <v>8.2777036048064079E-2</v>
       </c>
       <c r="D120">
-        <f t="shared" si="33"/>
-        <v>3.5915098089946538</v>
+        <f t="shared" si="35"/>
+        <v>3.3861421089308181</v>
       </c>
       <c r="E120" t="s">
         <v>5</v>
       </c>
       <c r="F120" s="1">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="G120">
-        <v>114</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B121">
-        <v>4256</v>
+        <v>2915</v>
       </c>
       <c r="C121">
-        <f t="shared" ref="C121:C125" si="34">(B121-B120)/B120</f>
-        <v>9.0163934426229511E-2</v>
+        <f t="shared" si="34"/>
+        <v>0.19810933004521167</v>
       </c>
       <c r="D121">
-        <f t="shared" ref="D121:D125" si="35">LOG(B121,10)</f>
-        <v>3.6290016192869916</v>
+        <f t="shared" si="35"/>
+        <v>3.4646385590950324</v>
       </c>
       <c r="E121" t="s">
         <v>5</v>
       </c>
       <c r="F121" s="1">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="G121">
-        <v>136</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B122">
-        <v>4579</v>
+        <v>3417</v>
       </c>
       <c r="C122">
-        <f t="shared" si="34"/>
-        <v>7.5892857142857137E-2</v>
+        <f t="shared" ref="C122:C123" si="36">(B122-B121)/B121</f>
+        <v>0.17221269296740996</v>
       </c>
       <c r="D122">
-        <f t="shared" si="35"/>
-        <v>3.6607706435276968</v>
+        <f t="shared" ref="D122:D123" si="37">LOG(B122,10)</f>
+        <v>3.5336449787987623</v>
       </c>
       <c r="E122" t="s">
         <v>5</v>
       </c>
       <c r="F122" s="1">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="G122">
-        <v>159</v>
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B123">
-        <v>5717</v>
+        <v>3904</v>
       </c>
       <c r="C123">
-        <f t="shared" si="34"/>
-        <v>0.24852587901288492</v>
+        <f t="shared" si="36"/>
+        <v>0.14252268071407667</v>
       </c>
       <c r="D123">
-        <f t="shared" si="35"/>
-        <v>3.7571681922142726</v>
+        <f t="shared" si="37"/>
+        <v>3.5915098089946538</v>
       </c>
       <c r="E123" t="s">
         <v>5</v>
       </c>
       <c r="F123" s="1">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="G123">
-        <v>201</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B124">
-        <v>6836</v>
+        <v>4256</v>
       </c>
       <c r="C124">
-        <f t="shared" si="34"/>
-        <v>0.19573202728703865</v>
+        <f t="shared" ref="C124:C129" si="38">(B124-B123)/B123</f>
+        <v>9.0163934426229511E-2</v>
       </c>
       <c r="D124">
-        <f t="shared" si="35"/>
-        <v>3.8348020540486991</v>
+        <f t="shared" ref="D124:D129" si="39">LOG(B124,10)</f>
+        <v>3.6290016192869916</v>
       </c>
       <c r="E124" t="s">
         <v>5</v>
       </c>
       <c r="F124" s="1">
-        <v>43922</v>
+        <v>43919</v>
       </c>
       <c r="G124">
-        <v>240</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B125">
-        <v>7910</v>
+        <v>4579</v>
       </c>
       <c r="C125">
-        <f t="shared" si="34"/>
-        <v>0.15710942071386777</v>
+        <f t="shared" si="38"/>
+        <v>7.5892857142857137E-2</v>
       </c>
       <c r="D125">
-        <f t="shared" si="35"/>
-        <v>3.898176483497676</v>
+        <f t="shared" si="39"/>
+        <v>3.6607706435276968</v>
       </c>
       <c r="E125" t="s">
         <v>5</v>
       </c>
       <c r="F125" s="1">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="G125">
-        <v>299</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B126">
-        <v>139</v>
+        <v>5717</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>0.24852587901288492</v>
       </c>
       <c r="D126">
-        <f t="shared" si="19"/>
-        <v>2.143014800254095</v>
+        <f t="shared" si="39"/>
+        <v>3.7571681922142726</v>
       </c>
       <c r="E126" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F126" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G126">
+        <v>201</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B127">
-        <v>245</v>
+        <v>6836</v>
       </c>
       <c r="C127">
-        <f t="shared" si="29"/>
-        <v>0.76258992805755399</v>
+        <f t="shared" si="38"/>
+        <v>0.19573202728703865</v>
       </c>
       <c r="D127">
-        <f t="shared" si="19"/>
-        <v>2.3891660843645326</v>
+        <f t="shared" si="39"/>
+        <v>3.8348020540486991</v>
       </c>
       <c r="E127" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F127" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G127">
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B128">
-        <v>388</v>
+        <v>7910</v>
       </c>
       <c r="C128">
-        <f t="shared" si="29"/>
-        <v>0.58367346938775511</v>
+        <f t="shared" si="38"/>
+        <v>0.15710942071386777</v>
       </c>
       <c r="D128">
-        <f t="shared" si="19"/>
-        <v>2.5888317255942073</v>
+        <f t="shared" si="39"/>
+        <v>3.898176483497676</v>
       </c>
       <c r="E128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F128" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G128">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B129">
-        <v>593</v>
+        <v>9056</v>
       </c>
       <c r="C129">
-        <f t="shared" si="29"/>
-        <v>0.52835051546391754</v>
+        <f t="shared" si="38"/>
+        <v>0.14487989886219974</v>
       </c>
       <c r="D129">
-        <f t="shared" si="19"/>
-        <v>2.7730546933642626</v>
+        <f t="shared" si="39"/>
+        <v>3.956936413844196</v>
       </c>
       <c r="E129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F129" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G129">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B130">
-        <v>978</v>
+        <v>139</v>
       </c>
       <c r="C130">
-        <f t="shared" si="29"/>
-        <v>0.6492411467116358</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <f t="shared" si="19"/>
-        <v>2.9903388547876015</v>
+        <f t="shared" si="23"/>
+        <v>2.143014800254095</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B131">
-        <v>1501</v>
+        <v>245</v>
       </c>
       <c r="C131">
-        <f t="shared" si="29"/>
-        <v>0.53476482617586907</v>
+        <f t="shared" si="33"/>
+        <v>0.76258992805755399</v>
       </c>
       <c r="D131">
-        <f t="shared" si="19"/>
-        <v>3.1763806922432698</v>
+        <f t="shared" si="23"/>
+        <v>2.3891660843645326</v>
       </c>
       <c r="E131" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B132">
-        <v>2336</v>
+        <v>388</v>
       </c>
       <c r="C132">
-        <f t="shared" si="29"/>
-        <v>0.55629580279813462</v>
+        <f t="shared" si="33"/>
+        <v>0.58367346938775511</v>
       </c>
       <c r="D132">
-        <f t="shared" si="19"/>
-        <v>3.3684728384403617</v>
+        <f t="shared" si="23"/>
+        <v>2.5888317255942073</v>
       </c>
       <c r="E132" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B133">
-        <v>2922</v>
+        <v>593</v>
       </c>
       <c r="C133">
-        <f t="shared" si="29"/>
-        <v>0.25085616438356162</v>
+        <f t="shared" si="33"/>
+        <v>0.52835051546391754</v>
       </c>
       <c r="D133">
-        <f t="shared" si="19"/>
-        <v>3.4656802115982779</v>
+        <f t="shared" si="23"/>
+        <v>2.7730546933642626</v>
       </c>
       <c r="E133" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B134">
-        <v>3513</v>
+        <v>978</v>
       </c>
       <c r="C134">
-        <f t="shared" si="29"/>
-        <v>0.20225872689938398</v>
+        <f t="shared" si="33"/>
+        <v>0.6492411467116358</v>
       </c>
       <c r="D134">
-        <f t="shared" si="19"/>
-        <v>3.5456781497920251</v>
+        <f t="shared" si="23"/>
+        <v>2.9903388547876015</v>
       </c>
       <c r="E134" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B135">
-        <v>4747</v>
+        <v>1501</v>
       </c>
       <c r="C135">
-        <f t="shared" si="29"/>
-        <v>0.35126672359806432</v>
+        <f t="shared" si="33"/>
+        <v>0.53476482617586907</v>
       </c>
       <c r="D135">
-        <f t="shared" si="19"/>
-        <v>3.6764192317183597</v>
+        <f t="shared" si="23"/>
+        <v>3.1763806922432698</v>
       </c>
       <c r="E135" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B136">
-        <v>5823</v>
+        <v>2336</v>
       </c>
       <c r="C136">
-        <f t="shared" si="29"/>
-        <v>0.22666947545818411</v>
+        <f t="shared" si="33"/>
+        <v>0.55629580279813462</v>
       </c>
       <c r="D136">
-        <f t="shared" si="19"/>
-        <v>3.7651467901080249</v>
+        <f t="shared" si="23"/>
+        <v>3.3684728384403617</v>
       </c>
       <c r="E136" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B137">
-        <v>6566</v>
+        <v>2922</v>
       </c>
       <c r="C137">
-        <f t="shared" si="29"/>
-        <v>0.12759745835479994</v>
+        <f t="shared" si="33"/>
+        <v>0.25085616438356162</v>
       </c>
       <c r="D137">
-        <f t="shared" si="19"/>
-        <v>3.8173008783933207</v>
+        <f t="shared" si="23"/>
+        <v>3.4656802115982779</v>
       </c>
       <c r="E137" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B138">
-        <v>7161</v>
+        <v>3513</v>
       </c>
       <c r="C138">
-        <f t="shared" si="29"/>
-        <v>9.0618336886993597E-2</v>
+        <f t="shared" si="33"/>
+        <v>0.20225872689938398</v>
       </c>
       <c r="D138">
-        <f t="shared" si="19"/>
-        <v>3.8549736737264171</v>
+        <f t="shared" si="23"/>
+        <v>3.5456781497920251</v>
       </c>
       <c r="E138" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B139">
-        <v>8042</v>
+        <v>4747</v>
       </c>
       <c r="C139">
-        <f t="shared" si="29"/>
-        <v>0.12302751012428431</v>
+        <f t="shared" si="33"/>
+        <v>0.35126672359806432</v>
       </c>
       <c r="D139">
-        <f t="shared" si="19"/>
-        <v>3.9053640687668914</v>
+        <f t="shared" si="23"/>
+        <v>3.6764192317183597</v>
       </c>
       <c r="E139" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B140">
-        <v>9000</v>
+        <v>5823</v>
       </c>
       <c r="C140">
-        <f t="shared" si="29"/>
-        <v>0.11912459587167372</v>
+        <f t="shared" si="33"/>
+        <v>0.22666947545818411</v>
       </c>
       <c r="D140">
-        <f t="shared" si="19"/>
-        <v>3.9542425094393248</v>
+        <f t="shared" si="23"/>
+        <v>3.7651467901080249</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B141">
-        <v>10075</v>
+        <v>6566</v>
       </c>
       <c r="C141">
-        <f t="shared" si="29"/>
-        <v>0.11944444444444445</v>
+        <f t="shared" si="33"/>
+        <v>0.12759745835479994</v>
       </c>
       <c r="D141">
-        <f t="shared" si="19"/>
-        <v>4.0032450548131466</v>
+        <f t="shared" si="23"/>
+        <v>3.8173008783933207</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B142">
-        <v>11364</v>
+        <v>7161</v>
       </c>
       <c r="C142">
-        <f t="shared" si="29"/>
-        <v>0.12794044665012408</v>
+        <f t="shared" si="33"/>
+        <v>9.0618336886993597E-2</v>
       </c>
       <c r="D142">
-        <f t="shared" si="19"/>
-        <v>4.0555312250508981</v>
+        <f t="shared" si="23"/>
+        <v>3.8549736737264171</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B143">
-        <v>12729</v>
+        <v>8042</v>
       </c>
       <c r="C143">
-        <f t="shared" si="29"/>
-        <v>0.12011615628299895</v>
+        <f t="shared" si="33"/>
+        <v>0.12302751012428431</v>
       </c>
       <c r="D143">
-        <f t="shared" ref="D143:D201" si="36">LOG(B143,10)</f>
-        <v>4.1047942864862774</v>
+        <f t="shared" si="23"/>
+        <v>3.9053640687668914</v>
       </c>
       <c r="E143" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B144">
-        <v>13938</v>
+        <v>9000</v>
       </c>
       <c r="C144">
-        <f t="shared" si="29"/>
-        <v>9.4979967004477958E-2</v>
+        <f t="shared" si="33"/>
+        <v>0.11912459587167372</v>
       </c>
       <c r="D144">
-        <f t="shared" si="36"/>
-        <v>4.1442004601838791</v>
+        <f t="shared" si="23"/>
+        <v>3.9542425094393248</v>
       </c>
       <c r="E144" t="s">
         <v>8</v>
@@ -19754,18 +20040,18 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B145">
-        <v>14991</v>
+        <v>10075</v>
       </c>
       <c r="C145">
-        <f t="shared" si="29"/>
-        <v>7.554885923374946E-2</v>
+        <f t="shared" si="33"/>
+        <v>0.11944444444444445</v>
       </c>
       <c r="D145">
-        <f t="shared" si="36"/>
-        <v>4.1758306041622486</v>
+        <f t="shared" si="23"/>
+        <v>4.0032450548131466</v>
       </c>
       <c r="E145" t="s">
         <v>8</v>
@@ -19773,18 +20059,18 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B146">
-        <v>16169</v>
+        <v>11364</v>
       </c>
       <c r="C146">
-        <f t="shared" si="29"/>
-        <v>7.8580481622306714E-2</v>
+        <f t="shared" si="33"/>
+        <v>0.12794044665012408</v>
       </c>
       <c r="D146">
-        <f t="shared" si="36"/>
-        <v>4.208683161037416</v>
+        <f t="shared" si="23"/>
+        <v>4.0555312250508981</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
@@ -19792,18 +20078,18 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B147">
-        <v>17361</v>
+        <v>12729</v>
       </c>
       <c r="C147">
-        <f t="shared" si="29"/>
-        <v>7.372131857257716E-2</v>
+        <f t="shared" si="33"/>
+        <v>0.12011615628299895</v>
       </c>
       <c r="D147">
-        <f t="shared" si="36"/>
-        <v>4.2395747370832089</v>
+        <f t="shared" ref="D147:D206" si="40">LOG(B147,10)</f>
+        <v>4.1047942864862774</v>
       </c>
       <c r="E147" t="s">
         <v>8</v>
@@ -19811,18 +20097,18 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B148">
-        <v>18407</v>
+        <v>13938</v>
       </c>
       <c r="C148">
-        <f t="shared" si="29"/>
-        <v>6.0249985599907838E-2</v>
+        <f t="shared" si="33"/>
+        <v>9.4979967004477958E-2</v>
       </c>
       <c r="D148">
-        <f t="shared" si="36"/>
-        <v>4.2649830123164598</v>
+        <f t="shared" si="40"/>
+        <v>4.1442004601838791</v>
       </c>
       <c r="E148" t="s">
         <v>8</v>
@@ -19830,18 +20116,18 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B149">
-        <v>19644</v>
+        <v>14991</v>
       </c>
       <c r="C149">
-        <f t="shared" si="29"/>
-        <v>6.7202694627044063E-2</v>
+        <f t="shared" si="33"/>
+        <v>7.554885923374946E-2</v>
       </c>
       <c r="D149">
-        <f t="shared" si="36"/>
-        <v>4.2932299254595661</v>
+        <f t="shared" si="40"/>
+        <v>4.1758306041622486</v>
       </c>
       <c r="E149" t="s">
         <v>8</v>
@@ -19849,18 +20135,18 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B150">
-        <v>21638</v>
+        <v>16169</v>
       </c>
       <c r="C150">
-        <f t="shared" ref="C150" si="37">(B150-B149)/B149</f>
-        <v>0.10150682142129912</v>
+        <f t="shared" si="33"/>
+        <v>7.8580481622306714E-2</v>
       </c>
       <c r="D150">
-        <f t="shared" ref="D150" si="38">LOG(B150,10)</f>
-        <v>4.335217116457434</v>
+        <f t="shared" si="40"/>
+        <v>4.208683161037416</v>
       </c>
       <c r="E150" t="s">
         <v>8</v>
@@ -19868,836 +20154,842 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B151">
-        <v>116</v>
+        <v>17361</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>7.372131857257716E-2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="36"/>
-        <v>2.0644579892269181</v>
+        <f t="shared" si="40"/>
+        <v>4.2395747370832089</v>
       </c>
       <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" s="1">
-        <v>43895</v>
-      </c>
-      <c r="G151">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B152">
-        <v>164</v>
+        <v>18407</v>
       </c>
       <c r="C152">
-        <f t="shared" si="29"/>
-        <v>0.41379310344827586</v>
+        <f t="shared" si="33"/>
+        <v>6.0249985599907838E-2</v>
       </c>
       <c r="D152">
-        <f t="shared" si="36"/>
-        <v>2.214843848047698</v>
+        <f t="shared" si="40"/>
+        <v>4.2649830123164598</v>
       </c>
       <c r="E152" t="s">
-        <v>9</v>
-      </c>
-      <c r="F152" s="1">
-        <v>43896</v>
-      </c>
-      <c r="G152">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B153">
-        <v>209</v>
+        <v>19644</v>
       </c>
       <c r="C153">
-        <f t="shared" si="29"/>
-        <v>0.27439024390243905</v>
+        <f t="shared" si="33"/>
+        <v>6.7202694627044063E-2</v>
       </c>
       <c r="D153">
-        <f t="shared" si="36"/>
-        <v>2.3201462861110538</v>
+        <f t="shared" si="40"/>
+        <v>4.2932299254595661</v>
       </c>
       <c r="E153" t="s">
-        <v>9</v>
-      </c>
-      <c r="F153" s="1">
-        <v>43897</v>
-      </c>
-      <c r="G153">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B154">
-        <v>278</v>
+        <v>21638</v>
       </c>
       <c r="C154">
-        <f t="shared" si="29"/>
-        <v>0.33014354066985646</v>
+        <f t="shared" ref="C154" si="41">(B154-B153)/B153</f>
+        <v>0.10150682142129912</v>
       </c>
       <c r="D154">
-        <f t="shared" si="36"/>
-        <v>2.4440447959180758</v>
+        <f t="shared" ref="D154" si="42">LOG(B154,10)</f>
+        <v>4.335217116457434</v>
       </c>
       <c r="E154" t="s">
-        <v>9</v>
-      </c>
-      <c r="F154" s="1">
-        <v>43898</v>
-      </c>
-      <c r="G154">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B155">
-        <v>321</v>
+        <v>116</v>
       </c>
       <c r="C155">
-        <f t="shared" si="29"/>
-        <v>0.15467625899280577</v>
+        <v>0</v>
       </c>
       <c r="D155">
-        <f t="shared" si="36"/>
-        <v>2.5065050324048719</v>
+        <f t="shared" si="40"/>
+        <v>2.0644579892269181</v>
       </c>
       <c r="E155" t="s">
         <v>9</v>
       </c>
       <c r="F155" s="1">
-        <v>43899</v>
+        <v>43895</v>
       </c>
       <c r="G155">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B156">
-        <v>383</v>
+        <v>164</v>
       </c>
       <c r="C156">
-        <f t="shared" si="29"/>
-        <v>0.19314641744548286</v>
+        <f t="shared" si="33"/>
+        <v>0.41379310344827586</v>
       </c>
       <c r="D156">
-        <f t="shared" si="36"/>
-        <v>2.5831987739686224</v>
+        <f t="shared" si="40"/>
+        <v>2.214843848047698</v>
       </c>
       <c r="E156" t="s">
         <v>9</v>
       </c>
       <c r="F156" s="1">
-        <v>43900</v>
+        <v>43896</v>
       </c>
       <c r="G156">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B157">
-        <v>460</v>
+        <v>209</v>
       </c>
       <c r="C157">
-        <f t="shared" si="29"/>
-        <v>0.20104438642297651</v>
+        <f t="shared" si="33"/>
+        <v>0.27439024390243905</v>
       </c>
       <c r="D157">
-        <f t="shared" si="36"/>
-        <v>2.6627578316815739</v>
+        <f t="shared" si="40"/>
+        <v>2.3201462861110538</v>
       </c>
       <c r="E157" t="s">
         <v>9</v>
       </c>
       <c r="F157" s="1">
-        <v>43901</v>
+        <v>43897</v>
       </c>
       <c r="G157">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B158">
-        <v>590</v>
+        <v>278</v>
       </c>
       <c r="C158">
-        <f t="shared" si="29"/>
-        <v>0.28260869565217389</v>
+        <f t="shared" si="33"/>
+        <v>0.33014354066985646</v>
       </c>
       <c r="D158">
-        <f t="shared" si="36"/>
-        <v>2.7708520116421438</v>
+        <f t="shared" si="40"/>
+        <v>2.4440447959180758</v>
       </c>
       <c r="E158" t="s">
         <v>9</v>
       </c>
       <c r="F158" s="1">
-        <v>43902</v>
+        <v>43898</v>
       </c>
       <c r="G158">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B159">
-        <v>798</v>
+        <v>321</v>
       </c>
       <c r="C159">
-        <f t="shared" ref="C159:C201" si="39">(B159-B158)/B158</f>
-        <v>0.35254237288135593</v>
+        <f t="shared" si="33"/>
+        <v>0.15467625899280577</v>
       </c>
       <c r="D159">
-        <f t="shared" si="36"/>
-        <v>2.9020028913507292</v>
+        <f t="shared" si="40"/>
+        <v>2.5065050324048719</v>
       </c>
       <c r="E159" t="s">
         <v>9</v>
       </c>
       <c r="F159" s="1">
-        <v>43903</v>
+        <v>43899</v>
       </c>
       <c r="G159">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B160">
-        <v>1140</v>
+        <v>383</v>
       </c>
       <c r="C160">
-        <f t="shared" si="39"/>
-        <v>0.42857142857142855</v>
+        <f t="shared" si="33"/>
+        <v>0.19314641744548286</v>
       </c>
       <c r="D160">
-        <f t="shared" si="36"/>
-        <v>3.0569048513364723</v>
+        <f t="shared" si="40"/>
+        <v>2.5831987739686224</v>
       </c>
       <c r="E160" t="s">
         <v>9</v>
       </c>
       <c r="F160" s="1">
-        <v>43904</v>
+        <v>43900</v>
       </c>
       <c r="G160">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B161">
-        <v>1391</v>
+        <v>460</v>
       </c>
       <c r="C161">
-        <f t="shared" si="39"/>
-        <v>0.22017543859649122</v>
+        <f t="shared" si="33"/>
+        <v>0.20104438642297651</v>
       </c>
       <c r="D161">
-        <f t="shared" si="36"/>
-        <v>3.1433271299920462</v>
+        <f t="shared" si="40"/>
+        <v>2.6627578316815739</v>
       </c>
       <c r="E161" t="s">
         <v>9</v>
       </c>
       <c r="F161" s="1">
-        <v>43905</v>
+        <v>43901</v>
       </c>
       <c r="G161">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B162">
-        <v>1543</v>
+        <v>590</v>
       </c>
       <c r="C162">
-        <f t="shared" si="39"/>
-        <v>0.10927390366642703</v>
+        <f t="shared" si="33"/>
+        <v>0.28260869565217389</v>
       </c>
       <c r="D162">
-        <f t="shared" si="36"/>
-        <v>3.1883659260631481</v>
+        <f t="shared" si="40"/>
+        <v>2.7708520116421438</v>
       </c>
       <c r="E162" t="s">
         <v>9</v>
       </c>
       <c r="F162" s="1">
-        <v>43906</v>
+        <v>43902</v>
       </c>
       <c r="G162">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B163">
-        <v>1950</v>
+        <v>798</v>
       </c>
       <c r="C163">
-        <f t="shared" si="39"/>
-        <v>0.26377187297472454</v>
+        <f t="shared" ref="C163:C206" si="43">(B163-B162)/B162</f>
+        <v>0.35254237288135593</v>
       </c>
       <c r="D163">
-        <f t="shared" si="36"/>
-        <v>3.2900346113625178</v>
+        <f t="shared" si="40"/>
+        <v>2.9020028913507292</v>
       </c>
       <c r="E163" t="s">
         <v>9</v>
       </c>
       <c r="F163" s="1">
-        <v>43907</v>
+        <v>43903</v>
       </c>
       <c r="G163">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B164">
-        <v>2626</v>
+        <v>1140</v>
       </c>
       <c r="C164">
-        <f t="shared" si="39"/>
-        <v>0.34666666666666668</v>
+        <f t="shared" si="43"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="D164">
-        <f t="shared" si="36"/>
-        <v>3.4192947217534599</v>
+        <f t="shared" si="40"/>
+        <v>3.0569048513364723</v>
       </c>
       <c r="E164" t="s">
         <v>9</v>
       </c>
       <c r="F164" s="1">
-        <v>43908</v>
+        <v>43904</v>
       </c>
       <c r="G164">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B165">
-        <v>3269</v>
+        <v>1391</v>
       </c>
       <c r="C165">
-        <f t="shared" si="39"/>
-        <v>0.24485910129474486</v>
+        <f t="shared" si="43"/>
+        <v>0.22017543859649122</v>
       </c>
       <c r="D165">
-        <f t="shared" si="36"/>
-        <v>3.5144149205803688</v>
+        <f t="shared" si="40"/>
+        <v>3.1433271299920462</v>
       </c>
       <c r="E165" t="s">
         <v>9</v>
       </c>
       <c r="F165" s="1">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="G165">
-        <v>144</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B166">
-        <v>3983</v>
+        <v>1543</v>
       </c>
       <c r="C166">
-        <f t="shared" si="39"/>
-        <v>0.21841541755888652</v>
+        <f t="shared" si="43"/>
+        <v>0.10927390366642703</v>
       </c>
       <c r="D166">
-        <f t="shared" si="36"/>
-        <v>3.6002103064093274</v>
+        <f t="shared" si="40"/>
+        <v>3.1883659260631481</v>
       </c>
       <c r="E166" t="s">
         <v>9</v>
       </c>
       <c r="F166" s="1">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="G166">
-        <v>177</v>
+        <v>55</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B167">
-        <v>5018</v>
+        <v>1950</v>
       </c>
       <c r="C167">
-        <f t="shared" si="39"/>
-        <v>0.25985438111975895</v>
+        <f t="shared" si="43"/>
+        <v>0.26377187297472454</v>
       </c>
       <c r="D167">
-        <f t="shared" si="36"/>
-        <v>3.7005306569785912</v>
+        <f t="shared" si="40"/>
+        <v>3.2900346113625178</v>
       </c>
       <c r="E167" t="s">
         <v>9</v>
       </c>
       <c r="F167" s="1">
-        <v>43911</v>
+        <v>43907</v>
       </c>
       <c r="G167">
-        <v>233</v>
+        <v>71</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B168">
-        <v>5683</v>
+        <v>2626</v>
       </c>
       <c r="C168">
-        <f t="shared" si="39"/>
-        <v>0.13252291749701076</v>
+        <f t="shared" si="43"/>
+        <v>0.34666666666666668</v>
       </c>
       <c r="D168">
-        <f t="shared" si="36"/>
-        <v>3.7545776560447299</v>
+        <f t="shared" si="40"/>
+        <v>3.4192947217534599</v>
       </c>
       <c r="E168" t="s">
         <v>9</v>
       </c>
       <c r="F168" s="1">
-        <v>43912</v>
+        <v>43908</v>
       </c>
       <c r="G168">
-        <v>281</v>
+        <v>104</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B169">
-        <v>6650</v>
+        <v>3269</v>
       </c>
       <c r="C169">
-        <f t="shared" si="39"/>
-        <v>0.17015660742565547</v>
+        <f t="shared" si="43"/>
+        <v>0.24485910129474486</v>
       </c>
       <c r="D169">
-        <f t="shared" si="36"/>
-        <v>3.8228216453031045</v>
+        <f t="shared" si="40"/>
+        <v>3.5144149205803688</v>
       </c>
       <c r="E169" t="s">
         <v>9</v>
       </c>
       <c r="F169" s="1">
-        <v>43913</v>
+        <v>43909</v>
       </c>
       <c r="G169">
-        <v>335</v>
+        <v>144</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B170">
-        <v>8077</v>
+        <v>3983</v>
       </c>
       <c r="C170">
-        <f t="shared" si="39"/>
-        <v>0.21458646616541355</v>
+        <f t="shared" si="43"/>
+        <v>0.21841541755888652</v>
       </c>
       <c r="D170">
-        <f t="shared" si="36"/>
-        <v>3.9072500828813279</v>
+        <f t="shared" si="40"/>
+        <v>3.6002103064093274</v>
       </c>
       <c r="E170" t="s">
         <v>9</v>
       </c>
       <c r="F170" s="1">
-        <v>43914</v>
+        <v>43910</v>
       </c>
       <c r="G170">
-        <v>422</v>
+        <v>177</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B171">
-        <v>9529</v>
+        <v>5018</v>
       </c>
       <c r="C171">
-        <f t="shared" si="39"/>
-        <v>0.17976971647889067</v>
+        <f t="shared" si="43"/>
+        <v>0.25985438111975895</v>
       </c>
       <c r="D171">
-        <f t="shared" si="36"/>
-        <v>3.9790473269479643</v>
+        <f t="shared" si="40"/>
+        <v>3.7005306569785912</v>
       </c>
       <c r="E171" t="s">
         <v>9</v>
       </c>
       <c r="F171" s="1">
-        <v>43915</v>
+        <v>43911</v>
       </c>
       <c r="G171">
-        <v>463</v>
+        <v>233</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B172">
-        <v>11658</v>
+        <v>5683</v>
       </c>
       <c r="C172">
-        <f t="shared" si="39"/>
-        <v>0.22342323433728617</v>
+        <f t="shared" si="43"/>
+        <v>0.13252291749701076</v>
       </c>
       <c r="D172">
-        <f t="shared" si="36"/>
-        <v>4.0666240509834264</v>
+        <f t="shared" si="40"/>
+        <v>3.7545776560447299</v>
       </c>
       <c r="E172" t="s">
         <v>9</v>
       </c>
       <c r="F172" s="1">
-        <v>43916</v>
+        <v>43912</v>
       </c>
       <c r="G172">
-        <v>578</v>
+        <v>281</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B173">
-        <v>14543</v>
+        <v>6650</v>
       </c>
       <c r="C173">
-        <f t="shared" si="39"/>
-        <v>0.24746954880768571</v>
+        <f t="shared" si="43"/>
+        <v>0.17015660742565547</v>
       </c>
       <c r="D173">
-        <f t="shared" si="36"/>
-        <v>4.1626540041195756</v>
+        <f t="shared" si="40"/>
+        <v>3.8228216453031045</v>
       </c>
       <c r="E173" t="s">
         <v>9</v>
       </c>
       <c r="F173" s="1">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="G173">
-        <v>759</v>
+        <v>335</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B174">
-        <v>17089</v>
+        <v>8077</v>
       </c>
       <c r="C174">
-        <f t="shared" si="39"/>
-        <v>0.17506704256343258</v>
+        <f t="shared" si="43"/>
+        <v>0.21458646616541355</v>
       </c>
       <c r="D174">
-        <f t="shared" si="36"/>
-        <v>4.2327166497781681</v>
+        <f t="shared" si="40"/>
+        <v>3.9072500828813279</v>
       </c>
       <c r="E174" t="s">
         <v>9</v>
       </c>
       <c r="F174" s="1">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="G174">
-        <v>1019</v>
+        <v>422</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B175">
-        <v>19522</v>
+        <v>9529</v>
       </c>
       <c r="C175">
-        <f t="shared" si="39"/>
-        <v>0.14237228626601908</v>
+        <f t="shared" si="43"/>
+        <v>0.17976971647889067</v>
       </c>
       <c r="D175">
-        <f t="shared" si="36"/>
-        <v>4.29052430843669</v>
+        <f t="shared" si="40"/>
+        <v>3.9790473269479643</v>
       </c>
       <c r="E175" t="s">
         <v>9</v>
       </c>
       <c r="F175" s="1">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="G175">
-        <v>1228</v>
+        <v>463</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B176">
-        <v>22141</v>
+        <v>11658</v>
       </c>
       <c r="C176">
-        <f t="shared" si="39"/>
-        <v>0.13415633644093844</v>
+        <f t="shared" si="43"/>
+        <v>0.22342323433728617</v>
       </c>
       <c r="D176">
-        <f t="shared" si="36"/>
-        <v>4.345197231929979</v>
+        <f t="shared" si="40"/>
+        <v>4.0666240509834264</v>
       </c>
       <c r="E176" t="s">
         <v>9</v>
       </c>
       <c r="F176" s="1">
-        <v>43920</v>
+        <v>43916</v>
       </c>
       <c r="G176">
-        <v>1408</v>
+        <v>578</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B177">
-        <v>25150</v>
+        <v>14543</v>
       </c>
       <c r="C177">
-        <f t="shared" si="39"/>
-        <v>0.13590172078948556</v>
+        <f t="shared" si="43"/>
+        <v>0.24746954880768571</v>
       </c>
       <c r="D177">
-        <f t="shared" si="36"/>
-        <v>4.4005379893919452</v>
+        <f t="shared" si="40"/>
+        <v>4.1626540041195756</v>
       </c>
       <c r="E177" t="s">
         <v>9</v>
       </c>
       <c r="F177" s="1">
-        <v>43921</v>
+        <v>43917</v>
       </c>
       <c r="G177">
-        <v>1789</v>
+        <v>759</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B178">
-        <v>29474</v>
+        <v>17089</v>
       </c>
       <c r="C178">
-        <f t="shared" ref="C178:C179" si="40">(B178-B177)/B177</f>
-        <v>0.17192842942345923</v>
+        <f t="shared" si="43"/>
+        <v>0.17506704256343258</v>
       </c>
       <c r="D178">
-        <f t="shared" ref="D178:D179" si="41">LOG(B178,10)</f>
-        <v>4.4694390791836067</v>
+        <f t="shared" si="40"/>
+        <v>4.2327166497781681</v>
       </c>
       <c r="E178" t="s">
         <v>9</v>
       </c>
       <c r="F178" s="1">
-        <v>43922</v>
+        <v>43918</v>
       </c>
       <c r="G178">
-        <v>2352</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B179">
-        <v>33718</v>
+        <v>19522</v>
       </c>
       <c r="C179">
+        <f t="shared" si="43"/>
+        <v>0.14237228626601908</v>
+      </c>
+      <c r="D179">
         <f t="shared" si="40"/>
-        <v>0.14399131437877452</v>
-      </c>
-      <c r="D179">
-        <f t="shared" si="41"/>
-        <v>4.5278618063227016</v>
+        <v>4.29052430843669</v>
       </c>
       <c r="E179" t="s">
         <v>9</v>
       </c>
       <c r="F179" s="1">
-        <v>43923</v>
+        <v>43919</v>
       </c>
       <c r="G179">
-        <v>2921</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B180">
-        <v>100</v>
+        <v>22141</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>0.13415633644093844</v>
       </c>
       <c r="D180">
-        <f t="shared" si="36"/>
-        <v>2</v>
+        <f t="shared" si="40"/>
+        <v>4.345197231929979</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F180" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G180">
+        <v>1408</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B181">
-        <v>130</v>
+        <v>25150</v>
       </c>
       <c r="C181">
-        <f t="shared" si="39"/>
-        <v>0.3</v>
+        <f t="shared" si="43"/>
+        <v>0.13590172078948556</v>
       </c>
       <c r="D181">
-        <f t="shared" si="36"/>
-        <v>2.1139433523068365</v>
+        <f t="shared" si="40"/>
+        <v>4.4005379893919452</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F181" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G181">
+        <v>1789</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B182">
-        <v>191</v>
+        <v>29474</v>
       </c>
       <c r="C182">
-        <f t="shared" si="39"/>
-        <v>0.46923076923076923</v>
+        <f t="shared" ref="C182:C184" si="44">(B182-B181)/B181</f>
+        <v>0.17192842942345923</v>
       </c>
       <c r="D182">
-        <f t="shared" si="36"/>
-        <v>2.2810333672477272</v>
+        <f t="shared" ref="D182:D184" si="45">LOG(B182,10)</f>
+        <v>4.4694390791836067</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F182" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G182">
+        <v>2352</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B183">
-        <v>212</v>
+        <v>33718</v>
       </c>
       <c r="C183">
-        <f t="shared" si="39"/>
-        <v>0.1099476439790576</v>
+        <f t="shared" si="44"/>
+        <v>0.14399131437877452</v>
       </c>
       <c r="D183">
-        <f t="shared" si="36"/>
-        <v>2.3263358609287512</v>
+        <f t="shared" si="45"/>
+        <v>4.5278618063227016</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F183" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G183">
+        <v>2921</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B184">
-        <v>285</v>
+        <v>38168</v>
       </c>
       <c r="C184">
-        <f t="shared" si="39"/>
-        <v>0.34433962264150941</v>
+        <f t="shared" si="44"/>
+        <v>0.13197698558633372</v>
       </c>
       <c r="D184">
-        <f t="shared" si="36"/>
-        <v>2.4548448600085102</v>
+        <f t="shared" si="45"/>
+        <v>4.5816994035508687</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F184" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G184">
+        <v>3605</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B185">
-        <v>423</v>
+        <v>100</v>
       </c>
       <c r="C185">
-        <f t="shared" si="39"/>
-        <v>0.48421052631578948</v>
+        <v>0</v>
       </c>
       <c r="D185">
-        <f t="shared" si="36"/>
-        <v>2.6263403673750418</v>
+        <f t="shared" si="40"/>
+        <v>2</v>
       </c>
       <c r="E185" t="s">
         <v>10</v>
@@ -20705,18 +20997,18 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B186">
-        <v>653</v>
+        <v>130</v>
       </c>
       <c r="C186">
-        <f t="shared" si="39"/>
-        <v>0.54373522458628842</v>
+        <f t="shared" si="43"/>
+        <v>0.3</v>
       </c>
       <c r="D186">
-        <f t="shared" si="36"/>
-        <v>2.8149131812750738</v>
+        <f t="shared" si="40"/>
+        <v>2.1139433523068365</v>
       </c>
       <c r="E186" t="s">
         <v>10</v>
@@ -20724,18 +21016,18 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B187">
-        <v>949</v>
+        <v>191</v>
       </c>
       <c r="C187">
-        <f t="shared" si="39"/>
-        <v>0.45329249617151607</v>
+        <f t="shared" si="43"/>
+        <v>0.46923076923076923</v>
       </c>
       <c r="D187">
-        <f t="shared" si="36"/>
-        <v>2.9772662124272924</v>
+        <f t="shared" si="40"/>
+        <v>2.2810333672477272</v>
       </c>
       <c r="E187" t="s">
         <v>10</v>
@@ -20743,18 +21035,18 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B188">
-        <v>1209</v>
+        <v>212</v>
       </c>
       <c r="C188">
-        <f t="shared" si="39"/>
-        <v>0.27397260273972601</v>
+        <f t="shared" si="43"/>
+        <v>0.1099476439790576</v>
       </c>
       <c r="D188">
-        <f t="shared" si="36"/>
-        <v>3.0824263008607717</v>
+        <f t="shared" si="40"/>
+        <v>2.3263358609287512</v>
       </c>
       <c r="E188" t="s">
         <v>10</v>
@@ -20762,18 +21054,18 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B189">
-        <v>1412</v>
+        <v>285</v>
       </c>
       <c r="C189">
-        <f t="shared" si="39"/>
-        <v>0.16790736145574855</v>
+        <f t="shared" si="43"/>
+        <v>0.34433962264150941</v>
       </c>
       <c r="D189">
-        <f t="shared" si="36"/>
-        <v>3.1498346967157844</v>
+        <f t="shared" si="40"/>
+        <v>2.4548448600085102</v>
       </c>
       <c r="E189" t="s">
         <v>10</v>
@@ -20781,18 +21073,18 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B190">
-        <v>1784</v>
+        <v>423</v>
       </c>
       <c r="C190">
-        <f t="shared" si="39"/>
-        <v>0.26345609065155806</v>
+        <f t="shared" si="43"/>
+        <v>0.48421052631578948</v>
       </c>
       <c r="D190">
-        <f t="shared" si="36"/>
-        <v>3.251394850040104</v>
+        <f t="shared" si="40"/>
+        <v>2.6263403673750418</v>
       </c>
       <c r="E190" t="s">
         <v>10</v>
@@ -20800,18 +21092,18 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B191">
-        <v>2281</v>
+        <v>653</v>
       </c>
       <c r="C191">
-        <f t="shared" si="39"/>
-        <v>0.27858744394618834</v>
+        <f t="shared" si="43"/>
+        <v>0.54373522458628842</v>
       </c>
       <c r="D191">
-        <f t="shared" si="36"/>
-        <v>3.3581252852766479</v>
+        <f t="shared" si="40"/>
+        <v>2.8149131812750738</v>
       </c>
       <c r="E191" t="s">
         <v>10</v>
@@ -20819,18 +21111,18 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B192">
-        <v>2876</v>
+        <v>949</v>
       </c>
       <c r="C192">
-        <f t="shared" si="39"/>
-        <v>0.26085050416483996</v>
+        <f t="shared" si="43"/>
+        <v>0.45329249617151607</v>
       </c>
       <c r="D192">
-        <f t="shared" si="36"/>
-        <v>3.4587888817108445</v>
+        <f t="shared" si="40"/>
+        <v>2.9772662124272924</v>
       </c>
       <c r="E192" t="s">
         <v>10</v>
@@ -20838,18 +21130,18 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B193">
-        <v>3661</v>
+        <v>1209</v>
       </c>
       <c r="C193">
-        <f t="shared" si="39"/>
-        <v>0.27294853963838667</v>
+        <f t="shared" si="43"/>
+        <v>0.27397260273972601</v>
       </c>
       <c r="D193">
-        <f t="shared" si="36"/>
-        <v>3.5635997288815306</v>
+        <f t="shared" si="40"/>
+        <v>3.0824263008607717</v>
       </c>
       <c r="E193" t="s">
         <v>10</v>
@@ -20857,18 +21149,18 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B194">
-        <v>4499</v>
+        <v>1412</v>
       </c>
       <c r="C194">
-        <f t="shared" si="39"/>
-        <v>0.22889920786670309</v>
+        <f t="shared" si="43"/>
+        <v>0.16790736145574855</v>
       </c>
       <c r="D194">
-        <f t="shared" si="36"/>
-        <v>3.6531159931655663</v>
+        <f t="shared" si="40"/>
+        <v>3.1498346967157844</v>
       </c>
       <c r="E194" t="s">
         <v>10</v>
@@ -20876,18 +21168,18 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B195">
-        <v>5423</v>
+        <v>1784</v>
       </c>
       <c r="C195">
-        <f t="shared" si="39"/>
-        <v>0.20537897310513448</v>
+        <f t="shared" si="43"/>
+        <v>0.26345609065155806</v>
       </c>
       <c r="D195">
-        <f t="shared" si="36"/>
-        <v>3.7342396044354547</v>
+        <f t="shared" si="40"/>
+        <v>3.251394850040104</v>
       </c>
       <c r="E195" t="s">
         <v>10</v>
@@ -20895,18 +21187,18 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B196">
-        <v>6633</v>
+        <v>2281</v>
       </c>
       <c r="C196">
-        <f t="shared" si="39"/>
-        <v>0.2231237322515213</v>
+        <f t="shared" si="43"/>
+        <v>0.27858744394618834</v>
       </c>
       <c r="D196">
-        <f t="shared" si="36"/>
-        <v>3.8217099972983757</v>
+        <f t="shared" si="40"/>
+        <v>3.3581252852766479</v>
       </c>
       <c r="E196" t="s">
         <v>10</v>
@@ -20914,18 +21206,18 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B197">
-        <v>7730</v>
+        <v>2876</v>
       </c>
       <c r="C197">
-        <f t="shared" si="39"/>
-        <v>0.1653851952359415</v>
+        <f t="shared" si="43"/>
+        <v>0.26085050416483996</v>
       </c>
       <c r="D197">
-        <f t="shared" si="36"/>
-        <v>3.888179493918325</v>
+        <f t="shared" si="40"/>
+        <v>3.4587888817108445</v>
       </c>
       <c r="E197" t="s">
         <v>10</v>
@@ -20933,18 +21225,18 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B198">
-        <v>9134</v>
+        <v>3661</v>
       </c>
       <c r="C198">
-        <f t="shared" si="39"/>
-        <v>0.1816300129366106</v>
+        <f t="shared" si="43"/>
+        <v>0.27294853963838667</v>
       </c>
       <c r="D198">
-        <f t="shared" si="36"/>
-        <v>3.9606610072709816</v>
+        <f t="shared" si="40"/>
+        <v>3.5635997288815306</v>
       </c>
       <c r="E198" t="s">
         <v>10</v>
@@ -20952,18 +21244,18 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B199">
-        <v>10995</v>
+        <v>4499</v>
       </c>
       <c r="C199">
-        <f t="shared" si="39"/>
-        <v>0.20374425224436171</v>
+        <f t="shared" si="43"/>
+        <v>0.22889920786670309</v>
       </c>
       <c r="D199">
-        <f t="shared" si="36"/>
-        <v>4.0411952336968087</v>
+        <f t="shared" si="40"/>
+        <v>3.6531159931655663</v>
       </c>
       <c r="E199" t="s">
         <v>10</v>
@@ -20971,18 +21263,18 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B200">
-        <v>12612</v>
+        <v>5423</v>
       </c>
       <c r="C200">
-        <f t="shared" si="39"/>
-        <v>0.14706684856753069</v>
+        <f t="shared" si="43"/>
+        <v>0.20537897310513448</v>
       </c>
       <c r="D200">
-        <f t="shared" si="36"/>
-        <v>4.1007839620758668</v>
+        <f t="shared" si="40"/>
+        <v>3.7342396044354547</v>
       </c>
       <c r="E200" t="s">
         <v>10</v>
@@ -20990,20 +21282,115 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
+        <v>17</v>
+      </c>
+      <c r="B201">
+        <v>6633</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="43"/>
+        <v>0.2231237322515213</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="40"/>
+        <v>3.8217099972983757</v>
+      </c>
+      <c r="E201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>18</v>
+      </c>
+      <c r="B202">
+        <v>7730</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="43"/>
+        <v>0.1653851952359415</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="40"/>
+        <v>3.888179493918325</v>
+      </c>
+      <c r="E202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>19</v>
+      </c>
+      <c r="B203">
+        <v>9134</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="43"/>
+        <v>0.1816300129366106</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="40"/>
+        <v>3.9606610072709816</v>
+      </c>
+      <c r="E203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>20</v>
+      </c>
+      <c r="B204">
+        <v>10995</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="43"/>
+        <v>0.20374425224436171</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="40"/>
+        <v>4.0411952336968087</v>
+      </c>
+      <c r="E204" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>21</v>
+      </c>
+      <c r="B205">
+        <v>12612</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="43"/>
+        <v>0.14706684856753069</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="40"/>
+        <v>4.1007839620758668</v>
+      </c>
+      <c r="E205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
         <v>22</v>
       </c>
-      <c r="B201">
+      <c r="B206">
         <v>14459</v>
       </c>
-      <c r="C201">
-        <f t="shared" si="39"/>
+      <c r="C206">
+        <f t="shared" si="43"/>
         <v>0.14644782746590548</v>
       </c>
-      <c r="D201">
-        <f t="shared" si="36"/>
+      <c r="D206">
+        <f t="shared" si="40"/>
         <v>4.1601382577234016</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E206" t="s">
         <v>10</v>
       </c>
     </row>
@@ -21014,10 +21401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23278A49-B33F-4577-858B-35CF5CAE9C86}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21092,7 +21479,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="3">
-        <f t="shared" ref="K2:K21" si="0">F2/C2</f>
+        <f t="shared" ref="K2:K22" si="0">F2/C2</f>
         <v>0</v>
       </c>
       <c r="L2" s="3">
@@ -21146,7 +21533,7 @@
         <v>7.2580645161290328E-2</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M30" si="2">G3/D3</f>
+        <f t="shared" ref="M3:M31" si="2">G3/D3</f>
         <v>1.2195121951219513E-2</v>
       </c>
     </row>
@@ -21180,7 +21567,7 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J30" si="4">(G4-G3)/G3</f>
+        <f t="shared" ref="J4:J31" si="4">(G4-G3)/G3</f>
         <v>0</v>
       </c>
       <c r="K4" s="3">
@@ -21311,7 +21698,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" ref="H7:H21" si="5">(F7-F6)/F6</f>
+        <f t="shared" ref="H7:H22" si="5">(F7-F6)/F6</f>
         <v>0.75</v>
       </c>
       <c r="I7" s="2">
@@ -22000,14 +22387,24 @@
       <c r="B22">
         <v>33546</v>
       </c>
+      <c r="C22">
+        <v>9056</v>
+      </c>
       <c r="D22">
         <v>9529</v>
       </c>
       <c r="E22">
         <v>419</v>
       </c>
+      <c r="F22" s="9">
+        <v>359</v>
+      </c>
       <c r="G22">
         <v>463</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="5"/>
+        <v>0.20066889632107024</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="3"/>
@@ -22017,6 +22414,10 @@
         <f t="shared" si="4"/>
         <v>9.7156398104265407E-2</v>
       </c>
+      <c r="K22" s="3">
+        <f t="shared" si="0"/>
+        <v>3.9642226148409891E-2</v>
+      </c>
       <c r="L22" s="3">
         <f t="shared" si="1"/>
         <v>1.2490311810648065E-2</v>
@@ -22297,17 +22698,30 @@
       <c r="B31">
         <v>184487</v>
       </c>
+      <c r="D31">
+        <v>38168</v>
+      </c>
       <c r="E31">
         <v>3756</v>
+      </c>
+      <c r="G31">
+        <v>3605</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="3"/>
         <v>0.27192685404673211</v>
       </c>
-      <c r="J31" s="2"/>
+      <c r="J31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.23416638137624102</v>
+      </c>
       <c r="L31" s="3">
         <f t="shared" si="1"/>
         <v>2.0359158097860555E-2</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="2"/>
+        <v>9.4450848878641788E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -22341,13 +22755,32 @@
         <v>5807</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" ref="I33" si="6">(E33-E32)/E32</f>
+        <f t="shared" ref="I33:I34" si="6">(E33-E32)/E32</f>
         <v>0.2321239125822194</v>
       </c>
       <c r="J33" s="2"/>
       <c r="L33" s="3">
-        <f t="shared" ref="L33" si="7">E33/B33</f>
+        <f t="shared" ref="L33:L34" si="7">E33/B33</f>
         <v>2.4158086323452937E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>276965</v>
+      </c>
+      <c r="E34">
+        <v>7391</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="6"/>
+        <v>0.27277423798863443</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="7"/>
+        <v>2.668568230642861E-2</v>
       </c>
     </row>
   </sheetData>
@@ -22360,8 +22793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25C859D-AA7D-4F12-87CB-B1F40BE28FD3}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView topLeftCell="Z28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AN25" sqref="AN25"/>
+    <sheetView topLeftCell="D19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24082,6 +24515,20 @@
         <f t="shared" si="0"/>
         <v>3.6562499999999999E-7</v>
       </c>
+      <c r="F22">
+        <v>9056</v>
+      </c>
+      <c r="G22">
+        <v>359</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" ref="H22" si="10">(G22-G21)</f>
+        <v>60</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" ref="I22" si="11">H22/210000000</f>
+        <v>2.8571428571428569E-7</v>
+      </c>
       <c r="J22" s="11">
         <v>21157</v>
       </c>
@@ -24412,7 +24859,7 @@
         <v>1693</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" ref="D27:D31" si="10">C27-C26</f>
+        <f t="shared" ref="D27:D31" si="12">C27-C26</f>
         <v>516</v>
       </c>
       <c r="E27" s="18">
@@ -24480,7 +24927,7 @@
         <v>2008</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>315</v>
       </c>
       <c r="E28" s="18">
@@ -24548,7 +24995,7 @@
         <v>2484</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>476</v>
       </c>
       <c r="E29" s="18">
@@ -24597,7 +25044,7 @@
         <v>2352</v>
       </c>
       <c r="W29">
-        <f t="shared" ref="W29" si="11">V29-V28</f>
+        <f t="shared" ref="W29" si="13">V29-V28</f>
         <v>563</v>
       </c>
       <c r="X29" s="17">
@@ -24616,7 +25063,7 @@
         <v>2953</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>469</v>
       </c>
       <c r="E30" s="18">
@@ -24665,7 +25112,7 @@
         <v>2921</v>
       </c>
       <c r="W30">
-        <f t="shared" ref="W30" si="12">V30-V29</f>
+        <f t="shared" ref="W30" si="14">V30-V29</f>
         <v>569</v>
       </c>
       <c r="X30" s="17">
@@ -24684,7 +25131,7 @@
         <v>3756</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>803</v>
       </c>
       <c r="E31" s="18">
@@ -24726,8 +25173,20 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="U31" s="11"/>
-      <c r="V31"/>
+      <c r="U31">
+        <v>38168</v>
+      </c>
+      <c r="V31">
+        <v>3605</v>
+      </c>
+      <c r="W31">
+        <f t="shared" ref="W31" si="15">V31-V30</f>
+        <v>684</v>
+      </c>
+      <c r="X31" s="17">
+        <f>W31/66000000</f>
+        <v>1.0363636363636364E-5</v>
+      </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -24740,11 +25199,11 @@
         <v>4713</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" ref="D32" si="13">C32-C31</f>
+        <f t="shared" ref="D32" si="16">C32-C31</f>
         <v>957</v>
       </c>
       <c r="E32" s="18">
-        <f t="shared" ref="E32" si="14">D32/320000000</f>
+        <f t="shared" ref="E32" si="17">D32/320000000</f>
         <v>2.9906249999999998E-6</v>
       </c>
       <c r="J32" s="11">
@@ -24768,11 +25227,11 @@
         <v>9131</v>
       </c>
       <c r="P32">
-        <f t="shared" ref="P32" si="15">O32-O31</f>
+        <f t="shared" ref="P32" si="18">O32-O31</f>
         <v>667</v>
       </c>
       <c r="Q32" s="15">
-        <f t="shared" ref="Q32" si="16">P32/46000000</f>
+        <f t="shared" ref="Q32" si="19">P32/46000000</f>
         <v>1.45E-5</v>
       </c>
       <c r="S32" s="6">
@@ -24796,11 +25255,11 @@
         <v>5807</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" ref="D33" si="17">C33-C32</f>
+        <f t="shared" ref="D33" si="20">C33-C32</f>
         <v>1094</v>
       </c>
       <c r="E33" s="18">
-        <f t="shared" ref="E33" si="18">D33/320000000</f>
+        <f t="shared" ref="E33" si="21">D33/320000000</f>
         <v>3.4187500000000001E-6</v>
       </c>
       <c r="J33" s="11">
@@ -24818,18 +25277,18 @@
         <v>1.1383333333333333E-5</v>
       </c>
       <c r="N33">
-        <v>110409</v>
+        <v>119199</v>
       </c>
       <c r="O33">
-        <v>10106</v>
+        <v>11198</v>
       </c>
       <c r="P33">
-        <f t="shared" ref="P33" si="19">O33-O32</f>
-        <v>975</v>
+        <f t="shared" ref="P33" si="22">O33-O32</f>
+        <v>2067</v>
       </c>
       <c r="Q33" s="15">
-        <f t="shared" ref="Q33" si="20">P33/46000000</f>
-        <v>2.1195652173913045E-5</v>
+        <f t="shared" ref="Q33" si="23">P33/46000000</f>
+        <v>4.493478260869565E-5</v>
       </c>
       <c r="S33" s="6">
         <v>111</v>
@@ -24845,6 +25304,20 @@
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34">
+        <v>276965</v>
+      </c>
+      <c r="C34">
+        <v>7391</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" ref="D34" si="24">C34-C33</f>
+        <v>1584</v>
+      </c>
+      <c r="E34" s="18">
+        <f t="shared" ref="E34" si="25">D34/320000000</f>
+        <v>4.95E-6</v>
+      </c>
       <c r="J34" s="11">
         <v>80589</v>
       </c>
@@ -25017,11 +25490,11 @@
         <v>13155</v>
       </c>
       <c r="L40">
-        <f t="shared" ref="L40" si="21">K40-K39</f>
+        <f t="shared" ref="L40" si="26">K40-K39</f>
         <v>727</v>
       </c>
       <c r="M40" s="14">
-        <f t="shared" ref="M40" si="22">L40/60000000</f>
+        <f t="shared" ref="M40" si="27">L40/60000000</f>
         <v>1.2116666666666667E-5</v>
       </c>
       <c r="S40" s="6">
@@ -25042,11 +25515,11 @@
         <v>13915</v>
       </c>
       <c r="L41">
-        <f t="shared" ref="L41" si="23">K41-K40</f>
+        <f t="shared" ref="L41" si="28">K41-K40</f>
         <v>760</v>
       </c>
       <c r="M41" s="14">
-        <f t="shared" ref="M41" si="24">L41/60000000</f>
+        <f t="shared" ref="M41" si="29">L41/60000000</f>
         <v>1.2666666666666667E-5</v>
       </c>
     </row>
@@ -25058,10 +25531,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A175D7D-09F8-434E-8823-11AEBD540A93}">
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AH29" sqref="AH29"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25341,7 +25814,7 @@
         <v>209</v>
       </c>
       <c r="AA3" s="4">
-        <f t="shared" ref="AA3:AA40" si="6">LOG(Z3,10)</f>
+        <f t="shared" ref="AA3:AA45" si="6">LOG(Z3,10)</f>
         <v>2.3201462861110538</v>
       </c>
       <c r="AB3" s="4">
@@ -27352,6 +27825,21 @@
         <f t="shared" si="20"/>
         <v>9339</v>
       </c>
+      <c r="F22">
+        <v>9056</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" ref="G22" si="30">LOG(F22,10)</f>
+        <v>3.956936413844196</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" ref="H22" si="31">LOG(F22-F21,10)</f>
+        <v>3.0591846176313711</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" ref="I22" si="32">F22-F21</f>
+        <v>1146</v>
+      </c>
       <c r="J22" s="7">
         <v>28603</v>
       </c>
@@ -27935,7 +28423,7 @@
         <v>5.1536929400085496</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" ref="D29" si="30">LOG(B29-B28,10)</f>
+        <f t="shared" ref="D29" si="33">LOG(B29-B28,10)</f>
         <v>4.3410584348959613</v>
       </c>
       <c r="E29" s="6">
@@ -27976,15 +28464,15 @@
         <v>29474</v>
       </c>
       <c r="W29" s="4">
-        <f t="shared" ref="W29" si="31">LOG(V29,10)</f>
+        <f t="shared" ref="W29" si="34">LOG(V29,10)</f>
         <v>4.4694390791836067</v>
       </c>
       <c r="X29" s="4">
-        <f t="shared" ref="X29" si="32">LOG(V29-V28,10)</f>
+        <f t="shared" ref="X29" si="35">LOG(V29-V28,10)</f>
         <v>3.6358856852812722</v>
       </c>
       <c r="Y29" s="6">
-        <f t="shared" ref="Y29" si="33">V29-V28</f>
+        <f t="shared" ref="Y29" si="36">V29-V28</f>
         <v>4324</v>
       </c>
       <c r="Z29" s="11">
@@ -28015,15 +28503,15 @@
         <v>5.2050527134653057</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" ref="D30:D31" si="34">LOG(B30-B29,10)</f>
+        <f t="shared" ref="D30:D31" si="37">LOG(B30-B29,10)</f>
         <v>4.2524646611959938</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" ref="E30:E31" si="35">B30-B29</f>
+        <f t="shared" ref="E30:E31" si="38">B30-B29</f>
         <v>17884</v>
       </c>
       <c r="J30" s="7">
-        <f>Plan1!B102</f>
+        <f>Plan1!B104</f>
         <v>87956</v>
       </c>
       <c r="K30" s="4">
@@ -28031,7 +28519,7 @@
         <v>4.9442654706043037</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" ref="L30" si="36">LOG(J30-J29,10)</f>
+        <f t="shared" ref="L30" si="39">LOG(J30-J29,10)</f>
         <v>3.8946483037935162</v>
       </c>
       <c r="M30" s="6">
@@ -28057,15 +28545,15 @@
         <v>33718</v>
       </c>
       <c r="W30" s="4">
-        <f t="shared" ref="W30" si="37">LOG(V30,10)</f>
+        <f t="shared" ref="W30" si="40">LOG(V30,10)</f>
         <v>4.5278618063227016</v>
       </c>
       <c r="X30" s="4">
-        <f t="shared" ref="X30" si="38">LOG(V30-V29,10)</f>
+        <f t="shared" ref="X30" si="41">LOG(V30-V29,10)</f>
         <v>3.6277753752293025</v>
       </c>
       <c r="Y30" s="6">
-        <f t="shared" ref="Y30" si="39">V30-V29</f>
+        <f t="shared" ref="Y30" si="42">V30-V29</f>
         <v>4244</v>
       </c>
       <c r="Z30" s="11">
@@ -28096,11 +28584,11 @@
         <v>5.2659657687217525</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>4.3827912343816475</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>24143</v>
       </c>
       <c r="J31">
@@ -28111,7 +28599,7 @@
         <v>4.9819227529001289</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" ref="L31" si="40">LOG(J31-J30,10)</f>
+        <f t="shared" ref="L31" si="43">LOG(J31-J30,10)</f>
         <v>3.9012948171655668</v>
       </c>
       <c r="M31" s="6">
@@ -28133,6 +28621,21 @@
         <f t="shared" si="13"/>
         <v>4789</v>
       </c>
+      <c r="V31">
+        <v>38168</v>
+      </c>
+      <c r="W31" s="4">
+        <f t="shared" ref="W31" si="44">LOG(V31,10)</f>
+        <v>4.5816994035508687</v>
+      </c>
+      <c r="X31" s="4">
+        <f t="shared" ref="X31" si="45">LOG(V31-V30,10)</f>
+        <v>3.6483600109809311</v>
+      </c>
+      <c r="Y31" s="6">
+        <f t="shared" ref="Y31" si="46">V31-V30</f>
+        <v>4450</v>
+      </c>
       <c r="Z31" s="11">
         <v>8652</v>
       </c>
@@ -28157,26 +28660,26 @@
         <v>211143</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" ref="C32" si="41">LOG(B32,10)</f>
+        <f t="shared" ref="C32" si="47">LOG(B32,10)</f>
         <v>5.3245766878837477</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" ref="D32" si="42">LOG(B32-B31,10)</f>
+        <f t="shared" ref="D32" si="48">LOG(B32-B31,10)</f>
         <v>4.4257949797266933</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" ref="E32" si="43">B32-B31</f>
+        <f t="shared" ref="E32" si="49">B32-B31</f>
         <v>26656</v>
       </c>
       <c r="J32">
         <v>102179</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" ref="K32" si="44">LOG(J32,10)</f>
+        <f t="shared" ref="K32" si="50">LOG(J32,10)</f>
         <v>5.0093616480369176</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" ref="L32" si="45">LOG(J32-J31,10)</f>
+        <f t="shared" ref="L32" si="51">LOG(J32-J31,10)</f>
         <v>3.7962967400517909</v>
       </c>
       <c r="M32" s="6">
@@ -28222,26 +28725,26 @@
         <v>240375</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" ref="C33" si="46">LOG(B33,10)</f>
+        <f t="shared" ref="C33" si="52">LOG(B33,10)</f>
         <v>5.3808892972465356</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" ref="D33" si="47">LOG(B33-B32,10)</f>
+        <f t="shared" ref="D33" si="53">LOG(B33-B32,10)</f>
         <v>4.4658585300084619</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" ref="E33" si="48">B33-B32</f>
+        <f t="shared" ref="E33" si="54">B33-B32</f>
         <v>29232</v>
       </c>
       <c r="J33">
         <v>110409</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" ref="K33" si="49">LOG(J33,10)</f>
+        <f t="shared" ref="K33:K34" si="55">LOG(J33,10)</f>
         <v>5.0430044763916015</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" ref="L33" si="50">LOG(J33-J32,10)</f>
+        <f t="shared" ref="L33" si="56">LOG(J33-J32,10)</f>
         <v>3.915399835212269</v>
       </c>
       <c r="M33" s="6">
@@ -28280,6 +28783,39 @@
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>276965</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" ref="C34" si="57">LOG(B34,10)</f>
+        <v>5.4424248908433084</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" ref="D34" si="58">LOG(B34-B33,10)</f>
+        <v>4.563362409486607</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" ref="E34" si="59">B34-B33</f>
+        <v>36590</v>
+      </c>
+      <c r="J34">
+        <v>119199</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" ref="K34" si="60">LOG(J34,10)</f>
+        <v>5.076272611978851</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" ref="L34" si="61">LOG(J34-J33,10)</f>
+        <v>3.9439888750737717</v>
+      </c>
+      <c r="M34" s="6">
+        <f>J34-J33</f>
+        <v>8790</v>
+      </c>
       <c r="N34" s="7">
         <v>80589</v>
       </c>
@@ -28417,11 +28953,11 @@
         <v>5.0074874646043952</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" ref="P38" si="51">LOG(N38-N37,10)</f>
+        <f t="shared" ref="P38" si="62">LOG(N38-N37,10)</f>
         <v>3.6074550232146683</v>
       </c>
       <c r="Q38" s="6">
-        <f t="shared" ref="Q38" si="52">N38-N37</f>
+        <f t="shared" ref="Q38" si="63">N38-N37</f>
         <v>4050</v>
       </c>
       <c r="Z38" s="11">
@@ -28449,11 +28985,11 @@
         <v>5.0244528275553346</v>
       </c>
       <c r="P39" s="4">
-        <f t="shared" ref="P39" si="53">LOG(N39-N38,10)</f>
+        <f t="shared" ref="P39" si="64">LOG(N39-N38,10)</f>
         <v>3.6077766037416925</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" ref="Q39" si="54">N39-N38</f>
+        <f t="shared" ref="Q39" si="65">N39-N38</f>
         <v>4053</v>
       </c>
       <c r="Z39" s="11">
@@ -28477,15 +29013,15 @@
         <v>110574</v>
       </c>
       <c r="O40" s="4">
-        <f t="shared" ref="O40" si="55">LOG(N40,10)</f>
+        <f t="shared" ref="O40" si="66">LOG(N40,10)</f>
         <v>5.0436530204228687</v>
       </c>
       <c r="P40" s="4">
-        <f t="shared" ref="P40" si="56">LOG(N40-N39,10)</f>
+        <f t="shared" ref="P40" si="67">LOG(N40-N39,10)</f>
         <v>3.6796095717797557</v>
       </c>
       <c r="Q40" s="6">
-        <f t="shared" ref="Q40" si="57">N40-N39</f>
+        <f t="shared" ref="Q40" si="68">N40-N39</f>
         <v>4782</v>
       </c>
       <c r="Z40" s="11">
@@ -28509,16 +29045,114 @@
         <v>115242</v>
       </c>
       <c r="O41" s="4">
-        <f t="shared" ref="O41" si="58">LOG(N41,10)</f>
+        <f t="shared" ref="O41:O42" si="69">LOG(N41,10)</f>
         <v>5.061610786760637</v>
       </c>
       <c r="P41" s="4">
-        <f t="shared" ref="P41" si="59">LOG(N41-N40,10)</f>
+        <f t="shared" ref="P41" si="70">LOG(N41-N40,10)</f>
         <v>3.6691308473733324</v>
       </c>
       <c r="Q41" s="6">
-        <f t="shared" ref="Q41" si="60">N41-N40</f>
+        <f t="shared" ref="Q41" si="71">N41-N40</f>
         <v>4668</v>
+      </c>
+      <c r="Z41" s="11">
+        <v>9661</v>
+      </c>
+      <c r="AA41" s="4">
+        <f t="shared" si="6"/>
+        <v>3.9850220821095346</v>
+      </c>
+      <c r="AB41" s="4">
+        <f t="shared" ref="AB41:AB45" si="72">LOG(Z41-Z40,10)</f>
+        <v>1.8920946026904801</v>
+      </c>
+      <c r="AC41" s="6">
+        <f t="shared" ref="AC41:AC45" si="73">Z41-Z40</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N42" s="7">
+        <v>119827</v>
+      </c>
+      <c r="O42" s="4">
+        <f t="shared" ref="O42" si="74">LOG(N42,10)</f>
+        <v>5.078554686415881</v>
+      </c>
+      <c r="P42" s="4">
+        <f t="shared" ref="P42" si="75">LOG(N42-N41,10)</f>
+        <v>3.6613393400060401</v>
+      </c>
+      <c r="Q42" s="6">
+        <f t="shared" ref="Q42" si="76">N42-N41</f>
+        <v>4585</v>
+      </c>
+      <c r="Z42" s="11">
+        <v>9786</v>
+      </c>
+      <c r="AA42" s="4">
+        <f t="shared" si="6"/>
+        <v>3.9906052114239192</v>
+      </c>
+      <c r="AB42" s="4">
+        <f t="shared" si="72"/>
+        <v>2.0969100130080562</v>
+      </c>
+      <c r="AC42" s="6">
+        <f t="shared" si="73"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z43" s="11">
+        <v>9887</v>
+      </c>
+      <c r="AA43" s="4">
+        <f t="shared" si="6"/>
+        <v>3.9950645341561413</v>
+      </c>
+      <c r="AB43" s="4">
+        <f t="shared" si="72"/>
+        <v>2.0043213737826426</v>
+      </c>
+      <c r="AC43" s="6">
+        <f t="shared" si="73"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z44" s="11">
+        <v>9976</v>
+      </c>
+      <c r="AA44" s="4">
+        <f t="shared" si="6"/>
+        <v>3.998956440470486</v>
+      </c>
+      <c r="AB44" s="4">
+        <f t="shared" si="72"/>
+        <v>1.9493900066449126</v>
+      </c>
+      <c r="AC44" s="6">
+        <f t="shared" si="73"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z45" s="11">
+        <v>10062</v>
+      </c>
+      <c r="AA45" s="4">
+        <f t="shared" si="6"/>
+        <v>4.0026843129897287</v>
+      </c>
+      <c r="AB45" s="4">
+        <f t="shared" si="72"/>
+        <v>1.9344984512435675</v>
+      </c>
+      <c r="AC45" s="6">
+        <f t="shared" si="73"/>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
